--- a/data/dataForExp.xlsx
+++ b/data/dataForExp.xlsx
@@ -5,19 +5,19 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\高艺嘉\Desktop\数据整理\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Mirror系统开发\Mirror\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01DCD663-F2D7-4A20-A05E-A7BE1D138A92}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F25A53B3-0390-41AA-BDB1-7689C5FD28EE}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="2" xr2:uid="{7869B96A-7811-4EF3-9176-2B0373B8E4EA}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="18220" windowHeight="11620" xr2:uid="{7869B96A-7811-4EF3-9176-2B0373B8E4EA}"/>
   </bookViews>
   <sheets>
-    <sheet name="股票想买的概率" sheetId="1" r:id="rId1"/>
+    <sheet name="purchaseProb" sheetId="1" r:id="rId1"/>
     <sheet name="月交易天数" sheetId="3" r:id="rId2"/>
     <sheet name="交易天数简化" sheetId="6" r:id="rId3"/>
     <sheet name="年交易天数" sheetId="4" r:id="rId4"/>
-    <sheet name="初始价格" sheetId="5" r:id="rId5"/>
+    <sheet name="initPrice" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -594,7 +594,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{836745D0-34E3-404A-9EBC-0776E433DEA0}">
   <dimension ref="A1:U51"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
@@ -41572,6 +41572,14 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="A218:A229"/>
+    <mergeCell ref="A230:A241"/>
+    <mergeCell ref="A146:A157"/>
+    <mergeCell ref="A158:A169"/>
+    <mergeCell ref="A170:A181"/>
+    <mergeCell ref="A182:A193"/>
+    <mergeCell ref="A194:A205"/>
+    <mergeCell ref="A206:A217"/>
     <mergeCell ref="A134:A145"/>
     <mergeCell ref="A2:A13"/>
     <mergeCell ref="A14:A25"/>
@@ -41584,14 +41592,6 @@
     <mergeCell ref="A98:A109"/>
     <mergeCell ref="A110:A121"/>
     <mergeCell ref="A122:A133"/>
-    <mergeCell ref="A218:A229"/>
-    <mergeCell ref="A230:A241"/>
-    <mergeCell ref="A146:A157"/>
-    <mergeCell ref="A158:A169"/>
-    <mergeCell ref="A170:A181"/>
-    <mergeCell ref="A182:A193"/>
-    <mergeCell ref="A194:A205"/>
-    <mergeCell ref="A206:A217"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -41602,7 +41602,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B664C803-E746-4DB3-94A9-E30906ED239A}">
   <dimension ref="A1:D13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
@@ -45173,7 +45173,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3EC8F56F-130F-4BFD-90B2-BCDD3631405C}">
   <dimension ref="A1:B51"/>
   <sheetViews>
-    <sheetView topLeftCell="A37" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C52" sqref="C52"/>
     </sheetView>
   </sheetViews>

--- a/data/dataForExp.xlsx
+++ b/data/dataForExp.xlsx
@@ -8,16 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Mirror系统开发\Mirror\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F25A53B3-0390-41AA-BDB1-7689C5FD28EE}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2153B85E-5CE8-4115-B614-543F59A0191A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="18220" windowHeight="11620" xr2:uid="{7869B96A-7811-4EF3-9176-2B0373B8E4EA}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="18220" windowHeight="11620" activeTab="3" xr2:uid="{7869B96A-7811-4EF3-9176-2B0373B8E4EA}"/>
   </bookViews>
   <sheets>
     <sheet name="purchaseProb" sheetId="1" r:id="rId1"/>
-    <sheet name="月交易天数" sheetId="3" r:id="rId2"/>
-    <sheet name="交易天数简化" sheetId="6" r:id="rId3"/>
-    <sheet name="年交易天数" sheetId="4" r:id="rId4"/>
-    <sheet name="initPrice" sheetId="5" r:id="rId5"/>
+    <sheet name="交易天数简化" sheetId="6" r:id="rId2"/>
+    <sheet name="initPrice" sheetId="5" r:id="rId3"/>
+    <sheet name="initFund" sheetId="7" r:id="rId4"/>
+    <sheet name="月交易天数" sheetId="3" r:id="rId5"/>
+    <sheet name="年交易天数" sheetId="4" r:id="rId6"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -29,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="59">
   <si>
     <t>股票代码</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -212,13 +213,22 @@
     <t>交易天数</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>初始股数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>初始资金</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="176" formatCode="0.00_ "/>
+    <numFmt numFmtId="177" formatCode="0_ "/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -259,7 +269,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -274,6 +284,18 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -594,7 +616,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{836745D0-34E3-404A-9EBC-0776E433DEA0}">
   <dimension ref="A1:U51"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
@@ -3923,6 +3945,1214 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B664C803-E746-4DB3-94A9-E30906ED239A}">
+  <dimension ref="A1:D13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="4" max="4" width="10.4140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>19</v>
+      </c>
+      <c r="D2">
+        <f>SUM(B2:B13)</f>
+        <v>239</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13">
+        <v>22</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3EC8F56F-130F-4BFD-90B2-BCDD3631405C}">
+  <dimension ref="A1:B51"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D50" sqref="D50"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="8.6640625" style="3"/>
+    <col min="2" max="2" width="8.6640625" style="2"/>
+    <col min="3" max="16384" width="8.6640625" style="3"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" s="3">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2">
+        <v>7.3576250000000005</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" s="3">
+        <v>2</v>
+      </c>
+      <c r="B3" s="2">
+        <v>10.66970833333334</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" s="3">
+        <v>3</v>
+      </c>
+      <c r="B4" s="2">
+        <v>11.12045833333333</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" s="3">
+        <v>4</v>
+      </c>
+      <c r="B5" s="2">
+        <v>17.053749999999997</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" s="3">
+        <v>5</v>
+      </c>
+      <c r="B6" s="2">
+        <v>11.974625000000009</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" s="3">
+        <v>6</v>
+      </c>
+      <c r="B7" s="2">
+        <v>8.41</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8" s="3">
+        <v>7</v>
+      </c>
+      <c r="B8" s="2">
+        <v>7.3848750000000036</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9" s="3">
+        <v>8</v>
+      </c>
+      <c r="B9" s="2">
+        <v>5.8399583333333336</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10" s="3">
+        <v>9</v>
+      </c>
+      <c r="B10" s="2">
+        <v>11.946166666666663</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A11" s="3">
+        <v>10</v>
+      </c>
+      <c r="B11" s="2">
+        <v>7.0045833333333372</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A12" s="3">
+        <v>11</v>
+      </c>
+      <c r="B12" s="2">
+        <v>8.4171250000000022</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A13" s="3">
+        <v>12</v>
+      </c>
+      <c r="B13" s="2">
+        <v>5.6838750000000049</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A14" s="3">
+        <v>13</v>
+      </c>
+      <c r="B14" s="2">
+        <v>8.0400000000000045</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A15" s="3">
+        <v>14</v>
+      </c>
+      <c r="B15" s="2">
+        <v>10.706874999999993</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A16" s="3">
+        <v>15</v>
+      </c>
+      <c r="B16" s="2">
+        <v>12.684250000000009</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A17" s="3">
+        <v>16</v>
+      </c>
+      <c r="B17" s="2">
+        <v>10.21216666666667</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A18" s="3">
+        <v>17</v>
+      </c>
+      <c r="B18" s="2">
+        <v>7.3879999999999928</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A19" s="3">
+        <v>18</v>
+      </c>
+      <c r="B19" s="2">
+        <v>5.8928333333333338</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A20" s="3">
+        <v>19</v>
+      </c>
+      <c r="B20" s="2">
+        <v>5.8255000000000043</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A21" s="3">
+        <v>20</v>
+      </c>
+      <c r="B21" s="2">
+        <v>18.261791666666667</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A22" s="3">
+        <v>21</v>
+      </c>
+      <c r="B22" s="2">
+        <v>7.6391250000000026</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A23" s="3">
+        <v>22</v>
+      </c>
+      <c r="B23" s="2">
+        <v>12.205708333333328</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A24" s="3">
+        <v>23</v>
+      </c>
+      <c r="B24" s="2">
+        <v>8.7185833333333385</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A25" s="3">
+        <v>24</v>
+      </c>
+      <c r="B25" s="2">
+        <v>5.6072916666666597</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A26" s="3">
+        <v>25</v>
+      </c>
+      <c r="B26" s="2">
+        <v>21.070374999999999</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A27" s="3">
+        <v>26</v>
+      </c>
+      <c r="B27" s="2">
+        <v>9.4740833333333345</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A28" s="3">
+        <v>27</v>
+      </c>
+      <c r="B28" s="2">
+        <v>11.045916666666667</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A29" s="3">
+        <v>28</v>
+      </c>
+      <c r="B29" s="2">
+        <v>11.502583333333337</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A30" s="3">
+        <v>29</v>
+      </c>
+      <c r="B30" s="2">
+        <v>15.606166666666667</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A31" s="3">
+        <v>30</v>
+      </c>
+      <c r="B31" s="2">
+        <v>8.4423749999999949</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A32" s="3">
+        <v>31</v>
+      </c>
+      <c r="B32" s="2">
+        <v>8.6074583333333354</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A33" s="3">
+        <v>32</v>
+      </c>
+      <c r="B33" s="2">
+        <v>8.3537499999999962</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A34" s="3">
+        <v>33</v>
+      </c>
+      <c r="B34" s="2">
+        <v>5.6758333333333351</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A35" s="3">
+        <v>34</v>
+      </c>
+      <c r="B35" s="2">
+        <v>12.657374999999986</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A36" s="3">
+        <v>35</v>
+      </c>
+      <c r="B36" s="2">
+        <v>9.0177500000000013</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A37" s="3">
+        <v>36</v>
+      </c>
+      <c r="B37" s="2">
+        <v>9.1854166666666632</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A38" s="3">
+        <v>37</v>
+      </c>
+      <c r="B38" s="2">
+        <v>7.6837083333333336</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A39" s="3">
+        <v>38</v>
+      </c>
+      <c r="B39" s="2">
+        <v>8.6169166666666666</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A40" s="3">
+        <v>39</v>
+      </c>
+      <c r="B40" s="2">
+        <v>18.327249999999996</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A41" s="3">
+        <v>40</v>
+      </c>
+      <c r="B41" s="2">
+        <v>8.0876666666666726</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A42" s="3">
+        <v>41</v>
+      </c>
+      <c r="B42" s="2">
+        <v>10.591416666666664</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A43" s="3">
+        <v>42</v>
+      </c>
+      <c r="B43" s="2">
+        <v>17.846625000000003</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A44" s="3">
+        <v>43</v>
+      </c>
+      <c r="B44" s="2">
+        <v>5.1420000000000003</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A45" s="3">
+        <v>44</v>
+      </c>
+      <c r="B45" s="2">
+        <v>11.960208333333339</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A46" s="3">
+        <v>45</v>
+      </c>
+      <c r="B46" s="2">
+        <v>8.64404166666667</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A47" s="3">
+        <v>46</v>
+      </c>
+      <c r="B47" s="2">
+        <v>3.7774166666666664</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A48" s="3">
+        <v>47</v>
+      </c>
+      <c r="B48" s="2">
+        <v>7.2567916666666683</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A49" s="3">
+        <v>48</v>
+      </c>
+      <c r="B49" s="2">
+        <v>14.790958333333339</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A50" s="3">
+        <v>49</v>
+      </c>
+      <c r="B50" s="2">
+        <v>8.036624999999999</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A51" s="3">
+        <v>50</v>
+      </c>
+      <c r="B51" s="2">
+        <v>9.8430833333333236</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8CFC439-7716-4A0D-B0C0-2CC839CF378F}">
+  <dimension ref="A1:L51"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A29" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2:C51"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="8.6640625" style="5"/>
+    <col min="2" max="2" width="8.6640625" style="6"/>
+    <col min="3" max="3" width="8.6640625" style="5"/>
+    <col min="4" max="4" width="15.83203125" style="5" customWidth="1"/>
+    <col min="5" max="5" width="11.25" style="6" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.33203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="7" max="16384" width="8.6640625" style="5"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A2" s="5">
+        <v>1</v>
+      </c>
+      <c r="B2" s="6">
+        <v>408237.65</v>
+      </c>
+      <c r="C2" s="7">
+        <v>2024470</v>
+      </c>
+      <c r="D2" s="7"/>
+      <c r="E2" s="8"/>
+      <c r="F2" s="8"/>
+      <c r="G2" s="8"/>
+      <c r="H2" s="8"/>
+      <c r="I2" s="8"/>
+      <c r="J2" s="8"/>
+      <c r="K2" s="8"/>
+      <c r="L2" s="8"/>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A3" s="5">
+        <v>2</v>
+      </c>
+      <c r="B3" s="6">
+        <v>1833259.1600000001</v>
+      </c>
+      <c r="C3" s="7">
+        <v>2024470</v>
+      </c>
+      <c r="D3" s="2"/>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A4" s="5">
+        <v>3</v>
+      </c>
+      <c r="B4" s="6">
+        <v>607499.99</v>
+      </c>
+      <c r="C4" s="7">
+        <v>2024470</v>
+      </c>
+      <c r="D4" s="2"/>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A5" s="5">
+        <v>4</v>
+      </c>
+      <c r="B5" s="6">
+        <v>462221.75</v>
+      </c>
+      <c r="C5" s="7">
+        <v>2024470</v>
+      </c>
+      <c r="D5" s="2"/>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A6" s="5">
+        <v>5</v>
+      </c>
+      <c r="B6" s="6">
+        <v>300000</v>
+      </c>
+      <c r="C6" s="7">
+        <v>2024470</v>
+      </c>
+      <c r="D6" s="2"/>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A7" s="5">
+        <v>6</v>
+      </c>
+      <c r="B7" s="6">
+        <v>495000</v>
+      </c>
+      <c r="C7" s="7">
+        <v>2024470</v>
+      </c>
+      <c r="D7" s="2"/>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A8" s="5">
+        <v>7</v>
+      </c>
+      <c r="B8" s="6">
+        <v>1955580.2</v>
+      </c>
+      <c r="C8" s="7">
+        <v>2024470</v>
+      </c>
+      <c r="D8" s="2"/>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A9" s="5">
+        <v>8</v>
+      </c>
+      <c r="B9" s="6">
+        <v>1123153.6500000001</v>
+      </c>
+      <c r="C9" s="7">
+        <v>2024470</v>
+      </c>
+      <c r="D9" s="2"/>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A10" s="5">
+        <v>9</v>
+      </c>
+      <c r="B10" s="6">
+        <v>1087304.3800000001</v>
+      </c>
+      <c r="C10" s="7">
+        <v>2024470</v>
+      </c>
+      <c r="D10" s="2"/>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A11" s="5">
+        <v>10</v>
+      </c>
+      <c r="B11" s="6">
+        <v>1238333.27</v>
+      </c>
+      <c r="C11" s="7">
+        <v>2024470</v>
+      </c>
+      <c r="D11" s="2"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A12" s="5">
+        <v>11</v>
+      </c>
+      <c r="B12" s="6">
+        <v>760500</v>
+      </c>
+      <c r="C12" s="7">
+        <v>2024470</v>
+      </c>
+      <c r="D12" s="2"/>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A13" s="5">
+        <v>12</v>
+      </c>
+      <c r="B13" s="6">
+        <v>635880</v>
+      </c>
+      <c r="C13" s="7">
+        <v>2024470</v>
+      </c>
+      <c r="D13" s="2"/>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A14" s="5">
+        <v>13</v>
+      </c>
+      <c r="B14" s="6">
+        <v>1813200</v>
+      </c>
+      <c r="C14" s="7">
+        <v>2024470</v>
+      </c>
+      <c r="D14" s="2"/>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A15" s="5">
+        <v>14</v>
+      </c>
+      <c r="B15" s="6">
+        <v>1440000</v>
+      </c>
+      <c r="C15" s="7">
+        <v>2024470</v>
+      </c>
+      <c r="D15" s="2"/>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A16" s="5">
+        <v>15</v>
+      </c>
+      <c r="B16" s="6">
+        <v>1536000</v>
+      </c>
+      <c r="C16" s="7">
+        <v>2024470</v>
+      </c>
+      <c r="D16" s="2"/>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A17" s="5">
+        <v>16</v>
+      </c>
+      <c r="B17" s="6">
+        <v>5460000</v>
+      </c>
+      <c r="C17" s="7">
+        <v>2024470</v>
+      </c>
+      <c r="D17" s="2"/>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A18" s="5">
+        <v>17</v>
+      </c>
+      <c r="B18" s="6">
+        <v>1200000</v>
+      </c>
+      <c r="C18" s="7">
+        <v>2024470</v>
+      </c>
+      <c r="D18" s="2"/>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A19" s="5">
+        <v>18</v>
+      </c>
+      <c r="B19" s="6">
+        <v>600000</v>
+      </c>
+      <c r="C19" s="7">
+        <v>2024470</v>
+      </c>
+      <c r="D19" s="2"/>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A20" s="5">
+        <v>19</v>
+      </c>
+      <c r="B20" s="6">
+        <v>700000</v>
+      </c>
+      <c r="C20" s="7">
+        <v>2024470</v>
+      </c>
+      <c r="D20" s="2"/>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A21" s="5">
+        <v>20</v>
+      </c>
+      <c r="B21" s="6">
+        <v>846000</v>
+      </c>
+      <c r="C21" s="7">
+        <v>2024470</v>
+      </c>
+      <c r="D21" s="2"/>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A22" s="5">
+        <v>21</v>
+      </c>
+      <c r="B22" s="6">
+        <v>2660000</v>
+      </c>
+      <c r="C22" s="7">
+        <v>2024470</v>
+      </c>
+      <c r="D22" s="2"/>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A23" s="5">
+        <v>22</v>
+      </c>
+      <c r="B23" s="6">
+        <v>335000</v>
+      </c>
+      <c r="C23" s="7">
+        <v>2024470</v>
+      </c>
+      <c r="D23" s="2"/>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A24" s="5">
+        <v>23</v>
+      </c>
+      <c r="B24" s="6">
+        <v>1800000</v>
+      </c>
+      <c r="C24" s="7">
+        <v>2024470</v>
+      </c>
+      <c r="D24" s="2"/>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A25" s="5">
+        <v>24</v>
+      </c>
+      <c r="B25" s="6">
+        <v>1638000</v>
+      </c>
+      <c r="C25" s="7">
+        <v>2024470</v>
+      </c>
+      <c r="D25" s="2"/>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A26" s="5">
+        <v>25</v>
+      </c>
+      <c r="B26" s="6">
+        <v>450000</v>
+      </c>
+      <c r="C26" s="7">
+        <v>2024470</v>
+      </c>
+      <c r="D26" s="2"/>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A27" s="5">
+        <v>26</v>
+      </c>
+      <c r="B27" s="6">
+        <v>500000</v>
+      </c>
+      <c r="C27" s="7">
+        <v>2024470</v>
+      </c>
+      <c r="D27" s="2"/>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A28" s="5">
+        <v>27</v>
+      </c>
+      <c r="B28" s="6">
+        <v>350000</v>
+      </c>
+      <c r="C28" s="7">
+        <v>2024470</v>
+      </c>
+      <c r="D28" s="2"/>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A29" s="5">
+        <v>28</v>
+      </c>
+      <c r="B29" s="6">
+        <v>700000</v>
+      </c>
+      <c r="C29" s="7">
+        <v>2024470</v>
+      </c>
+      <c r="D29" s="2"/>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A30" s="5">
+        <v>29</v>
+      </c>
+      <c r="B30" s="6">
+        <v>900000</v>
+      </c>
+      <c r="C30" s="7">
+        <v>2024470</v>
+      </c>
+      <c r="D30" s="2"/>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A31" s="5">
+        <v>30</v>
+      </c>
+      <c r="B31" s="6">
+        <v>650000</v>
+      </c>
+      <c r="C31" s="7">
+        <v>2024470</v>
+      </c>
+      <c r="D31" s="2"/>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A32" s="5">
+        <v>31</v>
+      </c>
+      <c r="B32" s="6">
+        <v>1200000</v>
+      </c>
+      <c r="C32" s="7">
+        <v>2024470</v>
+      </c>
+      <c r="D32" s="2"/>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A33" s="5">
+        <v>32</v>
+      </c>
+      <c r="B33" s="6">
+        <v>1500000</v>
+      </c>
+      <c r="C33" s="7">
+        <v>2024470</v>
+      </c>
+      <c r="D33" s="2"/>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A34" s="5">
+        <v>33</v>
+      </c>
+      <c r="B34" s="6">
+        <v>600000</v>
+      </c>
+      <c r="C34" s="7">
+        <v>2024470</v>
+      </c>
+      <c r="D34" s="2"/>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A35" s="5">
+        <v>34</v>
+      </c>
+      <c r="B35" s="6">
+        <v>400000</v>
+      </c>
+      <c r="C35" s="7">
+        <v>2024470</v>
+      </c>
+      <c r="D35" s="2"/>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A36" s="5">
+        <v>35</v>
+      </c>
+      <c r="B36" s="6">
+        <v>338000</v>
+      </c>
+      <c r="C36" s="7">
+        <v>2024470</v>
+      </c>
+      <c r="D36" s="2"/>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A37" s="5">
+        <v>36</v>
+      </c>
+      <c r="B37" s="6">
+        <v>936250.68000000017</v>
+      </c>
+      <c r="C37" s="7">
+        <v>2024470</v>
+      </c>
+      <c r="D37" s="2"/>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A38" s="5">
+        <v>37</v>
+      </c>
+      <c r="B38" s="6">
+        <v>1003440</v>
+      </c>
+      <c r="C38" s="7">
+        <v>2024470</v>
+      </c>
+      <c r="D38" s="2"/>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A39" s="5">
+        <v>38</v>
+      </c>
+      <c r="B39" s="6">
+        <v>1613520</v>
+      </c>
+      <c r="C39" s="7">
+        <v>2024470</v>
+      </c>
+      <c r="D39" s="2"/>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A40" s="5">
+        <v>39</v>
+      </c>
+      <c r="B40" s="6">
+        <v>588002</v>
+      </c>
+      <c r="C40" s="7">
+        <v>2024470</v>
+      </c>
+      <c r="D40" s="2"/>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A41" s="5">
+        <v>40</v>
+      </c>
+      <c r="B41" s="6">
+        <v>520884</v>
+      </c>
+      <c r="C41" s="7">
+        <v>2024470</v>
+      </c>
+      <c r="D41" s="2"/>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A42" s="5">
+        <v>41</v>
+      </c>
+      <c r="B42" s="6">
+        <v>1195674.48</v>
+      </c>
+      <c r="C42" s="7">
+        <v>2024470</v>
+      </c>
+      <c r="D42" s="2"/>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A43" s="5">
+        <v>42</v>
+      </c>
+      <c r="B43" s="6">
+        <v>846095.39999999991</v>
+      </c>
+      <c r="C43" s="7">
+        <v>2024470</v>
+      </c>
+      <c r="D43" s="2"/>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A44" s="5">
+        <v>43</v>
+      </c>
+      <c r="B44" s="6">
+        <v>600000</v>
+      </c>
+      <c r="C44" s="7">
+        <v>2024470</v>
+      </c>
+      <c r="D44" s="2"/>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A45" s="5">
+        <v>44</v>
+      </c>
+      <c r="B45" s="6">
+        <v>624000</v>
+      </c>
+      <c r="C45" s="7">
+        <v>2024470</v>
+      </c>
+      <c r="D45" s="2"/>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A46" s="5">
+        <v>45</v>
+      </c>
+      <c r="B46" s="6">
+        <v>700910</v>
+      </c>
+      <c r="C46" s="7">
+        <v>2024470</v>
+      </c>
+      <c r="D46" s="2"/>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A47" s="5">
+        <v>46</v>
+      </c>
+      <c r="B47" s="6">
+        <v>6000000</v>
+      </c>
+      <c r="C47" s="7">
+        <v>2024470</v>
+      </c>
+      <c r="D47" s="2"/>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A48" s="5">
+        <v>47</v>
+      </c>
+      <c r="B48" s="6">
+        <v>428686.65</v>
+      </c>
+      <c r="C48" s="7">
+        <v>2024470</v>
+      </c>
+      <c r="D48" s="2"/>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A49" s="5">
+        <v>48</v>
+      </c>
+      <c r="B49" s="6">
+        <v>1416000</v>
+      </c>
+      <c r="C49" s="7">
+        <v>2024470</v>
+      </c>
+      <c r="D49" s="2"/>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A50" s="5">
+        <v>49</v>
+      </c>
+      <c r="B50" s="6">
+        <v>487305</v>
+      </c>
+      <c r="C50" s="7">
+        <v>2024470</v>
+      </c>
+      <c r="D50" s="2"/>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A51" s="5">
+        <v>50</v>
+      </c>
+      <c r="B51" s="6">
+        <v>180000</v>
+      </c>
+      <c r="C51" s="7">
+        <v>2024470</v>
+      </c>
+      <c r="D51" s="2"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="E2:L2"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{808F6D01-C3B7-422B-B2DB-EDADDCD571D2}">
   <dimension ref="A1:AZ241"/>
   <sheetViews>
@@ -4091,7 +5321,7 @@
       </c>
     </row>
     <row r="2" spans="1:52" x14ac:dyDescent="0.3">
-      <c r="A2" s="5">
+      <c r="A2" s="9">
         <v>2000</v>
       </c>
       <c r="B2" s="3">
@@ -4249,7 +5479,7 @@
       </c>
     </row>
     <row r="3" spans="1:52" x14ac:dyDescent="0.3">
-      <c r="A3" s="5"/>
+      <c r="A3" s="9"/>
       <c r="B3" s="3">
         <v>2</v>
       </c>
@@ -4405,7 +5635,7 @@
       </c>
     </row>
     <row r="4" spans="1:52" x14ac:dyDescent="0.3">
-      <c r="A4" s="5"/>
+      <c r="A4" s="9"/>
       <c r="B4" s="3">
         <v>3</v>
       </c>
@@ -4561,7 +5791,7 @@
       </c>
     </row>
     <row r="5" spans="1:52" x14ac:dyDescent="0.3">
-      <c r="A5" s="5"/>
+      <c r="A5" s="9"/>
       <c r="B5" s="3">
         <v>4</v>
       </c>
@@ -4717,7 +5947,7 @@
       </c>
     </row>
     <row r="6" spans="1:52" x14ac:dyDescent="0.3">
-      <c r="A6" s="5"/>
+      <c r="A6" s="9"/>
       <c r="B6" s="3">
         <v>5</v>
       </c>
@@ -4873,7 +6103,7 @@
       </c>
     </row>
     <row r="7" spans="1:52" x14ac:dyDescent="0.3">
-      <c r="A7" s="5"/>
+      <c r="A7" s="9"/>
       <c r="B7" s="3">
         <v>6</v>
       </c>
@@ -5029,7 +6259,7 @@
       </c>
     </row>
     <row r="8" spans="1:52" x14ac:dyDescent="0.3">
-      <c r="A8" s="5"/>
+      <c r="A8" s="9"/>
       <c r="B8" s="3">
         <v>7</v>
       </c>
@@ -5185,7 +6415,7 @@
       </c>
     </row>
     <row r="9" spans="1:52" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="5"/>
+      <c r="A9" s="9"/>
       <c r="B9" s="3">
         <v>8</v>
       </c>
@@ -5341,7 +6571,7 @@
       </c>
     </row>
     <row r="10" spans="1:52" x14ac:dyDescent="0.3">
-      <c r="A10" s="5"/>
+      <c r="A10" s="9"/>
       <c r="B10" s="3">
         <v>9</v>
       </c>
@@ -5497,7 +6727,7 @@
       </c>
     </row>
     <row r="11" spans="1:52" x14ac:dyDescent="0.3">
-      <c r="A11" s="5"/>
+      <c r="A11" s="9"/>
       <c r="B11" s="3">
         <v>10</v>
       </c>
@@ -5653,7 +6883,7 @@
       </c>
     </row>
     <row r="12" spans="1:52" x14ac:dyDescent="0.3">
-      <c r="A12" s="5"/>
+      <c r="A12" s="9"/>
       <c r="B12" s="3">
         <v>11</v>
       </c>
@@ -5809,7 +7039,7 @@
       </c>
     </row>
     <row r="13" spans="1:52" x14ac:dyDescent="0.3">
-      <c r="A13" s="5"/>
+      <c r="A13" s="9"/>
       <c r="B13" s="3">
         <v>12</v>
       </c>
@@ -5965,7 +7195,7 @@
       </c>
     </row>
     <row r="14" spans="1:52" x14ac:dyDescent="0.3">
-      <c r="A14" s="5">
+      <c r="A14" s="9">
         <v>2001</v>
       </c>
       <c r="B14" s="3">
@@ -6123,7 +7353,7 @@
       </c>
     </row>
     <row r="15" spans="1:52" x14ac:dyDescent="0.3">
-      <c r="A15" s="5"/>
+      <c r="A15" s="9"/>
       <c r="B15" s="3">
         <v>2</v>
       </c>
@@ -6279,7 +7509,7 @@
       </c>
     </row>
     <row r="16" spans="1:52" x14ac:dyDescent="0.3">
-      <c r="A16" s="5"/>
+      <c r="A16" s="9"/>
       <c r="B16" s="3">
         <v>3</v>
       </c>
@@ -6435,7 +7665,7 @@
       </c>
     </row>
     <row r="17" spans="1:52" x14ac:dyDescent="0.3">
-      <c r="A17" s="5"/>
+      <c r="A17" s="9"/>
       <c r="B17" s="3">
         <v>4</v>
       </c>
@@ -6591,7 +7821,7 @@
       </c>
     </row>
     <row r="18" spans="1:52" x14ac:dyDescent="0.3">
-      <c r="A18" s="5"/>
+      <c r="A18" s="9"/>
       <c r="B18" s="3">
         <v>5</v>
       </c>
@@ -6747,7 +7977,7 @@
       </c>
     </row>
     <row r="19" spans="1:52" x14ac:dyDescent="0.3">
-      <c r="A19" s="5"/>
+      <c r="A19" s="9"/>
       <c r="B19" s="3">
         <v>6</v>
       </c>
@@ -6903,7 +8133,7 @@
       </c>
     </row>
     <row r="20" spans="1:52" x14ac:dyDescent="0.3">
-      <c r="A20" s="5"/>
+      <c r="A20" s="9"/>
       <c r="B20" s="3">
         <v>7</v>
       </c>
@@ -7059,7 +8289,7 @@
       </c>
     </row>
     <row r="21" spans="1:52" x14ac:dyDescent="0.3">
-      <c r="A21" s="5"/>
+      <c r="A21" s="9"/>
       <c r="B21" s="3">
         <v>8</v>
       </c>
@@ -7215,7 +8445,7 @@
       </c>
     </row>
     <row r="22" spans="1:52" x14ac:dyDescent="0.3">
-      <c r="A22" s="5"/>
+      <c r="A22" s="9"/>
       <c r="B22" s="3">
         <v>9</v>
       </c>
@@ -7371,7 +8601,7 @@
       </c>
     </row>
     <row r="23" spans="1:52" x14ac:dyDescent="0.3">
-      <c r="A23" s="5"/>
+      <c r="A23" s="9"/>
       <c r="B23" s="3">
         <v>10</v>
       </c>
@@ -7527,7 +8757,7 @@
       </c>
     </row>
     <row r="24" spans="1:52" x14ac:dyDescent="0.3">
-      <c r="A24" s="5"/>
+      <c r="A24" s="9"/>
       <c r="B24" s="3">
         <v>11</v>
       </c>
@@ -7683,7 +8913,7 @@
       </c>
     </row>
     <row r="25" spans="1:52" x14ac:dyDescent="0.3">
-      <c r="A25" s="5"/>
+      <c r="A25" s="9"/>
       <c r="B25" s="3">
         <v>12</v>
       </c>
@@ -7839,7 +9069,7 @@
       </c>
     </row>
     <row r="26" spans="1:52" x14ac:dyDescent="0.3">
-      <c r="A26" s="5">
+      <c r="A26" s="9">
         <v>2002</v>
       </c>
       <c r="B26" s="3">
@@ -7997,7 +9227,7 @@
       </c>
     </row>
     <row r="27" spans="1:52" x14ac:dyDescent="0.3">
-      <c r="A27" s="5"/>
+      <c r="A27" s="9"/>
       <c r="B27" s="3">
         <v>2</v>
       </c>
@@ -8153,7 +9383,7 @@
       </c>
     </row>
     <row r="28" spans="1:52" x14ac:dyDescent="0.3">
-      <c r="A28" s="5"/>
+      <c r="A28" s="9"/>
       <c r="B28" s="3">
         <v>3</v>
       </c>
@@ -8309,7 +9539,7 @@
       </c>
     </row>
     <row r="29" spans="1:52" x14ac:dyDescent="0.3">
-      <c r="A29" s="5"/>
+      <c r="A29" s="9"/>
       <c r="B29" s="3">
         <v>4</v>
       </c>
@@ -8465,7 +9695,7 @@
       </c>
     </row>
     <row r="30" spans="1:52" x14ac:dyDescent="0.3">
-      <c r="A30" s="5"/>
+      <c r="A30" s="9"/>
       <c r="B30" s="3">
         <v>5</v>
       </c>
@@ -8621,7 +9851,7 @@
       </c>
     </row>
     <row r="31" spans="1:52" x14ac:dyDescent="0.3">
-      <c r="A31" s="5"/>
+      <c r="A31" s="9"/>
       <c r="B31" s="3">
         <v>6</v>
       </c>
@@ -8777,7 +10007,7 @@
       </c>
     </row>
     <row r="32" spans="1:52" x14ac:dyDescent="0.3">
-      <c r="A32" s="5"/>
+      <c r="A32" s="9"/>
       <c r="B32" s="3">
         <v>7</v>
       </c>
@@ -8933,7 +10163,7 @@
       </c>
     </row>
     <row r="33" spans="1:52" x14ac:dyDescent="0.3">
-      <c r="A33" s="5"/>
+      <c r="A33" s="9"/>
       <c r="B33" s="3">
         <v>8</v>
       </c>
@@ -9089,7 +10319,7 @@
       </c>
     </row>
     <row r="34" spans="1:52" x14ac:dyDescent="0.3">
-      <c r="A34" s="5"/>
+      <c r="A34" s="9"/>
       <c r="B34" s="3">
         <v>9</v>
       </c>
@@ -9245,7 +10475,7 @@
       </c>
     </row>
     <row r="35" spans="1:52" x14ac:dyDescent="0.3">
-      <c r="A35" s="5"/>
+      <c r="A35" s="9"/>
       <c r="B35" s="3">
         <v>10</v>
       </c>
@@ -9401,7 +10631,7 @@
       </c>
     </row>
     <row r="36" spans="1:52" x14ac:dyDescent="0.3">
-      <c r="A36" s="5"/>
+      <c r="A36" s="9"/>
       <c r="B36" s="3">
         <v>11</v>
       </c>
@@ -9557,7 +10787,7 @@
       </c>
     </row>
     <row r="37" spans="1:52" x14ac:dyDescent="0.3">
-      <c r="A37" s="5"/>
+      <c r="A37" s="9"/>
       <c r="B37" s="3">
         <v>12</v>
       </c>
@@ -9713,7 +10943,7 @@
       </c>
     </row>
     <row r="38" spans="1:52" x14ac:dyDescent="0.3">
-      <c r="A38" s="5">
+      <c r="A38" s="9">
         <v>2003</v>
       </c>
       <c r="B38" s="3">
@@ -9871,7 +11101,7 @@
       </c>
     </row>
     <row r="39" spans="1:52" x14ac:dyDescent="0.3">
-      <c r="A39" s="5"/>
+      <c r="A39" s="9"/>
       <c r="B39" s="3">
         <v>2</v>
       </c>
@@ -10027,7 +11257,7 @@
       </c>
     </row>
     <row r="40" spans="1:52" x14ac:dyDescent="0.3">
-      <c r="A40" s="5"/>
+      <c r="A40" s="9"/>
       <c r="B40" s="3">
         <v>3</v>
       </c>
@@ -10183,7 +11413,7 @@
       </c>
     </row>
     <row r="41" spans="1:52" x14ac:dyDescent="0.3">
-      <c r="A41" s="5"/>
+      <c r="A41" s="9"/>
       <c r="B41" s="3">
         <v>4</v>
       </c>
@@ -10339,7 +11569,7 @@
       </c>
     </row>
     <row r="42" spans="1:52" x14ac:dyDescent="0.3">
-      <c r="A42" s="5"/>
+      <c r="A42" s="9"/>
       <c r="B42" s="3">
         <v>5</v>
       </c>
@@ -10495,7 +11725,7 @@
       </c>
     </row>
     <row r="43" spans="1:52" x14ac:dyDescent="0.3">
-      <c r="A43" s="5"/>
+      <c r="A43" s="9"/>
       <c r="B43" s="3">
         <v>6</v>
       </c>
@@ -10651,7 +11881,7 @@
       </c>
     </row>
     <row r="44" spans="1:52" x14ac:dyDescent="0.3">
-      <c r="A44" s="5"/>
+      <c r="A44" s="9"/>
       <c r="B44" s="3">
         <v>7</v>
       </c>
@@ -10807,7 +12037,7 @@
       </c>
     </row>
     <row r="45" spans="1:52" x14ac:dyDescent="0.3">
-      <c r="A45" s="5"/>
+      <c r="A45" s="9"/>
       <c r="B45" s="3">
         <v>8</v>
       </c>
@@ -10963,7 +12193,7 @@
       </c>
     </row>
     <row r="46" spans="1:52" x14ac:dyDescent="0.3">
-      <c r="A46" s="5"/>
+      <c r="A46" s="9"/>
       <c r="B46" s="3">
         <v>9</v>
       </c>
@@ -11119,7 +12349,7 @@
       </c>
     </row>
     <row r="47" spans="1:52" x14ac:dyDescent="0.3">
-      <c r="A47" s="5"/>
+      <c r="A47" s="9"/>
       <c r="B47" s="3">
         <v>10</v>
       </c>
@@ -11275,7 +12505,7 @@
       </c>
     </row>
     <row r="48" spans="1:52" x14ac:dyDescent="0.3">
-      <c r="A48" s="5"/>
+      <c r="A48" s="9"/>
       <c r="B48" s="3">
         <v>11</v>
       </c>
@@ -11431,7 +12661,7 @@
       </c>
     </row>
     <row r="49" spans="1:52" x14ac:dyDescent="0.3">
-      <c r="A49" s="5"/>
+      <c r="A49" s="9"/>
       <c r="B49" s="3">
         <v>12</v>
       </c>
@@ -11587,7 +12817,7 @@
       </c>
     </row>
     <row r="50" spans="1:52" x14ac:dyDescent="0.3">
-      <c r="A50" s="5">
+      <c r="A50" s="9">
         <v>2004</v>
       </c>
       <c r="B50" s="3">
@@ -11745,7 +12975,7 @@
       </c>
     </row>
     <row r="51" spans="1:52" x14ac:dyDescent="0.3">
-      <c r="A51" s="5"/>
+      <c r="A51" s="9"/>
       <c r="B51" s="3">
         <v>2</v>
       </c>
@@ -11901,7 +13131,7 @@
       </c>
     </row>
     <row r="52" spans="1:52" x14ac:dyDescent="0.3">
-      <c r="A52" s="5"/>
+      <c r="A52" s="9"/>
       <c r="B52" s="3">
         <v>3</v>
       </c>
@@ -12057,7 +13287,7 @@
       </c>
     </row>
     <row r="53" spans="1:52" x14ac:dyDescent="0.3">
-      <c r="A53" s="5"/>
+      <c r="A53" s="9"/>
       <c r="B53" s="3">
         <v>4</v>
       </c>
@@ -12213,7 +13443,7 @@
       </c>
     </row>
     <row r="54" spans="1:52" x14ac:dyDescent="0.3">
-      <c r="A54" s="5"/>
+      <c r="A54" s="9"/>
       <c r="B54" s="3">
         <v>5</v>
       </c>
@@ -12369,7 +13599,7 @@
       </c>
     </row>
     <row r="55" spans="1:52" x14ac:dyDescent="0.3">
-      <c r="A55" s="5"/>
+      <c r="A55" s="9"/>
       <c r="B55" s="3">
         <v>6</v>
       </c>
@@ -12525,7 +13755,7 @@
       </c>
     </row>
     <row r="56" spans="1:52" x14ac:dyDescent="0.3">
-      <c r="A56" s="5"/>
+      <c r="A56" s="9"/>
       <c r="B56" s="3">
         <v>7</v>
       </c>
@@ -12681,7 +13911,7 @@
       </c>
     </row>
     <row r="57" spans="1:52" x14ac:dyDescent="0.3">
-      <c r="A57" s="5"/>
+      <c r="A57" s="9"/>
       <c r="B57" s="3">
         <v>8</v>
       </c>
@@ -12837,7 +14067,7 @@
       </c>
     </row>
     <row r="58" spans="1:52" x14ac:dyDescent="0.3">
-      <c r="A58" s="5"/>
+      <c r="A58" s="9"/>
       <c r="B58" s="3">
         <v>9</v>
       </c>
@@ -12993,7 +14223,7 @@
       </c>
     </row>
     <row r="59" spans="1:52" x14ac:dyDescent="0.3">
-      <c r="A59" s="5"/>
+      <c r="A59" s="9"/>
       <c r="B59" s="3">
         <v>10</v>
       </c>
@@ -13149,7 +14379,7 @@
       </c>
     </row>
     <row r="60" spans="1:52" x14ac:dyDescent="0.3">
-      <c r="A60" s="5"/>
+      <c r="A60" s="9"/>
       <c r="B60" s="3">
         <v>11</v>
       </c>
@@ -13305,7 +14535,7 @@
       </c>
     </row>
     <row r="61" spans="1:52" x14ac:dyDescent="0.3">
-      <c r="A61" s="5"/>
+      <c r="A61" s="9"/>
       <c r="B61" s="3">
         <v>12</v>
       </c>
@@ -13461,7 +14691,7 @@
       </c>
     </row>
     <row r="62" spans="1:52" x14ac:dyDescent="0.3">
-      <c r="A62" s="5">
+      <c r="A62" s="9">
         <v>2005</v>
       </c>
       <c r="B62" s="3">
@@ -13619,7 +14849,7 @@
       </c>
     </row>
     <row r="63" spans="1:52" x14ac:dyDescent="0.3">
-      <c r="A63" s="5"/>
+      <c r="A63" s="9"/>
       <c r="B63" s="3">
         <v>2</v>
       </c>
@@ -13775,7 +15005,7 @@
       </c>
     </row>
     <row r="64" spans="1:52" x14ac:dyDescent="0.3">
-      <c r="A64" s="5"/>
+      <c r="A64" s="9"/>
       <c r="B64" s="3">
         <v>3</v>
       </c>
@@ -13931,7 +15161,7 @@
       </c>
     </row>
     <row r="65" spans="1:52" x14ac:dyDescent="0.3">
-      <c r="A65" s="5"/>
+      <c r="A65" s="9"/>
       <c r="B65" s="3">
         <v>4</v>
       </c>
@@ -14087,7 +15317,7 @@
       </c>
     </row>
     <row r="66" spans="1:52" x14ac:dyDescent="0.3">
-      <c r="A66" s="5"/>
+      <c r="A66" s="9"/>
       <c r="B66" s="3">
         <v>5</v>
       </c>
@@ -14243,7 +15473,7 @@
       </c>
     </row>
     <row r="67" spans="1:52" x14ac:dyDescent="0.3">
-      <c r="A67" s="5"/>
+      <c r="A67" s="9"/>
       <c r="B67" s="3">
         <v>6</v>
       </c>
@@ -14399,7 +15629,7 @@
       </c>
     </row>
     <row r="68" spans="1:52" x14ac:dyDescent="0.3">
-      <c r="A68" s="5"/>
+      <c r="A68" s="9"/>
       <c r="B68" s="3">
         <v>7</v>
       </c>
@@ -14555,7 +15785,7 @@
       </c>
     </row>
     <row r="69" spans="1:52" x14ac:dyDescent="0.3">
-      <c r="A69" s="5"/>
+      <c r="A69" s="9"/>
       <c r="B69" s="3">
         <v>8</v>
       </c>
@@ -14711,7 +15941,7 @@
       </c>
     </row>
     <row r="70" spans="1:52" x14ac:dyDescent="0.3">
-      <c r="A70" s="5"/>
+      <c r="A70" s="9"/>
       <c r="B70" s="3">
         <v>9</v>
       </c>
@@ -14867,7 +16097,7 @@
       </c>
     </row>
     <row r="71" spans="1:52" x14ac:dyDescent="0.3">
-      <c r="A71" s="5"/>
+      <c r="A71" s="9"/>
       <c r="B71" s="3">
         <v>10</v>
       </c>
@@ -15023,7 +16253,7 @@
       </c>
     </row>
     <row r="72" spans="1:52" x14ac:dyDescent="0.3">
-      <c r="A72" s="5"/>
+      <c r="A72" s="9"/>
       <c r="B72" s="3">
         <v>11</v>
       </c>
@@ -15179,7 +16409,7 @@
       </c>
     </row>
     <row r="73" spans="1:52" x14ac:dyDescent="0.3">
-      <c r="A73" s="5"/>
+      <c r="A73" s="9"/>
       <c r="B73" s="3">
         <v>12</v>
       </c>
@@ -15335,7 +16565,7 @@
       </c>
     </row>
     <row r="74" spans="1:52" x14ac:dyDescent="0.3">
-      <c r="A74" s="5">
+      <c r="A74" s="9">
         <v>2006</v>
       </c>
       <c r="B74" s="3">
@@ -15493,7 +16723,7 @@
       </c>
     </row>
     <row r="75" spans="1:52" x14ac:dyDescent="0.3">
-      <c r="A75" s="5"/>
+      <c r="A75" s="9"/>
       <c r="B75" s="3">
         <v>2</v>
       </c>
@@ -15649,7 +16879,7 @@
       </c>
     </row>
     <row r="76" spans="1:52" x14ac:dyDescent="0.3">
-      <c r="A76" s="5"/>
+      <c r="A76" s="9"/>
       <c r="B76" s="3">
         <v>3</v>
       </c>
@@ -15805,7 +17035,7 @@
       </c>
     </row>
     <row r="77" spans="1:52" x14ac:dyDescent="0.3">
-      <c r="A77" s="5"/>
+      <c r="A77" s="9"/>
       <c r="B77" s="3">
         <v>4</v>
       </c>
@@ -15961,7 +17191,7 @@
       </c>
     </row>
     <row r="78" spans="1:52" x14ac:dyDescent="0.3">
-      <c r="A78" s="5"/>
+      <c r="A78" s="9"/>
       <c r="B78" s="3">
         <v>5</v>
       </c>
@@ -16117,7 +17347,7 @@
       </c>
     </row>
     <row r="79" spans="1:52" x14ac:dyDescent="0.3">
-      <c r="A79" s="5"/>
+      <c r="A79" s="9"/>
       <c r="B79" s="3">
         <v>6</v>
       </c>
@@ -16273,7 +17503,7 @@
       </c>
     </row>
     <row r="80" spans="1:52" x14ac:dyDescent="0.3">
-      <c r="A80" s="5"/>
+      <c r="A80" s="9"/>
       <c r="B80" s="3">
         <v>7</v>
       </c>
@@ -16429,7 +17659,7 @@
       </c>
     </row>
     <row r="81" spans="1:52" x14ac:dyDescent="0.3">
-      <c r="A81" s="5"/>
+      <c r="A81" s="9"/>
       <c r="B81" s="3">
         <v>8</v>
       </c>
@@ -16585,7 +17815,7 @@
       </c>
     </row>
     <row r="82" spans="1:52" x14ac:dyDescent="0.3">
-      <c r="A82" s="5"/>
+      <c r="A82" s="9"/>
       <c r="B82" s="3">
         <v>9</v>
       </c>
@@ -16741,7 +17971,7 @@
       </c>
     </row>
     <row r="83" spans="1:52" x14ac:dyDescent="0.3">
-      <c r="A83" s="5"/>
+      <c r="A83" s="9"/>
       <c r="B83" s="3">
         <v>10</v>
       </c>
@@ -16897,7 +18127,7 @@
       </c>
     </row>
     <row r="84" spans="1:52" x14ac:dyDescent="0.3">
-      <c r="A84" s="5"/>
+      <c r="A84" s="9"/>
       <c r="B84" s="3">
         <v>11</v>
       </c>
@@ -17053,7 +18283,7 @@
       </c>
     </row>
     <row r="85" spans="1:52" x14ac:dyDescent="0.3">
-      <c r="A85" s="5"/>
+      <c r="A85" s="9"/>
       <c r="B85" s="3">
         <v>12</v>
       </c>
@@ -17209,7 +18439,7 @@
       </c>
     </row>
     <row r="86" spans="1:52" x14ac:dyDescent="0.3">
-      <c r="A86" s="5">
+      <c r="A86" s="9">
         <v>2007</v>
       </c>
       <c r="B86" s="3">
@@ -17367,7 +18597,7 @@
       </c>
     </row>
     <row r="87" spans="1:52" x14ac:dyDescent="0.3">
-      <c r="A87" s="5"/>
+      <c r="A87" s="9"/>
       <c r="B87" s="3">
         <v>2</v>
       </c>
@@ -17523,7 +18753,7 @@
       </c>
     </row>
     <row r="88" spans="1:52" x14ac:dyDescent="0.3">
-      <c r="A88" s="5"/>
+      <c r="A88" s="9"/>
       <c r="B88" s="3">
         <v>3</v>
       </c>
@@ -17679,7 +18909,7 @@
       </c>
     </row>
     <row r="89" spans="1:52" x14ac:dyDescent="0.3">
-      <c r="A89" s="5"/>
+      <c r="A89" s="9"/>
       <c r="B89" s="3">
         <v>4</v>
       </c>
@@ -17835,7 +19065,7 @@
       </c>
     </row>
     <row r="90" spans="1:52" x14ac:dyDescent="0.3">
-      <c r="A90" s="5"/>
+      <c r="A90" s="9"/>
       <c r="B90" s="3">
         <v>5</v>
       </c>
@@ -17991,7 +19221,7 @@
       </c>
     </row>
     <row r="91" spans="1:52" x14ac:dyDescent="0.3">
-      <c r="A91" s="5"/>
+      <c r="A91" s="9"/>
       <c r="B91" s="3">
         <v>6</v>
       </c>
@@ -18147,7 +19377,7 @@
       </c>
     </row>
     <row r="92" spans="1:52" x14ac:dyDescent="0.3">
-      <c r="A92" s="5"/>
+      <c r="A92" s="9"/>
       <c r="B92" s="3">
         <v>7</v>
       </c>
@@ -18303,7 +19533,7 @@
       </c>
     </row>
     <row r="93" spans="1:52" x14ac:dyDescent="0.3">
-      <c r="A93" s="5"/>
+      <c r="A93" s="9"/>
       <c r="B93" s="3">
         <v>8</v>
       </c>
@@ -18459,7 +19689,7 @@
       </c>
     </row>
     <row r="94" spans="1:52" x14ac:dyDescent="0.3">
-      <c r="A94" s="5"/>
+      <c r="A94" s="9"/>
       <c r="B94" s="3">
         <v>9</v>
       </c>
@@ -18615,7 +19845,7 @@
       </c>
     </row>
     <row r="95" spans="1:52" x14ac:dyDescent="0.3">
-      <c r="A95" s="5"/>
+      <c r="A95" s="9"/>
       <c r="B95" s="3">
         <v>10</v>
       </c>
@@ -18771,7 +20001,7 @@
       </c>
     </row>
     <row r="96" spans="1:52" x14ac:dyDescent="0.3">
-      <c r="A96" s="5"/>
+      <c r="A96" s="9"/>
       <c r="B96" s="3">
         <v>11</v>
       </c>
@@ -18927,7 +20157,7 @@
       </c>
     </row>
     <row r="97" spans="1:52" x14ac:dyDescent="0.3">
-      <c r="A97" s="5"/>
+      <c r="A97" s="9"/>
       <c r="B97" s="3">
         <v>12</v>
       </c>
@@ -19083,7 +20313,7 @@
       </c>
     </row>
     <row r="98" spans="1:52" x14ac:dyDescent="0.3">
-      <c r="A98" s="5">
+      <c r="A98" s="9">
         <v>2008</v>
       </c>
       <c r="B98" s="3">
@@ -19241,7 +20471,7 @@
       </c>
     </row>
     <row r="99" spans="1:52" x14ac:dyDescent="0.3">
-      <c r="A99" s="5"/>
+      <c r="A99" s="9"/>
       <c r="B99" s="3">
         <v>2</v>
       </c>
@@ -19397,7 +20627,7 @@
       </c>
     </row>
     <row r="100" spans="1:52" x14ac:dyDescent="0.3">
-      <c r="A100" s="5"/>
+      <c r="A100" s="9"/>
       <c r="B100" s="3">
         <v>3</v>
       </c>
@@ -19553,7 +20783,7 @@
       </c>
     </row>
     <row r="101" spans="1:52" x14ac:dyDescent="0.3">
-      <c r="A101" s="5"/>
+      <c r="A101" s="9"/>
       <c r="B101" s="3">
         <v>4</v>
       </c>
@@ -19709,7 +20939,7 @@
       </c>
     </row>
     <row r="102" spans="1:52" x14ac:dyDescent="0.3">
-      <c r="A102" s="5"/>
+      <c r="A102" s="9"/>
       <c r="B102" s="3">
         <v>5</v>
       </c>
@@ -19865,7 +21095,7 @@
       </c>
     </row>
     <row r="103" spans="1:52" x14ac:dyDescent="0.3">
-      <c r="A103" s="5"/>
+      <c r="A103" s="9"/>
       <c r="B103" s="3">
         <v>6</v>
       </c>
@@ -20021,7 +21251,7 @@
       </c>
     </row>
     <row r="104" spans="1:52" x14ac:dyDescent="0.3">
-      <c r="A104" s="5"/>
+      <c r="A104" s="9"/>
       <c r="B104" s="3">
         <v>7</v>
       </c>
@@ -20177,7 +21407,7 @@
       </c>
     </row>
     <row r="105" spans="1:52" x14ac:dyDescent="0.3">
-      <c r="A105" s="5"/>
+      <c r="A105" s="9"/>
       <c r="B105" s="3">
         <v>8</v>
       </c>
@@ -20333,7 +21563,7 @@
       </c>
     </row>
     <row r="106" spans="1:52" x14ac:dyDescent="0.3">
-      <c r="A106" s="5"/>
+      <c r="A106" s="9"/>
       <c r="B106" s="3">
         <v>9</v>
       </c>
@@ -20489,7 +21719,7 @@
       </c>
     </row>
     <row r="107" spans="1:52" x14ac:dyDescent="0.3">
-      <c r="A107" s="5"/>
+      <c r="A107" s="9"/>
       <c r="B107" s="3">
         <v>10</v>
       </c>
@@ -20645,7 +21875,7 @@
       </c>
     </row>
     <row r="108" spans="1:52" x14ac:dyDescent="0.3">
-      <c r="A108" s="5"/>
+      <c r="A108" s="9"/>
       <c r="B108" s="3">
         <v>11</v>
       </c>
@@ -20801,7 +22031,7 @@
       </c>
     </row>
     <row r="109" spans="1:52" x14ac:dyDescent="0.3">
-      <c r="A109" s="5"/>
+      <c r="A109" s="9"/>
       <c r="B109" s="3">
         <v>12</v>
       </c>
@@ -20957,7 +22187,7 @@
       </c>
     </row>
     <row r="110" spans="1:52" x14ac:dyDescent="0.3">
-      <c r="A110" s="5">
+      <c r="A110" s="9">
         <v>2009</v>
       </c>
       <c r="B110" s="3">
@@ -21115,7 +22345,7 @@
       </c>
     </row>
     <row r="111" spans="1:52" x14ac:dyDescent="0.3">
-      <c r="A111" s="5"/>
+      <c r="A111" s="9"/>
       <c r="B111" s="3">
         <v>2</v>
       </c>
@@ -21271,7 +22501,7 @@
       </c>
     </row>
     <row r="112" spans="1:52" x14ac:dyDescent="0.3">
-      <c r="A112" s="5"/>
+      <c r="A112" s="9"/>
       <c r="B112" s="3">
         <v>3</v>
       </c>
@@ -21427,7 +22657,7 @@
       </c>
     </row>
     <row r="113" spans="1:52" x14ac:dyDescent="0.3">
-      <c r="A113" s="5"/>
+      <c r="A113" s="9"/>
       <c r="B113" s="3">
         <v>4</v>
       </c>
@@ -21583,7 +22813,7 @@
       </c>
     </row>
     <row r="114" spans="1:52" x14ac:dyDescent="0.3">
-      <c r="A114" s="5"/>
+      <c r="A114" s="9"/>
       <c r="B114" s="3">
         <v>5</v>
       </c>
@@ -21739,7 +22969,7 @@
       </c>
     </row>
     <row r="115" spans="1:52" x14ac:dyDescent="0.3">
-      <c r="A115" s="5"/>
+      <c r="A115" s="9"/>
       <c r="B115" s="3">
         <v>6</v>
       </c>
@@ -21895,7 +23125,7 @@
       </c>
     </row>
     <row r="116" spans="1:52" x14ac:dyDescent="0.3">
-      <c r="A116" s="5"/>
+      <c r="A116" s="9"/>
       <c r="B116" s="3">
         <v>7</v>
       </c>
@@ -22051,7 +23281,7 @@
       </c>
     </row>
     <row r="117" spans="1:52" x14ac:dyDescent="0.3">
-      <c r="A117" s="5"/>
+      <c r="A117" s="9"/>
       <c r="B117" s="3">
         <v>8</v>
       </c>
@@ -22207,7 +23437,7 @@
       </c>
     </row>
     <row r="118" spans="1:52" x14ac:dyDescent="0.3">
-      <c r="A118" s="5"/>
+      <c r="A118" s="9"/>
       <c r="B118" s="3">
         <v>9</v>
       </c>
@@ -22363,7 +23593,7 @@
       </c>
     </row>
     <row r="119" spans="1:52" x14ac:dyDescent="0.3">
-      <c r="A119" s="5"/>
+      <c r="A119" s="9"/>
       <c r="B119" s="3">
         <v>10</v>
       </c>
@@ -22519,7 +23749,7 @@
       </c>
     </row>
     <row r="120" spans="1:52" x14ac:dyDescent="0.3">
-      <c r="A120" s="5"/>
+      <c r="A120" s="9"/>
       <c r="B120" s="3">
         <v>11</v>
       </c>
@@ -22675,7 +23905,7 @@
       </c>
     </row>
     <row r="121" spans="1:52" x14ac:dyDescent="0.3">
-      <c r="A121" s="5"/>
+      <c r="A121" s="9"/>
       <c r="B121" s="3">
         <v>12</v>
       </c>
@@ -22831,7 +24061,7 @@
       </c>
     </row>
     <row r="122" spans="1:52" x14ac:dyDescent="0.3">
-      <c r="A122" s="5">
+      <c r="A122" s="9">
         <v>2010</v>
       </c>
       <c r="B122" s="3">
@@ -22989,7 +24219,7 @@
       </c>
     </row>
     <row r="123" spans="1:52" x14ac:dyDescent="0.3">
-      <c r="A123" s="5"/>
+      <c r="A123" s="9"/>
       <c r="B123" s="3">
         <v>2</v>
       </c>
@@ -23145,7 +24375,7 @@
       </c>
     </row>
     <row r="124" spans="1:52" x14ac:dyDescent="0.3">
-      <c r="A124" s="5"/>
+      <c r="A124" s="9"/>
       <c r="B124" s="3">
         <v>3</v>
       </c>
@@ -23301,7 +24531,7 @@
       </c>
     </row>
     <row r="125" spans="1:52" x14ac:dyDescent="0.3">
-      <c r="A125" s="5"/>
+      <c r="A125" s="9"/>
       <c r="B125" s="3">
         <v>4</v>
       </c>
@@ -23457,7 +24687,7 @@
       </c>
     </row>
     <row r="126" spans="1:52" x14ac:dyDescent="0.3">
-      <c r="A126" s="5"/>
+      <c r="A126" s="9"/>
       <c r="B126" s="3">
         <v>5</v>
       </c>
@@ -23613,7 +24843,7 @@
       </c>
     </row>
     <row r="127" spans="1:52" x14ac:dyDescent="0.3">
-      <c r="A127" s="5"/>
+      <c r="A127" s="9"/>
       <c r="B127" s="3">
         <v>6</v>
       </c>
@@ -23769,7 +24999,7 @@
       </c>
     </row>
     <row r="128" spans="1:52" x14ac:dyDescent="0.3">
-      <c r="A128" s="5"/>
+      <c r="A128" s="9"/>
       <c r="B128" s="3">
         <v>7</v>
       </c>
@@ -23925,7 +25155,7 @@
       </c>
     </row>
     <row r="129" spans="1:52" x14ac:dyDescent="0.3">
-      <c r="A129" s="5"/>
+      <c r="A129" s="9"/>
       <c r="B129" s="3">
         <v>8</v>
       </c>
@@ -24081,7 +25311,7 @@
       </c>
     </row>
     <row r="130" spans="1:52" x14ac:dyDescent="0.3">
-      <c r="A130" s="5"/>
+      <c r="A130" s="9"/>
       <c r="B130" s="3">
         <v>9</v>
       </c>
@@ -24237,7 +25467,7 @@
       </c>
     </row>
     <row r="131" spans="1:52" x14ac:dyDescent="0.3">
-      <c r="A131" s="5"/>
+      <c r="A131" s="9"/>
       <c r="B131" s="3">
         <v>10</v>
       </c>
@@ -24393,7 +25623,7 @@
       </c>
     </row>
     <row r="132" spans="1:52" x14ac:dyDescent="0.3">
-      <c r="A132" s="5"/>
+      <c r="A132" s="9"/>
       <c r="B132" s="3">
         <v>11</v>
       </c>
@@ -24549,7 +25779,7 @@
       </c>
     </row>
     <row r="133" spans="1:52" x14ac:dyDescent="0.3">
-      <c r="A133" s="5"/>
+      <c r="A133" s="9"/>
       <c r="B133" s="3">
         <v>12</v>
       </c>
@@ -24705,7 +25935,7 @@
       </c>
     </row>
     <row r="134" spans="1:52" x14ac:dyDescent="0.3">
-      <c r="A134" s="5">
+      <c r="A134" s="9">
         <v>2011</v>
       </c>
       <c r="B134" s="3">
@@ -24863,7 +26093,7 @@
       </c>
     </row>
     <row r="135" spans="1:52" x14ac:dyDescent="0.3">
-      <c r="A135" s="5"/>
+      <c r="A135" s="9"/>
       <c r="B135" s="3">
         <v>2</v>
       </c>
@@ -25019,7 +26249,7 @@
       </c>
     </row>
     <row r="136" spans="1:52" x14ac:dyDescent="0.3">
-      <c r="A136" s="5"/>
+      <c r="A136" s="9"/>
       <c r="B136" s="3">
         <v>3</v>
       </c>
@@ -25175,7 +26405,7 @@
       </c>
     </row>
     <row r="137" spans="1:52" x14ac:dyDescent="0.3">
-      <c r="A137" s="5"/>
+      <c r="A137" s="9"/>
       <c r="B137" s="3">
         <v>4</v>
       </c>
@@ -25331,7 +26561,7 @@
       </c>
     </row>
     <row r="138" spans="1:52" x14ac:dyDescent="0.3">
-      <c r="A138" s="5"/>
+      <c r="A138" s="9"/>
       <c r="B138" s="3">
         <v>5</v>
       </c>
@@ -25487,7 +26717,7 @@
       </c>
     </row>
     <row r="139" spans="1:52" x14ac:dyDescent="0.3">
-      <c r="A139" s="5"/>
+      <c r="A139" s="9"/>
       <c r="B139" s="3">
         <v>6</v>
       </c>
@@ -25643,7 +26873,7 @@
       </c>
     </row>
     <row r="140" spans="1:52" x14ac:dyDescent="0.3">
-      <c r="A140" s="5"/>
+      <c r="A140" s="9"/>
       <c r="B140" s="3">
         <v>7</v>
       </c>
@@ -25799,7 +27029,7 @@
       </c>
     </row>
     <row r="141" spans="1:52" x14ac:dyDescent="0.3">
-      <c r="A141" s="5"/>
+      <c r="A141" s="9"/>
       <c r="B141" s="3">
         <v>8</v>
       </c>
@@ -25955,7 +27185,7 @@
       </c>
     </row>
     <row r="142" spans="1:52" x14ac:dyDescent="0.3">
-      <c r="A142" s="5"/>
+      <c r="A142" s="9"/>
       <c r="B142" s="3">
         <v>9</v>
       </c>
@@ -26111,7 +27341,7 @@
       </c>
     </row>
     <row r="143" spans="1:52" x14ac:dyDescent="0.3">
-      <c r="A143" s="5"/>
+      <c r="A143" s="9"/>
       <c r="B143" s="3">
         <v>10</v>
       </c>
@@ -26267,7 +27497,7 @@
       </c>
     </row>
     <row r="144" spans="1:52" x14ac:dyDescent="0.3">
-      <c r="A144" s="5"/>
+      <c r="A144" s="9"/>
       <c r="B144" s="3">
         <v>11</v>
       </c>
@@ -26423,7 +27653,7 @@
       </c>
     </row>
     <row r="145" spans="1:52" x14ac:dyDescent="0.3">
-      <c r="A145" s="5"/>
+      <c r="A145" s="9"/>
       <c r="B145" s="3">
         <v>12</v>
       </c>
@@ -26579,7 +27809,7 @@
       </c>
     </row>
     <row r="146" spans="1:52" x14ac:dyDescent="0.3">
-      <c r="A146" s="5">
+      <c r="A146" s="9">
         <v>2012</v>
       </c>
       <c r="B146" s="3">
@@ -26737,7 +27967,7 @@
       </c>
     </row>
     <row r="147" spans="1:52" x14ac:dyDescent="0.3">
-      <c r="A147" s="5"/>
+      <c r="A147" s="9"/>
       <c r="B147" s="3">
         <v>2</v>
       </c>
@@ -26893,7 +28123,7 @@
       </c>
     </row>
     <row r="148" spans="1:52" x14ac:dyDescent="0.3">
-      <c r="A148" s="5"/>
+      <c r="A148" s="9"/>
       <c r="B148" s="3">
         <v>3</v>
       </c>
@@ -27049,7 +28279,7 @@
       </c>
     </row>
     <row r="149" spans="1:52" x14ac:dyDescent="0.3">
-      <c r="A149" s="5"/>
+      <c r="A149" s="9"/>
       <c r="B149" s="3">
         <v>4</v>
       </c>
@@ -27205,7 +28435,7 @@
       </c>
     </row>
     <row r="150" spans="1:52" x14ac:dyDescent="0.3">
-      <c r="A150" s="5"/>
+      <c r="A150" s="9"/>
       <c r="B150" s="3">
         <v>5</v>
       </c>
@@ -27361,7 +28591,7 @@
       </c>
     </row>
     <row r="151" spans="1:52" x14ac:dyDescent="0.3">
-      <c r="A151" s="5"/>
+      <c r="A151" s="9"/>
       <c r="B151" s="3">
         <v>6</v>
       </c>
@@ -27517,7 +28747,7 @@
       </c>
     </row>
     <row r="152" spans="1:52" x14ac:dyDescent="0.3">
-      <c r="A152" s="5"/>
+      <c r="A152" s="9"/>
       <c r="B152" s="3">
         <v>7</v>
       </c>
@@ -27673,7 +28903,7 @@
       </c>
     </row>
     <row r="153" spans="1:52" x14ac:dyDescent="0.3">
-      <c r="A153" s="5"/>
+      <c r="A153" s="9"/>
       <c r="B153" s="3">
         <v>8</v>
       </c>
@@ -27829,7 +29059,7 @@
       </c>
     </row>
     <row r="154" spans="1:52" x14ac:dyDescent="0.3">
-      <c r="A154" s="5"/>
+      <c r="A154" s="9"/>
       <c r="B154" s="3">
         <v>9</v>
       </c>
@@ -27985,7 +29215,7 @@
       </c>
     </row>
     <row r="155" spans="1:52" x14ac:dyDescent="0.3">
-      <c r="A155" s="5"/>
+      <c r="A155" s="9"/>
       <c r="B155" s="3">
         <v>10</v>
       </c>
@@ -28141,7 +29371,7 @@
       </c>
     </row>
     <row r="156" spans="1:52" x14ac:dyDescent="0.3">
-      <c r="A156" s="5"/>
+      <c r="A156" s="9"/>
       <c r="B156" s="3">
         <v>11</v>
       </c>
@@ -28297,7 +29527,7 @@
       </c>
     </row>
     <row r="157" spans="1:52" x14ac:dyDescent="0.3">
-      <c r="A157" s="5"/>
+      <c r="A157" s="9"/>
       <c r="B157" s="3">
         <v>12</v>
       </c>
@@ -28453,7 +29683,7 @@
       </c>
     </row>
     <row r="158" spans="1:52" x14ac:dyDescent="0.3">
-      <c r="A158" s="5">
+      <c r="A158" s="9">
         <v>2013</v>
       </c>
       <c r="B158" s="3">
@@ -28611,7 +29841,7 @@
       </c>
     </row>
     <row r="159" spans="1:52" x14ac:dyDescent="0.3">
-      <c r="A159" s="5"/>
+      <c r="A159" s="9"/>
       <c r="B159" s="3">
         <v>2</v>
       </c>
@@ -28767,7 +29997,7 @@
       </c>
     </row>
     <row r="160" spans="1:52" x14ac:dyDescent="0.3">
-      <c r="A160" s="5"/>
+      <c r="A160" s="9"/>
       <c r="B160" s="3">
         <v>3</v>
       </c>
@@ -28923,7 +30153,7 @@
       </c>
     </row>
     <row r="161" spans="1:52" x14ac:dyDescent="0.3">
-      <c r="A161" s="5"/>
+      <c r="A161" s="9"/>
       <c r="B161" s="3">
         <v>4</v>
       </c>
@@ -29079,7 +30309,7 @@
       </c>
     </row>
     <row r="162" spans="1:52" x14ac:dyDescent="0.3">
-      <c r="A162" s="5"/>
+      <c r="A162" s="9"/>
       <c r="B162" s="3">
         <v>5</v>
       </c>
@@ -29235,7 +30465,7 @@
       </c>
     </row>
     <row r="163" spans="1:52" x14ac:dyDescent="0.3">
-      <c r="A163" s="5"/>
+      <c r="A163" s="9"/>
       <c r="B163" s="3">
         <v>6</v>
       </c>
@@ -29391,7 +30621,7 @@
       </c>
     </row>
     <row r="164" spans="1:52" x14ac:dyDescent="0.3">
-      <c r="A164" s="5"/>
+      <c r="A164" s="9"/>
       <c r="B164" s="3">
         <v>7</v>
       </c>
@@ -29547,7 +30777,7 @@
       </c>
     </row>
     <row r="165" spans="1:52" x14ac:dyDescent="0.3">
-      <c r="A165" s="5"/>
+      <c r="A165" s="9"/>
       <c r="B165" s="3">
         <v>8</v>
       </c>
@@ -29703,7 +30933,7 @@
       </c>
     </row>
     <row r="166" spans="1:52" x14ac:dyDescent="0.3">
-      <c r="A166" s="5"/>
+      <c r="A166" s="9"/>
       <c r="B166" s="3">
         <v>9</v>
       </c>
@@ -29859,7 +31089,7 @@
       </c>
     </row>
     <row r="167" spans="1:52" x14ac:dyDescent="0.3">
-      <c r="A167" s="5"/>
+      <c r="A167" s="9"/>
       <c r="B167" s="3">
         <v>10</v>
       </c>
@@ -30015,7 +31245,7 @@
       </c>
     </row>
     <row r="168" spans="1:52" x14ac:dyDescent="0.3">
-      <c r="A168" s="5"/>
+      <c r="A168" s="9"/>
       <c r="B168" s="3">
         <v>11</v>
       </c>
@@ -30171,7 +31401,7 @@
       </c>
     </row>
     <row r="169" spans="1:52" x14ac:dyDescent="0.3">
-      <c r="A169" s="5"/>
+      <c r="A169" s="9"/>
       <c r="B169" s="3">
         <v>12</v>
       </c>
@@ -30327,7 +31557,7 @@
       </c>
     </row>
     <row r="170" spans="1:52" x14ac:dyDescent="0.3">
-      <c r="A170" s="5">
+      <c r="A170" s="9">
         <v>2014</v>
       </c>
       <c r="B170" s="3">
@@ -30485,7 +31715,7 @@
       </c>
     </row>
     <row r="171" spans="1:52" x14ac:dyDescent="0.3">
-      <c r="A171" s="5"/>
+      <c r="A171" s="9"/>
       <c r="B171" s="3">
         <v>2</v>
       </c>
@@ -30641,7 +31871,7 @@
       </c>
     </row>
     <row r="172" spans="1:52" x14ac:dyDescent="0.3">
-      <c r="A172" s="5"/>
+      <c r="A172" s="9"/>
       <c r="B172" s="3">
         <v>3</v>
       </c>
@@ -30797,7 +32027,7 @@
       </c>
     </row>
     <row r="173" spans="1:52" x14ac:dyDescent="0.3">
-      <c r="A173" s="5"/>
+      <c r="A173" s="9"/>
       <c r="B173" s="3">
         <v>4</v>
       </c>
@@ -30953,7 +32183,7 @@
       </c>
     </row>
     <row r="174" spans="1:52" x14ac:dyDescent="0.3">
-      <c r="A174" s="5"/>
+      <c r="A174" s="9"/>
       <c r="B174" s="3">
         <v>5</v>
       </c>
@@ -31109,7 +32339,7 @@
       </c>
     </row>
     <row r="175" spans="1:52" x14ac:dyDescent="0.3">
-      <c r="A175" s="5"/>
+      <c r="A175" s="9"/>
       <c r="B175" s="3">
         <v>6</v>
       </c>
@@ -31265,7 +32495,7 @@
       </c>
     </row>
     <row r="176" spans="1:52" x14ac:dyDescent="0.3">
-      <c r="A176" s="5"/>
+      <c r="A176" s="9"/>
       <c r="B176" s="3">
         <v>7</v>
       </c>
@@ -31421,7 +32651,7 @@
       </c>
     </row>
     <row r="177" spans="1:52" x14ac:dyDescent="0.3">
-      <c r="A177" s="5"/>
+      <c r="A177" s="9"/>
       <c r="B177" s="3">
         <v>8</v>
       </c>
@@ -31577,7 +32807,7 @@
       </c>
     </row>
     <row r="178" spans="1:52" x14ac:dyDescent="0.3">
-      <c r="A178" s="5"/>
+      <c r="A178" s="9"/>
       <c r="B178" s="3">
         <v>9</v>
       </c>
@@ -31733,7 +32963,7 @@
       </c>
     </row>
     <row r="179" spans="1:52" x14ac:dyDescent="0.3">
-      <c r="A179" s="5"/>
+      <c r="A179" s="9"/>
       <c r="B179" s="3">
         <v>10</v>
       </c>
@@ -31889,7 +33119,7 @@
       </c>
     </row>
     <row r="180" spans="1:52" x14ac:dyDescent="0.3">
-      <c r="A180" s="5"/>
+      <c r="A180" s="9"/>
       <c r="B180" s="3">
         <v>11</v>
       </c>
@@ -32045,7 +33275,7 @@
       </c>
     </row>
     <row r="181" spans="1:52" x14ac:dyDescent="0.3">
-      <c r="A181" s="5"/>
+      <c r="A181" s="9"/>
       <c r="B181" s="3">
         <v>12</v>
       </c>
@@ -32201,7 +33431,7 @@
       </c>
     </row>
     <row r="182" spans="1:52" x14ac:dyDescent="0.3">
-      <c r="A182" s="5">
+      <c r="A182" s="9">
         <v>2015</v>
       </c>
       <c r="B182" s="3">
@@ -32359,7 +33589,7 @@
       </c>
     </row>
     <row r="183" spans="1:52" x14ac:dyDescent="0.3">
-      <c r="A183" s="5"/>
+      <c r="A183" s="9"/>
       <c r="B183" s="3">
         <v>2</v>
       </c>
@@ -32515,7 +33745,7 @@
       </c>
     </row>
     <row r="184" spans="1:52" x14ac:dyDescent="0.3">
-      <c r="A184" s="5"/>
+      <c r="A184" s="9"/>
       <c r="B184" s="3">
         <v>3</v>
       </c>
@@ -32671,7 +33901,7 @@
       </c>
     </row>
     <row r="185" spans="1:52" x14ac:dyDescent="0.3">
-      <c r="A185" s="5"/>
+      <c r="A185" s="9"/>
       <c r="B185" s="3">
         <v>4</v>
       </c>
@@ -32827,7 +34057,7 @@
       </c>
     </row>
     <row r="186" spans="1:52" x14ac:dyDescent="0.3">
-      <c r="A186" s="5"/>
+      <c r="A186" s="9"/>
       <c r="B186" s="3">
         <v>5</v>
       </c>
@@ -32983,7 +34213,7 @@
       </c>
     </row>
     <row r="187" spans="1:52" x14ac:dyDescent="0.3">
-      <c r="A187" s="5"/>
+      <c r="A187" s="9"/>
       <c r="B187" s="3">
         <v>6</v>
       </c>
@@ -33139,7 +34369,7 @@
       </c>
     </row>
     <row r="188" spans="1:52" x14ac:dyDescent="0.3">
-      <c r="A188" s="5"/>
+      <c r="A188" s="9"/>
       <c r="B188" s="3">
         <v>7</v>
       </c>
@@ -33295,7 +34525,7 @@
       </c>
     </row>
     <row r="189" spans="1:52" x14ac:dyDescent="0.3">
-      <c r="A189" s="5"/>
+      <c r="A189" s="9"/>
       <c r="B189" s="3">
         <v>8</v>
       </c>
@@ -33451,7 +34681,7 @@
       </c>
     </row>
     <row r="190" spans="1:52" x14ac:dyDescent="0.3">
-      <c r="A190" s="5"/>
+      <c r="A190" s="9"/>
       <c r="B190" s="3">
         <v>9</v>
       </c>
@@ -33607,7 +34837,7 @@
       </c>
     </row>
     <row r="191" spans="1:52" x14ac:dyDescent="0.3">
-      <c r="A191" s="5"/>
+      <c r="A191" s="9"/>
       <c r="B191" s="3">
         <v>10</v>
       </c>
@@ -33763,7 +34993,7 @@
       </c>
     </row>
     <row r="192" spans="1:52" x14ac:dyDescent="0.3">
-      <c r="A192" s="5"/>
+      <c r="A192" s="9"/>
       <c r="B192" s="3">
         <v>11</v>
       </c>
@@ -33919,7 +35149,7 @@
       </c>
     </row>
     <row r="193" spans="1:52" x14ac:dyDescent="0.3">
-      <c r="A193" s="5"/>
+      <c r="A193" s="9"/>
       <c r="B193" s="3">
         <v>12</v>
       </c>
@@ -34075,7 +35305,7 @@
       </c>
     </row>
     <row r="194" spans="1:52" x14ac:dyDescent="0.3">
-      <c r="A194" s="5">
+      <c r="A194" s="9">
         <v>2016</v>
       </c>
       <c r="B194" s="3">
@@ -34233,7 +35463,7 @@
       </c>
     </row>
     <row r="195" spans="1:52" x14ac:dyDescent="0.3">
-      <c r="A195" s="5"/>
+      <c r="A195" s="9"/>
       <c r="B195" s="3">
         <v>2</v>
       </c>
@@ -34389,7 +35619,7 @@
       </c>
     </row>
     <row r="196" spans="1:52" x14ac:dyDescent="0.3">
-      <c r="A196" s="5"/>
+      <c r="A196" s="9"/>
       <c r="B196" s="3">
         <v>3</v>
       </c>
@@ -34545,7 +35775,7 @@
       </c>
     </row>
     <row r="197" spans="1:52" x14ac:dyDescent="0.3">
-      <c r="A197" s="5"/>
+      <c r="A197" s="9"/>
       <c r="B197" s="3">
         <v>4</v>
       </c>
@@ -34701,7 +35931,7 @@
       </c>
     </row>
     <row r="198" spans="1:52" x14ac:dyDescent="0.3">
-      <c r="A198" s="5"/>
+      <c r="A198" s="9"/>
       <c r="B198" s="3">
         <v>5</v>
       </c>
@@ -34857,7 +36087,7 @@
       </c>
     </row>
     <row r="199" spans="1:52" x14ac:dyDescent="0.3">
-      <c r="A199" s="5"/>
+      <c r="A199" s="9"/>
       <c r="B199" s="3">
         <v>6</v>
       </c>
@@ -35013,7 +36243,7 @@
       </c>
     </row>
     <row r="200" spans="1:52" x14ac:dyDescent="0.3">
-      <c r="A200" s="5"/>
+      <c r="A200" s="9"/>
       <c r="B200" s="3">
         <v>7</v>
       </c>
@@ -35169,7 +36399,7 @@
       </c>
     </row>
     <row r="201" spans="1:52" x14ac:dyDescent="0.3">
-      <c r="A201" s="5"/>
+      <c r="A201" s="9"/>
       <c r="B201" s="3">
         <v>8</v>
       </c>
@@ -35325,7 +36555,7 @@
       </c>
     </row>
     <row r="202" spans="1:52" x14ac:dyDescent="0.3">
-      <c r="A202" s="5"/>
+      <c r="A202" s="9"/>
       <c r="B202" s="3">
         <v>9</v>
       </c>
@@ -35481,7 +36711,7 @@
       </c>
     </row>
     <row r="203" spans="1:52" x14ac:dyDescent="0.3">
-      <c r="A203" s="5"/>
+      <c r="A203" s="9"/>
       <c r="B203" s="3">
         <v>10</v>
       </c>
@@ -35637,7 +36867,7 @@
       </c>
     </row>
     <row r="204" spans="1:52" x14ac:dyDescent="0.3">
-      <c r="A204" s="5"/>
+      <c r="A204" s="9"/>
       <c r="B204" s="3">
         <v>11</v>
       </c>
@@ -35793,7 +37023,7 @@
       </c>
     </row>
     <row r="205" spans="1:52" x14ac:dyDescent="0.3">
-      <c r="A205" s="5"/>
+      <c r="A205" s="9"/>
       <c r="B205" s="3">
         <v>12</v>
       </c>
@@ -35949,7 +37179,7 @@
       </c>
     </row>
     <row r="206" spans="1:52" x14ac:dyDescent="0.3">
-      <c r="A206" s="5">
+      <c r="A206" s="9">
         <v>2017</v>
       </c>
       <c r="B206" s="3">
@@ -36107,7 +37337,7 @@
       </c>
     </row>
     <row r="207" spans="1:52" x14ac:dyDescent="0.3">
-      <c r="A207" s="5"/>
+      <c r="A207" s="9"/>
       <c r="B207" s="3">
         <v>2</v>
       </c>
@@ -36263,7 +37493,7 @@
       </c>
     </row>
     <row r="208" spans="1:52" x14ac:dyDescent="0.3">
-      <c r="A208" s="5"/>
+      <c r="A208" s="9"/>
       <c r="B208" s="3">
         <v>3</v>
       </c>
@@ -36419,7 +37649,7 @@
       </c>
     </row>
     <row r="209" spans="1:52" x14ac:dyDescent="0.3">
-      <c r="A209" s="5"/>
+      <c r="A209" s="9"/>
       <c r="B209" s="3">
         <v>4</v>
       </c>
@@ -36575,7 +37805,7 @@
       </c>
     </row>
     <row r="210" spans="1:52" x14ac:dyDescent="0.3">
-      <c r="A210" s="5"/>
+      <c r="A210" s="9"/>
       <c r="B210" s="3">
         <v>5</v>
       </c>
@@ -36731,7 +37961,7 @@
       </c>
     </row>
     <row r="211" spans="1:52" x14ac:dyDescent="0.3">
-      <c r="A211" s="5"/>
+      <c r="A211" s="9"/>
       <c r="B211" s="3">
         <v>6</v>
       </c>
@@ -36887,7 +38117,7 @@
       </c>
     </row>
     <row r="212" spans="1:52" x14ac:dyDescent="0.3">
-      <c r="A212" s="5"/>
+      <c r="A212" s="9"/>
       <c r="B212" s="3">
         <v>7</v>
       </c>
@@ -37043,7 +38273,7 @@
       </c>
     </row>
     <row r="213" spans="1:52" x14ac:dyDescent="0.3">
-      <c r="A213" s="5"/>
+      <c r="A213" s="9"/>
       <c r="B213" s="3">
         <v>8</v>
       </c>
@@ -37199,7 +38429,7 @@
       </c>
     </row>
     <row r="214" spans="1:52" x14ac:dyDescent="0.3">
-      <c r="A214" s="5"/>
+      <c r="A214" s="9"/>
       <c r="B214" s="3">
         <v>9</v>
       </c>
@@ -37355,7 +38585,7 @@
       </c>
     </row>
     <row r="215" spans="1:52" x14ac:dyDescent="0.3">
-      <c r="A215" s="5"/>
+      <c r="A215" s="9"/>
       <c r="B215" s="3">
         <v>10</v>
       </c>
@@ -37511,7 +38741,7 @@
       </c>
     </row>
     <row r="216" spans="1:52" x14ac:dyDescent="0.3">
-      <c r="A216" s="5"/>
+      <c r="A216" s="9"/>
       <c r="B216" s="3">
         <v>11</v>
       </c>
@@ -37667,7 +38897,7 @@
       </c>
     </row>
     <row r="217" spans="1:52" x14ac:dyDescent="0.3">
-      <c r="A217" s="5"/>
+      <c r="A217" s="9"/>
       <c r="B217" s="3">
         <v>12</v>
       </c>
@@ -37823,7 +39053,7 @@
       </c>
     </row>
     <row r="218" spans="1:52" x14ac:dyDescent="0.3">
-      <c r="A218" s="5">
+      <c r="A218" s="9">
         <v>2018</v>
       </c>
       <c r="B218" s="3">
@@ -37981,7 +39211,7 @@
       </c>
     </row>
     <row r="219" spans="1:52" x14ac:dyDescent="0.3">
-      <c r="A219" s="5"/>
+      <c r="A219" s="9"/>
       <c r="B219" s="3">
         <v>2</v>
       </c>
@@ -38137,7 +39367,7 @@
       </c>
     </row>
     <row r="220" spans="1:52" x14ac:dyDescent="0.3">
-      <c r="A220" s="5"/>
+      <c r="A220" s="9"/>
       <c r="B220" s="3">
         <v>3</v>
       </c>
@@ -38293,7 +39523,7 @@
       </c>
     </row>
     <row r="221" spans="1:52" x14ac:dyDescent="0.3">
-      <c r="A221" s="5"/>
+      <c r="A221" s="9"/>
       <c r="B221" s="3">
         <v>4</v>
       </c>
@@ -38449,7 +39679,7 @@
       </c>
     </row>
     <row r="222" spans="1:52" x14ac:dyDescent="0.3">
-      <c r="A222" s="5"/>
+      <c r="A222" s="9"/>
       <c r="B222" s="3">
         <v>5</v>
       </c>
@@ -38605,7 +39835,7 @@
       </c>
     </row>
     <row r="223" spans="1:52" x14ac:dyDescent="0.3">
-      <c r="A223" s="5"/>
+      <c r="A223" s="9"/>
       <c r="B223" s="3">
         <v>6</v>
       </c>
@@ -38761,7 +39991,7 @@
       </c>
     </row>
     <row r="224" spans="1:52" x14ac:dyDescent="0.3">
-      <c r="A224" s="5"/>
+      <c r="A224" s="9"/>
       <c r="B224" s="3">
         <v>7</v>
       </c>
@@ -38917,7 +40147,7 @@
       </c>
     </row>
     <row r="225" spans="1:52" x14ac:dyDescent="0.3">
-      <c r="A225" s="5"/>
+      <c r="A225" s="9"/>
       <c r="B225" s="3">
         <v>8</v>
       </c>
@@ -39073,7 +40303,7 @@
       </c>
     </row>
     <row r="226" spans="1:52" x14ac:dyDescent="0.3">
-      <c r="A226" s="5"/>
+      <c r="A226" s="9"/>
       <c r="B226" s="3">
         <v>9</v>
       </c>
@@ -39229,7 +40459,7 @@
       </c>
     </row>
     <row r="227" spans="1:52" x14ac:dyDescent="0.3">
-      <c r="A227" s="5"/>
+      <c r="A227" s="9"/>
       <c r="B227" s="3">
         <v>10</v>
       </c>
@@ -39385,7 +40615,7 @@
       </c>
     </row>
     <row r="228" spans="1:52" x14ac:dyDescent="0.3">
-      <c r="A228" s="5"/>
+      <c r="A228" s="9"/>
       <c r="B228" s="3">
         <v>11</v>
       </c>
@@ -39541,7 +40771,7 @@
       </c>
     </row>
     <row r="229" spans="1:52" x14ac:dyDescent="0.3">
-      <c r="A229" s="5"/>
+      <c r="A229" s="9"/>
       <c r="B229" s="3">
         <v>12</v>
       </c>
@@ -39697,7 +40927,7 @@
       </c>
     </row>
     <row r="230" spans="1:52" x14ac:dyDescent="0.3">
-      <c r="A230" s="5">
+      <c r="A230" s="9">
         <v>2019</v>
       </c>
       <c r="B230" s="3">
@@ -39855,7 +41085,7 @@
       </c>
     </row>
     <row r="231" spans="1:52" x14ac:dyDescent="0.3">
-      <c r="A231" s="5"/>
+      <c r="A231" s="9"/>
       <c r="B231" s="3">
         <v>2</v>
       </c>
@@ -40011,7 +41241,7 @@
       </c>
     </row>
     <row r="232" spans="1:52" x14ac:dyDescent="0.3">
-      <c r="A232" s="5"/>
+      <c r="A232" s="9"/>
       <c r="B232" s="3">
         <v>3</v>
       </c>
@@ -40167,7 +41397,7 @@
       </c>
     </row>
     <row r="233" spans="1:52" x14ac:dyDescent="0.3">
-      <c r="A233" s="5"/>
+      <c r="A233" s="9"/>
       <c r="B233" s="3">
         <v>4</v>
       </c>
@@ -40323,7 +41553,7 @@
       </c>
     </row>
     <row r="234" spans="1:52" x14ac:dyDescent="0.3">
-      <c r="A234" s="5"/>
+      <c r="A234" s="9"/>
       <c r="B234" s="3">
         <v>5</v>
       </c>
@@ -40479,7 +41709,7 @@
       </c>
     </row>
     <row r="235" spans="1:52" x14ac:dyDescent="0.3">
-      <c r="A235" s="5"/>
+      <c r="A235" s="9"/>
       <c r="B235" s="3">
         <v>6</v>
       </c>
@@ -40635,7 +41865,7 @@
       </c>
     </row>
     <row r="236" spans="1:52" x14ac:dyDescent="0.3">
-      <c r="A236" s="5"/>
+      <c r="A236" s="9"/>
       <c r="B236" s="3">
         <v>7</v>
       </c>
@@ -40791,7 +42021,7 @@
       </c>
     </row>
     <row r="237" spans="1:52" x14ac:dyDescent="0.3">
-      <c r="A237" s="5"/>
+      <c r="A237" s="9"/>
       <c r="B237" s="3">
         <v>8</v>
       </c>
@@ -40947,7 +42177,7 @@
       </c>
     </row>
     <row r="238" spans="1:52" x14ac:dyDescent="0.3">
-      <c r="A238" s="5"/>
+      <c r="A238" s="9"/>
       <c r="B238" s="3">
         <v>9</v>
       </c>
@@ -41103,7 +42333,7 @@
       </c>
     </row>
     <row r="239" spans="1:52" x14ac:dyDescent="0.3">
-      <c r="A239" s="5"/>
+      <c r="A239" s="9"/>
       <c r="B239" s="3">
         <v>10</v>
       </c>
@@ -41259,7 +42489,7 @@
       </c>
     </row>
     <row r="240" spans="1:52" x14ac:dyDescent="0.3">
-      <c r="A240" s="5"/>
+      <c r="A240" s="9"/>
       <c r="B240" s="3">
         <v>11</v>
       </c>
@@ -41415,7 +42645,7 @@
       </c>
     </row>
     <row r="241" spans="1:52" x14ac:dyDescent="0.3">
-      <c r="A241" s="5"/>
+      <c r="A241" s="9"/>
       <c r="B241" s="3">
         <v>12</v>
       </c>
@@ -41598,138 +42828,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B664C803-E746-4DB3-94A9-E30906ED239A}">
-  <dimension ref="A1:D13"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="4" max="4" width="10.4140625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>54</v>
-      </c>
-      <c r="B1" t="s">
-        <v>56</v>
-      </c>
-      <c r="D1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2">
-        <v>19</v>
-      </c>
-      <c r="D2">
-        <f>SUM(B2:B13)</f>
-        <v>239</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A5">
-        <v>4</v>
-      </c>
-      <c r="B5">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A6">
-        <v>5</v>
-      </c>
-      <c r="B6">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A7">
-        <v>6</v>
-      </c>
-      <c r="B7">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A8">
-        <v>7</v>
-      </c>
-      <c r="B8">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A9">
-        <v>8</v>
-      </c>
-      <c r="B9">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A10">
-        <v>9</v>
-      </c>
-      <c r="B10">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A11">
-        <v>10</v>
-      </c>
-      <c r="B11">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A12">
-        <v>11</v>
-      </c>
-      <c r="B12">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A13">
-        <v>12</v>
-      </c>
-      <c r="B13">
-        <v>22</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B183C4C-3DB9-4125-80AD-3AC4C11CBFD0}">
   <dimension ref="A1:BA21"/>
   <sheetViews>
@@ -45167,433 +46266,4 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3EC8F56F-130F-4BFD-90B2-BCDD3631405C}">
-  <dimension ref="A1:B51"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C52" sqref="C52"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="8.6640625" style="3"/>
-    <col min="2" max="2" width="8.6640625" style="2"/>
-    <col min="3" max="16384" width="8.6640625" style="3"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2" s="3">
-        <v>1</v>
-      </c>
-      <c r="B2" s="2">
-        <v>7.3576250000000005</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3" s="3">
-        <v>2</v>
-      </c>
-      <c r="B3" s="2">
-        <v>10.66970833333334</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4" s="3">
-        <v>3</v>
-      </c>
-      <c r="B4" s="2">
-        <v>11.12045833333333</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5" s="3">
-        <v>4</v>
-      </c>
-      <c r="B5" s="2">
-        <v>17.053749999999997</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A6" s="3">
-        <v>5</v>
-      </c>
-      <c r="B6" s="2">
-        <v>11.974625000000009</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A7" s="3">
-        <v>6</v>
-      </c>
-      <c r="B7" s="2">
-        <v>8.41</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A8" s="3">
-        <v>7</v>
-      </c>
-      <c r="B8" s="2">
-        <v>7.3848750000000036</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A9" s="3">
-        <v>8</v>
-      </c>
-      <c r="B9" s="2">
-        <v>5.8399583333333336</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A10" s="3">
-        <v>9</v>
-      </c>
-      <c r="B10" s="2">
-        <v>11.946166666666663</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A11" s="3">
-        <v>10</v>
-      </c>
-      <c r="B11" s="2">
-        <v>7.0045833333333372</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A12" s="3">
-        <v>11</v>
-      </c>
-      <c r="B12" s="2">
-        <v>8.4171250000000022</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A13" s="3">
-        <v>12</v>
-      </c>
-      <c r="B13" s="2">
-        <v>5.6838750000000049</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A14" s="3">
-        <v>13</v>
-      </c>
-      <c r="B14" s="2">
-        <v>8.0400000000000045</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A15" s="3">
-        <v>14</v>
-      </c>
-      <c r="B15" s="2">
-        <v>10.706874999999993</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A16" s="3">
-        <v>15</v>
-      </c>
-      <c r="B16" s="2">
-        <v>12.684250000000009</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A17" s="3">
-        <v>16</v>
-      </c>
-      <c r="B17" s="2">
-        <v>10.21216666666667</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A18" s="3">
-        <v>17</v>
-      </c>
-      <c r="B18" s="2">
-        <v>7.3879999999999928</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A19" s="3">
-        <v>18</v>
-      </c>
-      <c r="B19" s="2">
-        <v>5.8928333333333338</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A20" s="3">
-        <v>19</v>
-      </c>
-      <c r="B20" s="2">
-        <v>5.8255000000000043</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A21" s="3">
-        <v>20</v>
-      </c>
-      <c r="B21" s="2">
-        <v>18.261791666666667</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A22" s="3">
-        <v>21</v>
-      </c>
-      <c r="B22" s="2">
-        <v>7.6391250000000026</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A23" s="3">
-        <v>22</v>
-      </c>
-      <c r="B23" s="2">
-        <v>12.205708333333328</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A24" s="3">
-        <v>23</v>
-      </c>
-      <c r="B24" s="2">
-        <v>8.7185833333333385</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A25" s="3">
-        <v>24</v>
-      </c>
-      <c r="B25" s="2">
-        <v>5.6072916666666597</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A26" s="3">
-        <v>25</v>
-      </c>
-      <c r="B26" s="2">
-        <v>21.070374999999999</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A27" s="3">
-        <v>26</v>
-      </c>
-      <c r="B27" s="2">
-        <v>9.4740833333333345</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A28" s="3">
-        <v>27</v>
-      </c>
-      <c r="B28" s="2">
-        <v>11.045916666666667</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A29" s="3">
-        <v>28</v>
-      </c>
-      <c r="B29" s="2">
-        <v>11.502583333333337</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A30" s="3">
-        <v>29</v>
-      </c>
-      <c r="B30" s="2">
-        <v>15.606166666666667</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A31" s="3">
-        <v>30</v>
-      </c>
-      <c r="B31" s="2">
-        <v>8.4423749999999949</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A32" s="3">
-        <v>31</v>
-      </c>
-      <c r="B32" s="2">
-        <v>8.6074583333333354</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A33" s="3">
-        <v>32</v>
-      </c>
-      <c r="B33" s="2">
-        <v>8.3537499999999962</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A34" s="3">
-        <v>33</v>
-      </c>
-      <c r="B34" s="2">
-        <v>5.6758333333333351</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A35" s="3">
-        <v>34</v>
-      </c>
-      <c r="B35" s="2">
-        <v>12.657374999999986</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A36" s="3">
-        <v>35</v>
-      </c>
-      <c r="B36" s="2">
-        <v>9.0177500000000013</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A37" s="3">
-        <v>36</v>
-      </c>
-      <c r="B37" s="2">
-        <v>9.1854166666666632</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A38" s="3">
-        <v>37</v>
-      </c>
-      <c r="B38" s="2">
-        <v>7.6837083333333336</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A39" s="3">
-        <v>38</v>
-      </c>
-      <c r="B39" s="2">
-        <v>8.6169166666666666</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A40" s="3">
-        <v>39</v>
-      </c>
-      <c r="B40" s="2">
-        <v>18.327249999999996</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A41" s="3">
-        <v>40</v>
-      </c>
-      <c r="B41" s="2">
-        <v>8.0876666666666726</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A42" s="3">
-        <v>41</v>
-      </c>
-      <c r="B42" s="2">
-        <v>10.591416666666664</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A43" s="3">
-        <v>42</v>
-      </c>
-      <c r="B43" s="2">
-        <v>17.846625000000003</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A44" s="3">
-        <v>43</v>
-      </c>
-      <c r="B44" s="2">
-        <v>5.1420000000000003</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A45" s="3">
-        <v>44</v>
-      </c>
-      <c r="B45" s="2">
-        <v>11.960208333333339</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A46" s="3">
-        <v>45</v>
-      </c>
-      <c r="B46" s="2">
-        <v>8.64404166666667</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A47" s="3">
-        <v>46</v>
-      </c>
-      <c r="B47" s="2">
-        <v>3.7774166666666664</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A48" s="3">
-        <v>47</v>
-      </c>
-      <c r="B48" s="2">
-        <v>7.2567916666666683</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A49" s="3">
-        <v>48</v>
-      </c>
-      <c r="B49" s="2">
-        <v>14.790958333333339</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A50" s="3">
-        <v>49</v>
-      </c>
-      <c r="B50" s="2">
-        <v>8.036624999999999</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A51" s="3">
-        <v>50</v>
-      </c>
-      <c r="B51" s="2">
-        <v>9.8430833333333236</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/data/dataForExp.xlsx
+++ b/data/dataForExp.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Mirror系统开发\Mirror\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2153B85E-5CE8-4115-B614-543F59A0191A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC489C3D-F0B8-434A-AC71-7872263C154A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="18220" windowHeight="11620" activeTab="3" xr2:uid="{7869B96A-7811-4EF3-9176-2B0373B8E4EA}"/>
+    <workbookView xWindow="2530" yWindow="930" windowWidth="13500" windowHeight="8260" activeTab="1" xr2:uid="{7869B96A-7811-4EF3-9176-2B0373B8E4EA}"/>
   </bookViews>
   <sheets>
     <sheet name="purchaseProb" sheetId="1" r:id="rId1"/>
@@ -3948,8 +3948,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B664C803-E746-4DB3-94A9-E30906ED239A}">
   <dimension ref="A1:D13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -4002,6 +4002,10 @@
       </c>
       <c r="B5">
         <v>20</v>
+      </c>
+      <c r="D5">
+        <f>SUM(B2:B13)</f>
+        <v>239</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
@@ -4508,7 +4512,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8CFC439-7716-4A0D-B0C0-2CC839CF378F}">
   <dimension ref="A1:L51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A29" workbookViewId="0">
+    <sheetView topLeftCell="A29" workbookViewId="0">
       <selection activeCell="C2" sqref="C2:C51"/>
     </sheetView>
   </sheetViews>
@@ -5156,8 +5160,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{808F6D01-C3B7-422B-B2DB-EDADDCD571D2}">
   <dimension ref="A1:AZ241"/>
   <sheetViews>
-    <sheetView topLeftCell="A229" workbookViewId="0">
-      <selection activeCell="B237" sqref="A237:XFD241"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -42802,14 +42806,6 @@
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="A218:A229"/>
-    <mergeCell ref="A230:A241"/>
-    <mergeCell ref="A146:A157"/>
-    <mergeCell ref="A158:A169"/>
-    <mergeCell ref="A170:A181"/>
-    <mergeCell ref="A182:A193"/>
-    <mergeCell ref="A194:A205"/>
-    <mergeCell ref="A206:A217"/>
     <mergeCell ref="A134:A145"/>
     <mergeCell ref="A2:A13"/>
     <mergeCell ref="A14:A25"/>
@@ -42822,6 +42818,14 @@
     <mergeCell ref="A98:A109"/>
     <mergeCell ref="A110:A121"/>
     <mergeCell ref="A122:A133"/>
+    <mergeCell ref="A218:A229"/>
+    <mergeCell ref="A230:A241"/>
+    <mergeCell ref="A146:A157"/>
+    <mergeCell ref="A158:A169"/>
+    <mergeCell ref="A170:A181"/>
+    <mergeCell ref="A182:A193"/>
+    <mergeCell ref="A194:A205"/>
+    <mergeCell ref="A206:A217"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/dataForExp.xlsx
+++ b/data/dataForExp.xlsx
@@ -8,17 +8,18 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Mirror系统开发\Mirror\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC489C3D-F0B8-434A-AC71-7872263C154A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F663908A-4299-4D99-BC27-06B31E347284}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2530" yWindow="930" windowWidth="13500" windowHeight="8260" activeTab="1" xr2:uid="{7869B96A-7811-4EF3-9176-2B0373B8E4EA}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="18220" windowHeight="11620" activeTab="1" xr2:uid="{7869B96A-7811-4EF3-9176-2B0373B8E4EA}"/>
   </bookViews>
   <sheets>
     <sheet name="purchaseProb" sheetId="1" r:id="rId1"/>
-    <sheet name="交易天数简化" sheetId="6" r:id="rId2"/>
-    <sheet name="initPrice" sheetId="5" r:id="rId3"/>
-    <sheet name="initFund" sheetId="7" r:id="rId4"/>
-    <sheet name="月交易天数" sheetId="3" r:id="rId5"/>
-    <sheet name="年交易天数" sheetId="4" r:id="rId6"/>
+    <sheet name="purchaseProb1" sheetId="8" r:id="rId2"/>
+    <sheet name="交易天数简化" sheetId="6" r:id="rId3"/>
+    <sheet name="initPrice" sheetId="5" r:id="rId4"/>
+    <sheet name="initFund" sheetId="7" r:id="rId5"/>
+    <sheet name="月交易天数" sheetId="3" r:id="rId6"/>
+    <sheet name="年交易天数" sheetId="4" r:id="rId7"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -30,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="59">
   <si>
     <t>股票代码</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -269,7 +270,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -300,6 +301,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -616,8 +618,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{836745D0-34E3-404A-9EBC-0776E433DEA0}">
   <dimension ref="A1:U51"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+    <sheetView topLeftCell="F26" workbookViewId="0">
+      <selection sqref="A1:U51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -3945,10 +3947,3341 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{607E8884-144C-42EC-AE78-CE783F45BCEB}">
+  <dimension ref="A1:U51"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="V12" sqref="V12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1">
+        <v>2000</v>
+      </c>
+      <c r="C1" s="1">
+        <v>2001</v>
+      </c>
+      <c r="D1" s="1">
+        <v>2002</v>
+      </c>
+      <c r="E1" s="1">
+        <v>2003</v>
+      </c>
+      <c r="F1" s="1">
+        <v>2004</v>
+      </c>
+      <c r="G1" s="1">
+        <v>2005</v>
+      </c>
+      <c r="H1" s="1">
+        <v>2006</v>
+      </c>
+      <c r="I1" s="1">
+        <v>2007</v>
+      </c>
+      <c r="J1" s="1">
+        <v>2008</v>
+      </c>
+      <c r="K1" s="1">
+        <v>2009</v>
+      </c>
+      <c r="L1" s="1">
+        <v>2010</v>
+      </c>
+      <c r="M1" s="1">
+        <v>2011</v>
+      </c>
+      <c r="N1" s="1">
+        <v>2012</v>
+      </c>
+      <c r="O1" s="1">
+        <v>2013</v>
+      </c>
+      <c r="P1" s="1">
+        <v>2014</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>2015</v>
+      </c>
+      <c r="R1" s="1">
+        <v>2016</v>
+      </c>
+      <c r="S1" s="1">
+        <v>2017</v>
+      </c>
+      <c r="T1" s="1">
+        <v>2018</v>
+      </c>
+      <c r="U1" s="1">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="2" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="10">
+        <v>0.69718652624163979</v>
+      </c>
+      <c r="C2" s="10">
+        <v>0.6149466442200473</v>
+      </c>
+      <c r="D2" s="10">
+        <v>0.56584579816975866</v>
+      </c>
+      <c r="E2" s="10">
+        <v>0.28739606323854899</v>
+      </c>
+      <c r="F2" s="10">
+        <v>0.95</v>
+      </c>
+      <c r="G2" s="10">
+        <v>0.5324799348877205</v>
+      </c>
+      <c r="H2" s="10">
+        <v>0.63564954722844336</v>
+      </c>
+      <c r="I2" s="10">
+        <v>0.95</v>
+      </c>
+      <c r="J2" s="10">
+        <v>0.25985879241628362</v>
+      </c>
+      <c r="K2" s="10">
+        <v>0.27833872980654911</v>
+      </c>
+      <c r="L2" s="10">
+        <v>0.38649223080947381</v>
+      </c>
+      <c r="M2" s="10">
+        <v>0.48993254996770602</v>
+      </c>
+      <c r="N2" s="10">
+        <v>0.37569600404784448</v>
+      </c>
+      <c r="O2" s="10">
+        <v>0.59932186790221276</v>
+      </c>
+      <c r="P2" s="10">
+        <v>0.69015946484894819</v>
+      </c>
+      <c r="Q2" s="10">
+        <v>0.41102567285571789</v>
+      </c>
+      <c r="R2" s="10">
+        <v>0.67681572177602289</v>
+      </c>
+      <c r="S2" s="10">
+        <v>0.58040940040091427</v>
+      </c>
+      <c r="T2" s="10">
+        <v>0.42880109928340732</v>
+      </c>
+      <c r="U2" s="10">
+        <v>0.34491431200268158</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="10">
+        <v>0.42039772485920979</v>
+      </c>
+      <c r="C3" s="10">
+        <v>0.60137085954174441</v>
+      </c>
+      <c r="D3" s="10">
+        <v>0.56270623387337659</v>
+      </c>
+      <c r="E3" s="10">
+        <v>0.50714158288319244</v>
+      </c>
+      <c r="F3" s="10">
+        <v>0.6065501516454207</v>
+      </c>
+      <c r="G3" s="10">
+        <v>0.76862888859603151</v>
+      </c>
+      <c r="H3" s="10">
+        <v>0.54641618410189452</v>
+      </c>
+      <c r="I3" s="10">
+        <v>0.44439788788785017</v>
+      </c>
+      <c r="J3" s="10">
+        <v>0.64964453391317589</v>
+      </c>
+      <c r="K3" s="10">
+        <v>0.30562027491847982</v>
+      </c>
+      <c r="L3" s="10">
+        <v>0.62231964145968122</v>
+      </c>
+      <c r="M3" s="10">
+        <v>0.43412830319256951</v>
+      </c>
+      <c r="N3" s="10">
+        <v>0.59514392386833825</v>
+      </c>
+      <c r="O3" s="10">
+        <v>0.35943686160116378</v>
+      </c>
+      <c r="P3" s="10">
+        <v>0.4919273008169795</v>
+      </c>
+      <c r="Q3" s="10">
+        <v>7.1209691964935207E-2</v>
+      </c>
+      <c r="R3" s="10">
+        <v>0.75663454943302788</v>
+      </c>
+      <c r="S3" s="10">
+        <v>0.29308985393887682</v>
+      </c>
+      <c r="T3" s="10">
+        <v>0.85467906634690005</v>
+      </c>
+      <c r="U3" s="10">
+        <v>0.36326679703038478</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="10">
+        <v>0.47901921113822388</v>
+      </c>
+      <c r="C4" s="10">
+        <v>0.33224257400927792</v>
+      </c>
+      <c r="D4" s="10">
+        <v>0.2381380205242162</v>
+      </c>
+      <c r="E4" s="10">
+        <v>0.23292491131395421</v>
+      </c>
+      <c r="F4" s="10">
+        <v>0.6582903005434847</v>
+      </c>
+      <c r="G4" s="10">
+        <v>0.45611251340326159</v>
+      </c>
+      <c r="H4" s="10">
+        <v>0.78553519596921395</v>
+      </c>
+      <c r="I4" s="10">
+        <v>0.69758154071649392</v>
+      </c>
+      <c r="J4" s="10">
+        <v>0.49618798870297282</v>
+      </c>
+      <c r="K4" s="10">
+        <v>0.38803578201653133</v>
+      </c>
+      <c r="L4" s="10">
+        <v>0.60845860626597548</v>
+      </c>
+      <c r="M4" s="10">
+        <v>0.85918929879556738</v>
+      </c>
+      <c r="N4" s="10">
+        <v>0.30812664813513618</v>
+      </c>
+      <c r="O4" s="10">
+        <v>0.21609718580154211</v>
+      </c>
+      <c r="P4" s="10">
+        <v>0.43585460746179028</v>
+      </c>
+      <c r="Q4" s="10">
+        <v>0.35617119071135073</v>
+      </c>
+      <c r="R4" s="10">
+        <v>0.70813541734009389</v>
+      </c>
+      <c r="S4" s="10">
+        <v>0.95</v>
+      </c>
+      <c r="T4" s="10">
+        <v>0.66771939950849102</v>
+      </c>
+      <c r="U4" s="10">
+        <v>0.50418442231508376</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="10">
+        <v>0.68706246097853896</v>
+      </c>
+      <c r="C5" s="10">
+        <v>0.38164003397471519</v>
+      </c>
+      <c r="D5" s="10">
+        <v>0.47735440072592639</v>
+      </c>
+      <c r="E5" s="10">
+        <v>0.42441284940534568</v>
+      </c>
+      <c r="F5" s="10">
+        <v>0.83435646731482516</v>
+      </c>
+      <c r="G5" s="10">
+        <v>0.6103476095893372</v>
+      </c>
+      <c r="H5" s="10">
+        <v>0.220249095251706</v>
+      </c>
+      <c r="I5" s="10">
+        <v>0.36470351344977958</v>
+      </c>
+      <c r="J5" s="10">
+        <v>0.35352446785305491</v>
+      </c>
+      <c r="K5" s="10">
+        <v>5.298695088100093E-2</v>
+      </c>
+      <c r="L5" s="10">
+        <v>0.1522537113016238</v>
+      </c>
+      <c r="M5" s="10">
+        <v>0.39681813796432319</v>
+      </c>
+      <c r="N5" s="10">
+        <v>7.8149716359595833E-2</v>
+      </c>
+      <c r="O5" s="10">
+        <v>0.30340500882644972</v>
+      </c>
+      <c r="P5" s="10">
+        <v>0.37927888536590171</v>
+      </c>
+      <c r="Q5" s="10">
+        <v>0.70873019707271512</v>
+      </c>
+      <c r="R5" s="10">
+        <v>0.65830877493368056</v>
+      </c>
+      <c r="S5" s="10">
+        <v>0.61795363806271286</v>
+      </c>
+      <c r="T5" s="10">
+        <v>0.32429668619226781</v>
+      </c>
+      <c r="U5" s="10">
+        <v>0.27490960200280551</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="10">
+        <v>0.4390769191920848</v>
+      </c>
+      <c r="C6" s="10">
+        <v>0.84131807173926076</v>
+      </c>
+      <c r="D6" s="10">
+        <v>0.52381644984012254</v>
+      </c>
+      <c r="E6" s="10">
+        <v>0.45968732421096209</v>
+      </c>
+      <c r="F6" s="10">
+        <v>0.61442105721306584</v>
+      </c>
+      <c r="G6" s="10">
+        <v>0.64490918871660241</v>
+      </c>
+      <c r="H6" s="10">
+        <v>0.31599888641953089</v>
+      </c>
+      <c r="I6" s="10">
+        <v>0.30124122405158948</v>
+      </c>
+      <c r="J6" s="10">
+        <v>0.38828629233182621</v>
+      </c>
+      <c r="K6" s="10">
+        <v>0.2710129488124684</v>
+      </c>
+      <c r="L6" s="10">
+        <v>0.2357577485593772</v>
+      </c>
+      <c r="M6" s="10">
+        <v>0.64774473335890825</v>
+      </c>
+      <c r="N6" s="10">
+        <v>0.5355560060027289</v>
+      </c>
+      <c r="O6" s="10">
+        <v>0.75570476875857173</v>
+      </c>
+      <c r="P6" s="10">
+        <v>0.27651671370260311</v>
+      </c>
+      <c r="Q6" s="10">
+        <v>0.84698338091068137</v>
+      </c>
+      <c r="R6" s="10">
+        <v>0.48169389894967179</v>
+      </c>
+      <c r="S6" s="10">
+        <v>0.54468692042340017</v>
+      </c>
+      <c r="T6" s="10">
+        <v>0.12828271016270079</v>
+      </c>
+      <c r="U6" s="10">
+        <v>0.5126604801901854</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" s="10">
+        <v>0.19520888841775641</v>
+      </c>
+      <c r="C7" s="10">
+        <v>0.77120231790251137</v>
+      </c>
+      <c r="D7" s="10">
+        <v>0.4949306177342182</v>
+      </c>
+      <c r="E7" s="10">
+        <v>0.68672741583703889</v>
+      </c>
+      <c r="F7" s="10">
+        <v>0.60460402504025346</v>
+      </c>
+      <c r="G7" s="10">
+        <v>0.41772855104565909</v>
+      </c>
+      <c r="H7" s="10">
+        <v>0.59665384793564369</v>
+      </c>
+      <c r="I7" s="10">
+        <v>0.35843673858662572</v>
+      </c>
+      <c r="J7" s="10">
+        <v>0.95</v>
+      </c>
+      <c r="K7" s="10">
+        <v>0.36862517264671252</v>
+      </c>
+      <c r="L7" s="10">
+        <v>0.53730711394331343</v>
+      </c>
+      <c r="M7" s="10">
+        <v>0.67066067662283679</v>
+      </c>
+      <c r="N7" s="10">
+        <v>0.50992814131944808</v>
+      </c>
+      <c r="O7" s="10">
+        <v>0.63637236506391348</v>
+      </c>
+      <c r="P7" s="10">
+        <v>0.38849883862048928</v>
+      </c>
+      <c r="Q7" s="10">
+        <v>0.7407513994265772</v>
+      </c>
+      <c r="R7" s="10">
+        <v>0.7701342560402209</v>
+      </c>
+      <c r="S7" s="10">
+        <v>0.61062823257327981</v>
+      </c>
+      <c r="T7" s="10">
+        <v>9.8143351235540299E-2</v>
+      </c>
+      <c r="U7" s="10">
+        <v>0.79257450490525316</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" s="10">
+        <v>0.56435538351244563</v>
+      </c>
+      <c r="C8" s="10">
+        <v>0.64218838608346873</v>
+      </c>
+      <c r="D8" s="10">
+        <v>0.58840358635028156</v>
+      </c>
+      <c r="E8" s="10">
+        <v>0.19409203334588401</v>
+      </c>
+      <c r="F8" s="10">
+        <v>0.36560200694837891</v>
+      </c>
+      <c r="G8" s="10">
+        <v>0.30711280232345822</v>
+      </c>
+      <c r="H8" s="10">
+        <v>0.18667401173739309</v>
+      </c>
+      <c r="I8" s="10">
+        <v>0.42734628351398207</v>
+      </c>
+      <c r="J8" s="10">
+        <v>0.35999097139287928</v>
+      </c>
+      <c r="K8" s="10">
+        <v>0.50269854125891866</v>
+      </c>
+      <c r="L8" s="10">
+        <v>0.61286480249334419</v>
+      </c>
+      <c r="M8" s="10">
+        <v>0.61469667403655404</v>
+      </c>
+      <c r="N8" s="10">
+        <v>0.61131520393118588</v>
+      </c>
+      <c r="O8" s="10">
+        <v>0.78873046956434478</v>
+      </c>
+      <c r="P8" s="10">
+        <v>0.77499982307162141</v>
+      </c>
+      <c r="Q8" s="10">
+        <v>0.17104838864599681</v>
+      </c>
+      <c r="R8" s="10">
+        <v>0.89446367512288916</v>
+      </c>
+      <c r="S8" s="10">
+        <v>0.4266513972350674</v>
+      </c>
+      <c r="T8" s="10">
+        <v>0.38216348765427938</v>
+      </c>
+      <c r="U8" s="10">
+        <v>0.2070262113752783</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A9" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" s="10">
+        <v>0.41915850551297901</v>
+      </c>
+      <c r="C9" s="10">
+        <v>0.55931169626483856</v>
+      </c>
+      <c r="D9" s="10">
+        <v>0.1169052829181759</v>
+      </c>
+      <c r="E9" s="10">
+        <v>0.34691436065205022</v>
+      </c>
+      <c r="F9" s="10">
+        <v>0.60321690973957987</v>
+      </c>
+      <c r="G9" s="10">
+        <v>0.81578027864457092</v>
+      </c>
+      <c r="H9" s="10">
+        <v>0.25603323435210712</v>
+      </c>
+      <c r="I9" s="10">
+        <v>0.49084118360946621</v>
+      </c>
+      <c r="J9" s="10">
+        <v>0.348717042391125</v>
+      </c>
+      <c r="K9" s="10">
+        <v>0.39979679801888002</v>
+      </c>
+      <c r="L9" s="10">
+        <v>0.41221277091944353</v>
+      </c>
+      <c r="M9" s="10">
+        <v>0.61867422200972189</v>
+      </c>
+      <c r="N9" s="10">
+        <v>0.29933904604341371</v>
+      </c>
+      <c r="O9" s="10">
+        <v>0.72879756331379164</v>
+      </c>
+      <c r="P9" s="10">
+        <v>0.60650810197842431</v>
+      </c>
+      <c r="Q9" s="10">
+        <v>0.2795675284980228</v>
+      </c>
+      <c r="R9" s="10">
+        <v>0.29654743848686937</v>
+      </c>
+      <c r="S9" s="10">
+        <v>0.59949042254981832</v>
+      </c>
+      <c r="T9" s="10">
+        <v>0.40962684283326778</v>
+      </c>
+      <c r="U9" s="10">
+        <v>0.26980391697838552</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A10" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10" s="10">
+        <v>0.67829848096914491</v>
+      </c>
+      <c r="C10" s="10">
+        <v>0.37952626509169679</v>
+      </c>
+      <c r="D10" s="10">
+        <v>0.57859516167870018</v>
+      </c>
+      <c r="E10" s="10">
+        <v>0.5254802188436215</v>
+      </c>
+      <c r="F10" s="10">
+        <v>0.35241312559191962</v>
+      </c>
+      <c r="G10" s="10">
+        <v>0.2396924269290614</v>
+      </c>
+      <c r="H10" s="10">
+        <v>0.46168054600718061</v>
+      </c>
+      <c r="I10" s="10">
+        <v>0.83398147341973061</v>
+      </c>
+      <c r="J10" s="10">
+        <v>0.57912772618975938</v>
+      </c>
+      <c r="K10" s="10">
+        <v>0.35759225541731532</v>
+      </c>
+      <c r="L10" s="10">
+        <v>0.61822402164024581</v>
+      </c>
+      <c r="M10" s="10">
+        <v>0.35315215845657988</v>
+      </c>
+      <c r="N10" s="10">
+        <v>0.1027422779724859</v>
+      </c>
+      <c r="O10" s="10">
+        <v>0.63588471140645042</v>
+      </c>
+      <c r="P10" s="10">
+        <v>0.6863770573512189</v>
+      </c>
+      <c r="Q10" s="10">
+        <v>0.66994475401015818</v>
+      </c>
+      <c r="R10" s="10">
+        <v>0.65866490520835141</v>
+      </c>
+      <c r="S10" s="10">
+        <v>0.74021430981605241</v>
+      </c>
+      <c r="T10" s="10">
+        <v>0.23085511252552121</v>
+      </c>
+      <c r="U10" s="10">
+        <v>0.75002791046159745</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A11" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11" s="10">
+        <v>0.32542282042313969</v>
+      </c>
+      <c r="C11" s="10">
+        <v>0.62910914388894934</v>
+      </c>
+      <c r="D11" s="10">
+        <v>0.78592512908247969</v>
+      </c>
+      <c r="E11" s="10">
+        <v>0.4589033418772458</v>
+      </c>
+      <c r="F11" s="10">
+        <v>0.75964199055385784</v>
+      </c>
+      <c r="G11" s="10">
+        <v>0.40225318093419049</v>
+      </c>
+      <c r="H11" s="10">
+        <v>0.36688153147074037</v>
+      </c>
+      <c r="I11" s="10">
+        <v>0.56533571355979251</v>
+      </c>
+      <c r="J11" s="10">
+        <v>0.91508267890074024</v>
+      </c>
+      <c r="K11" s="10">
+        <v>0.2291194808783939</v>
+      </c>
+      <c r="L11" s="10">
+        <v>0.62908244834750016</v>
+      </c>
+      <c r="M11" s="10">
+        <v>0.41418789164298642</v>
+      </c>
+      <c r="N11" s="10">
+        <v>0.37037990097316958</v>
+      </c>
+      <c r="O11" s="10">
+        <v>0.95</v>
+      </c>
+      <c r="P11" s="10">
+        <v>0.78718004553146459</v>
+      </c>
+      <c r="Q11" s="10">
+        <v>0.43246636154942308</v>
+      </c>
+      <c r="R11" s="10">
+        <v>0.64222035650869247</v>
+      </c>
+      <c r="S11" s="10">
+        <v>0.86514725594653419</v>
+      </c>
+      <c r="T11" s="10">
+        <v>0.91943210874546033</v>
+      </c>
+      <c r="U11" s="10">
+        <v>0.63195056146053519</v>
+      </c>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A12" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12" s="10">
+        <v>0.2309596414917299</v>
+      </c>
+      <c r="C12" s="10">
+        <v>0.48590768227610293</v>
+      </c>
+      <c r="D12" s="10">
+        <v>0.33501570566978112</v>
+      </c>
+      <c r="E12" s="10">
+        <v>0.3956183223202025</v>
+      </c>
+      <c r="F12" s="10">
+        <v>0.59643286954493302</v>
+      </c>
+      <c r="G12" s="10">
+        <v>0.69505442661326466</v>
+      </c>
+      <c r="H12" s="10">
+        <v>0.49130530328617572</v>
+      </c>
+      <c r="I12" s="10">
+        <v>0.51700921623488616</v>
+      </c>
+      <c r="J12" s="10">
+        <v>0.05</v>
+      </c>
+      <c r="K12" s="10">
+        <v>0.2446023039535028</v>
+      </c>
+      <c r="L12" s="10">
+        <v>0.05</v>
+      </c>
+      <c r="M12" s="10">
+        <v>0.95</v>
+      </c>
+      <c r="N12" s="10">
+        <v>0.44582629049845002</v>
+      </c>
+      <c r="O12" s="10">
+        <v>0.24728598198142041</v>
+      </c>
+      <c r="P12" s="10">
+        <v>0.52627708024851239</v>
+      </c>
+      <c r="Q12" s="10">
+        <v>0.41612558526076138</v>
+      </c>
+      <c r="R12" s="10">
+        <v>0.61647810344905662</v>
+      </c>
+      <c r="S12" s="10">
+        <v>0.89161349928888844</v>
+      </c>
+      <c r="T12" s="10">
+        <v>0.31538062980834208</v>
+      </c>
+      <c r="U12" s="10">
+        <v>0.81313617771446689</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A13" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B13" s="10">
+        <v>0.52380881176785832</v>
+      </c>
+      <c r="C13" s="10">
+        <v>0.16935109285615171</v>
+      </c>
+      <c r="D13" s="10">
+        <v>0.42472952889432819</v>
+      </c>
+      <c r="E13" s="10">
+        <v>0.57236127749658805</v>
+      </c>
+      <c r="F13" s="10">
+        <v>0.64951408872670646</v>
+      </c>
+      <c r="G13" s="10">
+        <v>0.60527554885335866</v>
+      </c>
+      <c r="H13" s="10">
+        <v>0.54879566141141989</v>
+      </c>
+      <c r="I13" s="10">
+        <v>0.33482218818135351</v>
+      </c>
+      <c r="J13" s="10">
+        <v>0.27063063627513662</v>
+      </c>
+      <c r="K13" s="10">
+        <v>0.1091232987241066</v>
+      </c>
+      <c r="L13" s="10">
+        <v>0.79143608543929012</v>
+      </c>
+      <c r="M13" s="10">
+        <v>0.62231995884383329</v>
+      </c>
+      <c r="N13" s="10">
+        <v>0.47076702803474518</v>
+      </c>
+      <c r="O13" s="10">
+        <v>0.39535808282339158</v>
+      </c>
+      <c r="P13" s="10">
+        <v>0.84322069074783068</v>
+      </c>
+      <c r="Q13" s="10">
+        <v>0.69989945999310998</v>
+      </c>
+      <c r="R13" s="10">
+        <v>0.14619950187108199</v>
+      </c>
+      <c r="S13" s="10">
+        <v>0.49262942563726397</v>
+      </c>
+      <c r="T13" s="10">
+        <v>0.30406532086289362</v>
+      </c>
+      <c r="U13" s="10">
+        <v>0.74144277372944745</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A14" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B14" s="10">
+        <v>0.5679653259942351</v>
+      </c>
+      <c r="C14" s="10">
+        <v>0.77817620278551292</v>
+      </c>
+      <c r="D14" s="10">
+        <v>0.27512893979472591</v>
+      </c>
+      <c r="E14" s="10">
+        <v>0.88335105482077048</v>
+      </c>
+      <c r="F14" s="10">
+        <v>0.84978647550828945</v>
+      </c>
+      <c r="G14" s="10">
+        <v>0.74504727018081918</v>
+      </c>
+      <c r="H14" s="10">
+        <v>0.36008299710806663</v>
+      </c>
+      <c r="I14" s="10">
+        <v>0.53637955148311178</v>
+      </c>
+      <c r="J14" s="10">
+        <v>0.33451529679346298</v>
+      </c>
+      <c r="K14" s="10">
+        <v>0.54199112727343524</v>
+      </c>
+      <c r="L14" s="10">
+        <v>0.40636719921672793</v>
+      </c>
+      <c r="M14" s="10">
+        <v>0.50737541480405868</v>
+      </c>
+      <c r="N14" s="10">
+        <v>0.49455541514428969</v>
+      </c>
+      <c r="O14" s="10">
+        <v>0.72574009927502114</v>
+      </c>
+      <c r="P14" s="10">
+        <v>0.47141138259617421</v>
+      </c>
+      <c r="Q14" s="10">
+        <v>0.68288254100047296</v>
+      </c>
+      <c r="R14" s="10">
+        <v>0.34417766830734048</v>
+      </c>
+      <c r="S14" s="10">
+        <v>0.65585102700774334</v>
+      </c>
+      <c r="T14" s="10">
+        <v>0.54055851711669456</v>
+      </c>
+      <c r="U14" s="10">
+        <v>0.63812941969173753</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A15" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B15" s="10">
+        <v>0.32214874165130319</v>
+      </c>
+      <c r="C15" s="10">
+        <v>0.89533684247578449</v>
+      </c>
+      <c r="D15" s="10">
+        <v>0.49162281888024317</v>
+      </c>
+      <c r="E15" s="10">
+        <v>0.47763247664318098</v>
+      </c>
+      <c r="F15" s="10">
+        <v>0.52749184193314036</v>
+      </c>
+      <c r="G15" s="10">
+        <v>0.52458056207142822</v>
+      </c>
+      <c r="H15" s="10">
+        <v>0.95</v>
+      </c>
+      <c r="I15" s="10">
+        <v>0.38093773869904429</v>
+      </c>
+      <c r="J15" s="10">
+        <v>0.72679392594448144</v>
+      </c>
+      <c r="K15" s="10">
+        <v>0.17093575427078481</v>
+      </c>
+      <c r="L15" s="10">
+        <v>0.31167358728727179</v>
+      </c>
+      <c r="M15" s="10">
+        <v>0.77401883380446368</v>
+      </c>
+      <c r="N15" s="10">
+        <v>0.28849243018428788</v>
+      </c>
+      <c r="O15" s="10">
+        <v>0.3415360983277716</v>
+      </c>
+      <c r="P15" s="10">
+        <v>0.57320729629221256</v>
+      </c>
+      <c r="Q15" s="10">
+        <v>0.34386003022874501</v>
+      </c>
+      <c r="R15" s="10">
+        <v>0.72057659337897506</v>
+      </c>
+      <c r="S15" s="10">
+        <v>0.78063269831835114</v>
+      </c>
+      <c r="T15" s="10">
+        <v>0.65065041744935415</v>
+      </c>
+      <c r="U15" s="10">
+        <v>0.24564304152158409</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A16" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B16" s="10">
+        <v>0.29413763017121758</v>
+      </c>
+      <c r="C16" s="10">
+        <v>0.48808216722051417</v>
+      </c>
+      <c r="D16" s="10">
+        <v>0.26435898000977159</v>
+      </c>
+      <c r="E16" s="10">
+        <v>0.27470592466635219</v>
+      </c>
+      <c r="F16" s="10">
+        <v>0.05</v>
+      </c>
+      <c r="G16" s="10">
+        <v>0.69304134939056572</v>
+      </c>
+      <c r="H16" s="10">
+        <v>0.46414377341016461</v>
+      </c>
+      <c r="I16" s="10">
+        <v>0.65738510037099707</v>
+      </c>
+      <c r="J16" s="10">
+        <v>0.29193244322400552</v>
+      </c>
+      <c r="K16" s="10">
+        <v>0.17476636667248879</v>
+      </c>
+      <c r="L16" s="10">
+        <v>5.0067880567680523E-2</v>
+      </c>
+      <c r="M16" s="10">
+        <v>0.10120470992416949</v>
+      </c>
+      <c r="N16" s="10">
+        <v>0.27208741017717519</v>
+      </c>
+      <c r="O16" s="10">
+        <v>0.41957453320088522</v>
+      </c>
+      <c r="P16" s="10">
+        <v>0.94099090066031876</v>
+      </c>
+      <c r="Q16" s="10">
+        <v>0.77545846804051299</v>
+      </c>
+      <c r="R16" s="10">
+        <v>0.46248089271716342</v>
+      </c>
+      <c r="S16" s="10">
+        <v>0.50427810200908751</v>
+      </c>
+      <c r="T16" s="10">
+        <v>0.31859446532227881</v>
+      </c>
+      <c r="U16" s="10">
+        <v>0.633225854651155</v>
+      </c>
+    </row>
+    <row r="17" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A17" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B17" s="10">
+        <v>0.75791056333760798</v>
+      </c>
+      <c r="C17" s="10">
+        <v>0.21572608286253539</v>
+      </c>
+      <c r="D17" s="10">
+        <v>0.42592223252748668</v>
+      </c>
+      <c r="E17" s="10">
+        <v>0.47185289854125928</v>
+      </c>
+      <c r="F17" s="10">
+        <v>0.762968414562608</v>
+      </c>
+      <c r="G17" s="10">
+        <v>0.72301570947272353</v>
+      </c>
+      <c r="H17" s="10">
+        <v>0.28972944297344683</v>
+      </c>
+      <c r="I17" s="10">
+        <v>0.49778269854720258</v>
+      </c>
+      <c r="J17" s="10">
+        <v>0.14187854518659879</v>
+      </c>
+      <c r="K17" s="10">
+        <v>0.33688401383272998</v>
+      </c>
+      <c r="L17" s="10">
+        <v>0.54923135296805181</v>
+      </c>
+      <c r="M17" s="10">
+        <v>0.47279204429000249</v>
+      </c>
+      <c r="N17" s="10">
+        <v>0.46807139866119662</v>
+      </c>
+      <c r="O17" s="10">
+        <v>0.67334738001179617</v>
+      </c>
+      <c r="P17" s="10">
+        <v>0.77948126160927966</v>
+      </c>
+      <c r="Q17" s="10">
+        <v>0.7371936984936408</v>
+      </c>
+      <c r="R17" s="10">
+        <v>0.66115089118413684</v>
+      </c>
+      <c r="S17" s="10">
+        <v>0.83917291277494288</v>
+      </c>
+      <c r="T17" s="10">
+        <v>0.58606112350861161</v>
+      </c>
+      <c r="U17" s="10">
+        <v>0.3729070761426328</v>
+      </c>
+    </row>
+    <row r="18" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A18" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B18" s="10">
+        <v>0.22218298830374991</v>
+      </c>
+      <c r="C18" s="10">
+        <v>0.61745593049695147</v>
+      </c>
+      <c r="D18" s="10">
+        <v>0.71384521852538851</v>
+      </c>
+      <c r="E18" s="10">
+        <v>0.34321806650736292</v>
+      </c>
+      <c r="F18" s="10">
+        <v>0.43497281014544281</v>
+      </c>
+      <c r="G18" s="10">
+        <v>0.43331445311044298</v>
+      </c>
+      <c r="H18" s="10">
+        <v>0.28592194256346892</v>
+      </c>
+      <c r="I18" s="10">
+        <v>0.75484482533508235</v>
+      </c>
+      <c r="J18" s="10">
+        <v>0.1356199887519553</v>
+      </c>
+      <c r="K18" s="10">
+        <v>0.45224864444810747</v>
+      </c>
+      <c r="L18" s="10">
+        <v>0.95</v>
+      </c>
+      <c r="M18" s="10">
+        <v>0.61503493380883034</v>
+      </c>
+      <c r="N18" s="10">
+        <v>0.95</v>
+      </c>
+      <c r="O18" s="10">
+        <v>0.65745482300940483</v>
+      </c>
+      <c r="P18" s="10">
+        <v>0.8019497447830789</v>
+      </c>
+      <c r="Q18" s="10">
+        <v>0.2285293721047926</v>
+      </c>
+      <c r="R18" s="10">
+        <v>0.18897072870397799</v>
+      </c>
+      <c r="S18" s="10">
+        <v>0.18422177048179081</v>
+      </c>
+      <c r="T18" s="10">
+        <v>0.48493189319380181</v>
+      </c>
+      <c r="U18" s="10">
+        <v>0.46081432121099442</v>
+      </c>
+    </row>
+    <row r="19" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A19" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B19" s="10">
+        <v>0.51578008847310786</v>
+      </c>
+      <c r="C19" s="10">
+        <v>0.44107908071785112</v>
+      </c>
+      <c r="D19" s="10">
+        <v>0.21291323626218761</v>
+      </c>
+      <c r="E19" s="10">
+        <v>0.28118712608021351</v>
+      </c>
+      <c r="F19" s="10">
+        <v>0.73611465366726947</v>
+      </c>
+      <c r="G19" s="10">
+        <v>6.7372928062455928E-2</v>
+      </c>
+      <c r="H19" s="10">
+        <v>0.50852412739148056</v>
+      </c>
+      <c r="I19" s="10">
+        <v>0.83589739752787828</v>
+      </c>
+      <c r="J19" s="10">
+        <v>0.10998226280113919</v>
+      </c>
+      <c r="K19" s="10">
+        <v>0.57831303067518691</v>
+      </c>
+      <c r="L19" s="10">
+        <v>0.66424127572191483</v>
+      </c>
+      <c r="M19" s="10">
+        <v>0.41555766961667739</v>
+      </c>
+      <c r="N19" s="10">
+        <v>0.7066672689077016</v>
+      </c>
+      <c r="O19" s="10">
+        <v>0.17320491586241191</v>
+      </c>
+      <c r="P19" s="10">
+        <v>0.43944691085635629</v>
+      </c>
+      <c r="Q19" s="10">
+        <v>0.79562302555242548</v>
+      </c>
+      <c r="R19" s="10">
+        <v>0.55927097378417612</v>
+      </c>
+      <c r="S19" s="10">
+        <v>0.28358686547513018</v>
+      </c>
+      <c r="T19" s="10">
+        <v>0.54361704557860013</v>
+      </c>
+      <c r="U19" s="10">
+        <v>0.24336171029817311</v>
+      </c>
+    </row>
+    <row r="20" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A20" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B20" s="10">
+        <v>0.32744162945078198</v>
+      </c>
+      <c r="C20" s="10">
+        <v>0.16983979847597069</v>
+      </c>
+      <c r="D20" s="10">
+        <v>0.8188102423598228</v>
+      </c>
+      <c r="E20" s="10">
+        <v>0.39584418335258198</v>
+      </c>
+      <c r="F20" s="10">
+        <v>0.73435528658175231</v>
+      </c>
+      <c r="G20" s="10">
+        <v>0.80017445136347343</v>
+      </c>
+      <c r="H20" s="10">
+        <v>0.25775418321108268</v>
+      </c>
+      <c r="I20" s="10">
+        <v>0.45169602000231152</v>
+      </c>
+      <c r="J20" s="10">
+        <v>0.59815391529475792</v>
+      </c>
+      <c r="K20" s="10">
+        <v>0.335989792488257</v>
+      </c>
+      <c r="L20" s="10">
+        <v>0.72466685121272478</v>
+      </c>
+      <c r="M20" s="10">
+        <v>0.31464336629609868</v>
+      </c>
+      <c r="N20" s="10">
+        <v>0.53692512687073801</v>
+      </c>
+      <c r="O20" s="10">
+        <v>0.55746530235353853</v>
+      </c>
+      <c r="P20" s="10">
+        <v>0.67083848135707125</v>
+      </c>
+      <c r="Q20" s="10">
+        <v>0.1578953263043063</v>
+      </c>
+      <c r="R20" s="10">
+        <v>0.68136683511690754</v>
+      </c>
+      <c r="S20" s="10">
+        <v>0.87609995507391558</v>
+      </c>
+      <c r="T20" s="10">
+        <v>0.62488841659776762</v>
+      </c>
+      <c r="U20" s="10">
+        <v>0.65409377154671711</v>
+      </c>
+    </row>
+    <row r="21" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A21" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B21" s="10">
+        <v>0.39294950655938121</v>
+      </c>
+      <c r="C21" s="10">
+        <v>0.53270111256138986</v>
+      </c>
+      <c r="D21" s="10">
+        <v>0.53919944325889457</v>
+      </c>
+      <c r="E21" s="10">
+        <v>0.33546232429636019</v>
+      </c>
+      <c r="F21" s="10">
+        <v>0.58676029971315957</v>
+      </c>
+      <c r="G21" s="10">
+        <v>0.76229474557528354</v>
+      </c>
+      <c r="H21" s="10">
+        <v>0.67664166376730439</v>
+      </c>
+      <c r="I21" s="10">
+        <v>0.85889305806734906</v>
+      </c>
+      <c r="J21" s="10">
+        <v>0.39856692214492617</v>
+      </c>
+      <c r="K21" s="10">
+        <v>0.26980871483750157</v>
+      </c>
+      <c r="L21" s="10">
+        <v>0.65346317271148624</v>
+      </c>
+      <c r="M21" s="10">
+        <v>0.92695345047476285</v>
+      </c>
+      <c r="N21" s="10">
+        <v>0.14377160760241919</v>
+      </c>
+      <c r="O21" s="10">
+        <v>0.49364768871007558</v>
+      </c>
+      <c r="P21" s="10">
+        <v>0.55598353800506883</v>
+      </c>
+      <c r="Q21" s="10">
+        <v>0.56318988516264357</v>
+      </c>
+      <c r="R21" s="10">
+        <v>0.34555554861573479</v>
+      </c>
+      <c r="S21" s="10">
+        <v>0.93021969904751978</v>
+      </c>
+      <c r="T21" s="10">
+        <v>0.05</v>
+      </c>
+      <c r="U21" s="10">
+        <v>0.75082650108408366</v>
+      </c>
+    </row>
+    <row r="22" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A22" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B22" s="10">
+        <v>0.52755832584385842</v>
+      </c>
+      <c r="C22" s="10">
+        <v>0.83362636584181116</v>
+      </c>
+      <c r="D22" s="10">
+        <v>0.79565723916177777</v>
+      </c>
+      <c r="E22" s="10">
+        <v>0.56482773087454574</v>
+      </c>
+      <c r="F22" s="10">
+        <v>0.80390263707406329</v>
+      </c>
+      <c r="G22" s="10">
+        <v>0.3486763360206046</v>
+      </c>
+      <c r="H22" s="10">
+        <v>0.46924935650683552</v>
+      </c>
+      <c r="I22" s="10">
+        <v>0.80727624885913285</v>
+      </c>
+      <c r="J22" s="10">
+        <v>0.61915957525667431</v>
+      </c>
+      <c r="K22" s="10">
+        <v>0.21242594834095421</v>
+      </c>
+      <c r="L22" s="10">
+        <v>0.76824042988710783</v>
+      </c>
+      <c r="M22" s="10">
+        <v>0.40045677053597212</v>
+      </c>
+      <c r="N22" s="10">
+        <v>0.21263371772964151</v>
+      </c>
+      <c r="O22" s="10">
+        <v>0.14829853681668659</v>
+      </c>
+      <c r="P22" s="10">
+        <v>0.49477480570683002</v>
+      </c>
+      <c r="Q22" s="10">
+        <v>0.35619177603540658</v>
+      </c>
+      <c r="R22" s="10">
+        <v>0.37744631199666839</v>
+      </c>
+      <c r="S22" s="10">
+        <v>0.79518387375207578</v>
+      </c>
+      <c r="T22" s="10">
+        <v>0.36513645912633569</v>
+      </c>
+      <c r="U22" s="10">
+        <v>0.83894085310425448</v>
+      </c>
+    </row>
+    <row r="23" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A23" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B23" s="10">
+        <v>0.34983417332039218</v>
+      </c>
+      <c r="C23" s="10">
+        <v>0.74905785994726826</v>
+      </c>
+      <c r="D23" s="10">
+        <v>0.95</v>
+      </c>
+      <c r="E23" s="10">
+        <v>0.34384347770880208</v>
+      </c>
+      <c r="F23" s="10">
+        <v>0.86354889965136061</v>
+      </c>
+      <c r="G23" s="10">
+        <v>0.33198762076061022</v>
+      </c>
+      <c r="H23" s="10">
+        <v>0.30644683923140997</v>
+      </c>
+      <c r="I23" s="10">
+        <v>0.73484861515439803</v>
+      </c>
+      <c r="J23" s="10">
+        <v>0.22911270806858219</v>
+      </c>
+      <c r="K23" s="10">
+        <v>0.25594533077350801</v>
+      </c>
+      <c r="L23" s="10">
+        <v>0.15338064876600541</v>
+      </c>
+      <c r="M23" s="10">
+        <v>0.65602105123912569</v>
+      </c>
+      <c r="N23" s="10">
+        <v>0.31513729878470309</v>
+      </c>
+      <c r="O23" s="10">
+        <v>9.8906348456333379E-2</v>
+      </c>
+      <c r="P23" s="10">
+        <v>8.2062389857650103E-2</v>
+      </c>
+      <c r="Q23" s="10">
+        <v>0.63798448311811118</v>
+      </c>
+      <c r="R23" s="10">
+        <v>0.71852891790035711</v>
+      </c>
+      <c r="S23" s="10">
+        <v>0.93427470565674586</v>
+      </c>
+      <c r="T23" s="10">
+        <v>0.5565798903818614</v>
+      </c>
+      <c r="U23" s="10">
+        <v>0.51180100336303469</v>
+      </c>
+    </row>
+    <row r="24" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A24" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B24" s="10">
+        <v>0.46418601897114181</v>
+      </c>
+      <c r="C24" s="10">
+        <v>0.57253183954872811</v>
+      </c>
+      <c r="D24" s="10">
+        <v>0.54238195128133582</v>
+      </c>
+      <c r="E24" s="10">
+        <v>0.51550143547476734</v>
+      </c>
+      <c r="F24" s="10">
+        <v>0.4153270522522024</v>
+      </c>
+      <c r="G24" s="10">
+        <v>0.95</v>
+      </c>
+      <c r="H24" s="10">
+        <v>0.46185184813509239</v>
+      </c>
+      <c r="I24" s="10">
+        <v>0.78844810463155779</v>
+      </c>
+      <c r="J24" s="10">
+        <v>0.69969979238778857</v>
+      </c>
+      <c r="K24" s="10">
+        <v>0.3946759733348244</v>
+      </c>
+      <c r="L24" s="10">
+        <v>0.37668472703789391</v>
+      </c>
+      <c r="M24" s="10">
+        <v>0.46565253335523699</v>
+      </c>
+      <c r="N24" s="10">
+        <v>0.25573131074018712</v>
+      </c>
+      <c r="O24" s="10">
+        <v>0.25425590462234898</v>
+      </c>
+      <c r="P24" s="10">
+        <v>0.52024319599787339</v>
+      </c>
+      <c r="Q24" s="10">
+        <v>0.47501748522827059</v>
+      </c>
+      <c r="R24" s="10">
+        <v>0.45340636610296708</v>
+      </c>
+      <c r="S24" s="10">
+        <v>0.56545147905461468</v>
+      </c>
+      <c r="T24" s="10">
+        <v>0.66543791717275735</v>
+      </c>
+      <c r="U24" s="10">
+        <v>0.32985556783606529</v>
+      </c>
+    </row>
+    <row r="25" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B25" s="10">
+        <v>0.51369229792558624</v>
+      </c>
+      <c r="C25" s="10">
+        <v>0.42530202159228142</v>
+      </c>
+      <c r="D25" s="10">
+        <v>0.55967445325488341</v>
+      </c>
+      <c r="E25" s="10">
+        <v>0.42059772615302071</v>
+      </c>
+      <c r="F25" s="10">
+        <v>0.32947786300015752</v>
+      </c>
+      <c r="G25" s="10">
+        <v>0.40090564315225902</v>
+      </c>
+      <c r="H25" s="10">
+        <v>0.57746790386060931</v>
+      </c>
+      <c r="I25" s="10">
+        <v>0.05</v>
+      </c>
+      <c r="J25" s="10">
+        <v>0.5073846993703568</v>
+      </c>
+      <c r="K25" s="10">
+        <v>0.25070794981604883</v>
+      </c>
+      <c r="L25" s="10">
+        <v>0.72887480168890073</v>
+      </c>
+      <c r="M25" s="10">
+        <v>0.79635575901208511</v>
+      </c>
+      <c r="N25" s="10">
+        <v>0.62708602369487498</v>
+      </c>
+      <c r="O25" s="10">
+        <v>0.73091994473762234</v>
+      </c>
+      <c r="P25" s="10">
+        <v>0.52942802637933017</v>
+      </c>
+      <c r="Q25" s="10">
+        <v>0.31324362270012213</v>
+      </c>
+      <c r="R25" s="10">
+        <v>0.46160793747844198</v>
+      </c>
+      <c r="S25" s="10">
+        <v>0.83126616929544406</v>
+      </c>
+      <c r="T25" s="10">
+        <v>0.49658861596194659</v>
+      </c>
+      <c r="U25" s="10">
+        <v>0.55546392983565651</v>
+      </c>
+    </row>
+    <row r="26" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A26" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" s="10">
+        <v>0.33774923380446259</v>
+      </c>
+      <c r="C26" s="10">
+        <v>0.57810658095476164</v>
+      </c>
+      <c r="D26" s="10">
+        <v>0.40073693472200672</v>
+      </c>
+      <c r="E26" s="10">
+        <v>0.49758620961790218</v>
+      </c>
+      <c r="F26" s="10">
+        <v>0.44209728135974741</v>
+      </c>
+      <c r="G26" s="10">
+        <v>0.77871270902733236</v>
+      </c>
+      <c r="H26" s="10">
+        <v>0.40544748825221211</v>
+      </c>
+      <c r="I26" s="10">
+        <v>0.43486575935660882</v>
+      </c>
+      <c r="J26" s="10">
+        <v>0.36526975348274471</v>
+      </c>
+      <c r="K26" s="10">
+        <v>0.17741632934933671</v>
+      </c>
+      <c r="L26" s="10">
+        <v>0.67696891366089706</v>
+      </c>
+      <c r="M26" s="10">
+        <v>0.77335171619180754</v>
+      </c>
+      <c r="N26" s="10">
+        <v>0.14288949810515489</v>
+      </c>
+      <c r="O26" s="10">
+        <v>0.60368471287625414</v>
+      </c>
+      <c r="P26" s="10">
+        <v>0.9177832144312047</v>
+      </c>
+      <c r="Q26" s="10">
+        <v>0.30522385075164682</v>
+      </c>
+      <c r="R26" s="10">
+        <v>0.58134576844627328</v>
+      </c>
+      <c r="S26" s="10">
+        <v>0.35992087121849842</v>
+      </c>
+      <c r="T26" s="10">
+        <v>0.56027456189020441</v>
+      </c>
+      <c r="U26" s="10">
+        <v>0.73983392467880194</v>
+      </c>
+    </row>
+    <row r="27" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A27" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B27" s="10">
+        <v>0.83372063145425679</v>
+      </c>
+      <c r="C27" s="10">
+        <v>0.62744188292440883</v>
+      </c>
+      <c r="D27" s="10">
+        <v>0.39358293015568108</v>
+      </c>
+      <c r="E27" s="10">
+        <v>0.39594709477549639</v>
+      </c>
+      <c r="F27" s="10">
+        <v>0.23900016611136279</v>
+      </c>
+      <c r="G27" s="10">
+        <v>0.79195389154490714</v>
+      </c>
+      <c r="H27" s="10">
+        <v>0.4907067586502023</v>
+      </c>
+      <c r="I27" s="10">
+        <v>0.41020394695599932</v>
+      </c>
+      <c r="J27" s="10">
+        <v>0.26907236727741468</v>
+      </c>
+      <c r="K27" s="10">
+        <v>0.48140711695928878</v>
+      </c>
+      <c r="L27" s="10">
+        <v>0.27145988593801679</v>
+      </c>
+      <c r="M27" s="10">
+        <v>0.49639675820066831</v>
+      </c>
+      <c r="N27" s="10">
+        <v>0.49252419954533821</v>
+      </c>
+      <c r="O27" s="10">
+        <v>0.51589531186200965</v>
+      </c>
+      <c r="P27" s="10">
+        <v>0.95</v>
+      </c>
+      <c r="Q27" s="10">
+        <v>0.18448913068771911</v>
+      </c>
+      <c r="R27" s="10">
+        <v>0.73722864775696817</v>
+      </c>
+      <c r="S27" s="10">
+        <v>0.83393719614478734</v>
+      </c>
+      <c r="T27" s="10">
+        <v>0.95</v>
+      </c>
+      <c r="U27" s="10">
+        <v>0.29085798985534261</v>
+      </c>
+    </row>
+    <row r="28" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A28" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B28" s="10">
+        <v>0.18369584113966961</v>
+      </c>
+      <c r="C28" s="10">
+        <v>0.63817130924739607</v>
+      </c>
+      <c r="D28" s="10">
+        <v>0.19407652231063269</v>
+      </c>
+      <c r="E28" s="10">
+        <v>0.27846669554749931</v>
+      </c>
+      <c r="F28" s="10">
+        <v>0.79752084068934348</v>
+      </c>
+      <c r="G28" s="10">
+        <v>0.36708890204161659</v>
+      </c>
+      <c r="H28" s="10">
+        <v>0.37582943653323558</v>
+      </c>
+      <c r="I28" s="10">
+        <v>0.7102432181581072</v>
+      </c>
+      <c r="J28" s="10">
+        <v>8.1935567916102403E-2</v>
+      </c>
+      <c r="K28" s="10">
+        <v>0.23288795803013021</v>
+      </c>
+      <c r="L28" s="10">
+        <v>0.51770649635300237</v>
+      </c>
+      <c r="M28" s="10">
+        <v>0.22757307020560169</v>
+      </c>
+      <c r="N28" s="10">
+        <v>0.15546122964263709</v>
+      </c>
+      <c r="O28" s="10">
+        <v>0.8380957757525177</v>
+      </c>
+      <c r="P28" s="10">
+        <v>0.85914779454484347</v>
+      </c>
+      <c r="Q28" s="10">
+        <v>0.58172830524387875</v>
+      </c>
+      <c r="R28" s="10">
+        <v>0.71519218876339696</v>
+      </c>
+      <c r="S28" s="10">
+        <v>0.28510620179928231</v>
+      </c>
+      <c r="T28" s="10">
+        <v>0.72237688568904057</v>
+      </c>
+      <c r="U28" s="10">
+        <v>0.44317320964175783</v>
+      </c>
+    </row>
+    <row r="29" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A29" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B29" s="10">
+        <v>0.05</v>
+      </c>
+      <c r="C29" s="10">
+        <v>0.90475654541819694</v>
+      </c>
+      <c r="D29" s="10">
+        <v>0.38772985492664558</v>
+      </c>
+      <c r="E29" s="10">
+        <v>0.52373271935632137</v>
+      </c>
+      <c r="F29" s="10">
+        <v>0.59602595704438277</v>
+      </c>
+      <c r="G29" s="10">
+        <v>0.58415158373247567</v>
+      </c>
+      <c r="H29" s="10">
+        <v>0.67896507112029769</v>
+      </c>
+      <c r="I29" s="10">
+        <v>0.78674295962007001</v>
+      </c>
+      <c r="J29" s="10">
+        <v>0.26867878299246878</v>
+      </c>
+      <c r="K29" s="10">
+        <v>0.43793935136064832</v>
+      </c>
+      <c r="L29" s="10">
+        <v>0.94111571015486617</v>
+      </c>
+      <c r="M29" s="10">
+        <v>0.05</v>
+      </c>
+      <c r="N29" s="10">
+        <v>0.39001789022809119</v>
+      </c>
+      <c r="O29" s="10">
+        <v>0.3976427108251912</v>
+      </c>
+      <c r="P29" s="10">
+        <v>0.39313015503122611</v>
+      </c>
+      <c r="Q29" s="10">
+        <v>0.59379579707659258</v>
+      </c>
+      <c r="R29" s="10">
+        <v>0.8204574591760474</v>
+      </c>
+      <c r="S29" s="10">
+        <v>0.2913903170032594</v>
+      </c>
+      <c r="T29" s="10">
+        <v>0.14021734807858929</v>
+      </c>
+      <c r="U29" s="10">
+        <v>0.27642144386420359</v>
+      </c>
+    </row>
+    <row r="30" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A30" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B30" s="10">
+        <v>0.50909675144048949</v>
+      </c>
+      <c r="C30" s="10">
+        <v>0.63215795835708743</v>
+      </c>
+      <c r="D30" s="10">
+        <v>0.63145794642980069</v>
+      </c>
+      <c r="E30" s="10">
+        <v>0.43785019741917258</v>
+      </c>
+      <c r="F30" s="10">
+        <v>0.49532876566686818</v>
+      </c>
+      <c r="G30" s="10">
+        <v>0.53140569619420785</v>
+      </c>
+      <c r="H30" s="10">
+        <v>0.2143417185199</v>
+      </c>
+      <c r="I30" s="10">
+        <v>0.64702260203467632</v>
+      </c>
+      <c r="J30" s="10">
+        <v>0.34256927137979781</v>
+      </c>
+      <c r="K30" s="10">
+        <v>0.13056733896386971</v>
+      </c>
+      <c r="L30" s="10">
+        <v>0.76544196484437821</v>
+      </c>
+      <c r="M30" s="10">
+        <v>8.891791256675724E-2</v>
+      </c>
+      <c r="N30" s="10">
+        <v>0.05</v>
+      </c>
+      <c r="O30" s="10">
+        <v>0.86933424430222994</v>
+      </c>
+      <c r="P30" s="10">
+        <v>0.5407886645199852</v>
+      </c>
+      <c r="Q30" s="10">
+        <v>0.23562135437298509</v>
+      </c>
+      <c r="R30" s="10">
+        <v>0.42925973326475381</v>
+      </c>
+      <c r="S30" s="10">
+        <v>0.48016195003536438</v>
+      </c>
+      <c r="T30" s="10">
+        <v>0.36432065364353278</v>
+      </c>
+      <c r="U30" s="10">
+        <v>0.46322183280864793</v>
+      </c>
+    </row>
+    <row r="31" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A31" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B31" s="10">
+        <v>0.31900031432094411</v>
+      </c>
+      <c r="C31" s="10">
+        <v>0.43326083821332589</v>
+      </c>
+      <c r="D31" s="10">
+        <v>0.2835476534276144</v>
+      </c>
+      <c r="E31" s="10">
+        <v>0.48498161847381838</v>
+      </c>
+      <c r="F31" s="10">
+        <v>0.64492389311894871</v>
+      </c>
+      <c r="G31" s="10">
+        <v>0.48390969592189131</v>
+      </c>
+      <c r="H31" s="10">
+        <v>0.31191148909860023</v>
+      </c>
+      <c r="I31" s="10">
+        <v>0.93355158005605032</v>
+      </c>
+      <c r="J31" s="10">
+        <v>0.16704764285420881</v>
+      </c>
+      <c r="K31" s="10">
+        <v>0.1012635091246909</v>
+      </c>
+      <c r="L31" s="10">
+        <v>0.29404492920904951</v>
+      </c>
+      <c r="M31" s="10">
+        <v>0.29431159300425808</v>
+      </c>
+      <c r="N31" s="10">
+        <v>0.38796222975073091</v>
+      </c>
+      <c r="O31" s="10">
+        <v>0.76385890281016711</v>
+      </c>
+      <c r="P31" s="10">
+        <v>0.55902023226303954</v>
+      </c>
+      <c r="Q31" s="10">
+        <v>0.80622405705053835</v>
+      </c>
+      <c r="R31" s="10">
+        <v>0.50907662079967841</v>
+      </c>
+      <c r="S31" s="10">
+        <v>0.39383589268487201</v>
+      </c>
+      <c r="T31" s="10">
+        <v>0.90534594544086766</v>
+      </c>
+      <c r="U31" s="10">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="32" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A32" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B32" s="10">
+        <v>0.39838714284130933</v>
+      </c>
+      <c r="C32" s="10">
+        <v>0.32609599155629199</v>
+      </c>
+      <c r="D32" s="10">
+        <v>0.37795851882385539</v>
+      </c>
+      <c r="E32" s="10">
+        <v>0.27786404031463502</v>
+      </c>
+      <c r="F32" s="10">
+        <v>0.67659042478048137</v>
+      </c>
+      <c r="G32" s="10">
+        <v>0.05</v>
+      </c>
+      <c r="H32" s="10">
+        <v>0.60476640313893848</v>
+      </c>
+      <c r="I32" s="10">
+        <v>0.4626529073849216</v>
+      </c>
+      <c r="J32" s="10">
+        <v>0.37842395194910988</v>
+      </c>
+      <c r="K32" s="10">
+        <v>0.23661654548087119</v>
+      </c>
+      <c r="L32" s="10">
+        <v>0.46396927938345162</v>
+      </c>
+      <c r="M32" s="10">
+        <v>0.43545467194011489</v>
+      </c>
+      <c r="N32" s="10">
+        <v>0.50251641495610366</v>
+      </c>
+      <c r="O32" s="10">
+        <v>0.40769224631137252</v>
+      </c>
+      <c r="P32" s="10">
+        <v>0.62643756098212233</v>
+      </c>
+      <c r="Q32" s="10">
+        <v>0.1478056688001548</v>
+      </c>
+      <c r="R32" s="10">
+        <v>0.5750069712516801</v>
+      </c>
+      <c r="S32" s="10">
+        <v>0.78995543091781717</v>
+      </c>
+      <c r="T32" s="10">
+        <v>0.40483612533225399</v>
+      </c>
+      <c r="U32" s="10">
+        <v>0.33369649018125791</v>
+      </c>
+    </row>
+    <row r="33" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A33" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B33" s="10">
+        <v>0.62315160153613991</v>
+      </c>
+      <c r="C33" s="10">
+        <v>0.31062964389892073</v>
+      </c>
+      <c r="D33" s="10">
+        <v>0.42656813437328012</v>
+      </c>
+      <c r="E33" s="10">
+        <v>0.59844756693164158</v>
+      </c>
+      <c r="F33" s="10">
+        <v>0.82590051790677932</v>
+      </c>
+      <c r="G33" s="10">
+        <v>0.87496003131084221</v>
+      </c>
+      <c r="H33" s="10">
+        <v>0.32670748222635221</v>
+      </c>
+      <c r="I33" s="10">
+        <v>0.71426726594619605</v>
+      </c>
+      <c r="J33" s="10">
+        <v>0.47913845309593439</v>
+      </c>
+      <c r="K33" s="10">
+        <v>0.49538758510502667</v>
+      </c>
+      <c r="L33" s="10">
+        <v>0.40869933364019839</v>
+      </c>
+      <c r="M33" s="10">
+        <v>0.8296327356529084</v>
+      </c>
+      <c r="N33" s="10">
+        <v>0.41556181129543451</v>
+      </c>
+      <c r="O33" s="10">
+        <v>0.68658010447977036</v>
+      </c>
+      <c r="P33" s="10">
+        <v>0.51492823468028059</v>
+      </c>
+      <c r="Q33" s="10">
+        <v>0.4405818322711319</v>
+      </c>
+      <c r="R33" s="10">
+        <v>0.75226696432360796</v>
+      </c>
+      <c r="S33" s="10">
+        <v>0.27802169395626569</v>
+      </c>
+      <c r="T33" s="10">
+        <v>0.48323533301506039</v>
+      </c>
+      <c r="U33" s="10">
+        <v>0.13075328737586561</v>
+      </c>
+    </row>
+    <row r="34" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A34" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B34" s="10">
+        <v>0.52040154553628259</v>
+      </c>
+      <c r="C34" s="10">
+        <v>0.82880985475687485</v>
+      </c>
+      <c r="D34" s="10">
+        <v>0.34288564569443908</v>
+      </c>
+      <c r="E34" s="10">
+        <v>0.48772817294218102</v>
+      </c>
+      <c r="F34" s="10">
+        <v>0.68228190947356582</v>
+      </c>
+      <c r="G34" s="10">
+        <v>0.59048065780168224</v>
+      </c>
+      <c r="H34" s="10">
+        <v>0.55977727141727018</v>
+      </c>
+      <c r="I34" s="10">
+        <v>0.61214293923863428</v>
+      </c>
+      <c r="J34" s="10">
+        <v>0.27057520133009788</v>
+      </c>
+      <c r="K34" s="10">
+        <v>0.47585928352353363</v>
+      </c>
+      <c r="L34" s="10">
+        <v>0.67093159163895399</v>
+      </c>
+      <c r="M34" s="10">
+        <v>0.87001359212023988</v>
+      </c>
+      <c r="N34" s="10">
+        <v>0.24449503787987201</v>
+      </c>
+      <c r="O34" s="10">
+        <v>0.62782054096879059</v>
+      </c>
+      <c r="P34" s="10">
+        <v>0.62245317583099369</v>
+      </c>
+      <c r="Q34" s="10">
+        <v>0.31649617188790002</v>
+      </c>
+      <c r="R34" s="10">
+        <v>0.5616459405126949</v>
+      </c>
+      <c r="S34" s="10">
+        <v>0.31374990925348678</v>
+      </c>
+      <c r="T34" s="10">
+        <v>0.5518613562596123</v>
+      </c>
+      <c r="U34" s="10">
+        <v>0.2365657783919691</v>
+      </c>
+    </row>
+    <row r="35" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A35" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B35" s="10">
+        <v>0.95</v>
+      </c>
+      <c r="C35" s="10">
+        <v>0.45130624998042079</v>
+      </c>
+      <c r="D35" s="10">
+        <v>0.46004553811185428</v>
+      </c>
+      <c r="E35" s="10">
+        <v>0.46246309272616543</v>
+      </c>
+      <c r="F35" s="10">
+        <v>0.68980628335852112</v>
+      </c>
+      <c r="G35" s="10">
+        <v>0.48751971206208478</v>
+      </c>
+      <c r="H35" s="10">
+        <v>0.57949995659939724</v>
+      </c>
+      <c r="I35" s="10">
+        <v>0.54479604283896932</v>
+      </c>
+      <c r="J35" s="10">
+        <v>0.34118569150364858</v>
+      </c>
+      <c r="K35" s="10">
+        <v>0.30808838163211572</v>
+      </c>
+      <c r="L35" s="10">
+        <v>0.45772929755952158</v>
+      </c>
+      <c r="M35" s="10">
+        <v>0.6304531912687199</v>
+      </c>
+      <c r="N35" s="10">
+        <v>0.42180535032348798</v>
+      </c>
+      <c r="O35" s="10">
+        <v>0.83296199435004559</v>
+      </c>
+      <c r="P35" s="10">
+        <v>0.52179078397137935</v>
+      </c>
+      <c r="Q35" s="10">
+        <v>0.45685723643153381</v>
+      </c>
+      <c r="R35" s="10">
+        <v>0.43237420649241398</v>
+      </c>
+      <c r="S35" s="10">
+        <v>0.5374671772355768</v>
+      </c>
+      <c r="T35" s="10">
+        <v>0.58419509538555858</v>
+      </c>
+      <c r="U35" s="10">
+        <v>0.40511767964578071</v>
+      </c>
+    </row>
+    <row r="36" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A36" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B36" s="10">
+        <v>0.62989173600494275</v>
+      </c>
+      <c r="C36" s="10">
+        <v>0.77177140792336241</v>
+      </c>
+      <c r="D36" s="10">
+        <v>0.57766261759558946</v>
+      </c>
+      <c r="E36" s="10">
+        <v>0.95</v>
+      </c>
+      <c r="F36" s="10">
+        <v>0.68391495015694004</v>
+      </c>
+      <c r="G36" s="10">
+        <v>0.49560567296323621</v>
+      </c>
+      <c r="H36" s="10">
+        <v>0.4893747281951687</v>
+      </c>
+      <c r="I36" s="10">
+        <v>0.4840973650317752</v>
+      </c>
+      <c r="J36" s="10">
+        <v>0.26803877474909832</v>
+      </c>
+      <c r="K36" s="10">
+        <v>0.16222518157089</v>
+      </c>
+      <c r="L36" s="10">
+        <v>0.4866729078296157</v>
+      </c>
+      <c r="M36" s="10">
+        <v>0.64935412969478479</v>
+      </c>
+      <c r="N36" s="10">
+        <v>0.5664346712122188</v>
+      </c>
+      <c r="O36" s="10">
+        <v>0.58942531797877706</v>
+      </c>
+      <c r="P36" s="10">
+        <v>0.70249395816679716</v>
+      </c>
+      <c r="Q36" s="10">
+        <v>0.71784455732497654</v>
+      </c>
+      <c r="R36" s="10">
+        <v>0.43296612296537568</v>
+      </c>
+      <c r="S36" s="10">
+        <v>0.69878555611231941</v>
+      </c>
+      <c r="T36" s="10">
+        <v>0.33815345611593822</v>
+      </c>
+      <c r="U36" s="10">
+        <v>0.31032397737466982</v>
+      </c>
+    </row>
+    <row r="37" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A37" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B37" s="10">
+        <v>0.29548739340714958</v>
+      </c>
+      <c r="C37" s="10">
+        <v>0.05</v>
+      </c>
+      <c r="D37" s="10">
+        <v>0.38908093734850557</v>
+      </c>
+      <c r="E37" s="10">
+        <v>0.05</v>
+      </c>
+      <c r="F37" s="10">
+        <v>0.3410399369949989</v>
+      </c>
+      <c r="G37" s="10">
+        <v>0.41651375735055479</v>
+      </c>
+      <c r="H37" s="10">
+        <v>0.46957016814354091</v>
+      </c>
+      <c r="I37" s="10">
+        <v>0.6153788328600891</v>
+      </c>
+      <c r="J37" s="10">
+        <v>0.17763598818802731</v>
+      </c>
+      <c r="K37" s="10">
+        <v>0.12001394003651859</v>
+      </c>
+      <c r="L37" s="10">
+        <v>0.75808944119257848</v>
+      </c>
+      <c r="M37" s="10">
+        <v>0.84740771582495888</v>
+      </c>
+      <c r="N37" s="10">
+        <v>0.2593829574507806</v>
+      </c>
+      <c r="O37" s="10">
+        <v>0.63704204838440204</v>
+      </c>
+      <c r="P37" s="10">
+        <v>0.71661977739210847</v>
+      </c>
+      <c r="Q37" s="10">
+        <v>0.63866909899259794</v>
+      </c>
+      <c r="R37" s="10">
+        <v>0.25491521482207041</v>
+      </c>
+      <c r="S37" s="10">
+        <v>0.70793654738286982</v>
+      </c>
+      <c r="T37" s="10">
+        <v>0.61185775400795617</v>
+      </c>
+      <c r="U37" s="10">
+        <v>0.6539424900392965</v>
+      </c>
+    </row>
+    <row r="38" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A38" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B38" s="10">
+        <v>0.662602957152026</v>
+      </c>
+      <c r="C38" s="10">
+        <v>0.70106742994440396</v>
+      </c>
+      <c r="D38" s="10">
+        <v>0.32510808441147498</v>
+      </c>
+      <c r="E38" s="10">
+        <v>0.42541290632761247</v>
+      </c>
+      <c r="F38" s="10">
+        <v>0.55635106456720462</v>
+      </c>
+      <c r="G38" s="10">
+        <v>0.86698979977458912</v>
+      </c>
+      <c r="H38" s="10">
+        <v>0.52767129276094671</v>
+      </c>
+      <c r="I38" s="10">
+        <v>0.31015599827948093</v>
+      </c>
+      <c r="J38" s="10">
+        <v>0.31284693744096198</v>
+      </c>
+      <c r="K38" s="10">
+        <v>0.30583122920642553</v>
+      </c>
+      <c r="L38" s="10">
+        <v>0.64067905759597665</v>
+      </c>
+      <c r="M38" s="10">
+        <v>0.41555308800785912</v>
+      </c>
+      <c r="N38" s="10">
+        <v>0.65662923058140132</v>
+      </c>
+      <c r="O38" s="10">
+        <v>0.66576739933019502</v>
+      </c>
+      <c r="P38" s="10">
+        <v>0.29852372401419952</v>
+      </c>
+      <c r="Q38" s="10">
+        <v>0.52282035962956341</v>
+      </c>
+      <c r="R38" s="10">
+        <v>0.522709743950452</v>
+      </c>
+      <c r="S38" s="10">
+        <v>0.40407301663003842</v>
+      </c>
+      <c r="T38" s="10">
+        <v>0.64543761381277909</v>
+      </c>
+      <c r="U38" s="10">
+        <v>0.31496473336896041</v>
+      </c>
+    </row>
+    <row r="39" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A39" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B39" s="10">
+        <v>0.34464820438687799</v>
+      </c>
+      <c r="C39" s="10">
+        <v>0.67159334428755058</v>
+      </c>
+      <c r="D39" s="10">
+        <v>0.34614641888920039</v>
+      </c>
+      <c r="E39" s="10">
+        <v>0.51794717691860381</v>
+      </c>
+      <c r="F39" s="10">
+        <v>0.81617167434937521</v>
+      </c>
+      <c r="G39" s="10">
+        <v>0.61302770938061046</v>
+      </c>
+      <c r="H39" s="10">
+        <v>0.55669983790799926</v>
+      </c>
+      <c r="I39" s="10">
+        <v>0.80678390418554913</v>
+      </c>
+      <c r="J39" s="10">
+        <v>0.54154220469243053</v>
+      </c>
+      <c r="K39" s="10">
+        <v>0.95</v>
+      </c>
+      <c r="L39" s="10">
+        <v>0.79936318211085622</v>
+      </c>
+      <c r="M39" s="10">
+        <v>0.42194757873124322</v>
+      </c>
+      <c r="N39" s="10">
+        <v>0.25155085835593649</v>
+      </c>
+      <c r="O39" s="10">
+        <v>0.71362163554595537</v>
+      </c>
+      <c r="P39" s="10">
+        <v>0.42855760892435951</v>
+      </c>
+      <c r="Q39" s="10">
+        <v>0.37115098636834359</v>
+      </c>
+      <c r="R39" s="10">
+        <v>0.65657700009851871</v>
+      </c>
+      <c r="S39" s="10">
+        <v>0.28177767146300642</v>
+      </c>
+      <c r="T39" s="10">
+        <v>0.44912724321138903</v>
+      </c>
+      <c r="U39" s="10">
+        <v>0.71674324741648776</v>
+      </c>
+    </row>
+    <row r="40" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A40" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B40" s="10">
+        <v>0.61314109200504041</v>
+      </c>
+      <c r="C40" s="10">
+        <v>0.49448003895153858</v>
+      </c>
+      <c r="D40" s="10">
+        <v>0.22787738356322071</v>
+      </c>
+      <c r="E40" s="10">
+        <v>0.57369024446647421</v>
+      </c>
+      <c r="F40" s="10">
+        <v>0.53508436175334362</v>
+      </c>
+      <c r="G40" s="10">
+        <v>0.39925050431077969</v>
+      </c>
+      <c r="H40" s="10">
+        <v>0.60869785622996453</v>
+      </c>
+      <c r="I40" s="10">
+        <v>0.51340152641420955</v>
+      </c>
+      <c r="J40" s="10">
+        <v>0.1591323741942145</v>
+      </c>
+      <c r="K40" s="10">
+        <v>0.34701509369901878</v>
+      </c>
+      <c r="L40" s="10">
+        <v>0.67103995495349777</v>
+      </c>
+      <c r="M40" s="10">
+        <v>0.36231987814627142</v>
+      </c>
+      <c r="N40" s="10">
+        <v>0.60202154538932384</v>
+      </c>
+      <c r="O40" s="10">
+        <v>0.50388050866699052</v>
+      </c>
+      <c r="P40" s="10">
+        <v>0.05</v>
+      </c>
+      <c r="Q40" s="10">
+        <v>0.51507601934615321</v>
+      </c>
+      <c r="R40" s="10">
+        <v>0.76256781445405453</v>
+      </c>
+      <c r="S40" s="10">
+        <v>0.63850650561237732</v>
+      </c>
+      <c r="T40" s="10">
+        <v>0.89917329328806661</v>
+      </c>
+      <c r="U40" s="10">
+        <v>0.47300190168928591</v>
+      </c>
+    </row>
+    <row r="41" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A41" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B41" s="10">
+        <v>0.67871845479914661</v>
+      </c>
+      <c r="C41" s="10">
+        <v>0.71285555849544457</v>
+      </c>
+      <c r="D41" s="10">
+        <v>0.68727476154777711</v>
+      </c>
+      <c r="E41" s="10">
+        <v>0.3558974990880574</v>
+      </c>
+      <c r="F41" s="10">
+        <v>0.76222173355321587</v>
+      </c>
+      <c r="G41" s="10">
+        <v>0.75533403478068795</v>
+      </c>
+      <c r="H41" s="10">
+        <v>0.31610552023498539</v>
+      </c>
+      <c r="I41" s="10">
+        <v>0.74984469896966943</v>
+      </c>
+      <c r="J41" s="10">
+        <v>0.25558540673213259</v>
+      </c>
+      <c r="K41" s="10">
+        <v>0.56179178313840206</v>
+      </c>
+      <c r="L41" s="10">
+        <v>0.36468309176704711</v>
+      </c>
+      <c r="M41" s="10">
+        <v>0.51945130263150219</v>
+      </c>
+      <c r="N41" s="10">
+        <v>0.39561121715837039</v>
+      </c>
+      <c r="O41" s="10">
+        <v>0.77409162055499992</v>
+      </c>
+      <c r="P41" s="10">
+        <v>0.46361559928296869</v>
+      </c>
+      <c r="Q41" s="10">
+        <v>0.58247441928311694</v>
+      </c>
+      <c r="R41" s="10">
+        <v>0.4216580766529513</v>
+      </c>
+      <c r="S41" s="10">
+        <v>0.62783557625022535</v>
+      </c>
+      <c r="T41" s="10">
+        <v>0.54825069841698704</v>
+      </c>
+      <c r="U41" s="10">
+        <v>0.27308648990517509</v>
+      </c>
+    </row>
+    <row r="42" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A42" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B42" s="10">
+        <v>0.51500607539415832</v>
+      </c>
+      <c r="C42" s="10">
+        <v>0.95</v>
+      </c>
+      <c r="D42" s="10">
+        <v>0.27565515278542602</v>
+      </c>
+      <c r="E42" s="10">
+        <v>0.43204725554538798</v>
+      </c>
+      <c r="F42" s="10">
+        <v>0.72237407260053321</v>
+      </c>
+      <c r="G42" s="10">
+        <v>0.70294266596473021</v>
+      </c>
+      <c r="H42" s="10">
+        <v>0.22765660276862179</v>
+      </c>
+      <c r="I42" s="10">
+        <v>0.89055850129929159</v>
+      </c>
+      <c r="J42" s="10">
+        <v>0.27913750420114553</v>
+      </c>
+      <c r="K42" s="10">
+        <v>0.62300832042212906</v>
+      </c>
+      <c r="L42" s="10">
+        <v>0.17480373930290499</v>
+      </c>
+      <c r="M42" s="10">
+        <v>0.7929842884875562</v>
+      </c>
+      <c r="N42" s="10">
+        <v>0.43400584519768098</v>
+      </c>
+      <c r="O42" s="10">
+        <v>0.68774823532415952</v>
+      </c>
+      <c r="P42" s="10">
+        <v>0.31016479434525462</v>
+      </c>
+      <c r="Q42" s="10">
+        <v>0.95</v>
+      </c>
+      <c r="R42" s="10">
+        <v>0.89586165141238272</v>
+      </c>
+      <c r="S42" s="10">
+        <v>0.58258522996593654</v>
+      </c>
+      <c r="T42" s="10">
+        <v>0.6734056670964611</v>
+      </c>
+      <c r="U42" s="10">
+        <v>0.64692396262961793</v>
+      </c>
+    </row>
+    <row r="43" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A43" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B43" s="10">
+        <v>0.36234220747895002</v>
+      </c>
+      <c r="C43" s="10">
+        <v>0.29234513040332821</v>
+      </c>
+      <c r="D43" s="10">
+        <v>0.53435452373609738</v>
+      </c>
+      <c r="E43" s="10">
+        <v>0.26619640980218889</v>
+      </c>
+      <c r="F43" s="10">
+        <v>0.64652827359211396</v>
+      </c>
+      <c r="G43" s="10">
+        <v>0.54824085062342887</v>
+      </c>
+      <c r="H43" s="10">
+        <v>0.54235102697158766</v>
+      </c>
+      <c r="I43" s="10">
+        <v>0.29794281496311409</v>
+      </c>
+      <c r="J43" s="10">
+        <v>0.56899610001057155</v>
+      </c>
+      <c r="K43" s="10">
+        <v>0.47654966221966011</v>
+      </c>
+      <c r="L43" s="10">
+        <v>0.42889139680567229</v>
+      </c>
+      <c r="M43" s="10">
+        <v>0.94414575799562839</v>
+      </c>
+      <c r="N43" s="10">
+        <v>0.34425253041740089</v>
+      </c>
+      <c r="O43" s="10">
+        <v>0.51479147008252446</v>
+      </c>
+      <c r="P43" s="10">
+        <v>0.93003747936343328</v>
+      </c>
+      <c r="Q43" s="10">
+        <v>0.37069751557837732</v>
+      </c>
+      <c r="R43" s="10">
+        <v>0.33384066281647978</v>
+      </c>
+      <c r="S43" s="10">
+        <v>0.05</v>
+      </c>
+      <c r="T43" s="10">
+        <v>0.77926909090970042</v>
+      </c>
+      <c r="U43" s="10">
+        <v>0.43406305763343173</v>
+      </c>
+    </row>
+    <row r="44" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A44" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B44" s="10">
+        <v>0.40482772200414902</v>
+      </c>
+      <c r="C44" s="10">
+        <v>0.64670345361600368</v>
+      </c>
+      <c r="D44" s="10">
+        <v>0.6181307242198032</v>
+      </c>
+      <c r="E44" s="10">
+        <v>0.53131549869751193</v>
+      </c>
+      <c r="F44" s="10">
+        <v>0.53110635909564774</v>
+      </c>
+      <c r="G44" s="10">
+        <v>0.73061372683258285</v>
+      </c>
+      <c r="H44" s="10">
+        <v>0.18485073710602901</v>
+      </c>
+      <c r="I44" s="10">
+        <v>0.56653790943995408</v>
+      </c>
+      <c r="J44" s="10">
+        <v>0.2937236215032436</v>
+      </c>
+      <c r="K44" s="10">
+        <v>0.1091239742654497</v>
+      </c>
+      <c r="L44" s="10">
+        <v>0.37479469563023299</v>
+      </c>
+      <c r="M44" s="10">
+        <v>0.69532107966094792</v>
+      </c>
+      <c r="N44" s="10">
+        <v>0.5147077760722083</v>
+      </c>
+      <c r="O44" s="10">
+        <v>0.05</v>
+      </c>
+      <c r="P44" s="10">
+        <v>0.89632250646762113</v>
+      </c>
+      <c r="Q44" s="10">
+        <v>0.57850758703900562</v>
+      </c>
+      <c r="R44" s="10">
+        <v>0.05</v>
+      </c>
+      <c r="S44" s="10">
+        <v>0.56585050157477612</v>
+      </c>
+      <c r="T44" s="10">
+        <v>0.24396300413657929</v>
+      </c>
+      <c r="U44" s="10">
+        <v>0.21802415441752529</v>
+      </c>
+    </row>
+    <row r="45" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A45" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B45" s="10">
+        <v>0.4845335422588995</v>
+      </c>
+      <c r="C45" s="10">
+        <v>0.58294603172338677</v>
+      </c>
+      <c r="D45" s="10">
+        <v>0.49106088627982492</v>
+      </c>
+      <c r="E45" s="10">
+        <v>0.39264512519426092</v>
+      </c>
+      <c r="F45" s="10">
+        <v>0.60685436332700848</v>
+      </c>
+      <c r="G45" s="10">
+        <v>0.24704513325158289</v>
+      </c>
+      <c r="H45" s="10">
+        <v>0.61542314753663707</v>
+      </c>
+      <c r="I45" s="10">
+        <v>0.61071286410129</v>
+      </c>
+      <c r="J45" s="10">
+        <v>0.13069871052503049</v>
+      </c>
+      <c r="K45" s="10">
+        <v>0.37604397814655349</v>
+      </c>
+      <c r="L45" s="10">
+        <v>0.42418255890675471</v>
+      </c>
+      <c r="M45" s="10">
+        <v>0.67937984764246206</v>
+      </c>
+      <c r="N45" s="10">
+        <v>0.318015240159987</v>
+      </c>
+      <c r="O45" s="10">
+        <v>0.39896855505658019</v>
+      </c>
+      <c r="P45" s="10">
+        <v>0.45834339101019922</v>
+      </c>
+      <c r="Q45" s="10">
+        <v>0.32588660308431883</v>
+      </c>
+      <c r="R45" s="10">
+        <v>0.53846156042349547</v>
+      </c>
+      <c r="S45" s="10">
+        <v>0.23646965424610411</v>
+      </c>
+      <c r="T45" s="10">
+        <v>0.68917913927423835</v>
+      </c>
+      <c r="U45" s="10">
+        <v>0.20128619852304669</v>
+      </c>
+    </row>
+    <row r="46" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A46" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B46" s="10">
+        <v>0.93959627935975187</v>
+      </c>
+      <c r="C46" s="10">
+        <v>0.90955703473678595</v>
+      </c>
+      <c r="D46" s="10">
+        <v>0.54115346700800881</v>
+      </c>
+      <c r="E46" s="10">
+        <v>0.27745007366255792</v>
+      </c>
+      <c r="F46" s="10">
+        <v>0.56732776555297904</v>
+      </c>
+      <c r="G46" s="10">
+        <v>0.37734246684899531</v>
+      </c>
+      <c r="H46" s="10">
+        <v>0.16021215684546131</v>
+      </c>
+      <c r="I46" s="10">
+        <v>0.51436494042229952</v>
+      </c>
+      <c r="J46" s="10">
+        <v>0.42248057061279992</v>
+      </c>
+      <c r="K46" s="10">
+        <v>0.28307307367816542</v>
+      </c>
+      <c r="L46" s="10">
+        <v>0.82819803682597648</v>
+      </c>
+      <c r="M46" s="10">
+        <v>0.3135569305513633</v>
+      </c>
+      <c r="N46" s="10">
+        <v>0.27323846843300842</v>
+      </c>
+      <c r="O46" s="10">
+        <v>0.75758378554974071</v>
+      </c>
+      <c r="P46" s="10">
+        <v>0.59945332069920054</v>
+      </c>
+      <c r="Q46" s="10">
+        <v>0.73456781206274879</v>
+      </c>
+      <c r="R46" s="10">
+        <v>0.63510296117579712</v>
+      </c>
+      <c r="S46" s="10">
+        <v>0.46362222324457147</v>
+      </c>
+      <c r="T46" s="10">
+        <v>0.63782717450686532</v>
+      </c>
+      <c r="U46" s="10">
+        <v>0.46124874219077461</v>
+      </c>
+    </row>
+    <row r="47" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A47" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B47" s="10">
+        <v>0.50163671874590809</v>
+      </c>
+      <c r="C47" s="10">
+        <v>0.57125469469030621</v>
+      </c>
+      <c r="D47" s="10">
+        <v>0.40150583223799452</v>
+      </c>
+      <c r="E47" s="10">
+        <v>5.9680190024232978E-2</v>
+      </c>
+      <c r="F47" s="10">
+        <v>0.51646312962653296</v>
+      </c>
+      <c r="G47" s="10">
+        <v>0.64377596300995998</v>
+      </c>
+      <c r="H47" s="10">
+        <v>0.14213936004800309</v>
+      </c>
+      <c r="I47" s="10">
+        <v>0.22050027611241299</v>
+      </c>
+      <c r="J47" s="10">
+        <v>0.48260759604315367</v>
+      </c>
+      <c r="K47" s="10">
+        <v>0.30938778009778689</v>
+      </c>
+      <c r="L47" s="10">
+        <v>0.53461297948702613</v>
+      </c>
+      <c r="M47" s="10">
+        <v>0.24315537542729149</v>
+      </c>
+      <c r="N47" s="10">
+        <v>0.68095054972734281</v>
+      </c>
+      <c r="O47" s="10">
+        <v>0.43719108432672382</v>
+      </c>
+      <c r="P47" s="10">
+        <v>0.63272826365355839</v>
+      </c>
+      <c r="Q47" s="10">
+        <v>0.05</v>
+      </c>
+      <c r="R47" s="10">
+        <v>0.51737808728755152</v>
+      </c>
+      <c r="S47" s="10">
+        <v>0.61017864620979978</v>
+      </c>
+      <c r="T47" s="10">
+        <v>0.3448226013097937</v>
+      </c>
+      <c r="U47" s="10">
+        <v>0.41081587994001401</v>
+      </c>
+    </row>
+    <row r="48" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A48" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B48" s="10">
+        <v>0.6631565267565569</v>
+      </c>
+      <c r="C48" s="10">
+        <v>0.54644368079117056</v>
+      </c>
+      <c r="D48" s="10">
+        <v>0.21590136155914569</v>
+      </c>
+      <c r="E48" s="10">
+        <v>0.28744982599751112</v>
+      </c>
+      <c r="F48" s="10">
+        <v>0.41531815593882432</v>
+      </c>
+      <c r="G48" s="10">
+        <v>0.40791404214071059</v>
+      </c>
+      <c r="H48" s="10">
+        <v>0.05</v>
+      </c>
+      <c r="I48" s="10">
+        <v>0.31986547300215029</v>
+      </c>
+      <c r="J48" s="10">
+        <v>0.16963649274343129</v>
+      </c>
+      <c r="K48" s="10">
+        <v>0.05</v>
+      </c>
+      <c r="L48" s="10">
+        <v>6.7094849794264638E-2</v>
+      </c>
+      <c r="M48" s="10">
+        <v>0.57565062315611149</v>
+      </c>
+      <c r="N48" s="10">
+        <v>0.15499309635328209</v>
+      </c>
+      <c r="O48" s="10">
+        <v>0.35878977320687061</v>
+      </c>
+      <c r="P48" s="10">
+        <v>0.55022765275097141</v>
+      </c>
+      <c r="Q48" s="10">
+        <v>0.61417261019665315</v>
+      </c>
+      <c r="R48" s="10">
+        <v>0.76089998467220976</v>
+      </c>
+      <c r="S48" s="10">
+        <v>0.32623234688387642</v>
+      </c>
+      <c r="T48" s="10">
+        <v>0.40566157977924538</v>
+      </c>
+      <c r="U48" s="10">
+        <v>0.27556844151493021</v>
+      </c>
+    </row>
+    <row r="49" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A49" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B49" s="10">
+        <v>0.65865779134424007</v>
+      </c>
+      <c r="C49" s="10">
+        <v>0.2629761552807377</v>
+      </c>
+      <c r="D49" s="10">
+        <v>0.05</v>
+      </c>
+      <c r="E49" s="10">
+        <v>0.22897731601452029</v>
+      </c>
+      <c r="F49" s="10">
+        <v>0.50265907880705807</v>
+      </c>
+      <c r="G49" s="10">
+        <v>0.47964103748272968</v>
+      </c>
+      <c r="H49" s="10">
+        <v>0.63135302301575547</v>
+      </c>
+      <c r="I49" s="10">
+        <v>0.43594667371252011</v>
+      </c>
+      <c r="J49" s="10">
+        <v>0.44914179239979429</v>
+      </c>
+      <c r="K49" s="10">
+        <v>0.34446120493193472</v>
+      </c>
+      <c r="L49" s="10">
+        <v>0.64468003224950921</v>
+      </c>
+      <c r="M49" s="10">
+        <v>0.40636177045358118</v>
+      </c>
+      <c r="N49" s="10">
+        <v>0.54721201496003824</v>
+      </c>
+      <c r="O49" s="10">
+        <v>0.69341542938534395</v>
+      </c>
+      <c r="P49" s="10">
+        <v>0.45837273450610683</v>
+      </c>
+      <c r="Q49" s="10">
+        <v>0.2233412388772309</v>
+      </c>
+      <c r="R49" s="10">
+        <v>0.38654242486965462</v>
+      </c>
+      <c r="S49" s="10">
+        <v>0.26210354434247191</v>
+      </c>
+      <c r="T49" s="10">
+        <v>0.46666913278880418</v>
+      </c>
+      <c r="U49" s="10">
+        <v>0.71778743048298554</v>
+      </c>
+    </row>
+    <row r="50" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A50" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B50" s="10">
+        <v>0.35411529495532468</v>
+      </c>
+      <c r="C50" s="10">
+        <v>0.34967928247865732</v>
+      </c>
+      <c r="D50" s="10">
+        <v>0.54801067256215086</v>
+      </c>
+      <c r="E50" s="10">
+        <v>0.35334910887388882</v>
+      </c>
+      <c r="F50" s="10">
+        <v>0.66022045662923612</v>
+      </c>
+      <c r="G50" s="10">
+        <v>0.6115096145835508</v>
+      </c>
+      <c r="H50" s="10">
+        <v>0.23025058776747151</v>
+      </c>
+      <c r="I50" s="10">
+        <v>0.56771771703024076</v>
+      </c>
+      <c r="J50" s="10">
+        <v>0.43169884607191772</v>
+      </c>
+      <c r="K50" s="10">
+        <v>0.391600459334637</v>
+      </c>
+      <c r="L50" s="10">
+        <v>0.65278015651391974</v>
+      </c>
+      <c r="M50" s="10">
+        <v>0.55344801744038807</v>
+      </c>
+      <c r="N50" s="10">
+        <v>0.54626652111097451</v>
+      </c>
+      <c r="O50" s="10">
+        <v>0.59597230872220819</v>
+      </c>
+      <c r="P50" s="10">
+        <v>0.62053378126100656</v>
+      </c>
+      <c r="Q50" s="10">
+        <v>0.58601456417740783</v>
+      </c>
+      <c r="R50" s="10">
+        <v>0.95</v>
+      </c>
+      <c r="S50" s="10">
+        <v>0.2464970674582519</v>
+      </c>
+      <c r="T50" s="10">
+        <v>0.59896333172476468</v>
+      </c>
+      <c r="U50" s="10">
+        <v>0.49616282926477401</v>
+      </c>
+    </row>
+    <row r="51" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A51" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B51" s="10">
+        <v>0.73347709033720843</v>
+      </c>
+      <c r="C51" s="10">
+        <v>0.30649810364677171</v>
+      </c>
+      <c r="D51" s="10">
+        <v>0.42065690385351973</v>
+      </c>
+      <c r="E51" s="10">
+        <v>0.59601260027726366</v>
+      </c>
+      <c r="F51" s="10">
+        <v>0.50341736520106517</v>
+      </c>
+      <c r="G51" s="10">
+        <v>0.54329833599574373</v>
+      </c>
+      <c r="H51" s="10">
+        <v>0.57464116973479895</v>
+      </c>
+      <c r="I51" s="10">
+        <v>0.20873227496064309</v>
+      </c>
+      <c r="J51" s="10">
+        <v>0.54219312200829017</v>
+      </c>
+      <c r="K51" s="10">
+        <v>0.4131605924403125</v>
+      </c>
+      <c r="L51" s="10">
+        <v>0.65144614529553591</v>
+      </c>
+      <c r="M51" s="10">
+        <v>0.4042655334620156</v>
+      </c>
+      <c r="N51" s="10">
+        <v>0.28958766861980201</v>
+      </c>
+      <c r="O51" s="10">
+        <v>0.56096943794022791</v>
+      </c>
+      <c r="P51" s="10">
+        <v>0.5546096591271874</v>
+      </c>
+      <c r="Q51" s="10">
+        <v>0.28416160160391413</v>
+      </c>
+      <c r="R51" s="10">
+        <v>0.51526026349278953</v>
+      </c>
+      <c r="S51" s="10">
+        <v>0.57175754427358871</v>
+      </c>
+      <c r="T51" s="10">
+        <v>0.3627918660985654</v>
+      </c>
+      <c r="U51" s="10">
+        <v>0.95</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B664C803-E746-4DB3-94A9-E30906ED239A}">
   <dimension ref="A1:D13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
@@ -4079,7 +7412,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3EC8F56F-130F-4BFD-90B2-BCDD3631405C}">
   <dimension ref="A1:B51"/>
   <sheetViews>
@@ -4508,7 +7841,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8CFC439-7716-4A0D-B0C0-2CC839CF378F}">
   <dimension ref="A1:L51"/>
   <sheetViews>
@@ -5156,7 +8489,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{808F6D01-C3B7-422B-B2DB-EDADDCD571D2}">
   <dimension ref="A1:AZ241"/>
   <sheetViews>
@@ -42832,7 +46165,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B183C4C-3DB9-4125-80AD-3AC4C11CBFD0}">
   <dimension ref="A1:BA21"/>
   <sheetViews>

--- a/data/dataForExp.xlsx
+++ b/data/dataForExp.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Mirror系统开发\Mirror\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{753FBB62-3C22-4832-A8B0-306F07344683}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FF3AEF0-2A05-4ADE-8107-48F8791BD411}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="18220" windowHeight="11620" firstSheet="1" activeTab="6" xr2:uid="{7869B96A-7811-4EF3-9176-2B0373B8E4EA}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="18220" windowHeight="11620" firstSheet="2" activeTab="5" xr2:uid="{7869B96A-7811-4EF3-9176-2B0373B8E4EA}"/>
   </bookViews>
   <sheets>
     <sheet name="purchaseProb" sheetId="1" r:id="rId1"/>
@@ -273,7 +273,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -305,6 +305,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -10730,7 +10733,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC162023-1AF5-423C-84D1-3F88E6E27F5B}">
   <dimension ref="A1:U11"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="U2" sqref="U2:U11"/>
     </sheetView>
   </sheetViews>
@@ -11598,7 +11601,7 @@
   <dimension ref="A1:B51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B14" sqref="A1:B51"/>
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -12024,15 +12027,15 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A7A3807-788C-442E-B617-140DF8C982B8}">
-  <dimension ref="A1:B51"/>
+  <dimension ref="A1:C51"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D11" sqref="C2:D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
@@ -12040,103 +12043,113 @@
         <v>53</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="9">
         <v>1</v>
       </c>
       <c r="B2" s="2">
         <v>7.3576250000000005</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C2" s="11"/>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="9">
         <v>2</v>
       </c>
       <c r="B3" s="2">
         <v>10.66970833333334</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C3" s="11"/>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="9">
         <v>3</v>
       </c>
       <c r="B4" s="2">
         <v>11.12045833333333</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C4" s="11"/>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="9">
         <v>4</v>
       </c>
       <c r="B5" s="2">
         <v>17.053749999999997</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C5" s="11"/>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="9">
         <v>5</v>
       </c>
       <c r="B6" s="2">
         <v>11.974625000000009</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C6" s="11"/>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="9">
         <v>6</v>
       </c>
       <c r="B7" s="2">
         <v>8.41</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C7" s="11"/>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="9">
         <v>7</v>
       </c>
       <c r="B8" s="2">
         <v>7.3848750000000036</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C8" s="11"/>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="9">
         <v>8</v>
       </c>
       <c r="B9" s="2">
         <v>5.8399583333333336</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C9" s="11"/>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="9">
         <v>9</v>
       </c>
       <c r="B10" s="2">
         <v>11.946166666666663</v>
       </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C10" s="11"/>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" s="9">
         <v>10</v>
       </c>
       <c r="B11" s="2">
         <v>7.0045833333333372</v>
       </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C11" s="11"/>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" s="9"/>
       <c r="B12" s="2"/>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" s="9"/>
       <c r="B13" s="2"/>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" s="9"/>
       <c r="B14" s="2"/>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" s="9"/>
       <c r="B15" s="2"/>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" s="9"/>
       <c r="B16" s="2"/>
     </row>
@@ -12283,6 +12296,7 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -12290,8 +12304,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8CFC439-7716-4A0D-B0C0-2CC839CF378F}">
   <dimension ref="A1:L51"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:C51"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -12327,14 +12341,14 @@
         <v>2024470</v>
       </c>
       <c r="D2" s="7"/>
-      <c r="E2" s="11"/>
-      <c r="F2" s="11"/>
-      <c r="G2" s="11"/>
-      <c r="H2" s="11"/>
-      <c r="I2" s="11"/>
-      <c r="J2" s="11"/>
-      <c r="K2" s="11"/>
-      <c r="L2" s="11"/>
+      <c r="E2" s="12"/>
+      <c r="F2" s="12"/>
+      <c r="G2" s="12"/>
+      <c r="H2" s="12"/>
+      <c r="I2" s="12"/>
+      <c r="J2" s="12"/>
+      <c r="K2" s="12"/>
+      <c r="L2" s="12"/>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" s="5">
@@ -12939,7 +12953,7 @@
   <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:C11"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -13240,7 +13254,7 @@
       </c>
     </row>
     <row r="2" spans="1:52" x14ac:dyDescent="0.3">
-      <c r="A2" s="12">
+      <c r="A2" s="13">
         <v>2000</v>
       </c>
       <c r="B2" s="3">
@@ -13398,7 +13412,7 @@
       </c>
     </row>
     <row r="3" spans="1:52" x14ac:dyDescent="0.3">
-      <c r="A3" s="12"/>
+      <c r="A3" s="13"/>
       <c r="B3" s="3">
         <v>2</v>
       </c>
@@ -13554,7 +13568,7 @@
       </c>
     </row>
     <row r="4" spans="1:52" x14ac:dyDescent="0.3">
-      <c r="A4" s="12"/>
+      <c r="A4" s="13"/>
       <c r="B4" s="3">
         <v>3</v>
       </c>
@@ -13710,7 +13724,7 @@
       </c>
     </row>
     <row r="5" spans="1:52" x14ac:dyDescent="0.3">
-      <c r="A5" s="12"/>
+      <c r="A5" s="13"/>
       <c r="B5" s="3">
         <v>4</v>
       </c>
@@ -13866,7 +13880,7 @@
       </c>
     </row>
     <row r="6" spans="1:52" x14ac:dyDescent="0.3">
-      <c r="A6" s="12"/>
+      <c r="A6" s="13"/>
       <c r="B6" s="3">
         <v>5</v>
       </c>
@@ -14022,7 +14036,7 @@
       </c>
     </row>
     <row r="7" spans="1:52" x14ac:dyDescent="0.3">
-      <c r="A7" s="12"/>
+      <c r="A7" s="13"/>
       <c r="B7" s="3">
         <v>6</v>
       </c>
@@ -14178,7 +14192,7 @@
       </c>
     </row>
     <row r="8" spans="1:52" x14ac:dyDescent="0.3">
-      <c r="A8" s="12"/>
+      <c r="A8" s="13"/>
       <c r="B8" s="3">
         <v>7</v>
       </c>
@@ -14334,7 +14348,7 @@
       </c>
     </row>
     <row r="9" spans="1:52" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="12"/>
+      <c r="A9" s="13"/>
       <c r="B9" s="3">
         <v>8</v>
       </c>
@@ -14490,7 +14504,7 @@
       </c>
     </row>
     <row r="10" spans="1:52" x14ac:dyDescent="0.3">
-      <c r="A10" s="12"/>
+      <c r="A10" s="13"/>
       <c r="B10" s="3">
         <v>9</v>
       </c>
@@ -14646,7 +14660,7 @@
       </c>
     </row>
     <row r="11" spans="1:52" x14ac:dyDescent="0.3">
-      <c r="A11" s="12"/>
+      <c r="A11" s="13"/>
       <c r="B11" s="3">
         <v>10</v>
       </c>
@@ -14802,7 +14816,7 @@
       </c>
     </row>
     <row r="12" spans="1:52" x14ac:dyDescent="0.3">
-      <c r="A12" s="12"/>
+      <c r="A12" s="13"/>
       <c r="B12" s="3">
         <v>11</v>
       </c>
@@ -14958,7 +14972,7 @@
       </c>
     </row>
     <row r="13" spans="1:52" x14ac:dyDescent="0.3">
-      <c r="A13" s="12"/>
+      <c r="A13" s="13"/>
       <c r="B13" s="3">
         <v>12</v>
       </c>
@@ -15114,7 +15128,7 @@
       </c>
     </row>
     <row r="14" spans="1:52" x14ac:dyDescent="0.3">
-      <c r="A14" s="12">
+      <c r="A14" s="13">
         <v>2001</v>
       </c>
       <c r="B14" s="3">
@@ -15272,7 +15286,7 @@
       </c>
     </row>
     <row r="15" spans="1:52" x14ac:dyDescent="0.3">
-      <c r="A15" s="12"/>
+      <c r="A15" s="13"/>
       <c r="B15" s="3">
         <v>2</v>
       </c>
@@ -15428,7 +15442,7 @@
       </c>
     </row>
     <row r="16" spans="1:52" x14ac:dyDescent="0.3">
-      <c r="A16" s="12"/>
+      <c r="A16" s="13"/>
       <c r="B16" s="3">
         <v>3</v>
       </c>
@@ -15584,7 +15598,7 @@
       </c>
     </row>
     <row r="17" spans="1:52" x14ac:dyDescent="0.3">
-      <c r="A17" s="12"/>
+      <c r="A17" s="13"/>
       <c r="B17" s="3">
         <v>4</v>
       </c>
@@ -15740,7 +15754,7 @@
       </c>
     </row>
     <row r="18" spans="1:52" x14ac:dyDescent="0.3">
-      <c r="A18" s="12"/>
+      <c r="A18" s="13"/>
       <c r="B18" s="3">
         <v>5</v>
       </c>
@@ -15896,7 +15910,7 @@
       </c>
     </row>
     <row r="19" spans="1:52" x14ac:dyDescent="0.3">
-      <c r="A19" s="12"/>
+      <c r="A19" s="13"/>
       <c r="B19" s="3">
         <v>6</v>
       </c>
@@ -16052,7 +16066,7 @@
       </c>
     </row>
     <row r="20" spans="1:52" x14ac:dyDescent="0.3">
-      <c r="A20" s="12"/>
+      <c r="A20" s="13"/>
       <c r="B20" s="3">
         <v>7</v>
       </c>
@@ -16208,7 +16222,7 @@
       </c>
     </row>
     <row r="21" spans="1:52" x14ac:dyDescent="0.3">
-      <c r="A21" s="12"/>
+      <c r="A21" s="13"/>
       <c r="B21" s="3">
         <v>8</v>
       </c>
@@ -16364,7 +16378,7 @@
       </c>
     </row>
     <row r="22" spans="1:52" x14ac:dyDescent="0.3">
-      <c r="A22" s="12"/>
+      <c r="A22" s="13"/>
       <c r="B22" s="3">
         <v>9</v>
       </c>
@@ -16520,7 +16534,7 @@
       </c>
     </row>
     <row r="23" spans="1:52" x14ac:dyDescent="0.3">
-      <c r="A23" s="12"/>
+      <c r="A23" s="13"/>
       <c r="B23" s="3">
         <v>10</v>
       </c>
@@ -16676,7 +16690,7 @@
       </c>
     </row>
     <row r="24" spans="1:52" x14ac:dyDescent="0.3">
-      <c r="A24" s="12"/>
+      <c r="A24" s="13"/>
       <c r="B24" s="3">
         <v>11</v>
       </c>
@@ -16832,7 +16846,7 @@
       </c>
     </row>
     <row r="25" spans="1:52" x14ac:dyDescent="0.3">
-      <c r="A25" s="12"/>
+      <c r="A25" s="13"/>
       <c r="B25" s="3">
         <v>12</v>
       </c>
@@ -16988,7 +17002,7 @@
       </c>
     </row>
     <row r="26" spans="1:52" x14ac:dyDescent="0.3">
-      <c r="A26" s="12">
+      <c r="A26" s="13">
         <v>2002</v>
       </c>
       <c r="B26" s="3">
@@ -17146,7 +17160,7 @@
       </c>
     </row>
     <row r="27" spans="1:52" x14ac:dyDescent="0.3">
-      <c r="A27" s="12"/>
+      <c r="A27" s="13"/>
       <c r="B27" s="3">
         <v>2</v>
       </c>
@@ -17302,7 +17316,7 @@
       </c>
     </row>
     <row r="28" spans="1:52" x14ac:dyDescent="0.3">
-      <c r="A28" s="12"/>
+      <c r="A28" s="13"/>
       <c r="B28" s="3">
         <v>3</v>
       </c>
@@ -17458,7 +17472,7 @@
       </c>
     </row>
     <row r="29" spans="1:52" x14ac:dyDescent="0.3">
-      <c r="A29" s="12"/>
+      <c r="A29" s="13"/>
       <c r="B29" s="3">
         <v>4</v>
       </c>
@@ -17614,7 +17628,7 @@
       </c>
     </row>
     <row r="30" spans="1:52" x14ac:dyDescent="0.3">
-      <c r="A30" s="12"/>
+      <c r="A30" s="13"/>
       <c r="B30" s="3">
         <v>5</v>
       </c>
@@ -17770,7 +17784,7 @@
       </c>
     </row>
     <row r="31" spans="1:52" x14ac:dyDescent="0.3">
-      <c r="A31" s="12"/>
+      <c r="A31" s="13"/>
       <c r="B31" s="3">
         <v>6</v>
       </c>
@@ -17926,7 +17940,7 @@
       </c>
     </row>
     <row r="32" spans="1:52" x14ac:dyDescent="0.3">
-      <c r="A32" s="12"/>
+      <c r="A32" s="13"/>
       <c r="B32" s="3">
         <v>7</v>
       </c>
@@ -18082,7 +18096,7 @@
       </c>
     </row>
     <row r="33" spans="1:52" x14ac:dyDescent="0.3">
-      <c r="A33" s="12"/>
+      <c r="A33" s="13"/>
       <c r="B33" s="3">
         <v>8</v>
       </c>
@@ -18238,7 +18252,7 @@
       </c>
     </row>
     <row r="34" spans="1:52" x14ac:dyDescent="0.3">
-      <c r="A34" s="12"/>
+      <c r="A34" s="13"/>
       <c r="B34" s="3">
         <v>9</v>
       </c>
@@ -18394,7 +18408,7 @@
       </c>
     </row>
     <row r="35" spans="1:52" x14ac:dyDescent="0.3">
-      <c r="A35" s="12"/>
+      <c r="A35" s="13"/>
       <c r="B35" s="3">
         <v>10</v>
       </c>
@@ -18550,7 +18564,7 @@
       </c>
     </row>
     <row r="36" spans="1:52" x14ac:dyDescent="0.3">
-      <c r="A36" s="12"/>
+      <c r="A36" s="13"/>
       <c r="B36" s="3">
         <v>11</v>
       </c>
@@ -18706,7 +18720,7 @@
       </c>
     </row>
     <row r="37" spans="1:52" x14ac:dyDescent="0.3">
-      <c r="A37" s="12"/>
+      <c r="A37" s="13"/>
       <c r="B37" s="3">
         <v>12</v>
       </c>
@@ -18862,7 +18876,7 @@
       </c>
     </row>
     <row r="38" spans="1:52" x14ac:dyDescent="0.3">
-      <c r="A38" s="12">
+      <c r="A38" s="13">
         <v>2003</v>
       </c>
       <c r="B38" s="3">
@@ -19020,7 +19034,7 @@
       </c>
     </row>
     <row r="39" spans="1:52" x14ac:dyDescent="0.3">
-      <c r="A39" s="12"/>
+      <c r="A39" s="13"/>
       <c r="B39" s="3">
         <v>2</v>
       </c>
@@ -19176,7 +19190,7 @@
       </c>
     </row>
     <row r="40" spans="1:52" x14ac:dyDescent="0.3">
-      <c r="A40" s="12"/>
+      <c r="A40" s="13"/>
       <c r="B40" s="3">
         <v>3</v>
       </c>
@@ -19332,7 +19346,7 @@
       </c>
     </row>
     <row r="41" spans="1:52" x14ac:dyDescent="0.3">
-      <c r="A41" s="12"/>
+      <c r="A41" s="13"/>
       <c r="B41" s="3">
         <v>4</v>
       </c>
@@ -19488,7 +19502,7 @@
       </c>
     </row>
     <row r="42" spans="1:52" x14ac:dyDescent="0.3">
-      <c r="A42" s="12"/>
+      <c r="A42" s="13"/>
       <c r="B42" s="3">
         <v>5</v>
       </c>
@@ -19644,7 +19658,7 @@
       </c>
     </row>
     <row r="43" spans="1:52" x14ac:dyDescent="0.3">
-      <c r="A43" s="12"/>
+      <c r="A43" s="13"/>
       <c r="B43" s="3">
         <v>6</v>
       </c>
@@ -19800,7 +19814,7 @@
       </c>
     </row>
     <row r="44" spans="1:52" x14ac:dyDescent="0.3">
-      <c r="A44" s="12"/>
+      <c r="A44" s="13"/>
       <c r="B44" s="3">
         <v>7</v>
       </c>
@@ -19956,7 +19970,7 @@
       </c>
     </row>
     <row r="45" spans="1:52" x14ac:dyDescent="0.3">
-      <c r="A45" s="12"/>
+      <c r="A45" s="13"/>
       <c r="B45" s="3">
         <v>8</v>
       </c>
@@ -20112,7 +20126,7 @@
       </c>
     </row>
     <row r="46" spans="1:52" x14ac:dyDescent="0.3">
-      <c r="A46" s="12"/>
+      <c r="A46" s="13"/>
       <c r="B46" s="3">
         <v>9</v>
       </c>
@@ -20268,7 +20282,7 @@
       </c>
     </row>
     <row r="47" spans="1:52" x14ac:dyDescent="0.3">
-      <c r="A47" s="12"/>
+      <c r="A47" s="13"/>
       <c r="B47" s="3">
         <v>10</v>
       </c>
@@ -20424,7 +20438,7 @@
       </c>
     </row>
     <row r="48" spans="1:52" x14ac:dyDescent="0.3">
-      <c r="A48" s="12"/>
+      <c r="A48" s="13"/>
       <c r="B48" s="3">
         <v>11</v>
       </c>
@@ -20580,7 +20594,7 @@
       </c>
     </row>
     <row r="49" spans="1:52" x14ac:dyDescent="0.3">
-      <c r="A49" s="12"/>
+      <c r="A49" s="13"/>
       <c r="B49" s="3">
         <v>12</v>
       </c>
@@ -20736,7 +20750,7 @@
       </c>
     </row>
     <row r="50" spans="1:52" x14ac:dyDescent="0.3">
-      <c r="A50" s="12">
+      <c r="A50" s="13">
         <v>2004</v>
       </c>
       <c r="B50" s="3">
@@ -20894,7 +20908,7 @@
       </c>
     </row>
     <row r="51" spans="1:52" x14ac:dyDescent="0.3">
-      <c r="A51" s="12"/>
+      <c r="A51" s="13"/>
       <c r="B51" s="3">
         <v>2</v>
       </c>
@@ -21050,7 +21064,7 @@
       </c>
     </row>
     <row r="52" spans="1:52" x14ac:dyDescent="0.3">
-      <c r="A52" s="12"/>
+      <c r="A52" s="13"/>
       <c r="B52" s="3">
         <v>3</v>
       </c>
@@ -21206,7 +21220,7 @@
       </c>
     </row>
     <row r="53" spans="1:52" x14ac:dyDescent="0.3">
-      <c r="A53" s="12"/>
+      <c r="A53" s="13"/>
       <c r="B53" s="3">
         <v>4</v>
       </c>
@@ -21362,7 +21376,7 @@
       </c>
     </row>
     <row r="54" spans="1:52" x14ac:dyDescent="0.3">
-      <c r="A54" s="12"/>
+      <c r="A54" s="13"/>
       <c r="B54" s="3">
         <v>5</v>
       </c>
@@ -21518,7 +21532,7 @@
       </c>
     </row>
     <row r="55" spans="1:52" x14ac:dyDescent="0.3">
-      <c r="A55" s="12"/>
+      <c r="A55" s="13"/>
       <c r="B55" s="3">
         <v>6</v>
       </c>
@@ -21674,7 +21688,7 @@
       </c>
     </row>
     <row r="56" spans="1:52" x14ac:dyDescent="0.3">
-      <c r="A56" s="12"/>
+      <c r="A56" s="13"/>
       <c r="B56" s="3">
         <v>7</v>
       </c>
@@ -21830,7 +21844,7 @@
       </c>
     </row>
     <row r="57" spans="1:52" x14ac:dyDescent="0.3">
-      <c r="A57" s="12"/>
+      <c r="A57" s="13"/>
       <c r="B57" s="3">
         <v>8</v>
       </c>
@@ -21986,7 +22000,7 @@
       </c>
     </row>
     <row r="58" spans="1:52" x14ac:dyDescent="0.3">
-      <c r="A58" s="12"/>
+      <c r="A58" s="13"/>
       <c r="B58" s="3">
         <v>9</v>
       </c>
@@ -22142,7 +22156,7 @@
       </c>
     </row>
     <row r="59" spans="1:52" x14ac:dyDescent="0.3">
-      <c r="A59" s="12"/>
+      <c r="A59" s="13"/>
       <c r="B59" s="3">
         <v>10</v>
       </c>
@@ -22298,7 +22312,7 @@
       </c>
     </row>
     <row r="60" spans="1:52" x14ac:dyDescent="0.3">
-      <c r="A60" s="12"/>
+      <c r="A60" s="13"/>
       <c r="B60" s="3">
         <v>11</v>
       </c>
@@ -22454,7 +22468,7 @@
       </c>
     </row>
     <row r="61" spans="1:52" x14ac:dyDescent="0.3">
-      <c r="A61" s="12"/>
+      <c r="A61" s="13"/>
       <c r="B61" s="3">
         <v>12</v>
       </c>
@@ -22610,7 +22624,7 @@
       </c>
     </row>
     <row r="62" spans="1:52" x14ac:dyDescent="0.3">
-      <c r="A62" s="12">
+      <c r="A62" s="13">
         <v>2005</v>
       </c>
       <c r="B62" s="3">
@@ -22768,7 +22782,7 @@
       </c>
     </row>
     <row r="63" spans="1:52" x14ac:dyDescent="0.3">
-      <c r="A63" s="12"/>
+      <c r="A63" s="13"/>
       <c r="B63" s="3">
         <v>2</v>
       </c>
@@ -22924,7 +22938,7 @@
       </c>
     </row>
     <row r="64" spans="1:52" x14ac:dyDescent="0.3">
-      <c r="A64" s="12"/>
+      <c r="A64" s="13"/>
       <c r="B64" s="3">
         <v>3</v>
       </c>
@@ -23080,7 +23094,7 @@
       </c>
     </row>
     <row r="65" spans="1:52" x14ac:dyDescent="0.3">
-      <c r="A65" s="12"/>
+      <c r="A65" s="13"/>
       <c r="B65" s="3">
         <v>4</v>
       </c>
@@ -23236,7 +23250,7 @@
       </c>
     </row>
     <row r="66" spans="1:52" x14ac:dyDescent="0.3">
-      <c r="A66" s="12"/>
+      <c r="A66" s="13"/>
       <c r="B66" s="3">
         <v>5</v>
       </c>
@@ -23392,7 +23406,7 @@
       </c>
     </row>
     <row r="67" spans="1:52" x14ac:dyDescent="0.3">
-      <c r="A67" s="12"/>
+      <c r="A67" s="13"/>
       <c r="B67" s="3">
         <v>6</v>
       </c>
@@ -23548,7 +23562,7 @@
       </c>
     </row>
     <row r="68" spans="1:52" x14ac:dyDescent="0.3">
-      <c r="A68" s="12"/>
+      <c r="A68" s="13"/>
       <c r="B68" s="3">
         <v>7</v>
       </c>
@@ -23704,7 +23718,7 @@
       </c>
     </row>
     <row r="69" spans="1:52" x14ac:dyDescent="0.3">
-      <c r="A69" s="12"/>
+      <c r="A69" s="13"/>
       <c r="B69" s="3">
         <v>8</v>
       </c>
@@ -23860,7 +23874,7 @@
       </c>
     </row>
     <row r="70" spans="1:52" x14ac:dyDescent="0.3">
-      <c r="A70" s="12"/>
+      <c r="A70" s="13"/>
       <c r="B70" s="3">
         <v>9</v>
       </c>
@@ -24016,7 +24030,7 @@
       </c>
     </row>
     <row r="71" spans="1:52" x14ac:dyDescent="0.3">
-      <c r="A71" s="12"/>
+      <c r="A71" s="13"/>
       <c r="B71" s="3">
         <v>10</v>
       </c>
@@ -24172,7 +24186,7 @@
       </c>
     </row>
     <row r="72" spans="1:52" x14ac:dyDescent="0.3">
-      <c r="A72" s="12"/>
+      <c r="A72" s="13"/>
       <c r="B72" s="3">
         <v>11</v>
       </c>
@@ -24328,7 +24342,7 @@
       </c>
     </row>
     <row r="73" spans="1:52" x14ac:dyDescent="0.3">
-      <c r="A73" s="12"/>
+      <c r="A73" s="13"/>
       <c r="B73" s="3">
         <v>12</v>
       </c>
@@ -24484,7 +24498,7 @@
       </c>
     </row>
     <row r="74" spans="1:52" x14ac:dyDescent="0.3">
-      <c r="A74" s="12">
+      <c r="A74" s="13">
         <v>2006</v>
       </c>
       <c r="B74" s="3">
@@ -24642,7 +24656,7 @@
       </c>
     </row>
     <row r="75" spans="1:52" x14ac:dyDescent="0.3">
-      <c r="A75" s="12"/>
+      <c r="A75" s="13"/>
       <c r="B75" s="3">
         <v>2</v>
       </c>
@@ -24798,7 +24812,7 @@
       </c>
     </row>
     <row r="76" spans="1:52" x14ac:dyDescent="0.3">
-      <c r="A76" s="12"/>
+      <c r="A76" s="13"/>
       <c r="B76" s="3">
         <v>3</v>
       </c>
@@ -24954,7 +24968,7 @@
       </c>
     </row>
     <row r="77" spans="1:52" x14ac:dyDescent="0.3">
-      <c r="A77" s="12"/>
+      <c r="A77" s="13"/>
       <c r="B77" s="3">
         <v>4</v>
       </c>
@@ -25110,7 +25124,7 @@
       </c>
     </row>
     <row r="78" spans="1:52" x14ac:dyDescent="0.3">
-      <c r="A78" s="12"/>
+      <c r="A78" s="13"/>
       <c r="B78" s="3">
         <v>5</v>
       </c>
@@ -25266,7 +25280,7 @@
       </c>
     </row>
     <row r="79" spans="1:52" x14ac:dyDescent="0.3">
-      <c r="A79" s="12"/>
+      <c r="A79" s="13"/>
       <c r="B79" s="3">
         <v>6</v>
       </c>
@@ -25422,7 +25436,7 @@
       </c>
     </row>
     <row r="80" spans="1:52" x14ac:dyDescent="0.3">
-      <c r="A80" s="12"/>
+      <c r="A80" s="13"/>
       <c r="B80" s="3">
         <v>7</v>
       </c>
@@ -25578,7 +25592,7 @@
       </c>
     </row>
     <row r="81" spans="1:52" x14ac:dyDescent="0.3">
-      <c r="A81" s="12"/>
+      <c r="A81" s="13"/>
       <c r="B81" s="3">
         <v>8</v>
       </c>
@@ -25734,7 +25748,7 @@
       </c>
     </row>
     <row r="82" spans="1:52" x14ac:dyDescent="0.3">
-      <c r="A82" s="12"/>
+      <c r="A82" s="13"/>
       <c r="B82" s="3">
         <v>9</v>
       </c>
@@ -25890,7 +25904,7 @@
       </c>
     </row>
     <row r="83" spans="1:52" x14ac:dyDescent="0.3">
-      <c r="A83" s="12"/>
+      <c r="A83" s="13"/>
       <c r="B83" s="3">
         <v>10</v>
       </c>
@@ -26046,7 +26060,7 @@
       </c>
     </row>
     <row r="84" spans="1:52" x14ac:dyDescent="0.3">
-      <c r="A84" s="12"/>
+      <c r="A84" s="13"/>
       <c r="B84" s="3">
         <v>11</v>
       </c>
@@ -26202,7 +26216,7 @@
       </c>
     </row>
     <row r="85" spans="1:52" x14ac:dyDescent="0.3">
-      <c r="A85" s="12"/>
+      <c r="A85" s="13"/>
       <c r="B85" s="3">
         <v>12</v>
       </c>
@@ -26358,7 +26372,7 @@
       </c>
     </row>
     <row r="86" spans="1:52" x14ac:dyDescent="0.3">
-      <c r="A86" s="12">
+      <c r="A86" s="13">
         <v>2007</v>
       </c>
       <c r="B86" s="3">
@@ -26516,7 +26530,7 @@
       </c>
     </row>
     <row r="87" spans="1:52" x14ac:dyDescent="0.3">
-      <c r="A87" s="12"/>
+      <c r="A87" s="13"/>
       <c r="B87" s="3">
         <v>2</v>
       </c>
@@ -26672,7 +26686,7 @@
       </c>
     </row>
     <row r="88" spans="1:52" x14ac:dyDescent="0.3">
-      <c r="A88" s="12"/>
+      <c r="A88" s="13"/>
       <c r="B88" s="3">
         <v>3</v>
       </c>
@@ -26828,7 +26842,7 @@
       </c>
     </row>
     <row r="89" spans="1:52" x14ac:dyDescent="0.3">
-      <c r="A89" s="12"/>
+      <c r="A89" s="13"/>
       <c r="B89" s="3">
         <v>4</v>
       </c>
@@ -26984,7 +26998,7 @@
       </c>
     </row>
     <row r="90" spans="1:52" x14ac:dyDescent="0.3">
-      <c r="A90" s="12"/>
+      <c r="A90" s="13"/>
       <c r="B90" s="3">
         <v>5</v>
       </c>
@@ -27140,7 +27154,7 @@
       </c>
     </row>
     <row r="91" spans="1:52" x14ac:dyDescent="0.3">
-      <c r="A91" s="12"/>
+      <c r="A91" s="13"/>
       <c r="B91" s="3">
         <v>6</v>
       </c>
@@ -27296,7 +27310,7 @@
       </c>
     </row>
     <row r="92" spans="1:52" x14ac:dyDescent="0.3">
-      <c r="A92" s="12"/>
+      <c r="A92" s="13"/>
       <c r="B92" s="3">
         <v>7</v>
       </c>
@@ -27452,7 +27466,7 @@
       </c>
     </row>
     <row r="93" spans="1:52" x14ac:dyDescent="0.3">
-      <c r="A93" s="12"/>
+      <c r="A93" s="13"/>
       <c r="B93" s="3">
         <v>8</v>
       </c>
@@ -27608,7 +27622,7 @@
       </c>
     </row>
     <row r="94" spans="1:52" x14ac:dyDescent="0.3">
-      <c r="A94" s="12"/>
+      <c r="A94" s="13"/>
       <c r="B94" s="3">
         <v>9</v>
       </c>
@@ -27764,7 +27778,7 @@
       </c>
     </row>
     <row r="95" spans="1:52" x14ac:dyDescent="0.3">
-      <c r="A95" s="12"/>
+      <c r="A95" s="13"/>
       <c r="B95" s="3">
         <v>10</v>
       </c>
@@ -27920,7 +27934,7 @@
       </c>
     </row>
     <row r="96" spans="1:52" x14ac:dyDescent="0.3">
-      <c r="A96" s="12"/>
+      <c r="A96" s="13"/>
       <c r="B96" s="3">
         <v>11</v>
       </c>
@@ -28076,7 +28090,7 @@
       </c>
     </row>
     <row r="97" spans="1:52" x14ac:dyDescent="0.3">
-      <c r="A97" s="12"/>
+      <c r="A97" s="13"/>
       <c r="B97" s="3">
         <v>12</v>
       </c>
@@ -28232,7 +28246,7 @@
       </c>
     </row>
     <row r="98" spans="1:52" x14ac:dyDescent="0.3">
-      <c r="A98" s="12">
+      <c r="A98" s="13">
         <v>2008</v>
       </c>
       <c r="B98" s="3">
@@ -28390,7 +28404,7 @@
       </c>
     </row>
     <row r="99" spans="1:52" x14ac:dyDescent="0.3">
-      <c r="A99" s="12"/>
+      <c r="A99" s="13"/>
       <c r="B99" s="3">
         <v>2</v>
       </c>
@@ -28546,7 +28560,7 @@
       </c>
     </row>
     <row r="100" spans="1:52" x14ac:dyDescent="0.3">
-      <c r="A100" s="12"/>
+      <c r="A100" s="13"/>
       <c r="B100" s="3">
         <v>3</v>
       </c>
@@ -28702,7 +28716,7 @@
       </c>
     </row>
     <row r="101" spans="1:52" x14ac:dyDescent="0.3">
-      <c r="A101" s="12"/>
+      <c r="A101" s="13"/>
       <c r="B101" s="3">
         <v>4</v>
       </c>
@@ -28858,7 +28872,7 @@
       </c>
     </row>
     <row r="102" spans="1:52" x14ac:dyDescent="0.3">
-      <c r="A102" s="12"/>
+      <c r="A102" s="13"/>
       <c r="B102" s="3">
         <v>5</v>
       </c>
@@ -29014,7 +29028,7 @@
       </c>
     </row>
     <row r="103" spans="1:52" x14ac:dyDescent="0.3">
-      <c r="A103" s="12"/>
+      <c r="A103" s="13"/>
       <c r="B103" s="3">
         <v>6</v>
       </c>
@@ -29170,7 +29184,7 @@
       </c>
     </row>
     <row r="104" spans="1:52" x14ac:dyDescent="0.3">
-      <c r="A104" s="12"/>
+      <c r="A104" s="13"/>
       <c r="B104" s="3">
         <v>7</v>
       </c>
@@ -29326,7 +29340,7 @@
       </c>
     </row>
     <row r="105" spans="1:52" x14ac:dyDescent="0.3">
-      <c r="A105" s="12"/>
+      <c r="A105" s="13"/>
       <c r="B105" s="3">
         <v>8</v>
       </c>
@@ -29482,7 +29496,7 @@
       </c>
     </row>
     <row r="106" spans="1:52" x14ac:dyDescent="0.3">
-      <c r="A106" s="12"/>
+      <c r="A106" s="13"/>
       <c r="B106" s="3">
         <v>9</v>
       </c>
@@ -29638,7 +29652,7 @@
       </c>
     </row>
     <row r="107" spans="1:52" x14ac:dyDescent="0.3">
-      <c r="A107" s="12"/>
+      <c r="A107" s="13"/>
       <c r="B107" s="3">
         <v>10</v>
       </c>
@@ -29794,7 +29808,7 @@
       </c>
     </row>
     <row r="108" spans="1:52" x14ac:dyDescent="0.3">
-      <c r="A108" s="12"/>
+      <c r="A108" s="13"/>
       <c r="B108" s="3">
         <v>11</v>
       </c>
@@ -29950,7 +29964,7 @@
       </c>
     </row>
     <row r="109" spans="1:52" x14ac:dyDescent="0.3">
-      <c r="A109" s="12"/>
+      <c r="A109" s="13"/>
       <c r="B109" s="3">
         <v>12</v>
       </c>
@@ -30106,7 +30120,7 @@
       </c>
     </row>
     <row r="110" spans="1:52" x14ac:dyDescent="0.3">
-      <c r="A110" s="12">
+      <c r="A110" s="13">
         <v>2009</v>
       </c>
       <c r="B110" s="3">
@@ -30264,7 +30278,7 @@
       </c>
     </row>
     <row r="111" spans="1:52" x14ac:dyDescent="0.3">
-      <c r="A111" s="12"/>
+      <c r="A111" s="13"/>
       <c r="B111" s="3">
         <v>2</v>
       </c>
@@ -30420,7 +30434,7 @@
       </c>
     </row>
     <row r="112" spans="1:52" x14ac:dyDescent="0.3">
-      <c r="A112" s="12"/>
+      <c r="A112" s="13"/>
       <c r="B112" s="3">
         <v>3</v>
       </c>
@@ -30576,7 +30590,7 @@
       </c>
     </row>
     <row r="113" spans="1:52" x14ac:dyDescent="0.3">
-      <c r="A113" s="12"/>
+      <c r="A113" s="13"/>
       <c r="B113" s="3">
         <v>4</v>
       </c>
@@ -30732,7 +30746,7 @@
       </c>
     </row>
     <row r="114" spans="1:52" x14ac:dyDescent="0.3">
-      <c r="A114" s="12"/>
+      <c r="A114" s="13"/>
       <c r="B114" s="3">
         <v>5</v>
       </c>
@@ -30888,7 +30902,7 @@
       </c>
     </row>
     <row r="115" spans="1:52" x14ac:dyDescent="0.3">
-      <c r="A115" s="12"/>
+      <c r="A115" s="13"/>
       <c r="B115" s="3">
         <v>6</v>
       </c>
@@ -31044,7 +31058,7 @@
       </c>
     </row>
     <row r="116" spans="1:52" x14ac:dyDescent="0.3">
-      <c r="A116" s="12"/>
+      <c r="A116" s="13"/>
       <c r="B116" s="3">
         <v>7</v>
       </c>
@@ -31200,7 +31214,7 @@
       </c>
     </row>
     <row r="117" spans="1:52" x14ac:dyDescent="0.3">
-      <c r="A117" s="12"/>
+      <c r="A117" s="13"/>
       <c r="B117" s="3">
         <v>8</v>
       </c>
@@ -31356,7 +31370,7 @@
       </c>
     </row>
     <row r="118" spans="1:52" x14ac:dyDescent="0.3">
-      <c r="A118" s="12"/>
+      <c r="A118" s="13"/>
       <c r="B118" s="3">
         <v>9</v>
       </c>
@@ -31512,7 +31526,7 @@
       </c>
     </row>
     <row r="119" spans="1:52" x14ac:dyDescent="0.3">
-      <c r="A119" s="12"/>
+      <c r="A119" s="13"/>
       <c r="B119" s="3">
         <v>10</v>
       </c>
@@ -31668,7 +31682,7 @@
       </c>
     </row>
     <row r="120" spans="1:52" x14ac:dyDescent="0.3">
-      <c r="A120" s="12"/>
+      <c r="A120" s="13"/>
       <c r="B120" s="3">
         <v>11</v>
       </c>
@@ -31824,7 +31838,7 @@
       </c>
     </row>
     <row r="121" spans="1:52" x14ac:dyDescent="0.3">
-      <c r="A121" s="12"/>
+      <c r="A121" s="13"/>
       <c r="B121" s="3">
         <v>12</v>
       </c>
@@ -31980,7 +31994,7 @@
       </c>
     </row>
     <row r="122" spans="1:52" x14ac:dyDescent="0.3">
-      <c r="A122" s="12">
+      <c r="A122" s="13">
         <v>2010</v>
       </c>
       <c r="B122" s="3">
@@ -32138,7 +32152,7 @@
       </c>
     </row>
     <row r="123" spans="1:52" x14ac:dyDescent="0.3">
-      <c r="A123" s="12"/>
+      <c r="A123" s="13"/>
       <c r="B123" s="3">
         <v>2</v>
       </c>
@@ -32294,7 +32308,7 @@
       </c>
     </row>
     <row r="124" spans="1:52" x14ac:dyDescent="0.3">
-      <c r="A124" s="12"/>
+      <c r="A124" s="13"/>
       <c r="B124" s="3">
         <v>3</v>
       </c>
@@ -32450,7 +32464,7 @@
       </c>
     </row>
     <row r="125" spans="1:52" x14ac:dyDescent="0.3">
-      <c r="A125" s="12"/>
+      <c r="A125" s="13"/>
       <c r="B125" s="3">
         <v>4</v>
       </c>
@@ -32606,7 +32620,7 @@
       </c>
     </row>
     <row r="126" spans="1:52" x14ac:dyDescent="0.3">
-      <c r="A126" s="12"/>
+      <c r="A126" s="13"/>
       <c r="B126" s="3">
         <v>5</v>
       </c>
@@ -32762,7 +32776,7 @@
       </c>
     </row>
     <row r="127" spans="1:52" x14ac:dyDescent="0.3">
-      <c r="A127" s="12"/>
+      <c r="A127" s="13"/>
       <c r="B127" s="3">
         <v>6</v>
       </c>
@@ -32918,7 +32932,7 @@
       </c>
     </row>
     <row r="128" spans="1:52" x14ac:dyDescent="0.3">
-      <c r="A128" s="12"/>
+      <c r="A128" s="13"/>
       <c r="B128" s="3">
         <v>7</v>
       </c>
@@ -33074,7 +33088,7 @@
       </c>
     </row>
     <row r="129" spans="1:52" x14ac:dyDescent="0.3">
-      <c r="A129" s="12"/>
+      <c r="A129" s="13"/>
       <c r="B129" s="3">
         <v>8</v>
       </c>
@@ -33230,7 +33244,7 @@
       </c>
     </row>
     <row r="130" spans="1:52" x14ac:dyDescent="0.3">
-      <c r="A130" s="12"/>
+      <c r="A130" s="13"/>
       <c r="B130" s="3">
         <v>9</v>
       </c>
@@ -33386,7 +33400,7 @@
       </c>
     </row>
     <row r="131" spans="1:52" x14ac:dyDescent="0.3">
-      <c r="A131" s="12"/>
+      <c r="A131" s="13"/>
       <c r="B131" s="3">
         <v>10</v>
       </c>
@@ -33542,7 +33556,7 @@
       </c>
     </row>
     <row r="132" spans="1:52" x14ac:dyDescent="0.3">
-      <c r="A132" s="12"/>
+      <c r="A132" s="13"/>
       <c r="B132" s="3">
         <v>11</v>
       </c>
@@ -33698,7 +33712,7 @@
       </c>
     </row>
     <row r="133" spans="1:52" x14ac:dyDescent="0.3">
-      <c r="A133" s="12"/>
+      <c r="A133" s="13"/>
       <c r="B133" s="3">
         <v>12</v>
       </c>
@@ -33854,7 +33868,7 @@
       </c>
     </row>
     <row r="134" spans="1:52" x14ac:dyDescent="0.3">
-      <c r="A134" s="12">
+      <c r="A134" s="13">
         <v>2011</v>
       </c>
       <c r="B134" s="3">
@@ -34012,7 +34026,7 @@
       </c>
     </row>
     <row r="135" spans="1:52" x14ac:dyDescent="0.3">
-      <c r="A135" s="12"/>
+      <c r="A135" s="13"/>
       <c r="B135" s="3">
         <v>2</v>
       </c>
@@ -34168,7 +34182,7 @@
       </c>
     </row>
     <row r="136" spans="1:52" x14ac:dyDescent="0.3">
-      <c r="A136" s="12"/>
+      <c r="A136" s="13"/>
       <c r="B136" s="3">
         <v>3</v>
       </c>
@@ -34324,7 +34338,7 @@
       </c>
     </row>
     <row r="137" spans="1:52" x14ac:dyDescent="0.3">
-      <c r="A137" s="12"/>
+      <c r="A137" s="13"/>
       <c r="B137" s="3">
         <v>4</v>
       </c>
@@ -34480,7 +34494,7 @@
       </c>
     </row>
     <row r="138" spans="1:52" x14ac:dyDescent="0.3">
-      <c r="A138" s="12"/>
+      <c r="A138" s="13"/>
       <c r="B138" s="3">
         <v>5</v>
       </c>
@@ -34636,7 +34650,7 @@
       </c>
     </row>
     <row r="139" spans="1:52" x14ac:dyDescent="0.3">
-      <c r="A139" s="12"/>
+      <c r="A139" s="13"/>
       <c r="B139" s="3">
         <v>6</v>
       </c>
@@ -34792,7 +34806,7 @@
       </c>
     </row>
     <row r="140" spans="1:52" x14ac:dyDescent="0.3">
-      <c r="A140" s="12"/>
+      <c r="A140" s="13"/>
       <c r="B140" s="3">
         <v>7</v>
       </c>
@@ -34948,7 +34962,7 @@
       </c>
     </row>
     <row r="141" spans="1:52" x14ac:dyDescent="0.3">
-      <c r="A141" s="12"/>
+      <c r="A141" s="13"/>
       <c r="B141" s="3">
         <v>8</v>
       </c>
@@ -35104,7 +35118,7 @@
       </c>
     </row>
     <row r="142" spans="1:52" x14ac:dyDescent="0.3">
-      <c r="A142" s="12"/>
+      <c r="A142" s="13"/>
       <c r="B142" s="3">
         <v>9</v>
       </c>
@@ -35260,7 +35274,7 @@
       </c>
     </row>
     <row r="143" spans="1:52" x14ac:dyDescent="0.3">
-      <c r="A143" s="12"/>
+      <c r="A143" s="13"/>
       <c r="B143" s="3">
         <v>10</v>
       </c>
@@ -35416,7 +35430,7 @@
       </c>
     </row>
     <row r="144" spans="1:52" x14ac:dyDescent="0.3">
-      <c r="A144" s="12"/>
+      <c r="A144" s="13"/>
       <c r="B144" s="3">
         <v>11</v>
       </c>
@@ -35572,7 +35586,7 @@
       </c>
     </row>
     <row r="145" spans="1:52" x14ac:dyDescent="0.3">
-      <c r="A145" s="12"/>
+      <c r="A145" s="13"/>
       <c r="B145" s="3">
         <v>12</v>
       </c>
@@ -35728,7 +35742,7 @@
       </c>
     </row>
     <row r="146" spans="1:52" x14ac:dyDescent="0.3">
-      <c r="A146" s="12">
+      <c r="A146" s="13">
         <v>2012</v>
       </c>
       <c r="B146" s="3">
@@ -35886,7 +35900,7 @@
       </c>
     </row>
     <row r="147" spans="1:52" x14ac:dyDescent="0.3">
-      <c r="A147" s="12"/>
+      <c r="A147" s="13"/>
       <c r="B147" s="3">
         <v>2</v>
       </c>
@@ -36042,7 +36056,7 @@
       </c>
     </row>
     <row r="148" spans="1:52" x14ac:dyDescent="0.3">
-      <c r="A148" s="12"/>
+      <c r="A148" s="13"/>
       <c r="B148" s="3">
         <v>3</v>
       </c>
@@ -36198,7 +36212,7 @@
       </c>
     </row>
     <row r="149" spans="1:52" x14ac:dyDescent="0.3">
-      <c r="A149" s="12"/>
+      <c r="A149" s="13"/>
       <c r="B149" s="3">
         <v>4</v>
       </c>
@@ -36354,7 +36368,7 @@
       </c>
     </row>
     <row r="150" spans="1:52" x14ac:dyDescent="0.3">
-      <c r="A150" s="12"/>
+      <c r="A150" s="13"/>
       <c r="B150" s="3">
         <v>5</v>
       </c>
@@ -36510,7 +36524,7 @@
       </c>
     </row>
     <row r="151" spans="1:52" x14ac:dyDescent="0.3">
-      <c r="A151" s="12"/>
+      <c r="A151" s="13"/>
       <c r="B151" s="3">
         <v>6</v>
       </c>
@@ -36666,7 +36680,7 @@
       </c>
     </row>
     <row r="152" spans="1:52" x14ac:dyDescent="0.3">
-      <c r="A152" s="12"/>
+      <c r="A152" s="13"/>
       <c r="B152" s="3">
         <v>7</v>
       </c>
@@ -36822,7 +36836,7 @@
       </c>
     </row>
     <row r="153" spans="1:52" x14ac:dyDescent="0.3">
-      <c r="A153" s="12"/>
+      <c r="A153" s="13"/>
       <c r="B153" s="3">
         <v>8</v>
       </c>
@@ -36978,7 +36992,7 @@
       </c>
     </row>
     <row r="154" spans="1:52" x14ac:dyDescent="0.3">
-      <c r="A154" s="12"/>
+      <c r="A154" s="13"/>
       <c r="B154" s="3">
         <v>9</v>
       </c>
@@ -37134,7 +37148,7 @@
       </c>
     </row>
     <row r="155" spans="1:52" x14ac:dyDescent="0.3">
-      <c r="A155" s="12"/>
+      <c r="A155" s="13"/>
       <c r="B155" s="3">
         <v>10</v>
       </c>
@@ -37290,7 +37304,7 @@
       </c>
     </row>
     <row r="156" spans="1:52" x14ac:dyDescent="0.3">
-      <c r="A156" s="12"/>
+      <c r="A156" s="13"/>
       <c r="B156" s="3">
         <v>11</v>
       </c>
@@ -37446,7 +37460,7 @@
       </c>
     </row>
     <row r="157" spans="1:52" x14ac:dyDescent="0.3">
-      <c r="A157" s="12"/>
+      <c r="A157" s="13"/>
       <c r="B157" s="3">
         <v>12</v>
       </c>
@@ -37602,7 +37616,7 @@
       </c>
     </row>
     <row r="158" spans="1:52" x14ac:dyDescent="0.3">
-      <c r="A158" s="12">
+      <c r="A158" s="13">
         <v>2013</v>
       </c>
       <c r="B158" s="3">
@@ -37760,7 +37774,7 @@
       </c>
     </row>
     <row r="159" spans="1:52" x14ac:dyDescent="0.3">
-      <c r="A159" s="12"/>
+      <c r="A159" s="13"/>
       <c r="B159" s="3">
         <v>2</v>
       </c>
@@ -37916,7 +37930,7 @@
       </c>
     </row>
     <row r="160" spans="1:52" x14ac:dyDescent="0.3">
-      <c r="A160" s="12"/>
+      <c r="A160" s="13"/>
       <c r="B160" s="3">
         <v>3</v>
       </c>
@@ -38072,7 +38086,7 @@
       </c>
     </row>
     <row r="161" spans="1:52" x14ac:dyDescent="0.3">
-      <c r="A161" s="12"/>
+      <c r="A161" s="13"/>
       <c r="B161" s="3">
         <v>4</v>
       </c>
@@ -38228,7 +38242,7 @@
       </c>
     </row>
     <row r="162" spans="1:52" x14ac:dyDescent="0.3">
-      <c r="A162" s="12"/>
+      <c r="A162" s="13"/>
       <c r="B162" s="3">
         <v>5</v>
       </c>
@@ -38384,7 +38398,7 @@
       </c>
     </row>
     <row r="163" spans="1:52" x14ac:dyDescent="0.3">
-      <c r="A163" s="12"/>
+      <c r="A163" s="13"/>
       <c r="B163" s="3">
         <v>6</v>
       </c>
@@ -38540,7 +38554,7 @@
       </c>
     </row>
     <row r="164" spans="1:52" x14ac:dyDescent="0.3">
-      <c r="A164" s="12"/>
+      <c r="A164" s="13"/>
       <c r="B164" s="3">
         <v>7</v>
       </c>
@@ -38696,7 +38710,7 @@
       </c>
     </row>
     <row r="165" spans="1:52" x14ac:dyDescent="0.3">
-      <c r="A165" s="12"/>
+      <c r="A165" s="13"/>
       <c r="B165" s="3">
         <v>8</v>
       </c>
@@ -38852,7 +38866,7 @@
       </c>
     </row>
     <row r="166" spans="1:52" x14ac:dyDescent="0.3">
-      <c r="A166" s="12"/>
+      <c r="A166" s="13"/>
       <c r="B166" s="3">
         <v>9</v>
       </c>
@@ -39008,7 +39022,7 @@
       </c>
     </row>
     <row r="167" spans="1:52" x14ac:dyDescent="0.3">
-      <c r="A167" s="12"/>
+      <c r="A167" s="13"/>
       <c r="B167" s="3">
         <v>10</v>
       </c>
@@ -39164,7 +39178,7 @@
       </c>
     </row>
     <row r="168" spans="1:52" x14ac:dyDescent="0.3">
-      <c r="A168" s="12"/>
+      <c r="A168" s="13"/>
       <c r="B168" s="3">
         <v>11</v>
       </c>
@@ -39320,7 +39334,7 @@
       </c>
     </row>
     <row r="169" spans="1:52" x14ac:dyDescent="0.3">
-      <c r="A169" s="12"/>
+      <c r="A169" s="13"/>
       <c r="B169" s="3">
         <v>12</v>
       </c>
@@ -39476,7 +39490,7 @@
       </c>
     </row>
     <row r="170" spans="1:52" x14ac:dyDescent="0.3">
-      <c r="A170" s="12">
+      <c r="A170" s="13">
         <v>2014</v>
       </c>
       <c r="B170" s="3">
@@ -39634,7 +39648,7 @@
       </c>
     </row>
     <row r="171" spans="1:52" x14ac:dyDescent="0.3">
-      <c r="A171" s="12"/>
+      <c r="A171" s="13"/>
       <c r="B171" s="3">
         <v>2</v>
       </c>
@@ -39790,7 +39804,7 @@
       </c>
     </row>
     <row r="172" spans="1:52" x14ac:dyDescent="0.3">
-      <c r="A172" s="12"/>
+      <c r="A172" s="13"/>
       <c r="B172" s="3">
         <v>3</v>
       </c>
@@ -39946,7 +39960,7 @@
       </c>
     </row>
     <row r="173" spans="1:52" x14ac:dyDescent="0.3">
-      <c r="A173" s="12"/>
+      <c r="A173" s="13"/>
       <c r="B173" s="3">
         <v>4</v>
       </c>
@@ -40102,7 +40116,7 @@
       </c>
     </row>
     <row r="174" spans="1:52" x14ac:dyDescent="0.3">
-      <c r="A174" s="12"/>
+      <c r="A174" s="13"/>
       <c r="B174" s="3">
         <v>5</v>
       </c>
@@ -40258,7 +40272,7 @@
       </c>
     </row>
     <row r="175" spans="1:52" x14ac:dyDescent="0.3">
-      <c r="A175" s="12"/>
+      <c r="A175" s="13"/>
       <c r="B175" s="3">
         <v>6</v>
       </c>
@@ -40414,7 +40428,7 @@
       </c>
     </row>
     <row r="176" spans="1:52" x14ac:dyDescent="0.3">
-      <c r="A176" s="12"/>
+      <c r="A176" s="13"/>
       <c r="B176" s="3">
         <v>7</v>
       </c>
@@ -40570,7 +40584,7 @@
       </c>
     </row>
     <row r="177" spans="1:52" x14ac:dyDescent="0.3">
-      <c r="A177" s="12"/>
+      <c r="A177" s="13"/>
       <c r="B177" s="3">
         <v>8</v>
       </c>
@@ -40726,7 +40740,7 @@
       </c>
     </row>
     <row r="178" spans="1:52" x14ac:dyDescent="0.3">
-      <c r="A178" s="12"/>
+      <c r="A178" s="13"/>
       <c r="B178" s="3">
         <v>9</v>
       </c>
@@ -40882,7 +40896,7 @@
       </c>
     </row>
     <row r="179" spans="1:52" x14ac:dyDescent="0.3">
-      <c r="A179" s="12"/>
+      <c r="A179" s="13"/>
       <c r="B179" s="3">
         <v>10</v>
       </c>
@@ -41038,7 +41052,7 @@
       </c>
     </row>
     <row r="180" spans="1:52" x14ac:dyDescent="0.3">
-      <c r="A180" s="12"/>
+      <c r="A180" s="13"/>
       <c r="B180" s="3">
         <v>11</v>
       </c>
@@ -41194,7 +41208,7 @@
       </c>
     </row>
     <row r="181" spans="1:52" x14ac:dyDescent="0.3">
-      <c r="A181" s="12"/>
+      <c r="A181" s="13"/>
       <c r="B181" s="3">
         <v>12</v>
       </c>
@@ -41350,7 +41364,7 @@
       </c>
     </row>
     <row r="182" spans="1:52" x14ac:dyDescent="0.3">
-      <c r="A182" s="12">
+      <c r="A182" s="13">
         <v>2015</v>
       </c>
       <c r="B182" s="3">
@@ -41508,7 +41522,7 @@
       </c>
     </row>
     <row r="183" spans="1:52" x14ac:dyDescent="0.3">
-      <c r="A183" s="12"/>
+      <c r="A183" s="13"/>
       <c r="B183" s="3">
         <v>2</v>
       </c>
@@ -41664,7 +41678,7 @@
       </c>
     </row>
     <row r="184" spans="1:52" x14ac:dyDescent="0.3">
-      <c r="A184" s="12"/>
+      <c r="A184" s="13"/>
       <c r="B184" s="3">
         <v>3</v>
       </c>
@@ -41820,7 +41834,7 @@
       </c>
     </row>
     <row r="185" spans="1:52" x14ac:dyDescent="0.3">
-      <c r="A185" s="12"/>
+      <c r="A185" s="13"/>
       <c r="B185" s="3">
         <v>4</v>
       </c>
@@ -41976,7 +41990,7 @@
       </c>
     </row>
     <row r="186" spans="1:52" x14ac:dyDescent="0.3">
-      <c r="A186" s="12"/>
+      <c r="A186" s="13"/>
       <c r="B186" s="3">
         <v>5</v>
       </c>
@@ -42132,7 +42146,7 @@
       </c>
     </row>
     <row r="187" spans="1:52" x14ac:dyDescent="0.3">
-      <c r="A187" s="12"/>
+      <c r="A187" s="13"/>
       <c r="B187" s="3">
         <v>6</v>
       </c>
@@ -42288,7 +42302,7 @@
       </c>
     </row>
     <row r="188" spans="1:52" x14ac:dyDescent="0.3">
-      <c r="A188" s="12"/>
+      <c r="A188" s="13"/>
       <c r="B188" s="3">
         <v>7</v>
       </c>
@@ -42444,7 +42458,7 @@
       </c>
     </row>
     <row r="189" spans="1:52" x14ac:dyDescent="0.3">
-      <c r="A189" s="12"/>
+      <c r="A189" s="13"/>
       <c r="B189" s="3">
         <v>8</v>
       </c>
@@ -42600,7 +42614,7 @@
       </c>
     </row>
     <row r="190" spans="1:52" x14ac:dyDescent="0.3">
-      <c r="A190" s="12"/>
+      <c r="A190" s="13"/>
       <c r="B190" s="3">
         <v>9</v>
       </c>
@@ -42756,7 +42770,7 @@
       </c>
     </row>
     <row r="191" spans="1:52" x14ac:dyDescent="0.3">
-      <c r="A191" s="12"/>
+      <c r="A191" s="13"/>
       <c r="B191" s="3">
         <v>10</v>
       </c>
@@ -42912,7 +42926,7 @@
       </c>
     </row>
     <row r="192" spans="1:52" x14ac:dyDescent="0.3">
-      <c r="A192" s="12"/>
+      <c r="A192" s="13"/>
       <c r="B192" s="3">
         <v>11</v>
       </c>
@@ -43068,7 +43082,7 @@
       </c>
     </row>
     <row r="193" spans="1:52" x14ac:dyDescent="0.3">
-      <c r="A193" s="12"/>
+      <c r="A193" s="13"/>
       <c r="B193" s="3">
         <v>12</v>
       </c>
@@ -43224,7 +43238,7 @@
       </c>
     </row>
     <row r="194" spans="1:52" x14ac:dyDescent="0.3">
-      <c r="A194" s="12">
+      <c r="A194" s="13">
         <v>2016</v>
       </c>
       <c r="B194" s="3">
@@ -43382,7 +43396,7 @@
       </c>
     </row>
     <row r="195" spans="1:52" x14ac:dyDescent="0.3">
-      <c r="A195" s="12"/>
+      <c r="A195" s="13"/>
       <c r="B195" s="3">
         <v>2</v>
       </c>
@@ -43538,7 +43552,7 @@
       </c>
     </row>
     <row r="196" spans="1:52" x14ac:dyDescent="0.3">
-      <c r="A196" s="12"/>
+      <c r="A196" s="13"/>
       <c r="B196" s="3">
         <v>3</v>
       </c>
@@ -43694,7 +43708,7 @@
       </c>
     </row>
     <row r="197" spans="1:52" x14ac:dyDescent="0.3">
-      <c r="A197" s="12"/>
+      <c r="A197" s="13"/>
       <c r="B197" s="3">
         <v>4</v>
       </c>
@@ -43850,7 +43864,7 @@
       </c>
     </row>
     <row r="198" spans="1:52" x14ac:dyDescent="0.3">
-      <c r="A198" s="12"/>
+      <c r="A198" s="13"/>
       <c r="B198" s="3">
         <v>5</v>
       </c>
@@ -44006,7 +44020,7 @@
       </c>
     </row>
     <row r="199" spans="1:52" x14ac:dyDescent="0.3">
-      <c r="A199" s="12"/>
+      <c r="A199" s="13"/>
       <c r="B199" s="3">
         <v>6</v>
       </c>
@@ -44162,7 +44176,7 @@
       </c>
     </row>
     <row r="200" spans="1:52" x14ac:dyDescent="0.3">
-      <c r="A200" s="12"/>
+      <c r="A200" s="13"/>
       <c r="B200" s="3">
         <v>7</v>
       </c>
@@ -44318,7 +44332,7 @@
       </c>
     </row>
     <row r="201" spans="1:52" x14ac:dyDescent="0.3">
-      <c r="A201" s="12"/>
+      <c r="A201" s="13"/>
       <c r="B201" s="3">
         <v>8</v>
       </c>
@@ -44474,7 +44488,7 @@
       </c>
     </row>
     <row r="202" spans="1:52" x14ac:dyDescent="0.3">
-      <c r="A202" s="12"/>
+      <c r="A202" s="13"/>
       <c r="B202" s="3">
         <v>9</v>
       </c>
@@ -44630,7 +44644,7 @@
       </c>
     </row>
     <row r="203" spans="1:52" x14ac:dyDescent="0.3">
-      <c r="A203" s="12"/>
+      <c r="A203" s="13"/>
       <c r="B203" s="3">
         <v>10</v>
       </c>
@@ -44786,7 +44800,7 @@
       </c>
     </row>
     <row r="204" spans="1:52" x14ac:dyDescent="0.3">
-      <c r="A204" s="12"/>
+      <c r="A204" s="13"/>
       <c r="B204" s="3">
         <v>11</v>
       </c>
@@ -44942,7 +44956,7 @@
       </c>
     </row>
     <row r="205" spans="1:52" x14ac:dyDescent="0.3">
-      <c r="A205" s="12"/>
+      <c r="A205" s="13"/>
       <c r="B205" s="3">
         <v>12</v>
       </c>
@@ -45098,7 +45112,7 @@
       </c>
     </row>
     <row r="206" spans="1:52" x14ac:dyDescent="0.3">
-      <c r="A206" s="12">
+      <c r="A206" s="13">
         <v>2017</v>
       </c>
       <c r="B206" s="3">
@@ -45256,7 +45270,7 @@
       </c>
     </row>
     <row r="207" spans="1:52" x14ac:dyDescent="0.3">
-      <c r="A207" s="12"/>
+      <c r="A207" s="13"/>
       <c r="B207" s="3">
         <v>2</v>
       </c>
@@ -45412,7 +45426,7 @@
       </c>
     </row>
     <row r="208" spans="1:52" x14ac:dyDescent="0.3">
-      <c r="A208" s="12"/>
+      <c r="A208" s="13"/>
       <c r="B208" s="3">
         <v>3</v>
       </c>
@@ -45568,7 +45582,7 @@
       </c>
     </row>
     <row r="209" spans="1:52" x14ac:dyDescent="0.3">
-      <c r="A209" s="12"/>
+      <c r="A209" s="13"/>
       <c r="B209" s="3">
         <v>4</v>
       </c>
@@ -45724,7 +45738,7 @@
       </c>
     </row>
     <row r="210" spans="1:52" x14ac:dyDescent="0.3">
-      <c r="A210" s="12"/>
+      <c r="A210" s="13"/>
       <c r="B210" s="3">
         <v>5</v>
       </c>
@@ -45880,7 +45894,7 @@
       </c>
     </row>
     <row r="211" spans="1:52" x14ac:dyDescent="0.3">
-      <c r="A211" s="12"/>
+      <c r="A211" s="13"/>
       <c r="B211" s="3">
         <v>6</v>
       </c>
@@ -46036,7 +46050,7 @@
       </c>
     </row>
     <row r="212" spans="1:52" x14ac:dyDescent="0.3">
-      <c r="A212" s="12"/>
+      <c r="A212" s="13"/>
       <c r="B212" s="3">
         <v>7</v>
       </c>
@@ -46192,7 +46206,7 @@
       </c>
     </row>
     <row r="213" spans="1:52" x14ac:dyDescent="0.3">
-      <c r="A213" s="12"/>
+      <c r="A213" s="13"/>
       <c r="B213" s="3">
         <v>8</v>
       </c>
@@ -46348,7 +46362,7 @@
       </c>
     </row>
     <row r="214" spans="1:52" x14ac:dyDescent="0.3">
-      <c r="A214" s="12"/>
+      <c r="A214" s="13"/>
       <c r="B214" s="3">
         <v>9</v>
       </c>
@@ -46504,7 +46518,7 @@
       </c>
     </row>
     <row r="215" spans="1:52" x14ac:dyDescent="0.3">
-      <c r="A215" s="12"/>
+      <c r="A215" s="13"/>
       <c r="B215" s="3">
         <v>10</v>
       </c>
@@ -46660,7 +46674,7 @@
       </c>
     </row>
     <row r="216" spans="1:52" x14ac:dyDescent="0.3">
-      <c r="A216" s="12"/>
+      <c r="A216" s="13"/>
       <c r="B216" s="3">
         <v>11</v>
       </c>
@@ -46816,7 +46830,7 @@
       </c>
     </row>
     <row r="217" spans="1:52" x14ac:dyDescent="0.3">
-      <c r="A217" s="12"/>
+      <c r="A217" s="13"/>
       <c r="B217" s="3">
         <v>12</v>
       </c>
@@ -46972,7 +46986,7 @@
       </c>
     </row>
     <row r="218" spans="1:52" x14ac:dyDescent="0.3">
-      <c r="A218" s="12">
+      <c r="A218" s="13">
         <v>2018</v>
       </c>
       <c r="B218" s="3">
@@ -47130,7 +47144,7 @@
       </c>
     </row>
     <row r="219" spans="1:52" x14ac:dyDescent="0.3">
-      <c r="A219" s="12"/>
+      <c r="A219" s="13"/>
       <c r="B219" s="3">
         <v>2</v>
       </c>
@@ -47286,7 +47300,7 @@
       </c>
     </row>
     <row r="220" spans="1:52" x14ac:dyDescent="0.3">
-      <c r="A220" s="12"/>
+      <c r="A220" s="13"/>
       <c r="B220" s="3">
         <v>3</v>
       </c>
@@ -47442,7 +47456,7 @@
       </c>
     </row>
     <row r="221" spans="1:52" x14ac:dyDescent="0.3">
-      <c r="A221" s="12"/>
+      <c r="A221" s="13"/>
       <c r="B221" s="3">
         <v>4</v>
       </c>
@@ -47598,7 +47612,7 @@
       </c>
     </row>
     <row r="222" spans="1:52" x14ac:dyDescent="0.3">
-      <c r="A222" s="12"/>
+      <c r="A222" s="13"/>
       <c r="B222" s="3">
         <v>5</v>
       </c>
@@ -47754,7 +47768,7 @@
       </c>
     </row>
     <row r="223" spans="1:52" x14ac:dyDescent="0.3">
-      <c r="A223" s="12"/>
+      <c r="A223" s="13"/>
       <c r="B223" s="3">
         <v>6</v>
       </c>
@@ -47910,7 +47924,7 @@
       </c>
     </row>
     <row r="224" spans="1:52" x14ac:dyDescent="0.3">
-      <c r="A224" s="12"/>
+      <c r="A224" s="13"/>
       <c r="B224" s="3">
         <v>7</v>
       </c>
@@ -48066,7 +48080,7 @@
       </c>
     </row>
     <row r="225" spans="1:52" x14ac:dyDescent="0.3">
-      <c r="A225" s="12"/>
+      <c r="A225" s="13"/>
       <c r="B225" s="3">
         <v>8</v>
       </c>
@@ -48222,7 +48236,7 @@
       </c>
     </row>
     <row r="226" spans="1:52" x14ac:dyDescent="0.3">
-      <c r="A226" s="12"/>
+      <c r="A226" s="13"/>
       <c r="B226" s="3">
         <v>9</v>
       </c>
@@ -48378,7 +48392,7 @@
       </c>
     </row>
     <row r="227" spans="1:52" x14ac:dyDescent="0.3">
-      <c r="A227" s="12"/>
+      <c r="A227" s="13"/>
       <c r="B227" s="3">
         <v>10</v>
       </c>
@@ -48534,7 +48548,7 @@
       </c>
     </row>
     <row r="228" spans="1:52" x14ac:dyDescent="0.3">
-      <c r="A228" s="12"/>
+      <c r="A228" s="13"/>
       <c r="B228" s="3">
         <v>11</v>
       </c>
@@ -48690,7 +48704,7 @@
       </c>
     </row>
     <row r="229" spans="1:52" x14ac:dyDescent="0.3">
-      <c r="A229" s="12"/>
+      <c r="A229" s="13"/>
       <c r="B229" s="3">
         <v>12</v>
       </c>
@@ -48846,7 +48860,7 @@
       </c>
     </row>
     <row r="230" spans="1:52" x14ac:dyDescent="0.3">
-      <c r="A230" s="12">
+      <c r="A230" s="13">
         <v>2019</v>
       </c>
       <c r="B230" s="3">
@@ -49004,7 +49018,7 @@
       </c>
     </row>
     <row r="231" spans="1:52" x14ac:dyDescent="0.3">
-      <c r="A231" s="12"/>
+      <c r="A231" s="13"/>
       <c r="B231" s="3">
         <v>2</v>
       </c>
@@ -49160,7 +49174,7 @@
       </c>
     </row>
     <row r="232" spans="1:52" x14ac:dyDescent="0.3">
-      <c r="A232" s="12"/>
+      <c r="A232" s="13"/>
       <c r="B232" s="3">
         <v>3</v>
       </c>
@@ -49316,7 +49330,7 @@
       </c>
     </row>
     <row r="233" spans="1:52" x14ac:dyDescent="0.3">
-      <c r="A233" s="12"/>
+      <c r="A233" s="13"/>
       <c r="B233" s="3">
         <v>4</v>
       </c>
@@ -49472,7 +49486,7 @@
       </c>
     </row>
     <row r="234" spans="1:52" x14ac:dyDescent="0.3">
-      <c r="A234" s="12"/>
+      <c r="A234" s="13"/>
       <c r="B234" s="3">
         <v>5</v>
       </c>
@@ -49628,7 +49642,7 @@
       </c>
     </row>
     <row r="235" spans="1:52" x14ac:dyDescent="0.3">
-      <c r="A235" s="12"/>
+      <c r="A235" s="13"/>
       <c r="B235" s="3">
         <v>6</v>
       </c>
@@ -49784,7 +49798,7 @@
       </c>
     </row>
     <row r="236" spans="1:52" x14ac:dyDescent="0.3">
-      <c r="A236" s="12"/>
+      <c r="A236" s="13"/>
       <c r="B236" s="3">
         <v>7</v>
       </c>
@@ -49940,7 +49954,7 @@
       </c>
     </row>
     <row r="237" spans="1:52" x14ac:dyDescent="0.3">
-      <c r="A237" s="12"/>
+      <c r="A237" s="13"/>
       <c r="B237" s="3">
         <v>8</v>
       </c>
@@ -50096,7 +50110,7 @@
       </c>
     </row>
     <row r="238" spans="1:52" x14ac:dyDescent="0.3">
-      <c r="A238" s="12"/>
+      <c r="A238" s="13"/>
       <c r="B238" s="3">
         <v>9</v>
       </c>
@@ -50252,7 +50266,7 @@
       </c>
     </row>
     <row r="239" spans="1:52" x14ac:dyDescent="0.3">
-      <c r="A239" s="12"/>
+      <c r="A239" s="13"/>
       <c r="B239" s="3">
         <v>10</v>
       </c>
@@ -50408,7 +50422,7 @@
       </c>
     </row>
     <row r="240" spans="1:52" x14ac:dyDescent="0.3">
-      <c r="A240" s="12"/>
+      <c r="A240" s="13"/>
       <c r="B240" s="3">
         <v>11</v>
       </c>
@@ -50564,7 +50578,7 @@
       </c>
     </row>
     <row r="241" spans="1:52" x14ac:dyDescent="0.3">
-      <c r="A241" s="12"/>
+      <c r="A241" s="13"/>
       <c r="B241" s="3">
         <v>12</v>
       </c>
@@ -50721,14 +50735,6 @@
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="A218:A229"/>
-    <mergeCell ref="A230:A241"/>
-    <mergeCell ref="A146:A157"/>
-    <mergeCell ref="A158:A169"/>
-    <mergeCell ref="A170:A181"/>
-    <mergeCell ref="A182:A193"/>
-    <mergeCell ref="A194:A205"/>
-    <mergeCell ref="A206:A217"/>
     <mergeCell ref="A134:A145"/>
     <mergeCell ref="A2:A13"/>
     <mergeCell ref="A14:A25"/>
@@ -50741,6 +50747,14 @@
     <mergeCell ref="A98:A109"/>
     <mergeCell ref="A110:A121"/>
     <mergeCell ref="A122:A133"/>
+    <mergeCell ref="A218:A229"/>
+    <mergeCell ref="A230:A241"/>
+    <mergeCell ref="A146:A157"/>
+    <mergeCell ref="A158:A169"/>
+    <mergeCell ref="A170:A181"/>
+    <mergeCell ref="A182:A193"/>
+    <mergeCell ref="A194:A205"/>
+    <mergeCell ref="A206:A217"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/dataForExp.xlsx
+++ b/data/dataForExp.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Mirror系统开发\Mirror\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FF3AEF0-2A05-4ADE-8107-48F8791BD411}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69EA0E37-7DAB-4002-AFE7-15C2A0EF8982}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="18220" windowHeight="11620" firstSheet="2" activeTab="5" xr2:uid="{7869B96A-7811-4EF3-9176-2B0373B8E4EA}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="18220" windowHeight="11620" firstSheet="2" activeTab="2" xr2:uid="{7869B96A-7811-4EF3-9176-2B0373B8E4EA}"/>
   </bookViews>
   <sheets>
     <sheet name="purchaseProb" sheetId="1" r:id="rId1"/>
@@ -10733,8 +10733,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC162023-1AF5-423C-84D1-3F88E6E27F5B}">
   <dimension ref="A1:U11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="U2" sqref="U2:U11"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="R19" sqref="R19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -10809,64 +10809,64 @@
         <v>1</v>
       </c>
       <c r="B2" s="10">
-        <v>0.05</v>
+        <v>0.159</v>
       </c>
       <c r="C2" s="10">
-        <v>0.05</v>
+        <v>0.159</v>
       </c>
       <c r="D2" s="10">
-        <v>0.05</v>
+        <v>0.159</v>
       </c>
       <c r="E2" s="10">
-        <v>0.05</v>
+        <v>0.159</v>
       </c>
       <c r="F2" s="10">
-        <v>0.05</v>
+        <v>0.159</v>
       </c>
       <c r="G2" s="10">
-        <v>0.05</v>
+        <v>0.159</v>
       </c>
       <c r="H2" s="10">
-        <v>0.05</v>
+        <v>0.159</v>
       </c>
       <c r="I2" s="10">
-        <v>0.05</v>
+        <v>0.159</v>
       </c>
       <c r="J2" s="10">
-        <v>0.05</v>
+        <v>0.159</v>
       </c>
       <c r="K2" s="10">
-        <v>0.05</v>
+        <v>0.159</v>
       </c>
       <c r="L2" s="10">
-        <v>0.05</v>
+        <v>0.159</v>
       </c>
       <c r="M2" s="10">
-        <v>0.05</v>
+        <v>0.159</v>
       </c>
       <c r="N2" s="10">
-        <v>0.05</v>
+        <v>0.159</v>
       </c>
       <c r="O2" s="10">
-        <v>0.05</v>
+        <v>0.159</v>
       </c>
       <c r="P2" s="10">
-        <v>0.05</v>
+        <v>0.159</v>
       </c>
       <c r="Q2" s="10">
-        <v>0.05</v>
+        <v>0.159</v>
       </c>
       <c r="R2" s="10">
-        <v>0.05</v>
+        <v>0.159</v>
       </c>
       <c r="S2" s="10">
-        <v>0.05</v>
+        <v>0.159</v>
       </c>
       <c r="T2" s="10">
-        <v>0.05</v>
+        <v>0.159</v>
       </c>
       <c r="U2" s="10">
-        <v>0.05</v>
+        <v>0.159</v>
       </c>
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.3">
@@ -10874,64 +10874,64 @@
         <v>2</v>
       </c>
       <c r="B3" s="10">
-        <v>0.15</v>
+        <v>0.23480000000000001</v>
       </c>
       <c r="C3" s="10">
-        <v>0.15</v>
+        <v>0.23480000000000001</v>
       </c>
       <c r="D3" s="10">
-        <v>0.15</v>
+        <v>0.23480000000000001</v>
       </c>
       <c r="E3" s="10">
-        <v>0.15</v>
+        <v>0.23480000000000001</v>
       </c>
       <c r="F3" s="10">
-        <v>0.15</v>
+        <v>0.23480000000000001</v>
       </c>
       <c r="G3" s="10">
-        <v>0.15</v>
+        <v>0.23480000000000001</v>
       </c>
       <c r="H3" s="10">
-        <v>0.15</v>
+        <v>0.23480000000000001</v>
       </c>
       <c r="I3" s="10">
-        <v>0.15</v>
+        <v>0.23480000000000001</v>
       </c>
       <c r="J3" s="10">
-        <v>0.15</v>
+        <v>0.23480000000000001</v>
       </c>
       <c r="K3" s="10">
-        <v>0.15</v>
+        <v>0.23480000000000001</v>
       </c>
       <c r="L3" s="10">
-        <v>0.15</v>
+        <v>0.23480000000000001</v>
       </c>
       <c r="M3" s="10">
-        <v>0.15</v>
+        <v>0.23480000000000001</v>
       </c>
       <c r="N3" s="10">
-        <v>0.15</v>
+        <v>0.23480000000000001</v>
       </c>
       <c r="O3" s="10">
-        <v>0.15</v>
+        <v>0.23480000000000001</v>
       </c>
       <c r="P3" s="10">
-        <v>0.15</v>
+        <v>0.23480000000000001</v>
       </c>
       <c r="Q3" s="10">
-        <v>0.15</v>
+        <v>0.23480000000000001</v>
       </c>
       <c r="R3" s="10">
-        <v>0.15</v>
+        <v>0.23480000000000001</v>
       </c>
       <c r="S3" s="10">
-        <v>0.15</v>
+        <v>0.23480000000000001</v>
       </c>
       <c r="T3" s="10">
-        <v>0.15</v>
+        <v>0.23480000000000001</v>
       </c>
       <c r="U3" s="10">
-        <v>0.15</v>
+        <v>0.23480000000000001</v>
       </c>
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.3">
@@ -10939,64 +10939,64 @@
         <v>3</v>
       </c>
       <c r="B4" s="10">
-        <v>0.25</v>
+        <v>0.31059999999999999</v>
       </c>
       <c r="C4" s="10">
-        <v>0.25</v>
+        <v>0.31059999999999999</v>
       </c>
       <c r="D4" s="10">
-        <v>0.25</v>
+        <v>0.31059999999999999</v>
       </c>
       <c r="E4" s="10">
-        <v>0.25</v>
+        <v>0.31059999999999999</v>
       </c>
       <c r="F4" s="10">
-        <v>0.25</v>
+        <v>0.31059999999999999</v>
       </c>
       <c r="G4" s="10">
-        <v>0.25</v>
+        <v>0.31059999999999999</v>
       </c>
       <c r="H4" s="10">
-        <v>0.25</v>
+        <v>0.31059999999999999</v>
       </c>
       <c r="I4" s="10">
-        <v>0.25</v>
+        <v>0.31059999999999999</v>
       </c>
       <c r="J4" s="10">
-        <v>0.25</v>
+        <v>0.31059999999999999</v>
       </c>
       <c r="K4" s="10">
-        <v>0.25</v>
+        <v>0.31059999999999999</v>
       </c>
       <c r="L4" s="10">
-        <v>0.25</v>
+        <v>0.31059999999999999</v>
       </c>
       <c r="M4" s="10">
-        <v>0.25</v>
+        <v>0.31059999999999999</v>
       </c>
       <c r="N4" s="10">
-        <v>0.25</v>
+        <v>0.31059999999999999</v>
       </c>
       <c r="O4" s="10">
-        <v>0.25</v>
+        <v>0.31059999999999999</v>
       </c>
       <c r="P4" s="10">
-        <v>0.25</v>
+        <v>0.31059999999999999</v>
       </c>
       <c r="Q4" s="10">
-        <v>0.25</v>
+        <v>0.31059999999999999</v>
       </c>
       <c r="R4" s="10">
-        <v>0.25</v>
+        <v>0.31059999999999999</v>
       </c>
       <c r="S4" s="10">
-        <v>0.25</v>
+        <v>0.31059999999999999</v>
       </c>
       <c r="T4" s="10">
-        <v>0.25</v>
+        <v>0.31059999999999999</v>
       </c>
       <c r="U4" s="10">
-        <v>0.25</v>
+        <v>0.31059999999999999</v>
       </c>
     </row>
     <row r="5" spans="1:21" x14ac:dyDescent="0.3">
@@ -11004,64 +11004,64 @@
         <v>4</v>
       </c>
       <c r="B5" s="10">
-        <v>0.35</v>
+        <v>0.38629999999999998</v>
       </c>
       <c r="C5" s="10">
-        <v>0.35</v>
+        <v>0.38629999999999998</v>
       </c>
       <c r="D5" s="10">
-        <v>0.35</v>
+        <v>0.38629999999999998</v>
       </c>
       <c r="E5" s="10">
-        <v>0.35</v>
+        <v>0.38629999999999998</v>
       </c>
       <c r="F5" s="10">
-        <v>0.35</v>
+        <v>0.38629999999999998</v>
       </c>
       <c r="G5" s="10">
-        <v>0.35</v>
+        <v>0.38629999999999998</v>
       </c>
       <c r="H5" s="10">
-        <v>0.35</v>
+        <v>0.38629999999999998</v>
       </c>
       <c r="I5" s="10">
-        <v>0.35</v>
+        <v>0.38629999999999998</v>
       </c>
       <c r="J5" s="10">
-        <v>0.35</v>
+        <v>0.38629999999999998</v>
       </c>
       <c r="K5" s="10">
-        <v>0.35</v>
+        <v>0.38629999999999998</v>
       </c>
       <c r="L5" s="10">
-        <v>0.35</v>
+        <v>0.38629999999999998</v>
       </c>
       <c r="M5" s="10">
-        <v>0.35</v>
+        <v>0.38629999999999998</v>
       </c>
       <c r="N5" s="10">
-        <v>0.35</v>
+        <v>0.38629999999999998</v>
       </c>
       <c r="O5" s="10">
-        <v>0.35</v>
+        <v>0.38629999999999998</v>
       </c>
       <c r="P5" s="10">
-        <v>0.35</v>
+        <v>0.38629999999999998</v>
       </c>
       <c r="Q5" s="10">
-        <v>0.35</v>
+        <v>0.38629999999999998</v>
       </c>
       <c r="R5" s="10">
-        <v>0.35</v>
+        <v>0.38629999999999998</v>
       </c>
       <c r="S5" s="10">
-        <v>0.35</v>
+        <v>0.38629999999999998</v>
       </c>
       <c r="T5" s="10">
-        <v>0.35</v>
+        <v>0.38629999999999998</v>
       </c>
       <c r="U5" s="10">
-        <v>0.35</v>
+        <v>0.38629999999999998</v>
       </c>
     </row>
     <row r="6" spans="1:21" x14ac:dyDescent="0.3">
@@ -11069,64 +11069,64 @@
         <v>5</v>
       </c>
       <c r="B6" s="10">
-        <v>0.45</v>
+        <v>0.46210000000000001</v>
       </c>
       <c r="C6" s="10">
-        <v>0.45</v>
+        <v>0.46210000000000001</v>
       </c>
       <c r="D6" s="10">
-        <v>0.45</v>
+        <v>0.46210000000000001</v>
       </c>
       <c r="E6" s="10">
-        <v>0.45</v>
+        <v>0.46210000000000001</v>
       </c>
       <c r="F6" s="10">
-        <v>0.45</v>
+        <v>0.46210000000000001</v>
       </c>
       <c r="G6" s="10">
-        <v>0.45</v>
+        <v>0.46210000000000001</v>
       </c>
       <c r="H6" s="10">
-        <v>0.45</v>
+        <v>0.46210000000000001</v>
       </c>
       <c r="I6" s="10">
-        <v>0.45</v>
+        <v>0.46210000000000001</v>
       </c>
       <c r="J6" s="10">
-        <v>0.45</v>
+        <v>0.46210000000000001</v>
       </c>
       <c r="K6" s="10">
-        <v>0.45</v>
+        <v>0.46210000000000001</v>
       </c>
       <c r="L6" s="10">
-        <v>0.45</v>
+        <v>0.46210000000000001</v>
       </c>
       <c r="M6" s="10">
-        <v>0.45</v>
+        <v>0.46210000000000001</v>
       </c>
       <c r="N6" s="10">
-        <v>0.45</v>
+        <v>0.46210000000000001</v>
       </c>
       <c r="O6" s="10">
-        <v>0.45</v>
+        <v>0.46210000000000001</v>
       </c>
       <c r="P6" s="10">
-        <v>0.45</v>
+        <v>0.46210000000000001</v>
       </c>
       <c r="Q6" s="10">
-        <v>0.45</v>
+        <v>0.46210000000000001</v>
       </c>
       <c r="R6" s="10">
-        <v>0.45</v>
+        <v>0.46210000000000001</v>
       </c>
       <c r="S6" s="10">
-        <v>0.45</v>
+        <v>0.46210000000000001</v>
       </c>
       <c r="T6" s="10">
-        <v>0.45</v>
+        <v>0.46210000000000001</v>
       </c>
       <c r="U6" s="10">
-        <v>0.45</v>
+        <v>0.46210000000000001</v>
       </c>
     </row>
     <row r="7" spans="1:21" x14ac:dyDescent="0.3">
@@ -11134,64 +11134,64 @@
         <v>6</v>
       </c>
       <c r="B7" s="10">
-        <v>0.55000000000000004</v>
+        <v>0.53790000000000004</v>
       </c>
       <c r="C7" s="10">
-        <v>0.55000000000000004</v>
+        <v>0.53790000000000004</v>
       </c>
       <c r="D7" s="10">
-        <v>0.55000000000000004</v>
+        <v>0.53790000000000004</v>
       </c>
       <c r="E7" s="10">
-        <v>0.55000000000000004</v>
+        <v>0.53790000000000004</v>
       </c>
       <c r="F7" s="10">
-        <v>0.55000000000000004</v>
+        <v>0.53790000000000004</v>
       </c>
       <c r="G7" s="10">
-        <v>0.55000000000000004</v>
+        <v>0.53790000000000004</v>
       </c>
       <c r="H7" s="10">
-        <v>0.55000000000000004</v>
+        <v>0.53790000000000004</v>
       </c>
       <c r="I7" s="10">
-        <v>0.55000000000000004</v>
+        <v>0.53790000000000004</v>
       </c>
       <c r="J7" s="10">
-        <v>0.55000000000000004</v>
+        <v>0.53790000000000004</v>
       </c>
       <c r="K7" s="10">
-        <v>0.55000000000000004</v>
+        <v>0.53790000000000004</v>
       </c>
       <c r="L7" s="10">
-        <v>0.55000000000000004</v>
+        <v>0.53790000000000004</v>
       </c>
       <c r="M7" s="10">
-        <v>0.55000000000000004</v>
+        <v>0.53790000000000004</v>
       </c>
       <c r="N7" s="10">
-        <v>0.55000000000000004</v>
+        <v>0.53790000000000004</v>
       </c>
       <c r="O7" s="10">
-        <v>0.55000000000000004</v>
+        <v>0.53790000000000004</v>
       </c>
       <c r="P7" s="10">
-        <v>0.55000000000000004</v>
+        <v>0.53790000000000004</v>
       </c>
       <c r="Q7" s="10">
-        <v>0.55000000000000004</v>
+        <v>0.53790000000000004</v>
       </c>
       <c r="R7" s="10">
-        <v>0.55000000000000004</v>
+        <v>0.53790000000000004</v>
       </c>
       <c r="S7" s="10">
-        <v>0.55000000000000004</v>
+        <v>0.53790000000000004</v>
       </c>
       <c r="T7" s="10">
-        <v>0.55000000000000004</v>
+        <v>0.53790000000000004</v>
       </c>
       <c r="U7" s="10">
-        <v>0.55000000000000004</v>
+        <v>0.53790000000000004</v>
       </c>
     </row>
     <row r="8" spans="1:21" x14ac:dyDescent="0.3">
@@ -11199,64 +11199,64 @@
         <v>7</v>
       </c>
       <c r="B8" s="10">
-        <v>0.65</v>
+        <v>0.61370000000000002</v>
       </c>
       <c r="C8" s="10">
-        <v>0.65</v>
+        <v>0.61370000000000002</v>
       </c>
       <c r="D8" s="10">
-        <v>0.65</v>
+        <v>0.61370000000000002</v>
       </c>
       <c r="E8" s="10">
-        <v>0.65</v>
+        <v>0.61370000000000002</v>
       </c>
       <c r="F8" s="10">
-        <v>0.65</v>
+        <v>0.61370000000000002</v>
       </c>
       <c r="G8" s="10">
-        <v>0.65</v>
+        <v>0.61370000000000002</v>
       </c>
       <c r="H8" s="10">
-        <v>0.65</v>
+        <v>0.61370000000000002</v>
       </c>
       <c r="I8" s="10">
-        <v>0.65</v>
+        <v>0.61370000000000002</v>
       </c>
       <c r="J8" s="10">
-        <v>0.65</v>
+        <v>0.61370000000000002</v>
       </c>
       <c r="K8" s="10">
-        <v>0.65</v>
+        <v>0.61370000000000002</v>
       </c>
       <c r="L8" s="10">
-        <v>0.65</v>
+        <v>0.61370000000000002</v>
       </c>
       <c r="M8" s="10">
-        <v>0.65</v>
+        <v>0.61370000000000002</v>
       </c>
       <c r="N8" s="10">
-        <v>0.65</v>
+        <v>0.61370000000000002</v>
       </c>
       <c r="O8" s="10">
-        <v>0.65</v>
+        <v>0.61370000000000002</v>
       </c>
       <c r="P8" s="10">
-        <v>0.65</v>
+        <v>0.61370000000000002</v>
       </c>
       <c r="Q8" s="10">
-        <v>0.65</v>
+        <v>0.61370000000000002</v>
       </c>
       <c r="R8" s="10">
-        <v>0.65</v>
+        <v>0.61370000000000002</v>
       </c>
       <c r="S8" s="10">
-        <v>0.65</v>
+        <v>0.61370000000000002</v>
       </c>
       <c r="T8" s="10">
-        <v>0.65</v>
+        <v>0.61370000000000002</v>
       </c>
       <c r="U8" s="10">
-        <v>0.65</v>
+        <v>0.61370000000000002</v>
       </c>
     </row>
     <row r="9" spans="1:21" x14ac:dyDescent="0.3">
@@ -11264,64 +11264,64 @@
         <v>8</v>
       </c>
       <c r="B9" s="10">
-        <v>0.75</v>
+        <v>0.68940000000000001</v>
       </c>
       <c r="C9" s="10">
-        <v>0.75</v>
+        <v>0.68940000000000001</v>
       </c>
       <c r="D9" s="10">
-        <v>0.75</v>
+        <v>0.68940000000000001</v>
       </c>
       <c r="E9" s="10">
-        <v>0.75</v>
+        <v>0.68940000000000001</v>
       </c>
       <c r="F9" s="10">
-        <v>0.75</v>
+        <v>0.68940000000000001</v>
       </c>
       <c r="G9" s="10">
-        <v>0.75</v>
+        <v>0.68940000000000001</v>
       </c>
       <c r="H9" s="10">
-        <v>0.75</v>
+        <v>0.68940000000000001</v>
       </c>
       <c r="I9" s="10">
-        <v>0.75</v>
+        <v>0.68940000000000001</v>
       </c>
       <c r="J9" s="10">
-        <v>0.75</v>
+        <v>0.68940000000000001</v>
       </c>
       <c r="K9" s="10">
-        <v>0.75</v>
+        <v>0.68940000000000001</v>
       </c>
       <c r="L9" s="10">
-        <v>0.75</v>
+        <v>0.68940000000000001</v>
       </c>
       <c r="M9" s="10">
-        <v>0.75</v>
+        <v>0.68940000000000001</v>
       </c>
       <c r="N9" s="10">
-        <v>0.75</v>
+        <v>0.68940000000000001</v>
       </c>
       <c r="O9" s="10">
-        <v>0.75</v>
+        <v>0.68940000000000001</v>
       </c>
       <c r="P9" s="10">
-        <v>0.75</v>
+        <v>0.68940000000000001</v>
       </c>
       <c r="Q9" s="10">
-        <v>0.75</v>
+        <v>0.68940000000000001</v>
       </c>
       <c r="R9" s="10">
-        <v>0.75</v>
+        <v>0.68940000000000001</v>
       </c>
       <c r="S9" s="10">
-        <v>0.75</v>
+        <v>0.68940000000000001</v>
       </c>
       <c r="T9" s="10">
-        <v>0.75</v>
+        <v>0.68940000000000001</v>
       </c>
       <c r="U9" s="10">
-        <v>0.75</v>
+        <v>0.68940000000000001</v>
       </c>
     </row>
     <row r="10" spans="1:21" x14ac:dyDescent="0.3">
@@ -11329,64 +11329,64 @@
         <v>9</v>
       </c>
       <c r="B10" s="10">
-        <v>0.85</v>
+        <v>0.76519999999999999</v>
       </c>
       <c r="C10" s="10">
-        <v>0.85</v>
+        <v>0.76519999999999999</v>
       </c>
       <c r="D10" s="10">
-        <v>0.85</v>
+        <v>0.76519999999999999</v>
       </c>
       <c r="E10" s="10">
-        <v>0.85</v>
+        <v>0.76519999999999999</v>
       </c>
       <c r="F10" s="10">
-        <v>0.85</v>
+        <v>0.76519999999999999</v>
       </c>
       <c r="G10" s="10">
-        <v>0.85</v>
+        <v>0.76519999999999999</v>
       </c>
       <c r="H10" s="10">
-        <v>0.85</v>
+        <v>0.76519999999999999</v>
       </c>
       <c r="I10" s="10">
-        <v>0.85</v>
+        <v>0.76519999999999999</v>
       </c>
       <c r="J10" s="10">
-        <v>0.85</v>
+        <v>0.76519999999999999</v>
       </c>
       <c r="K10" s="10">
-        <v>0.85</v>
+        <v>0.76519999999999999</v>
       </c>
       <c r="L10" s="10">
-        <v>0.85</v>
+        <v>0.76519999999999999</v>
       </c>
       <c r="M10" s="10">
-        <v>0.85</v>
+        <v>0.76519999999999999</v>
       </c>
       <c r="N10" s="10">
-        <v>0.85</v>
+        <v>0.76519999999999999</v>
       </c>
       <c r="O10" s="10">
-        <v>0.85</v>
+        <v>0.76519999999999999</v>
       </c>
       <c r="P10" s="10">
-        <v>0.85</v>
+        <v>0.76519999999999999</v>
       </c>
       <c r="Q10" s="10">
-        <v>0.85</v>
+        <v>0.76519999999999999</v>
       </c>
       <c r="R10" s="10">
-        <v>0.85</v>
+        <v>0.76519999999999999</v>
       </c>
       <c r="S10" s="10">
-        <v>0.85</v>
+        <v>0.76519999999999999</v>
       </c>
       <c r="T10" s="10">
-        <v>0.85</v>
+        <v>0.76519999999999999</v>
       </c>
       <c r="U10" s="10">
-        <v>0.85</v>
+        <v>0.76519999999999999</v>
       </c>
     </row>
     <row r="11" spans="1:21" x14ac:dyDescent="0.3">
@@ -11394,64 +11394,64 @@
         <v>10</v>
       </c>
       <c r="B11" s="10">
-        <v>0.95</v>
+        <v>0.84099999999999997</v>
       </c>
       <c r="C11" s="10">
-        <v>0.95</v>
+        <v>0.84099999999999997</v>
       </c>
       <c r="D11" s="10">
-        <v>0.95</v>
+        <v>0.84099999999999997</v>
       </c>
       <c r="E11" s="10">
-        <v>0.95</v>
+        <v>0.84099999999999997</v>
       </c>
       <c r="F11" s="10">
-        <v>0.95</v>
+        <v>0.84099999999999997</v>
       </c>
       <c r="G11" s="10">
-        <v>0.95</v>
+        <v>0.84099999999999997</v>
       </c>
       <c r="H11" s="10">
-        <v>0.95</v>
+        <v>0.84099999999999997</v>
       </c>
       <c r="I11" s="10">
-        <v>0.95</v>
+        <v>0.84099999999999997</v>
       </c>
       <c r="J11" s="10">
-        <v>0.95</v>
+        <v>0.84099999999999997</v>
       </c>
       <c r="K11" s="10">
-        <v>0.95</v>
+        <v>0.84099999999999997</v>
       </c>
       <c r="L11" s="10">
-        <v>0.95</v>
+        <v>0.84099999999999997</v>
       </c>
       <c r="M11" s="10">
-        <v>0.95</v>
+        <v>0.84099999999999997</v>
       </c>
       <c r="N11" s="10">
-        <v>0.95</v>
+        <v>0.84099999999999997</v>
       </c>
       <c r="O11" s="10">
-        <v>0.95</v>
+        <v>0.84099999999999997</v>
       </c>
       <c r="P11" s="10">
-        <v>0.95</v>
+        <v>0.84099999999999997</v>
       </c>
       <c r="Q11" s="10">
-        <v>0.95</v>
+        <v>0.84099999999999997</v>
       </c>
       <c r="R11" s="10">
-        <v>0.95</v>
+        <v>0.84099999999999997</v>
       </c>
       <c r="S11" s="10">
-        <v>0.95</v>
+        <v>0.84099999999999997</v>
       </c>
       <c r="T11" s="10">
-        <v>0.95</v>
+        <v>0.84099999999999997</v>
       </c>
       <c r="U11" s="10">
-        <v>0.95</v>
+        <v>0.84099999999999997</v>
       </c>
     </row>
   </sheetData>
@@ -12029,7 +12029,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A7A3807-788C-442E-B617-140DF8C982B8}">
   <dimension ref="A1:C51"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D11" sqref="C2:D11"/>
     </sheetView>
   </sheetViews>
@@ -50735,6 +50735,14 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="A218:A229"/>
+    <mergeCell ref="A230:A241"/>
+    <mergeCell ref="A146:A157"/>
+    <mergeCell ref="A158:A169"/>
+    <mergeCell ref="A170:A181"/>
+    <mergeCell ref="A182:A193"/>
+    <mergeCell ref="A194:A205"/>
+    <mergeCell ref="A206:A217"/>
     <mergeCell ref="A134:A145"/>
     <mergeCell ref="A2:A13"/>
     <mergeCell ref="A14:A25"/>
@@ -50747,14 +50755,6 @@
     <mergeCell ref="A98:A109"/>
     <mergeCell ref="A110:A121"/>
     <mergeCell ref="A122:A133"/>
-    <mergeCell ref="A218:A229"/>
-    <mergeCell ref="A230:A241"/>
-    <mergeCell ref="A146:A157"/>
-    <mergeCell ref="A158:A169"/>
-    <mergeCell ref="A170:A181"/>
-    <mergeCell ref="A182:A193"/>
-    <mergeCell ref="A194:A205"/>
-    <mergeCell ref="A206:A217"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/dataForExp.xlsx
+++ b/data/dataForExp.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23901"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Mirror系统开发\Mirror\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69EA0E37-7DAB-4002-AFE7-15C2A0EF8982}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79D86150-887C-4183-B434-3742F71D9E73}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="18220" windowHeight="11620" firstSheet="2" activeTab="2" xr2:uid="{7869B96A-7811-4EF3-9176-2B0373B8E4EA}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="18220" windowHeight="11620" activeTab="2" xr2:uid="{7869B96A-7811-4EF3-9176-2B0373B8E4EA}"/>
   </bookViews>
   <sheets>
-    <sheet name="purchaseProb" sheetId="1" r:id="rId1"/>
+    <sheet name="purchaseProb2" sheetId="1" r:id="rId1"/>
     <sheet name="purchaseProb1" sheetId="8" r:id="rId2"/>
-    <sheet name="purchaseProb2" sheetId="10" r:id="rId3"/>
+    <sheet name="purchaseProb" sheetId="13" r:id="rId3"/>
     <sheet name="交易天数简化" sheetId="6" r:id="rId4"/>
     <sheet name="initPrice" sheetId="5" r:id="rId5"/>
     <sheet name="initPrice1" sheetId="11" r:id="rId6"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="59">
   <si>
     <t>股票代码</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -273,7 +273,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -309,6 +309,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -630,8 +636,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{836745D0-34E3-404A-9EBC-0776E433DEA0}">
   <dimension ref="A1:U51"/>
   <sheetViews>
-    <sheetView topLeftCell="F26" workbookViewId="0">
-      <selection sqref="A1:U51"/>
+    <sheetView topLeftCell="F3" workbookViewId="0">
+      <selection activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -640,3316 +646,1705 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1">
-        <v>2000</v>
-      </c>
-      <c r="C1" s="1">
-        <v>2001</v>
-      </c>
-      <c r="D1" s="1">
+      <c r="B1" s="13">
         <v>2002</v>
       </c>
-      <c r="E1" s="1">
+      <c r="C1" s="13">
         <v>2003</v>
       </c>
-      <c r="F1" s="1">
+      <c r="D1" s="13">
         <v>2004</v>
       </c>
-      <c r="G1" s="1">
+      <c r="E1" s="13">
         <v>2005</v>
       </c>
-      <c r="H1" s="1">
+      <c r="F1" s="13">
         <v>2006</v>
       </c>
-      <c r="I1" s="1">
+      <c r="G1" s="13">
         <v>2007</v>
       </c>
-      <c r="J1" s="1">
+      <c r="H1" s="13">
         <v>2008</v>
       </c>
-      <c r="K1" s="1">
+      <c r="I1" s="13">
         <v>2009</v>
       </c>
-      <c r="L1" s="1">
+      <c r="J1" s="13">
         <v>2010</v>
       </c>
-      <c r="M1" s="1">
+      <c r="K1" s="13">
         <v>2011</v>
       </c>
-      <c r="N1" s="1">
+      <c r="L1" s="13">
         <v>2012</v>
       </c>
-      <c r="O1" s="1">
+      <c r="M1" s="13">
         <v>2013</v>
       </c>
-      <c r="P1" s="1">
+      <c r="N1" s="13">
         <v>2014</v>
       </c>
-      <c r="Q1" s="1">
+      <c r="O1" s="13">
         <v>2015</v>
       </c>
-      <c r="R1" s="1">
+      <c r="P1" s="13">
         <v>2016</v>
       </c>
-      <c r="S1" s="1">
+      <c r="Q1" s="13">
         <v>2017</v>
       </c>
-      <c r="T1" s="1">
+      <c r="R1" s="13">
         <v>2018</v>
       </c>
-      <c r="U1" s="1">
+      <c r="S1" s="13">
         <v>2019</v>
       </c>
+      <c r="T1" s="1"/>
+      <c r="U1" s="1"/>
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="2">
-        <v>0.10538461538461538</v>
-      </c>
-      <c r="C2" s="2">
-        <v>8.6363636363636365E-2</v>
-      </c>
-      <c r="D2" s="2">
-        <v>0.1108108108108108</v>
-      </c>
-      <c r="E2" s="2">
-        <v>0.12142857142857143</v>
-      </c>
-      <c r="F2" s="2">
-        <v>6.0169491525423731E-2</v>
-      </c>
-      <c r="G2" s="2">
-        <v>0.12659574468085105</v>
-      </c>
-      <c r="H2" s="2">
-        <v>0.11176470588235295</v>
-      </c>
-      <c r="I2" s="2">
-        <v>0.13526315789473686</v>
-      </c>
-      <c r="J2" s="2">
-        <v>0.13709677419354838</v>
-      </c>
-      <c r="K2" s="2">
-        <v>0.45263157894736838</v>
-      </c>
-      <c r="L2" s="2">
-        <v>6.7142857142857143E-2</v>
-      </c>
-      <c r="M2" s="2">
-        <v>0.25958904109589043</v>
-      </c>
-      <c r="N2" s="2">
-        <v>0.59</v>
-      </c>
-      <c r="O2" s="2">
-        <v>0.48767123287671232</v>
-      </c>
-      <c r="P2" s="2">
-        <v>0.15625000000000006</v>
-      </c>
-      <c r="Q2" s="2">
-        <v>0.20692307692307688</v>
-      </c>
-      <c r="R2" s="2">
-        <v>0.21442307692307691</v>
-      </c>
-      <c r="S2" s="2">
-        <v>0.13940397350993378</v>
-      </c>
-      <c r="T2" s="2">
-        <v>0.17434210526315791</v>
-      </c>
-      <c r="U2" s="2">
-        <v>0.33723404255319145</v>
-      </c>
+      <c r="B2" s="13">
+        <v>0.2</v>
+      </c>
+      <c r="C2" s="13">
+        <v>0.51406250000000009</v>
+      </c>
+      <c r="D2" s="13">
+        <v>0.35</v>
+      </c>
+      <c r="E2" s="13">
+        <v>0.29230769230769232</v>
+      </c>
+      <c r="F2" s="13">
+        <v>0.36153846153846159</v>
+      </c>
+      <c r="G2" s="13">
+        <v>0.36153846153846159</v>
+      </c>
+      <c r="H2" s="13">
+        <v>0.28502024291497979</v>
+      </c>
+      <c r="I2" s="13">
+        <v>0.2955414012738854</v>
+      </c>
+      <c r="J2" s="13">
+        <v>0.24423963133640553</v>
+      </c>
+      <c r="K2" s="13">
+        <v>0.27710843373493976</v>
+      </c>
+      <c r="L2" s="13">
+        <v>0.42631578947368426</v>
+      </c>
+      <c r="M2" s="13">
+        <v>0.35789473684210527</v>
+      </c>
+      <c r="N2" s="13">
+        <v>0.38</v>
+      </c>
+      <c r="O2" s="13">
+        <v>0.43132530120481921</v>
+      </c>
+      <c r="P2" s="13">
+        <v>0.43657142857142867</v>
+      </c>
+      <c r="Q2" s="13">
+        <v>0.31219512195121951</v>
+      </c>
+      <c r="R2" s="13">
+        <v>0.36000000000000004</v>
+      </c>
+      <c r="S2" s="13">
+        <v>0.43829787234042561</v>
+      </c>
+      <c r="T2" s="2"/>
+      <c r="U2" s="2"/>
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="2">
-        <v>0.14692307692307693</v>
-      </c>
-      <c r="C3" s="2">
-        <v>9.5454545454545459E-2</v>
-      </c>
-      <c r="D3" s="2">
-        <v>0.14729729729729732</v>
-      </c>
-      <c r="E3" s="2">
-        <v>0.27142857142857141</v>
-      </c>
-      <c r="F3" s="2">
-        <v>0.14661016949152542</v>
-      </c>
-      <c r="G3" s="2">
-        <v>0.31170212765957445</v>
-      </c>
-      <c r="H3" s="2">
-        <v>0.33235294117647052</v>
-      </c>
-      <c r="I3" s="2">
-        <v>0.61842105263157887</v>
-      </c>
-      <c r="J3" s="2">
-        <v>0.282258064516129</v>
-      </c>
-      <c r="K3" s="2">
-        <v>0.54736842105263162</v>
-      </c>
-      <c r="L3" s="2">
-        <v>0.20428571428571424</v>
-      </c>
-      <c r="M3" s="2">
-        <v>0.26575342465753421</v>
-      </c>
-      <c r="N3" s="2">
-        <v>0.38119999999999998</v>
-      </c>
-      <c r="O3" s="2">
-        <v>0.42602739726027394</v>
-      </c>
-      <c r="P3" s="2">
-        <v>0.28125</v>
-      </c>
-      <c r="Q3" s="2">
-        <v>0.26692307692307687</v>
-      </c>
-      <c r="R3" s="2">
-        <v>0.33124999999999999</v>
-      </c>
-      <c r="S3" s="2">
-        <v>0.35993377483443706</v>
-      </c>
-      <c r="T3" s="2">
-        <v>0.38750000000000001</v>
-      </c>
-      <c r="U3" s="2">
-        <v>0.27340425531914891</v>
-      </c>
+      <c r="B3" s="13">
+        <v>0.33220338983050851</v>
+      </c>
+      <c r="C3" s="13">
+        <v>0.55625000000000013</v>
+      </c>
+      <c r="D3" s="13">
+        <v>0.2</v>
+      </c>
+      <c r="E3" s="13">
+        <v>0.2</v>
+      </c>
+      <c r="F3" s="13">
+        <v>0.2</v>
+      </c>
+      <c r="G3" s="13">
+        <v>0.2</v>
+      </c>
+      <c r="H3" s="13">
+        <v>0.28016194331983812</v>
+      </c>
+      <c r="I3" s="13">
+        <v>0.8</v>
+      </c>
+      <c r="J3" s="13">
+        <v>0.8</v>
+      </c>
+      <c r="K3" s="13">
+        <v>0.52289156626506028</v>
+      </c>
+      <c r="L3" s="13">
+        <v>0.8</v>
+      </c>
+      <c r="M3" s="13">
+        <v>0.5094736842105263</v>
+      </c>
+      <c r="N3" s="13">
+        <v>0.42500000000000004</v>
+      </c>
+      <c r="O3" s="13">
+        <v>0.33373493975903612</v>
+      </c>
+      <c r="P3" s="13">
+        <v>0.35771428571428582</v>
+      </c>
+      <c r="Q3" s="13">
+        <v>0.21463414634146341</v>
+      </c>
+      <c r="R3" s="13">
+        <v>0.27</v>
+      </c>
+      <c r="S3" s="13">
+        <v>0.43404255319148938</v>
+      </c>
+      <c r="T3" s="2"/>
+      <c r="U3" s="2"/>
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="2">
-        <v>7.7692307692307686E-2</v>
-      </c>
-      <c r="C4" s="2">
-        <v>0.10454545454545455</v>
-      </c>
-      <c r="D4" s="2">
-        <v>0.1108108108108108</v>
-      </c>
-      <c r="E4" s="2">
-        <v>0.17142857142857143</v>
-      </c>
-      <c r="F4" s="2">
-        <v>0.05</v>
-      </c>
-      <c r="G4" s="2">
-        <v>0.13936170212765958</v>
-      </c>
-      <c r="H4" s="2">
-        <v>0.14705882352941177</v>
-      </c>
-      <c r="I4" s="2">
-        <v>0.22052631578947368</v>
-      </c>
-      <c r="J4" s="2">
-        <v>0.26290322580645159</v>
-      </c>
-      <c r="K4" s="2">
-        <v>0.54736842105263162</v>
-      </c>
-      <c r="L4" s="2">
-        <v>0.23428571428571432</v>
-      </c>
-      <c r="M4" s="2">
-        <v>0.39520547945205475</v>
-      </c>
-      <c r="N4" s="2">
-        <v>0.5179999999999999</v>
-      </c>
-      <c r="O4" s="2">
-        <v>0.51849315068493151</v>
-      </c>
-      <c r="P4" s="2">
-        <v>0.42500000000000004</v>
-      </c>
-      <c r="Q4" s="2">
-        <v>0.34538461538461535</v>
-      </c>
-      <c r="R4" s="2">
-        <v>0.34855769230769229</v>
-      </c>
-      <c r="S4" s="2">
-        <v>0.3539735099337748</v>
-      </c>
-      <c r="T4" s="2">
-        <v>0.42894736842105258</v>
-      </c>
-      <c r="U4" s="2">
-        <v>0.40744680851063836</v>
-      </c>
+      <c r="B4" s="13">
+        <v>0.25084745762711869</v>
+      </c>
+      <c r="C4" s="13">
+        <v>0.55156250000000018</v>
+      </c>
+      <c r="D4" s="13">
+        <v>0.37368421052631584</v>
+      </c>
+      <c r="E4" s="13">
+        <v>0.27692307692307694</v>
+      </c>
+      <c r="F4" s="13">
+        <v>0.56923076923076921</v>
+      </c>
+      <c r="G4" s="13">
+        <v>0.56923076923076921</v>
+      </c>
+      <c r="H4" s="13">
+        <v>0.26315789473684215</v>
+      </c>
+      <c r="I4" s="13">
+        <v>0.2</v>
+      </c>
+      <c r="J4" s="13">
+        <v>0.23870967741935487</v>
+      </c>
+      <c r="K4" s="13">
+        <v>0.33493975903614459</v>
+      </c>
+      <c r="L4" s="13">
+        <v>0.43684210526315792</v>
+      </c>
+      <c r="M4" s="13">
+        <v>0.2</v>
+      </c>
+      <c r="N4" s="13">
+        <v>0.2</v>
+      </c>
+      <c r="O4" s="13">
+        <v>0.35903614457831323</v>
+      </c>
+      <c r="P4" s="13">
+        <v>0.38857142857142857</v>
+      </c>
+      <c r="Q4" s="13">
+        <v>0.22926829268292684</v>
+      </c>
+      <c r="R4" s="13">
+        <v>0.26500000000000001</v>
+      </c>
+      <c r="S4" s="13">
+        <v>0.33617021276595749</v>
+      </c>
+      <c r="T4" s="2"/>
+      <c r="U4" s="2"/>
     </row>
     <row r="5" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="2">
-        <v>0.88076923076923064</v>
-      </c>
-      <c r="C5" s="2">
-        <v>0.95</v>
-      </c>
-      <c r="D5" s="2">
-        <v>0.95</v>
-      </c>
-      <c r="E5" s="2">
-        <v>0.95</v>
-      </c>
-      <c r="F5" s="2">
-        <v>0.95</v>
-      </c>
-      <c r="G5" s="2">
-        <v>0.95</v>
-      </c>
-      <c r="H5" s="2">
-        <v>0.95</v>
-      </c>
-      <c r="I5" s="2">
-        <v>0.7226315789473684</v>
-      </c>
-      <c r="J5" s="2">
-        <v>0.66935483870967738</v>
-      </c>
-      <c r="K5" s="2">
-        <v>0.606578947368421</v>
-      </c>
-      <c r="L5" s="2">
-        <v>0.49142857142857138</v>
-      </c>
-      <c r="M5" s="2">
-        <v>0.95</v>
-      </c>
-      <c r="N5" s="2">
-        <v>0.77720000000000011</v>
-      </c>
-      <c r="O5" s="2">
-        <v>0.58013698630136978</v>
-      </c>
-      <c r="P5" s="2">
-        <v>0.60624999999999996</v>
-      </c>
-      <c r="Q5" s="2">
-        <v>0.51615384615384607</v>
-      </c>
-      <c r="R5" s="2">
-        <v>0.21442307692307691</v>
-      </c>
-      <c r="S5" s="2">
-        <v>0.43145695364238407</v>
-      </c>
-      <c r="T5" s="2">
-        <v>0.67171052631578942</v>
-      </c>
-      <c r="U5" s="2">
-        <v>0.26702127659574465</v>
-      </c>
+      <c r="B5" s="13">
+        <v>0.29152542372881357</v>
+      </c>
+      <c r="C5" s="13">
+        <v>0.54218750000000016</v>
+      </c>
+      <c r="D5" s="13">
+        <v>0.23947368421052631</v>
+      </c>
+      <c r="E5" s="13">
+        <v>0.24615384615384614</v>
+      </c>
+      <c r="F5" s="13">
+        <v>0.58076923076923082</v>
+      </c>
+      <c r="G5" s="13">
+        <v>0.58076923076923082</v>
+      </c>
+      <c r="H5" s="13">
+        <v>0.24858299595141703</v>
+      </c>
+      <c r="I5" s="13">
+        <v>0.28407643312101916</v>
+      </c>
+      <c r="J5" s="13">
+        <v>0.20276497695852536</v>
+      </c>
+      <c r="K5" s="13">
+        <v>0.21204819277108433</v>
+      </c>
+      <c r="L5" s="13">
+        <v>0.33157894736842108</v>
+      </c>
+      <c r="M5" s="13">
+        <v>0.2063157894736842</v>
+      </c>
+      <c r="N5" s="13">
+        <v>0.24000000000000002</v>
+      </c>
+      <c r="O5" s="13">
+        <v>0.33734939759036142</v>
+      </c>
+      <c r="P5" s="13">
+        <v>0.39200000000000007</v>
+      </c>
+      <c r="Q5" s="13">
+        <v>0.29756097560975614</v>
+      </c>
+      <c r="R5" s="13">
+        <v>0.2</v>
+      </c>
+      <c r="S5" s="13">
+        <v>0.30212765957446813</v>
+      </c>
+      <c r="T5" s="2"/>
+      <c r="U5" s="2"/>
     </row>
     <row r="6" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="2">
-        <v>0.16076923076923078</v>
-      </c>
-      <c r="C6" s="2">
-        <v>0.38636363636363635</v>
-      </c>
-      <c r="D6" s="2">
-        <v>0.75540540540540535</v>
-      </c>
-      <c r="E6" s="2">
-        <v>0.49285714285714277</v>
-      </c>
-      <c r="F6" s="2">
-        <v>0.28898305084745762</v>
-      </c>
-      <c r="G6" s="2">
-        <v>0.36914893617021272</v>
-      </c>
-      <c r="H6" s="2">
-        <v>0.20882352941176469</v>
-      </c>
-      <c r="I6" s="2">
-        <v>0.42894736842105258</v>
-      </c>
-      <c r="J6" s="2">
-        <v>0.19516129032258062</v>
-      </c>
-      <c r="K6" s="2">
-        <v>0.6657894736842106</v>
-      </c>
-      <c r="L6" s="2">
-        <v>0.21285714285714286</v>
-      </c>
-      <c r="M6" s="2">
-        <v>0.5493150684931507</v>
-      </c>
-      <c r="N6" s="2">
-        <v>0.67639999999999989</v>
-      </c>
-      <c r="O6" s="2">
-        <v>0.62328767123287665</v>
-      </c>
-      <c r="P6" s="2">
-        <v>0.34375</v>
-      </c>
-      <c r="Q6" s="2">
-        <v>0.37769230769230761</v>
-      </c>
-      <c r="R6" s="2">
-        <v>0.35721153846153841</v>
-      </c>
-      <c r="S6" s="2">
-        <v>0.45529801324503305</v>
-      </c>
-      <c r="T6" s="2">
-        <v>0.4171052631578947</v>
-      </c>
-      <c r="U6" s="2">
-        <v>0.44574468085106383</v>
-      </c>
+      <c r="B6" s="13">
+        <v>0.36271186440677966</v>
+      </c>
+      <c r="C6" s="13">
+        <v>0.58437500000000009</v>
+      </c>
+      <c r="D6" s="13">
+        <v>0.30263157894736842</v>
+      </c>
+      <c r="E6" s="13">
+        <v>0.33846153846153848</v>
+      </c>
+      <c r="F6" s="13">
+        <v>0.41923076923076924</v>
+      </c>
+      <c r="G6" s="13">
+        <v>0.41923076923076924</v>
+      </c>
+      <c r="H6" s="13">
+        <v>0.2412955465587045</v>
+      </c>
+      <c r="I6" s="13">
+        <v>0.27261146496815292</v>
+      </c>
+      <c r="J6" s="13">
+        <v>0.2</v>
+      </c>
+      <c r="K6" s="13">
+        <v>0.2</v>
+      </c>
+      <c r="L6" s="13">
+        <v>0.31578947368421051</v>
+      </c>
+      <c r="M6" s="13">
+        <v>0.24421052631578943</v>
+      </c>
+      <c r="N6" s="13">
+        <v>0.29000000000000004</v>
+      </c>
+      <c r="O6" s="13">
+        <v>0.38795180722891565</v>
+      </c>
+      <c r="P6" s="13">
+        <v>0.37485714285714294</v>
+      </c>
+      <c r="Q6" s="13">
+        <v>0.23414634146341468</v>
+      </c>
+      <c r="R6" s="13">
+        <v>0.2</v>
+      </c>
+      <c r="S6" s="13">
+        <v>0.34468085106382984</v>
+      </c>
+      <c r="T6" s="2"/>
+      <c r="U6" s="2"/>
     </row>
     <row r="7" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="2">
-        <v>0.16076923076923078</v>
-      </c>
-      <c r="C7" s="2">
-        <v>0.13181818181818183</v>
-      </c>
-      <c r="D7" s="2">
-        <v>0.13513513513513514</v>
-      </c>
-      <c r="E7" s="2">
-        <v>0.19285714285714284</v>
-      </c>
-      <c r="F7" s="2">
-        <v>8.0508474576271194E-2</v>
-      </c>
-      <c r="G7" s="2">
-        <v>0.16489361702127658</v>
-      </c>
-      <c r="H7" s="2">
-        <v>0.14705882352941177</v>
-      </c>
-      <c r="I7" s="2">
-        <v>0.19210526315789472</v>
-      </c>
-      <c r="J7" s="2">
-        <v>0.12741935483870967</v>
-      </c>
-      <c r="K7" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="L7" s="2">
-        <v>0.20428571428571424</v>
-      </c>
-      <c r="M7" s="2">
-        <v>0.30273972602739729</v>
-      </c>
-      <c r="N7" s="2">
-        <v>0.49639999999999995</v>
-      </c>
-      <c r="O7" s="2">
-        <v>0.48150684931506843</v>
-      </c>
-      <c r="P7" s="2">
-        <v>0.32500000000000001</v>
-      </c>
-      <c r="Q7" s="2">
-        <v>0.30384615384615382</v>
-      </c>
-      <c r="R7" s="2">
-        <v>0.30528846153846151</v>
-      </c>
-      <c r="S7" s="2">
-        <v>0.27052980132450333</v>
-      </c>
-      <c r="T7" s="2">
-        <v>0.32828947368421052</v>
-      </c>
-      <c r="U7" s="2">
-        <v>0.3117021276595745</v>
-      </c>
+      <c r="B7" s="13">
+        <v>0.3728813559322034</v>
+      </c>
+      <c r="C7" s="13">
+        <v>0.63125000000000009</v>
+      </c>
+      <c r="D7" s="13">
+        <v>0.42105263157894735</v>
+      </c>
+      <c r="E7" s="13">
+        <v>0.44615384615384612</v>
+      </c>
+      <c r="F7" s="13">
+        <v>0.51153846153846161</v>
+      </c>
+      <c r="G7" s="13">
+        <v>0.51153846153846161</v>
+      </c>
+      <c r="H7" s="13">
+        <v>0.35789473684210532</v>
+      </c>
+      <c r="I7" s="13">
+        <v>0.43312101910828027</v>
+      </c>
+      <c r="J7" s="13">
+        <v>0.47373271889400925</v>
+      </c>
+      <c r="K7" s="13">
+        <v>0.30361445783132535</v>
+      </c>
+      <c r="L7" s="13">
+        <v>0.2</v>
+      </c>
+      <c r="M7" s="13">
+        <v>0.49052631578947364</v>
+      </c>
+      <c r="N7" s="13">
+        <v>0.29500000000000004</v>
+      </c>
+      <c r="O7" s="13">
+        <v>0.33734939759036142</v>
+      </c>
+      <c r="P7" s="13">
+        <v>0.2</v>
+      </c>
+      <c r="Q7" s="13">
+        <v>0.24878048780487805</v>
+      </c>
+      <c r="R7" s="13">
+        <v>0.21500000000000002</v>
+      </c>
+      <c r="S7" s="13">
+        <v>0.2</v>
+      </c>
+      <c r="T7" s="2"/>
+      <c r="U7" s="2"/>
     </row>
     <row r="8" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="2">
-        <v>0.13307692307692309</v>
-      </c>
-      <c r="C8" s="2">
-        <v>0.10454545454545455</v>
-      </c>
-      <c r="D8" s="2">
-        <v>0.13513513513513514</v>
-      </c>
-      <c r="E8" s="2">
-        <v>0.20714285714285713</v>
-      </c>
-      <c r="F8" s="2">
-        <v>9.0677966101694915E-2</v>
-      </c>
-      <c r="G8" s="2">
-        <v>0.15851063829787232</v>
-      </c>
-      <c r="H8" s="2">
-        <v>0.13823529411764704</v>
-      </c>
-      <c r="I8" s="2">
-        <v>0.39105263157894737</v>
-      </c>
-      <c r="J8" s="2">
-        <v>0.1758064516129032</v>
-      </c>
-      <c r="K8" s="2">
-        <v>0.39934210526315794</v>
-      </c>
-      <c r="L8" s="2">
-        <v>0.2257142857142857</v>
-      </c>
-      <c r="M8" s="2">
-        <v>0.54315068493150687</v>
-      </c>
-      <c r="N8" s="2">
-        <v>0.53239999999999987</v>
-      </c>
-      <c r="O8" s="2">
-        <v>0.36438356164383562</v>
-      </c>
-      <c r="P8" s="2">
+      <c r="B8" s="13">
+        <v>0.8</v>
+      </c>
+      <c r="C8" s="13">
         <v>0.2</v>
       </c>
-      <c r="Q8" s="2">
-        <v>0.25307692307692303</v>
-      </c>
-      <c r="R8" s="2">
-        <v>0.28798076923076921</v>
-      </c>
-      <c r="S8" s="2">
-        <v>0.25264900662251655</v>
-      </c>
-      <c r="T8" s="2">
-        <v>0.31644736842105259</v>
-      </c>
-      <c r="U8" s="2">
-        <v>0.25425531914893618</v>
-      </c>
+      <c r="D8" s="13">
+        <v>0.35</v>
+      </c>
+      <c r="E8" s="13">
+        <v>0.47692307692307689</v>
+      </c>
+      <c r="F8" s="13">
+        <v>0.59230769230769242</v>
+      </c>
+      <c r="G8" s="13">
+        <v>0.59230769230769242</v>
+      </c>
+      <c r="H8" s="13">
+        <v>0.3870445344129555</v>
+      </c>
+      <c r="I8" s="13">
+        <v>0.60891719745222928</v>
+      </c>
+      <c r="J8" s="13">
+        <v>0.50967741935483879</v>
+      </c>
+      <c r="K8" s="13">
+        <v>0.8</v>
+      </c>
+      <c r="L8" s="13">
+        <v>0.50526315789473686</v>
+      </c>
+      <c r="M8" s="13">
+        <v>0.40210526315789474</v>
+      </c>
+      <c r="N8" s="13">
+        <v>0.39500000000000002</v>
+      </c>
+      <c r="O8" s="13">
+        <v>0.2</v>
+      </c>
+      <c r="P8" s="13">
+        <v>0.35085714285714292</v>
+      </c>
+      <c r="Q8" s="13">
+        <v>0.3365853658536585</v>
+      </c>
+      <c r="R8" s="13">
+        <v>0.54</v>
+      </c>
+      <c r="S8" s="13">
+        <v>0.74893617021276593</v>
+      </c>
+      <c r="T8" s="2"/>
+      <c r="U8" s="2"/>
     </row>
     <row r="9" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="2">
-        <v>0.05</v>
-      </c>
-      <c r="C9" s="2">
-        <v>0.05</v>
-      </c>
-      <c r="D9" s="2">
-        <v>7.4324324324324328E-2</v>
-      </c>
-      <c r="E9" s="2">
-        <v>0.16428571428571426</v>
-      </c>
-      <c r="F9" s="2">
-        <v>7.5423728813559326E-2</v>
-      </c>
-      <c r="G9" s="2">
-        <v>0.15212765957446808</v>
-      </c>
-      <c r="H9" s="2">
-        <v>0.10294117647058823</v>
-      </c>
-      <c r="I9" s="2">
-        <v>6.8947368421052618E-2</v>
-      </c>
-      <c r="J9" s="2">
-        <v>9.838709677419355E-2</v>
-      </c>
-      <c r="K9" s="2">
-        <v>0.69539473684210529</v>
-      </c>
-      <c r="L9" s="2">
-        <v>0.42714285714285716</v>
-      </c>
-      <c r="M9" s="2">
-        <v>0.30890410958904108</v>
-      </c>
-      <c r="N9" s="2">
-        <v>0.48919999999999997</v>
-      </c>
-      <c r="O9" s="2">
-        <v>0.51849315068493151</v>
-      </c>
-      <c r="P9" s="2">
-        <v>0.41875000000000001</v>
-      </c>
-      <c r="Q9" s="2">
-        <v>0.31769230769230761</v>
-      </c>
-      <c r="R9" s="2">
-        <v>0.33557692307692305</v>
-      </c>
-      <c r="S9" s="2">
-        <v>0.24072847682119203</v>
-      </c>
-      <c r="T9" s="2">
-        <v>0.24539473684210525</v>
-      </c>
-      <c r="U9" s="2">
-        <v>0.20319148936170212</v>
-      </c>
+      <c r="B9" s="13">
+        <v>0.2</v>
+      </c>
+      <c r="C9" s="13">
+        <v>0.51875000000000016</v>
+      </c>
+      <c r="D9" s="13">
+        <v>0.34210526315789475</v>
+      </c>
+      <c r="E9" s="13">
+        <v>0.23076923076923078</v>
+      </c>
+      <c r="F9" s="13">
+        <v>0.21153846153846154</v>
+      </c>
+      <c r="G9" s="13">
+        <v>0.21153846153846154</v>
+      </c>
+      <c r="H9" s="13">
+        <v>0.24858299595141703</v>
+      </c>
+      <c r="I9" s="13">
+        <v>0.26496815286624209</v>
+      </c>
+      <c r="J9" s="13">
+        <v>0.25806451612903225</v>
+      </c>
+      <c r="K9" s="13">
+        <v>0.2939759036144578</v>
+      </c>
+      <c r="L9" s="13">
+        <v>0.54736842105263162</v>
+      </c>
+      <c r="M9" s="13">
+        <v>0.58526315789473693</v>
+      </c>
+      <c r="N9" s="13">
+        <v>0.60500000000000009</v>
+      </c>
+      <c r="O9" s="13">
+        <v>0.5</v>
+      </c>
+      <c r="P9" s="13">
+        <v>0.65600000000000003</v>
+      </c>
+      <c r="Q9" s="13">
+        <v>0.60975609756097571</v>
+      </c>
+      <c r="R9" s="13">
+        <v>0.48000000000000004</v>
+      </c>
+      <c r="S9" s="13">
+        <v>0.54893617021276597</v>
+      </c>
+      <c r="T9" s="2"/>
+      <c r="U9" s="2"/>
     </row>
     <row r="10" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="2">
-        <v>9.1538461538461541E-2</v>
-      </c>
-      <c r="C10" s="2">
-        <v>5.9090909090909097E-2</v>
-      </c>
-      <c r="D10" s="2">
-        <v>0.3418918918918919</v>
-      </c>
-      <c r="E10" s="2">
-        <v>0.54999999999999993</v>
-      </c>
-      <c r="F10" s="2">
-        <v>0.35</v>
-      </c>
-      <c r="G10" s="2">
-        <v>0.33085106382978724</v>
-      </c>
-      <c r="H10" s="2">
-        <v>0.58823529411764708</v>
-      </c>
-      <c r="I10" s="2">
-        <v>0.95</v>
-      </c>
-      <c r="J10" s="2">
-        <v>0.84354838709677415</v>
-      </c>
-      <c r="K10" s="2">
-        <v>0.95</v>
-      </c>
-      <c r="L10" s="2">
-        <v>0.95</v>
-      </c>
-      <c r="M10" s="2">
-        <v>0.67876712328767119</v>
-      </c>
-      <c r="N10" s="2">
-        <v>0.55399999999999994</v>
-      </c>
-      <c r="O10" s="2">
-        <v>0.50616438356164384</v>
-      </c>
-      <c r="P10" s="2">
-        <v>0.32500000000000001</v>
-      </c>
-      <c r="Q10" s="2">
-        <v>0.22999999999999998</v>
-      </c>
-      <c r="R10" s="2">
-        <v>0.24471153846153845</v>
-      </c>
-      <c r="S10" s="2">
-        <v>0.31821192052980135</v>
-      </c>
-      <c r="T10" s="2">
-        <v>0.58881578947368418</v>
-      </c>
-      <c r="U10" s="2">
-        <v>0.53510638297872337</v>
-      </c>
+      <c r="B10" s="13">
+        <v>0.38305084745762707</v>
+      </c>
+      <c r="C10" s="13">
+        <v>0.8</v>
+      </c>
+      <c r="D10" s="13">
+        <v>0.8</v>
+      </c>
+      <c r="E10" s="13">
+        <v>0.8</v>
+      </c>
+      <c r="F10" s="13">
+        <v>0.8</v>
+      </c>
+      <c r="G10" s="13">
+        <v>0.8</v>
+      </c>
+      <c r="H10" s="13">
+        <v>0.8</v>
+      </c>
+      <c r="I10" s="13">
+        <v>0.58980891719745221</v>
+      </c>
+      <c r="J10" s="13">
+        <v>0.6092165898617512</v>
+      </c>
+      <c r="K10" s="13">
+        <v>0.44096385542168681</v>
+      </c>
+      <c r="L10" s="13">
+        <v>0.71578947368421053</v>
+      </c>
+      <c r="M10" s="13">
+        <v>0.41473684210526318</v>
+      </c>
+      <c r="N10" s="13">
+        <v>0.23</v>
+      </c>
+      <c r="O10" s="13">
+        <v>0.33373493975903612</v>
+      </c>
+      <c r="P10" s="13">
+        <v>0.35771428571428582</v>
+      </c>
+      <c r="Q10" s="13">
+        <v>0.2780487804878049</v>
+      </c>
+      <c r="R10" s="13">
+        <v>0.29500000000000004</v>
+      </c>
+      <c r="S10" s="13">
+        <v>0.35744680851063831</v>
+      </c>
+      <c r="T10" s="2"/>
+      <c r="U10" s="2"/>
     </row>
     <row r="11" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B11" s="2">
-        <v>0.14692307692307693</v>
-      </c>
-      <c r="C11" s="2">
-        <v>0.15909090909090912</v>
-      </c>
-      <c r="D11" s="2">
-        <v>0.14729729729729732</v>
-      </c>
-      <c r="E11" s="2">
-        <v>0.23571428571428565</v>
-      </c>
-      <c r="F11" s="2">
-        <v>8.0508474576271194E-2</v>
-      </c>
-      <c r="G11" s="2">
-        <v>0.05</v>
-      </c>
-      <c r="H11" s="2">
-        <v>0.12058823529411765</v>
-      </c>
-      <c r="I11" s="2">
-        <v>0.40052631578947367</v>
-      </c>
-      <c r="J11" s="2">
-        <v>0.11774193548387096</v>
-      </c>
-      <c r="K11" s="2">
-        <v>0.52960526315789469</v>
-      </c>
-      <c r="L11" s="2">
-        <v>0.16999999999999998</v>
-      </c>
-      <c r="M11" s="2">
-        <v>0.22876712328767124</v>
-      </c>
-      <c r="N11" s="2">
-        <v>0.38839999999999997</v>
-      </c>
-      <c r="O11" s="2">
-        <v>0.37054794520547946</v>
-      </c>
-      <c r="P11" s="2">
-        <v>0.25</v>
-      </c>
-      <c r="Q11" s="2">
-        <v>0.22538461538461535</v>
-      </c>
-      <c r="R11" s="2">
-        <v>0.29230769230769232</v>
-      </c>
-      <c r="S11" s="2">
-        <v>0.33609271523178808</v>
-      </c>
-      <c r="T11" s="2">
-        <v>0.23947368421052631</v>
-      </c>
-      <c r="U11" s="2">
-        <v>0.20319148936170212</v>
-      </c>
+      <c r="B11" s="13">
+        <v>0.21016949152542377</v>
+      </c>
+      <c r="C11" s="13">
+        <v>0.53750000000000009</v>
+      </c>
+      <c r="D11" s="13">
+        <v>0.40526315789473688</v>
+      </c>
+      <c r="E11" s="13">
+        <v>0.44615384615384612</v>
+      </c>
+      <c r="F11" s="13">
+        <v>0.41923076923076924</v>
+      </c>
+      <c r="G11" s="13">
+        <v>0.41923076923076924</v>
+      </c>
+      <c r="H11" s="13">
+        <v>0.29959514170040491</v>
+      </c>
+      <c r="I11" s="13">
+        <v>0.46369426751592357</v>
+      </c>
+      <c r="J11" s="13">
+        <v>0.31612903225806455</v>
+      </c>
+      <c r="K11" s="13">
+        <v>0.43855421686746998</v>
+      </c>
+      <c r="L11" s="13">
+        <v>0.66315789473684217</v>
+      </c>
+      <c r="M11" s="13">
+        <v>0.7305263157894738</v>
+      </c>
+      <c r="N11" s="13">
+        <v>0.57000000000000006</v>
+      </c>
+      <c r="O11" s="13">
+        <v>0.59036144578313254</v>
+      </c>
+      <c r="P11" s="13">
+        <v>0.64914285714285713</v>
+      </c>
+      <c r="Q11" s="13">
+        <v>0.38536585365853659</v>
+      </c>
+      <c r="R11" s="13">
+        <v>0.31000000000000005</v>
+      </c>
+      <c r="S11" s="13">
+        <v>0.35319148936170219</v>
+      </c>
+      <c r="T11" s="2"/>
+      <c r="U11" s="2"/>
     </row>
     <row r="12" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B12" s="2">
-        <v>0.2023076923076923</v>
-      </c>
-      <c r="C12" s="2">
-        <v>0.16818181818181821</v>
-      </c>
-      <c r="D12" s="2">
-        <v>0.17162162162162162</v>
-      </c>
-      <c r="E12" s="2">
-        <v>0.22142857142857139</v>
-      </c>
-      <c r="F12" s="2">
-        <v>8.0508474576271194E-2</v>
-      </c>
-      <c r="G12" s="2">
-        <v>6.9148936170212755E-2</v>
-      </c>
-      <c r="H12" s="2">
-        <v>0.10294117647058823</v>
-      </c>
-      <c r="I12" s="2">
-        <v>0.23947368421052631</v>
-      </c>
-      <c r="J12" s="2">
-        <v>0.1758064516129032</v>
-      </c>
-      <c r="K12" s="2">
-        <v>0.22763157894736846</v>
-      </c>
-      <c r="L12" s="2">
-        <v>0.2857142857142857</v>
-      </c>
-      <c r="M12" s="2">
-        <v>0.42602739726027394</v>
-      </c>
-      <c r="N12" s="2">
-        <v>0.69799999999999995</v>
-      </c>
-      <c r="O12" s="2">
-        <v>0.48150684931506843</v>
-      </c>
-      <c r="P12" s="2">
-        <v>0.36875000000000002</v>
-      </c>
-      <c r="Q12" s="2">
-        <v>0.33153846153846145</v>
-      </c>
-      <c r="R12" s="2">
-        <v>0.34855769230769229</v>
-      </c>
-      <c r="S12" s="2">
-        <v>0.31821192052980135</v>
-      </c>
-      <c r="T12" s="2">
-        <v>0.37565789473684208</v>
-      </c>
-      <c r="U12" s="2">
-        <v>0.35</v>
-      </c>
+      <c r="B12" s="13">
+        <v>0.33220338983050851</v>
+      </c>
+      <c r="C12" s="13">
+        <v>0.60312500000000013</v>
+      </c>
+      <c r="D12" s="13">
+        <v>0.50789473684210529</v>
+      </c>
+      <c r="E12" s="13">
+        <v>0.60000000000000009</v>
+      </c>
+      <c r="F12" s="13">
+        <v>0.52307692307692322</v>
+      </c>
+      <c r="G12" s="13">
+        <v>0.52307692307692322</v>
+      </c>
+      <c r="H12" s="13">
+        <v>0.3433198380566802</v>
+      </c>
+      <c r="I12" s="13">
+        <v>0.4140127388535032</v>
+      </c>
+      <c r="J12" s="13">
+        <v>0.32165898617511524</v>
+      </c>
+      <c r="K12" s="13">
+        <v>0.3566265060240964</v>
+      </c>
+      <c r="L12" s="13">
+        <v>0.72631578947368425</v>
+      </c>
+      <c r="M12" s="13">
+        <v>0.8</v>
+      </c>
+      <c r="N12" s="13">
+        <v>0.8</v>
+      </c>
+      <c r="O12" s="13">
+        <v>0.8</v>
+      </c>
+      <c r="P12" s="13">
+        <v>0.8</v>
+      </c>
+      <c r="Q12" s="13">
+        <v>0.8</v>
+      </c>
+      <c r="R12" s="13">
+        <v>0.8</v>
+      </c>
+      <c r="S12" s="13">
+        <v>0.8</v>
+      </c>
+      <c r="T12" s="2"/>
+      <c r="U12" s="2"/>
     </row>
     <row r="13" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="B13" s="2">
-        <v>0.05</v>
-      </c>
-      <c r="C13" s="2">
-        <v>5.9090909090909097E-2</v>
-      </c>
-      <c r="D13" s="2">
-        <v>6.2162162162162166E-2</v>
-      </c>
-      <c r="E13" s="2">
-        <v>0.25714285714285712</v>
-      </c>
-      <c r="F13" s="2">
-        <v>0.15169491525423728</v>
-      </c>
-      <c r="G13" s="2">
-        <v>0.22872340425531915</v>
-      </c>
-      <c r="H13" s="2">
-        <v>0.3235294117647059</v>
-      </c>
-      <c r="I13" s="2">
-        <v>0.2963157894736842</v>
-      </c>
-      <c r="J13" s="2">
-        <v>0.26290322580645159</v>
-      </c>
-      <c r="K13" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="L13" s="2">
-        <v>0.12714285714285711</v>
-      </c>
-      <c r="M13" s="2">
-        <v>0.20410958904109588</v>
-      </c>
-      <c r="N13" s="2">
-        <v>0.36679999999999996</v>
-      </c>
-      <c r="O13" s="2">
-        <v>0.36438356164383562</v>
-      </c>
-      <c r="P13" s="2">
-        <v>0.23125000000000001</v>
-      </c>
-      <c r="Q13" s="2">
-        <v>0.2484615384615384</v>
-      </c>
-      <c r="R13" s="2">
-        <v>0.29230769230769232</v>
-      </c>
-      <c r="S13" s="2">
-        <v>0.25860927152317881</v>
-      </c>
-      <c r="T13" s="2">
-        <v>0.27499999999999997</v>
-      </c>
-      <c r="U13" s="2">
-        <v>0.17127659574468085</v>
-      </c>
+      <c r="B13" s="13">
+        <v>0.3728813559322034</v>
+      </c>
+      <c r="C13" s="13">
+        <v>0.60312500000000013</v>
+      </c>
+      <c r="D13" s="13">
+        <v>0.53947368421052644</v>
+      </c>
+      <c r="E13" s="13">
+        <v>0.55384615384615377</v>
+      </c>
+      <c r="F13" s="13">
+        <v>0.55769230769230771</v>
+      </c>
+      <c r="G13" s="13">
+        <v>0.55769230769230771</v>
+      </c>
+      <c r="H13" s="13">
+        <v>0.38461538461538469</v>
+      </c>
+      <c r="I13" s="13">
+        <v>0.44458598726114651</v>
+      </c>
+      <c r="J13" s="13">
+        <v>0.25529953917050696</v>
+      </c>
+      <c r="K13" s="13">
+        <v>0.25542168674698795</v>
+      </c>
+      <c r="L13" s="13">
+        <v>0.38947368421052631</v>
+      </c>
+      <c r="M13" s="13">
+        <v>0.41473684210526318</v>
+      </c>
+      <c r="N13" s="13">
+        <v>0.43500000000000005</v>
+      </c>
+      <c r="O13" s="13">
+        <v>0.43132530120481921</v>
+      </c>
+      <c r="P13" s="13">
+        <v>0.51200000000000012</v>
+      </c>
+      <c r="Q13" s="13">
+        <v>0.6</v>
+      </c>
+      <c r="R13" s="13">
+        <v>0.66500000000000004</v>
+      </c>
+      <c r="S13" s="13">
+        <v>0.71063829787234056</v>
+      </c>
+      <c r="T13" s="2"/>
+      <c r="U13" s="2"/>
     </row>
     <row r="14" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B14" s="2">
-        <v>0.11923076923076922</v>
-      </c>
-      <c r="C14" s="2">
-        <v>0.15909090909090912</v>
-      </c>
-      <c r="D14" s="2">
-        <v>0.57297297297297289</v>
-      </c>
-      <c r="E14" s="2">
-        <v>0.46428571428571425</v>
-      </c>
-      <c r="F14" s="2">
-        <v>0.21271186440677967</v>
-      </c>
-      <c r="G14" s="2">
-        <v>0.20319148936170212</v>
-      </c>
-      <c r="H14" s="2">
-        <v>0.35882352941176465</v>
-      </c>
-      <c r="I14" s="2">
-        <v>0.51421052631578956</v>
-      </c>
-      <c r="J14" s="2">
-        <v>0.65967741935483859</v>
-      </c>
-      <c r="K14" s="2">
-        <v>0.65394736842105261</v>
-      </c>
-      <c r="L14" s="2">
-        <v>0.50857142857142856</v>
-      </c>
-      <c r="M14" s="2">
-        <v>0.86369863013698622</v>
-      </c>
-      <c r="N14" s="2">
-        <v>0.33799999999999991</v>
-      </c>
-      <c r="O14" s="2">
-        <v>0.33972602739726027</v>
-      </c>
-      <c r="P14" s="2">
-        <v>0.24375000000000002</v>
-      </c>
-      <c r="Q14" s="2">
-        <v>0.05</v>
-      </c>
-      <c r="R14" s="2">
-        <v>0.21009615384615382</v>
-      </c>
-      <c r="S14" s="2">
-        <v>0.19900662251655629</v>
-      </c>
-      <c r="T14" s="2">
-        <v>0.25131578947368421</v>
-      </c>
-      <c r="U14" s="2">
-        <v>0.19680851063829788</v>
-      </c>
+      <c r="B14" s="13">
+        <v>0.32203389830508478</v>
+      </c>
+      <c r="C14" s="13">
+        <v>0.58906250000000016</v>
+      </c>
+      <c r="D14" s="13">
+        <v>0.38157894736842107</v>
+      </c>
+      <c r="E14" s="13">
+        <v>0.30769230769230765</v>
+      </c>
+      <c r="F14" s="13">
+        <v>0.30384615384615388</v>
+      </c>
+      <c r="G14" s="13">
+        <v>0.30384615384615388</v>
+      </c>
+      <c r="H14" s="13">
+        <v>0.2</v>
+      </c>
+      <c r="I14" s="13">
+        <v>0.26878980891719745</v>
+      </c>
+      <c r="J14" s="13">
+        <v>0.27188940092165897</v>
+      </c>
+      <c r="K14" s="13">
+        <v>0.27469879518072293</v>
+      </c>
+      <c r="L14" s="13">
+        <v>0.47368421052631587</v>
+      </c>
+      <c r="M14" s="13">
+        <v>0.39578947368421052</v>
+      </c>
+      <c r="N14" s="13">
+        <v>0.33000000000000007</v>
+      </c>
+      <c r="O14" s="13">
+        <v>0.39156626506024095</v>
+      </c>
+      <c r="P14" s="13">
+        <v>0.38171428571428578</v>
+      </c>
+      <c r="Q14" s="13">
+        <v>0.2</v>
+      </c>
+      <c r="R14" s="13">
+        <v>0.22</v>
+      </c>
+      <c r="S14" s="13">
+        <v>0.34042553191489366</v>
+      </c>
+      <c r="T14" s="2"/>
+      <c r="U14" s="2"/>
     </row>
     <row r="15" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A15" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B15" s="2">
-        <v>0.32692307692307687</v>
-      </c>
-      <c r="C15" s="2">
-        <v>0.23181818181818181</v>
-      </c>
-      <c r="D15" s="2">
-        <v>0.427027027027027</v>
-      </c>
-      <c r="E15" s="2">
-        <v>0.42142857142857132</v>
-      </c>
-      <c r="F15" s="2">
-        <v>0.24830508474576268</v>
-      </c>
-      <c r="G15" s="2">
-        <v>0.29255319148936165</v>
-      </c>
-      <c r="H15" s="2">
-        <v>0.31470588235294122</v>
-      </c>
-      <c r="I15" s="2">
-        <v>0.37210526315789472</v>
-      </c>
-      <c r="J15" s="2">
-        <v>0.44677419354838704</v>
-      </c>
-      <c r="K15" s="2">
-        <v>0.71315789473684221</v>
-      </c>
-      <c r="L15" s="2">
-        <v>0.37142857142857144</v>
-      </c>
-      <c r="M15" s="2">
-        <v>0.58013698630136978</v>
-      </c>
-      <c r="N15" s="2">
-        <v>0.5756</v>
-      </c>
-      <c r="O15" s="2">
-        <v>0.5493150684931507</v>
-      </c>
-      <c r="P15" s="2">
-        <v>0.43125000000000008</v>
-      </c>
-      <c r="Q15" s="2">
-        <v>0.35923076923076913</v>
-      </c>
-      <c r="R15" s="2">
-        <v>0.33557692307692305</v>
-      </c>
-      <c r="S15" s="2">
-        <v>0.30033112582781457</v>
-      </c>
-      <c r="T15" s="2">
-        <v>0.3401315789473684</v>
-      </c>
-      <c r="U15" s="2">
-        <v>0.29893617021276597</v>
-      </c>
+      <c r="B15" s="2"/>
+      <c r="C15" s="1"/>
+      <c r="D15" s="2"/>
+      <c r="E15" s="2"/>
+      <c r="F15" s="2"/>
+      <c r="G15" s="2"/>
+      <c r="H15" s="2"/>
+      <c r="I15" s="2"/>
+      <c r="J15" s="2"/>
+      <c r="K15" s="2"/>
+      <c r="L15" s="2"/>
+      <c r="M15" s="2"/>
+      <c r="N15" s="2"/>
+      <c r="O15" s="2"/>
+      <c r="P15" s="2"/>
+      <c r="Q15" s="2"/>
+      <c r="R15" s="2"/>
+      <c r="S15" s="2"/>
+      <c r="T15" s="2"/>
+      <c r="U15" s="2"/>
     </row>
     <row r="16" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A16" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B16" s="2">
-        <v>0.16076923076923078</v>
-      </c>
-      <c r="C16" s="2">
-        <v>6.8181818181818177E-2</v>
-      </c>
-      <c r="D16" s="2">
-        <v>0.1108108108108108</v>
-      </c>
-      <c r="E16" s="2">
-        <v>0.15</v>
-      </c>
-      <c r="F16" s="2">
-        <v>6.5254237288135591E-2</v>
-      </c>
-      <c r="G16" s="2">
-        <v>0.30531914893617018</v>
-      </c>
-      <c r="H16" s="2">
-        <v>0.30588235294117649</v>
-      </c>
-      <c r="I16" s="2">
-        <v>0.45736842105263159</v>
-      </c>
-      <c r="J16" s="2">
-        <v>0.34032258064516124</v>
-      </c>
-      <c r="K16" s="2">
-        <v>0.47631578947368414</v>
-      </c>
-      <c r="L16" s="2">
-        <v>0.12714285714285711</v>
-      </c>
-      <c r="M16" s="2">
-        <v>0.31506849315068491</v>
-      </c>
-      <c r="N16" s="2">
-        <v>0.43160000000000004</v>
-      </c>
-      <c r="O16" s="2">
-        <v>0.37671232876712329</v>
-      </c>
-      <c r="P16" s="2">
-        <v>0.26875000000000004</v>
-      </c>
-      <c r="Q16" s="2">
-        <v>0.35</v>
-      </c>
-      <c r="R16" s="2">
-        <v>0.28365384615384615</v>
-      </c>
-      <c r="S16" s="2">
-        <v>0.2228476821192053</v>
-      </c>
-      <c r="T16" s="2">
-        <v>0.27499999999999997</v>
-      </c>
-      <c r="U16" s="2">
-        <v>0.11382978723404256</v>
-      </c>
+      <c r="A16" s="1"/>
+      <c r="B16" s="2"/>
+      <c r="C16" s="2"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
+      <c r="F16" s="2"/>
+      <c r="G16" s="2"/>
+      <c r="H16" s="2"/>
+      <c r="I16" s="2"/>
+      <c r="J16" s="2"/>
+      <c r="K16" s="2"/>
+      <c r="L16" s="2"/>
+      <c r="M16" s="2"/>
+      <c r="N16" s="2"/>
+      <c r="O16" s="2"/>
+      <c r="P16" s="2"/>
+      <c r="Q16" s="2"/>
+      <c r="R16" s="2"/>
+      <c r="S16" s="2"/>
+      <c r="T16" s="2"/>
+      <c r="U16" s="2"/>
     </row>
     <row r="17" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A17" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B17" s="2">
-        <v>0.25769230769230766</v>
-      </c>
-      <c r="C17" s="2">
-        <v>7.7272727272727271E-2</v>
-      </c>
-      <c r="D17" s="2">
-        <v>0.15945945945945944</v>
-      </c>
-      <c r="E17" s="2">
-        <v>0.29285714285714282</v>
-      </c>
-      <c r="F17" s="2">
-        <v>0.17711864406779659</v>
-      </c>
-      <c r="G17" s="2">
-        <v>0.19680851063829785</v>
-      </c>
-      <c r="H17" s="2">
-        <v>0.23529411764705879</v>
-      </c>
-      <c r="I17" s="2">
-        <v>0.34368421052631576</v>
-      </c>
-      <c r="J17" s="2">
-        <v>0.5532258064516129</v>
-      </c>
-      <c r="K17" s="2">
-        <v>0.76052631578947383</v>
-      </c>
-      <c r="L17" s="2">
-        <v>0.59</v>
-      </c>
-      <c r="M17" s="2">
-        <v>0.46301369863013703</v>
-      </c>
-      <c r="N17" s="2">
-        <v>0.2084</v>
-      </c>
-      <c r="O17" s="2">
-        <v>0.64794520547945211</v>
-      </c>
-      <c r="P17" s="2">
-        <v>0.31875000000000003</v>
-      </c>
-      <c r="Q17" s="2">
-        <v>0.22538461538461535</v>
-      </c>
-      <c r="R17" s="2">
-        <v>0.05</v>
-      </c>
-      <c r="S17" s="2">
-        <v>0.27649006622516559</v>
-      </c>
-      <c r="T17" s="2">
-        <v>0.25723684210526315</v>
-      </c>
-      <c r="U17" s="2">
-        <v>0.05</v>
-      </c>
+      <c r="A17" s="1"/>
+      <c r="B17" s="2"/>
+      <c r="C17" s="2"/>
+      <c r="D17" s="2"/>
+      <c r="E17" s="2"/>
+      <c r="F17" s="2"/>
+      <c r="G17" s="2"/>
+      <c r="H17" s="2"/>
+      <c r="I17" s="2"/>
+      <c r="J17" s="2"/>
+      <c r="K17" s="2"/>
+      <c r="L17" s="2"/>
+      <c r="M17" s="2"/>
+      <c r="N17" s="2"/>
+      <c r="O17" s="2"/>
+      <c r="P17" s="2"/>
+      <c r="Q17" s="2"/>
+      <c r="R17" s="2"/>
+      <c r="S17" s="2"/>
+      <c r="T17" s="2"/>
+      <c r="U17" s="2"/>
     </row>
     <row r="18" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A18" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B18" s="2">
-        <v>0.18846153846153846</v>
-      </c>
-      <c r="C18" s="2">
-        <v>0.35909090909090907</v>
-      </c>
-      <c r="D18" s="2">
-        <v>0.3418918918918919</v>
-      </c>
-      <c r="E18" s="2">
-        <v>0.32857142857142851</v>
-      </c>
-      <c r="F18" s="2">
-        <v>0.19237288135593222</v>
-      </c>
-      <c r="G18" s="2">
-        <v>0.29255319148936165</v>
-      </c>
-      <c r="H18" s="2">
-        <v>0.33235294117647052</v>
-      </c>
-      <c r="I18" s="2">
-        <v>0.3152631578947368</v>
-      </c>
-      <c r="J18" s="2">
-        <v>0.52419354838709675</v>
-      </c>
-      <c r="K18" s="2">
-        <v>0.05</v>
-      </c>
-      <c r="L18" s="2">
-        <v>0.12285714285714286</v>
-      </c>
-      <c r="M18" s="2">
-        <v>0.40753424657534243</v>
-      </c>
-      <c r="N18" s="2">
-        <v>9.3200000000000005E-2</v>
-      </c>
-      <c r="O18" s="2">
-        <v>0.05</v>
-      </c>
-      <c r="P18" s="2">
-        <v>0.28125</v>
-      </c>
-      <c r="Q18" s="2">
-        <v>0.27153846153846151</v>
-      </c>
-      <c r="R18" s="2">
-        <v>0.27067307692307691</v>
-      </c>
-      <c r="S18" s="2">
-        <v>0.52086092715231791</v>
-      </c>
-      <c r="T18" s="2">
-        <v>0.52368421052631575</v>
-      </c>
-      <c r="U18" s="2">
-        <v>0.32446808510638303</v>
-      </c>
+      <c r="A18" s="1"/>
+      <c r="B18" s="2"/>
+      <c r="C18" s="2"/>
+      <c r="D18" s="2"/>
+      <c r="E18" s="2"/>
+      <c r="F18" s="2"/>
+      <c r="G18" s="2"/>
+      <c r="H18" s="2"/>
+      <c r="I18" s="2"/>
+      <c r="J18" s="2"/>
+      <c r="K18" s="2"/>
+      <c r="L18" s="2"/>
+      <c r="M18" s="2"/>
+      <c r="N18" s="2"/>
+      <c r="O18" s="2"/>
+      <c r="P18" s="2"/>
+      <c r="Q18" s="2"/>
+      <c r="R18" s="2"/>
+      <c r="S18" s="2"/>
+      <c r="T18" s="2"/>
+      <c r="U18" s="2"/>
     </row>
     <row r="19" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B19" s="2">
-        <v>0.13307692307692309</v>
-      </c>
-      <c r="C19" s="2">
-        <v>0.14090909090909093</v>
-      </c>
-      <c r="D19" s="2">
-        <v>0.26891891891891889</v>
-      </c>
-      <c r="E19" s="2">
-        <v>0.17142857142857143</v>
-      </c>
-      <c r="F19" s="2">
-        <v>5.508474576271187E-2</v>
-      </c>
-      <c r="G19" s="2">
-        <v>0.12021276595744679</v>
-      </c>
-      <c r="H19" s="2">
-        <v>0.10294117647058823</v>
-      </c>
-      <c r="I19" s="2">
-        <v>6.8947368421052618E-2</v>
-      </c>
-      <c r="J19" s="2">
-        <v>9.838709677419355E-2</v>
-      </c>
-      <c r="K19" s="2">
-        <v>0.32828947368421052</v>
-      </c>
-      <c r="L19" s="2">
-        <v>0.16999999999999998</v>
-      </c>
-      <c r="M19" s="2">
-        <v>0.22876712328767124</v>
-      </c>
-      <c r="N19" s="2">
-        <v>0.35239999999999994</v>
-      </c>
-      <c r="O19" s="2">
-        <v>0.30273972602739729</v>
-      </c>
-      <c r="P19" s="2">
-        <v>0.22500000000000001</v>
-      </c>
-      <c r="Q19" s="2">
-        <v>0.21153846153846151</v>
-      </c>
-      <c r="R19" s="2">
-        <v>0.23173076923076918</v>
-      </c>
-      <c r="S19" s="2">
-        <v>0.18112582781456954</v>
-      </c>
-      <c r="T19" s="2">
-        <v>0.26907894736842103</v>
-      </c>
-      <c r="U19" s="2">
-        <v>0.21595744680851064</v>
-      </c>
+      <c r="A19" s="1"/>
+      <c r="B19" s="2"/>
+      <c r="C19" s="2"/>
+      <c r="D19" s="2"/>
+      <c r="E19" s="2"/>
+      <c r="F19" s="2"/>
+      <c r="G19" s="2"/>
+      <c r="H19" s="2"/>
+      <c r="I19" s="2"/>
+      <c r="J19" s="2"/>
+      <c r="K19" s="2"/>
+      <c r="L19" s="2"/>
+      <c r="M19" s="2"/>
+      <c r="N19" s="2"/>
+      <c r="O19" s="2"/>
+      <c r="P19" s="2"/>
+      <c r="Q19" s="2"/>
+      <c r="R19" s="2"/>
+      <c r="S19" s="2"/>
+      <c r="T19" s="2"/>
+      <c r="U19" s="2"/>
     </row>
     <row r="20" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A20" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B20" s="2">
-        <v>0.13307692307692309</v>
-      </c>
-      <c r="C20" s="2">
-        <v>8.6363636363636365E-2</v>
-      </c>
-      <c r="D20" s="2">
-        <v>0.14729729729729732</v>
-      </c>
-      <c r="E20" s="2">
-        <v>0.19285714285714284</v>
-      </c>
-      <c r="F20" s="2">
-        <v>6.0169491525423731E-2</v>
-      </c>
-      <c r="G20" s="2">
-        <v>0.12659574468085105</v>
-      </c>
-      <c r="H20" s="2">
-        <v>0.10294117647058823</v>
-      </c>
-      <c r="I20" s="2">
-        <v>8.7894736842105275E-2</v>
-      </c>
-      <c r="J20" s="2">
-        <v>7.9032258064516123E-2</v>
-      </c>
-      <c r="K20" s="2">
-        <v>0.44078947368421051</v>
-      </c>
-      <c r="L20" s="2">
-        <v>0.1357142857142857</v>
-      </c>
-      <c r="M20" s="2">
-        <v>0.13630136986301369</v>
-      </c>
-      <c r="N20" s="2">
-        <v>0.33079999999999993</v>
-      </c>
-      <c r="O20" s="2">
-        <v>0.29041095890410962</v>
-      </c>
-      <c r="P20" s="2">
-        <v>0.23125000000000001</v>
-      </c>
-      <c r="Q20" s="2">
-        <v>0.2023076923076923</v>
-      </c>
-      <c r="R20" s="2">
-        <v>0.2533653846153846</v>
-      </c>
-      <c r="S20" s="2">
-        <v>0.1513245033112583</v>
-      </c>
-      <c r="T20" s="2">
-        <v>0.19802631578947369</v>
-      </c>
-      <c r="U20" s="2">
-        <v>0.13936170212765958</v>
-      </c>
+      <c r="A20" s="1"/>
+      <c r="B20" s="2"/>
+      <c r="C20" s="2"/>
+      <c r="D20" s="2"/>
+      <c r="E20" s="2"/>
+      <c r="F20" s="2"/>
+      <c r="G20" s="2"/>
+      <c r="H20" s="2"/>
+      <c r="I20" s="2"/>
+      <c r="J20" s="2"/>
+      <c r="K20" s="2"/>
+      <c r="L20" s="2"/>
+      <c r="M20" s="2"/>
+      <c r="N20" s="2"/>
+      <c r="O20" s="2"/>
+      <c r="P20" s="2"/>
+      <c r="Q20" s="2"/>
+      <c r="R20" s="2"/>
+      <c r="S20" s="2"/>
+      <c r="T20" s="2"/>
+      <c r="U20" s="2"/>
     </row>
     <row r="21" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A21" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B21" s="2">
-        <v>0.32692307692307687</v>
-      </c>
-      <c r="C21" s="2">
-        <v>0.30454545454545451</v>
-      </c>
-      <c r="D21" s="2">
-        <v>0.427027027027027</v>
-      </c>
-      <c r="E21" s="2">
-        <v>0.36428571428571421</v>
-      </c>
-      <c r="F21" s="2">
-        <v>9.0677966101694915E-2</v>
-      </c>
-      <c r="G21" s="2">
-        <v>0.37553191489361698</v>
-      </c>
-      <c r="H21" s="2">
-        <v>0.35</v>
-      </c>
-      <c r="I21" s="2">
-        <v>0.50473684210526315</v>
-      </c>
-      <c r="J21" s="2">
-        <v>0.62096774193548376</v>
-      </c>
-      <c r="K21" s="2">
-        <v>0.7309210526315788</v>
-      </c>
-      <c r="L21" s="2">
-        <v>0.44</v>
-      </c>
-      <c r="M21" s="2">
-        <v>0.61712328767123281</v>
-      </c>
-      <c r="N21" s="2">
-        <v>0.95</v>
-      </c>
-      <c r="O21" s="2">
-        <v>0.91917808219178077</v>
-      </c>
-      <c r="P21" s="2">
-        <v>0.69374999999999998</v>
-      </c>
-      <c r="Q21" s="2">
-        <v>0.56692307692307686</v>
-      </c>
-      <c r="R21" s="2">
-        <v>0.59951923076923064</v>
-      </c>
-      <c r="S21" s="2">
-        <v>0.66390728476821192</v>
-      </c>
-      <c r="T21" s="2">
-        <v>0.68947368421052624</v>
-      </c>
-      <c r="U21" s="2">
-        <v>0.71382978723404256</v>
-      </c>
+      <c r="A21" s="1"/>
+      <c r="B21" s="2"/>
+      <c r="C21" s="2"/>
+      <c r="D21" s="2"/>
+      <c r="E21" s="2"/>
+      <c r="F21" s="2"/>
+      <c r="G21" s="2"/>
+      <c r="H21" s="2"/>
+      <c r="I21" s="2"/>
+      <c r="J21" s="2"/>
+      <c r="K21" s="2"/>
+      <c r="L21" s="2"/>
+      <c r="M21" s="2"/>
+      <c r="N21" s="2"/>
+      <c r="O21" s="2"/>
+      <c r="P21" s="2"/>
+      <c r="Q21" s="2"/>
+      <c r="R21" s="2"/>
+      <c r="S21" s="2"/>
+      <c r="T21" s="2"/>
+      <c r="U21" s="2"/>
     </row>
     <row r="22" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A22" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B22" s="2">
-        <v>0.27153846153846151</v>
-      </c>
-      <c r="C22" s="2">
-        <v>0.12272727272727274</v>
-      </c>
-      <c r="D22" s="2">
-        <v>0.13513513513513514</v>
-      </c>
-      <c r="E22" s="2">
-        <v>0.18571428571428567</v>
-      </c>
-      <c r="F22" s="2">
-        <v>7.0338983050847459E-2</v>
-      </c>
-      <c r="G22" s="2">
-        <v>0.14574468085106382</v>
-      </c>
-      <c r="H22" s="2">
-        <v>0.11176470588235295</v>
-      </c>
-      <c r="I22" s="2">
-        <v>0.34368421052631576</v>
-      </c>
-      <c r="J22" s="2">
-        <v>0.36935483870967745</v>
-      </c>
-      <c r="K22" s="2">
-        <v>0.74276315789473668</v>
-      </c>
-      <c r="L22" s="2">
-        <v>0.23857142857142857</v>
-      </c>
-      <c r="M22" s="2">
-        <v>0.40753424657534243</v>
-      </c>
-      <c r="N22" s="2">
-        <v>0.60439999999999994</v>
-      </c>
-      <c r="O22" s="2">
-        <v>0.58013698630136978</v>
-      </c>
-      <c r="P22" s="2">
-        <v>0.46250000000000002</v>
-      </c>
-      <c r="Q22" s="2">
-        <v>0.40076923076923071</v>
-      </c>
-      <c r="R22" s="2">
-        <v>0.4524038461538461</v>
-      </c>
-      <c r="S22" s="2">
-        <v>0.50298013245033113</v>
-      </c>
-      <c r="T22" s="2">
-        <v>0.57105263157894737</v>
-      </c>
-      <c r="U22" s="2">
-        <v>0.5925531914893617</v>
-      </c>
+      <c r="A22" s="1"/>
+      <c r="B22" s="2"/>
+      <c r="C22" s="2"/>
+      <c r="D22" s="2"/>
+      <c r="E22" s="2"/>
+      <c r="F22" s="2"/>
+      <c r="G22" s="2"/>
+      <c r="H22" s="2"/>
+      <c r="I22" s="2"/>
+      <c r="J22" s="2"/>
+      <c r="K22" s="2"/>
+      <c r="L22" s="2"/>
+      <c r="M22" s="2"/>
+      <c r="N22" s="2"/>
+      <c r="O22" s="2"/>
+      <c r="P22" s="2"/>
+      <c r="Q22" s="2"/>
+      <c r="R22" s="2"/>
+      <c r="S22" s="2"/>
+      <c r="T22" s="2"/>
+      <c r="U22" s="2"/>
     </row>
     <row r="23" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A23" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B23" s="2">
-        <v>0.34076923076923071</v>
-      </c>
-      <c r="C23" s="2">
-        <v>0.18636363636363637</v>
-      </c>
-      <c r="D23" s="2">
-        <v>0.3418918918918919</v>
-      </c>
-      <c r="E23" s="2">
-        <v>0.26428571428571423</v>
-      </c>
-      <c r="F23" s="2">
-        <v>9.0677966101694915E-2</v>
-      </c>
-      <c r="G23" s="2">
-        <v>9.4680851063829785E-2</v>
-      </c>
-      <c r="H23" s="2">
-        <v>0.05</v>
-      </c>
-      <c r="I23" s="2">
-        <v>0.05</v>
-      </c>
-      <c r="J23" s="2">
-        <v>6.9354838709677416E-2</v>
-      </c>
-      <c r="K23" s="2">
-        <v>0.4467105263157895</v>
-      </c>
-      <c r="L23" s="2">
-        <v>0.35000000000000003</v>
-      </c>
-      <c r="M23" s="2">
-        <v>0.40136986301369859</v>
-      </c>
-      <c r="N23" s="2">
-        <v>0.5179999999999999</v>
-      </c>
-      <c r="O23" s="2">
-        <v>0.65410958904109595</v>
-      </c>
-      <c r="P23" s="2">
-        <v>0.53750000000000009</v>
-      </c>
-      <c r="Q23" s="2">
-        <v>0.41923076923076918</v>
-      </c>
-      <c r="R23" s="2">
-        <v>0.34855769230769229</v>
-      </c>
-      <c r="S23" s="2">
-        <v>0.40761589403973508</v>
-      </c>
-      <c r="T23" s="2">
-        <v>0.43486842105263157</v>
-      </c>
-      <c r="U23" s="2">
-        <v>0.36914893617021277</v>
-      </c>
+      <c r="A23" s="1"/>
+      <c r="B23" s="2"/>
+      <c r="C23" s="2"/>
+      <c r="D23" s="2"/>
+      <c r="E23" s="2"/>
+      <c r="F23" s="2"/>
+      <c r="G23" s="2"/>
+      <c r="H23" s="2"/>
+      <c r="I23" s="2"/>
+      <c r="J23" s="2"/>
+      <c r="K23" s="2"/>
+      <c r="L23" s="2"/>
+      <c r="M23" s="2"/>
+      <c r="N23" s="2"/>
+      <c r="O23" s="2"/>
+      <c r="P23" s="2"/>
+      <c r="Q23" s="2"/>
+      <c r="R23" s="2"/>
+      <c r="S23" s="2"/>
+      <c r="T23" s="2"/>
+      <c r="U23" s="2"/>
     </row>
     <row r="24" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A24" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B24" s="2">
-        <v>0.39615384615384608</v>
-      </c>
-      <c r="C24" s="2">
-        <v>0.35000000000000003</v>
-      </c>
-      <c r="D24" s="2">
-        <v>0.54864864864864871</v>
-      </c>
-      <c r="E24" s="2">
-        <v>0.50714285714285712</v>
-      </c>
-      <c r="F24" s="2">
-        <v>0.28389830508474573</v>
-      </c>
-      <c r="G24" s="2">
-        <v>0.26063829787234039</v>
-      </c>
-      <c r="H24" s="2">
-        <v>0.28823529411764703</v>
-      </c>
-      <c r="I24" s="2">
-        <v>0.48578947368421049</v>
-      </c>
-      <c r="J24" s="2">
-        <v>0.15645161290322579</v>
-      </c>
-      <c r="K24" s="2">
-        <v>0.58289473684210513</v>
-      </c>
-      <c r="L24" s="2">
-        <v>0.23857142857142857</v>
-      </c>
-      <c r="M24" s="2">
-        <v>0.28424657534246572</v>
-      </c>
-      <c r="N24" s="2">
-        <v>0.52519999999999989</v>
-      </c>
-      <c r="O24" s="2">
-        <v>0.53698630136986303</v>
-      </c>
-      <c r="P24" s="2">
-        <v>0.45624999999999999</v>
-      </c>
-      <c r="Q24" s="2">
-        <v>0.38692307692307687</v>
-      </c>
-      <c r="R24" s="2">
-        <v>0.39615384615384613</v>
-      </c>
-      <c r="S24" s="2">
-        <v>0.30033112582781457</v>
-      </c>
-      <c r="T24" s="2">
-        <v>0.35197368421052627</v>
-      </c>
-      <c r="U24" s="2">
-        <v>0.31808510638297877</v>
-      </c>
+      <c r="A24" s="1"/>
+      <c r="B24" s="2"/>
+      <c r="C24" s="2"/>
+      <c r="D24" s="2"/>
+      <c r="E24" s="2"/>
+      <c r="F24" s="2"/>
+      <c r="G24" s="2"/>
+      <c r="H24" s="2"/>
+      <c r="I24" s="2"/>
+      <c r="J24" s="2"/>
+      <c r="K24" s="2"/>
+      <c r="L24" s="2"/>
+      <c r="M24" s="2"/>
+      <c r="N24" s="2"/>
+      <c r="O24" s="2"/>
+      <c r="P24" s="2"/>
+      <c r="Q24" s="2"/>
+      <c r="R24" s="2"/>
+      <c r="S24" s="2"/>
+      <c r="T24" s="2"/>
+      <c r="U24" s="2"/>
     </row>
     <row r="25" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A25" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B25" s="2">
-        <v>0.24384615384615382</v>
-      </c>
-      <c r="C25" s="2">
-        <v>0.13181818181818183</v>
-      </c>
-      <c r="D25" s="2">
-        <v>0.17162162162162162</v>
-      </c>
-      <c r="E25" s="2">
-        <v>0.22857142857142851</v>
-      </c>
-      <c r="F25" s="2">
-        <v>0.1059322033898305</v>
-      </c>
-      <c r="G25" s="2">
-        <v>0.12659574468085105</v>
-      </c>
-      <c r="H25" s="2">
-        <v>8.5294117647058826E-2</v>
-      </c>
-      <c r="I25" s="2">
-        <v>5.9473684210526317E-2</v>
-      </c>
-      <c r="J25" s="2">
-        <v>6.9354838709677416E-2</v>
-      </c>
-      <c r="K25" s="2">
-        <v>0.4467105263157895</v>
-      </c>
-      <c r="L25" s="2">
-        <v>0.12714285714285711</v>
-      </c>
-      <c r="M25" s="2">
-        <v>0.20410958904109588</v>
-      </c>
-      <c r="N25" s="2">
-        <v>0.46039999999999992</v>
-      </c>
-      <c r="O25" s="2">
-        <v>0.42602739726027394</v>
-      </c>
-      <c r="P25" s="2">
-        <v>0.28125</v>
-      </c>
-      <c r="Q25" s="2">
-        <v>0.24384615384615382</v>
-      </c>
-      <c r="R25" s="2">
-        <v>0.2533653846153846</v>
-      </c>
-      <c r="S25" s="2">
-        <v>0.18708609271523177</v>
-      </c>
-      <c r="T25" s="2">
-        <v>0.22763157894736846</v>
-      </c>
-      <c r="U25" s="2">
-        <v>0.17127659574468085</v>
-      </c>
+      <c r="A25" s="1"/>
+      <c r="B25" s="2"/>
+      <c r="C25" s="2"/>
+      <c r="D25" s="2"/>
+      <c r="E25" s="2"/>
+      <c r="F25" s="2"/>
+      <c r="G25" s="2"/>
+      <c r="H25" s="2"/>
+      <c r="I25" s="2"/>
+      <c r="J25" s="2"/>
+      <c r="K25" s="2"/>
+      <c r="L25" s="2"/>
+      <c r="M25" s="2"/>
+      <c r="N25" s="2"/>
+      <c r="O25" s="2"/>
+      <c r="P25" s="2"/>
+      <c r="Q25" s="2"/>
+      <c r="R25" s="2"/>
+      <c r="S25" s="2"/>
+      <c r="T25" s="2"/>
+      <c r="U25" s="2"/>
     </row>
     <row r="26" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A26" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B26" s="2">
-        <v>0.17461538461538462</v>
-      </c>
-      <c r="C26" s="2">
-        <v>7.7272727272727271E-2</v>
-      </c>
-      <c r="D26" s="2">
-        <v>7.4324324324324328E-2</v>
-      </c>
-      <c r="E26" s="2">
-        <v>0.18571428571428567</v>
-      </c>
-      <c r="F26" s="2">
-        <v>6.5254237288135591E-2</v>
-      </c>
-      <c r="G26" s="2">
-        <v>0.13936170212765958</v>
-      </c>
-      <c r="H26" s="2">
-        <v>0.2</v>
-      </c>
-      <c r="I26" s="2">
-        <v>0.2963157894736842</v>
-      </c>
-      <c r="J26" s="2">
-        <v>0.37903225806451613</v>
-      </c>
-      <c r="K26" s="2">
-        <v>0.63026315789473675</v>
-      </c>
-      <c r="L26" s="2">
-        <v>0.19142857142857142</v>
-      </c>
-      <c r="M26" s="2">
-        <v>0.30890410958904108</v>
-      </c>
-      <c r="N26" s="2">
-        <v>0.48199999999999998</v>
-      </c>
-      <c r="O26" s="2">
-        <v>0.46301369863013692</v>
-      </c>
-      <c r="P26" s="2">
-        <v>0.33750000000000002</v>
-      </c>
-      <c r="Q26" s="2">
-        <v>0.31307692307692309</v>
-      </c>
-      <c r="R26" s="2">
-        <v>0.32692307692307693</v>
-      </c>
-      <c r="S26" s="2">
-        <v>0.30033112582781457</v>
-      </c>
-      <c r="T26" s="2">
-        <v>0.34605263157894739</v>
-      </c>
-      <c r="U26" s="2">
-        <v>0.29255319148936171</v>
-      </c>
+      <c r="A26" s="1"/>
+      <c r="B26" s="2"/>
+      <c r="C26" s="2"/>
+      <c r="D26" s="2"/>
+      <c r="E26" s="2"/>
+      <c r="F26" s="2"/>
+      <c r="G26" s="2"/>
+      <c r="H26" s="2"/>
+      <c r="I26" s="2"/>
+      <c r="J26" s="2"/>
+      <c r="K26" s="2"/>
+      <c r="L26" s="2"/>
+      <c r="M26" s="2"/>
+      <c r="N26" s="2"/>
+      <c r="O26" s="2"/>
+      <c r="P26" s="2"/>
+      <c r="Q26" s="2"/>
+      <c r="R26" s="2"/>
+      <c r="S26" s="2"/>
+      <c r="T26" s="2"/>
+      <c r="U26" s="2"/>
     </row>
     <row r="27" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A27" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B27" s="2">
-        <v>0.24384615384615382</v>
-      </c>
-      <c r="C27" s="2">
-        <v>0.17727272727272725</v>
-      </c>
-      <c r="D27" s="2">
-        <v>0.3783783783783784</v>
-      </c>
-      <c r="E27" s="2">
-        <v>0.35</v>
-      </c>
-      <c r="F27" s="2">
-        <v>0.18220338983050849</v>
-      </c>
-      <c r="G27" s="2">
-        <v>0.24148936170212765</v>
-      </c>
-      <c r="H27" s="2">
-        <v>0.2617647058823529</v>
-      </c>
-      <c r="I27" s="2">
-        <v>0.2773684210526316</v>
-      </c>
-      <c r="J27" s="2">
-        <v>0.23387096774193547</v>
-      </c>
-      <c r="K27" s="2">
-        <v>0.606578947368421</v>
-      </c>
-      <c r="L27" s="2">
-        <v>0.27714285714285714</v>
-      </c>
-      <c r="M27" s="2">
-        <v>0.36438356164383562</v>
-      </c>
-      <c r="N27" s="2">
-        <v>0.53959999999999997</v>
-      </c>
-      <c r="O27" s="2">
-        <v>0.51232876712328768</v>
-      </c>
-      <c r="P27" s="2">
-        <v>0.35000000000000003</v>
-      </c>
-      <c r="Q27" s="2">
-        <v>0.30384615384615382</v>
-      </c>
-      <c r="R27" s="2">
-        <v>0.30528846153846151</v>
-      </c>
-      <c r="S27" s="2">
-        <v>0.29437086092715231</v>
-      </c>
-      <c r="T27" s="2">
-        <v>0.39342105263157895</v>
-      </c>
-      <c r="U27" s="2">
-        <v>0.34361702127659571</v>
-      </c>
+      <c r="A27" s="1"/>
+      <c r="B27" s="2"/>
+      <c r="C27" s="2"/>
+      <c r="D27" s="2"/>
+      <c r="E27" s="2"/>
+      <c r="F27" s="2"/>
+      <c r="G27" s="2"/>
+      <c r="H27" s="2"/>
+      <c r="I27" s="2"/>
+      <c r="J27" s="2"/>
+      <c r="K27" s="2"/>
+      <c r="L27" s="2"/>
+      <c r="M27" s="2"/>
+      <c r="N27" s="2"/>
+      <c r="O27" s="2"/>
+      <c r="P27" s="2"/>
+      <c r="Q27" s="2"/>
+      <c r="R27" s="2"/>
+      <c r="S27" s="2"/>
+      <c r="T27" s="2"/>
+      <c r="U27" s="2"/>
     </row>
     <row r="28" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A28" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B28" s="2">
-        <v>0.34076923076923071</v>
-      </c>
-      <c r="C28" s="2">
-        <v>0.15909090909090912</v>
-      </c>
-      <c r="D28" s="2">
-        <v>0.15945945945945944</v>
-      </c>
-      <c r="E28" s="2">
-        <v>0.19285714285714284</v>
-      </c>
-      <c r="F28" s="2">
-        <v>8.0508474576271194E-2</v>
-      </c>
-      <c r="G28" s="2">
-        <v>0.15212765957446808</v>
-      </c>
-      <c r="H28" s="2">
-        <v>0.12941176470588234</v>
-      </c>
-      <c r="I28" s="2">
-        <v>0.17315789473684212</v>
-      </c>
-      <c r="J28" s="2">
-        <v>0.18548387096774194</v>
-      </c>
-      <c r="K28" s="2">
-        <v>0.52368421052631575</v>
-      </c>
-      <c r="L28" s="2">
-        <v>0.1957142857142857</v>
-      </c>
-      <c r="M28" s="2">
-        <v>0.33356164383561637</v>
-      </c>
-      <c r="N28" s="2">
-        <v>0.45319999999999994</v>
-      </c>
-      <c r="O28" s="2">
-        <v>0.46301369863013692</v>
-      </c>
-      <c r="P28" s="2">
-        <v>0.33750000000000002</v>
-      </c>
-      <c r="Q28" s="2">
-        <v>0.28076923076923072</v>
-      </c>
-      <c r="R28" s="2">
-        <v>0.35721153846153841</v>
-      </c>
-      <c r="S28" s="2">
-        <v>0.18112582781456954</v>
-      </c>
-      <c r="T28" s="2">
-        <v>0.11513157894736842</v>
-      </c>
-      <c r="U28" s="2">
-        <v>0.12659574468085105</v>
-      </c>
+      <c r="A28" s="1"/>
+      <c r="B28" s="2"/>
+      <c r="C28" s="2"/>
+      <c r="D28" s="2"/>
+      <c r="E28" s="2"/>
+      <c r="F28" s="2"/>
+      <c r="G28" s="2"/>
+      <c r="H28" s="2"/>
+      <c r="I28" s="2"/>
+      <c r="J28" s="2"/>
+      <c r="K28" s="2"/>
+      <c r="L28" s="2"/>
+      <c r="M28" s="2"/>
+      <c r="N28" s="2"/>
+      <c r="O28" s="2"/>
+      <c r="P28" s="2"/>
+      <c r="Q28" s="2"/>
+      <c r="R28" s="2"/>
+      <c r="S28" s="2"/>
+      <c r="T28" s="2"/>
+      <c r="U28" s="2"/>
     </row>
     <row r="29" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A29" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B29" s="2">
-        <v>0.59</v>
-      </c>
-      <c r="C29" s="2">
-        <v>0.3136363636363636</v>
-      </c>
-      <c r="D29" s="2">
-        <v>0.427027027027027</v>
-      </c>
-      <c r="E29" s="2">
-        <v>0.28571428571428564</v>
-      </c>
-      <c r="F29" s="2">
-        <v>0.15169491525423728</v>
-      </c>
-      <c r="G29" s="2">
-        <v>0.15851063829787232</v>
-      </c>
-      <c r="H29" s="2">
-        <v>0.13823529411764704</v>
-      </c>
-      <c r="I29" s="2">
-        <v>0.22052631578947368</v>
-      </c>
-      <c r="J29" s="2">
-        <v>0.05</v>
-      </c>
-      <c r="K29" s="2">
-        <v>0.42894736842105258</v>
-      </c>
-      <c r="L29" s="2">
-        <v>0.11857142857142855</v>
-      </c>
-      <c r="M29" s="2">
-        <v>0.16712328767123286</v>
-      </c>
-      <c r="N29" s="2">
-        <v>0.39560000000000001</v>
-      </c>
-      <c r="O29" s="2">
-        <v>0.41369863013698627</v>
-      </c>
-      <c r="P29" s="2">
-        <v>0.26875000000000004</v>
-      </c>
-      <c r="Q29" s="2">
-        <v>0.25769230769230766</v>
-      </c>
-      <c r="R29" s="2">
-        <v>0.28798076923076921</v>
-      </c>
-      <c r="S29" s="2">
-        <v>0.28245033112582779</v>
-      </c>
-      <c r="T29" s="2">
-        <v>0.25131578947368421</v>
-      </c>
-      <c r="U29" s="2">
-        <v>0.25425531914893618</v>
-      </c>
+      <c r="A29" s="1"/>
+      <c r="B29" s="2"/>
+      <c r="C29" s="2"/>
+      <c r="D29" s="2"/>
+      <c r="E29" s="2"/>
+      <c r="F29" s="2"/>
+      <c r="G29" s="2"/>
+      <c r="H29" s="2"/>
+      <c r="I29" s="2"/>
+      <c r="J29" s="2"/>
+      <c r="K29" s="2"/>
+      <c r="L29" s="2"/>
+      <c r="M29" s="2"/>
+      <c r="N29" s="2"/>
+      <c r="O29" s="2"/>
+      <c r="P29" s="2"/>
+      <c r="Q29" s="2"/>
+      <c r="R29" s="2"/>
+      <c r="S29" s="2"/>
+      <c r="T29" s="2"/>
+      <c r="U29" s="2"/>
     </row>
     <row r="30" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A30" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B30" s="2">
-        <v>0.35461538461538455</v>
-      </c>
-      <c r="C30" s="2">
-        <v>0.25</v>
-      </c>
-      <c r="D30" s="2">
-        <v>0.35405405405405405</v>
-      </c>
-      <c r="E30" s="2">
-        <v>0.16428571428571426</v>
-      </c>
-      <c r="F30" s="2">
-        <v>0.17203389830508475</v>
-      </c>
-      <c r="G30" s="2">
-        <v>0.20319148936170212</v>
-      </c>
-      <c r="H30" s="2">
-        <v>0.28823529411764703</v>
-      </c>
-      <c r="I30" s="2">
-        <v>0.41000000000000003</v>
-      </c>
-      <c r="J30" s="2">
-        <v>0.26290322580645159</v>
-      </c>
-      <c r="K30" s="2">
-        <v>0.68947368421052624</v>
-      </c>
-      <c r="L30" s="2">
-        <v>0.32857142857142857</v>
-      </c>
-      <c r="M30" s="2">
-        <v>0.50616438356164384</v>
-      </c>
-      <c r="N30" s="2">
-        <v>0.79879999999999995</v>
-      </c>
-      <c r="O30" s="2">
-        <v>0.66643835616438352</v>
-      </c>
-      <c r="P30" s="2">
-        <v>0.48749999999999999</v>
-      </c>
-      <c r="Q30" s="2">
-        <v>0.40538461538461534</v>
-      </c>
-      <c r="R30" s="2">
-        <v>0.50432692307692306</v>
-      </c>
-      <c r="S30" s="2">
-        <v>0.58046357615894029</v>
-      </c>
-      <c r="T30" s="2">
-        <v>0.65986842105263166</v>
-      </c>
-      <c r="U30" s="2">
-        <v>0.63085106382978717</v>
-      </c>
+      <c r="A30" s="1"/>
+      <c r="B30" s="2"/>
+      <c r="C30" s="2"/>
+      <c r="D30" s="2"/>
+      <c r="E30" s="2"/>
+      <c r="F30" s="2"/>
+      <c r="G30" s="2"/>
+      <c r="H30" s="2"/>
+      <c r="I30" s="2"/>
+      <c r="J30" s="2"/>
+      <c r="K30" s="2"/>
+      <c r="L30" s="2"/>
+      <c r="M30" s="2"/>
+      <c r="N30" s="2"/>
+      <c r="O30" s="2"/>
+      <c r="P30" s="2"/>
+      <c r="Q30" s="2"/>
+      <c r="R30" s="2"/>
+      <c r="S30" s="2"/>
+      <c r="T30" s="2"/>
+      <c r="U30" s="2"/>
     </row>
     <row r="31" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A31" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="B31" s="2">
-        <v>0.23</v>
-      </c>
-      <c r="C31" s="2">
-        <v>0.17727272727272725</v>
-      </c>
-      <c r="D31" s="2">
-        <v>0.3418918918918919</v>
-      </c>
-      <c r="E31" s="2">
-        <v>0.5357142857142857</v>
-      </c>
-      <c r="F31" s="2">
-        <v>0.21271186440677967</v>
-      </c>
-      <c r="G31" s="2">
-        <v>0.11382978723404254</v>
-      </c>
-      <c r="H31" s="2">
-        <v>0.05</v>
-      </c>
-      <c r="I31" s="2">
-        <v>0.37210526315789472</v>
-      </c>
-      <c r="J31" s="2">
-        <v>0.44677419354838704</v>
-      </c>
-      <c r="K31" s="2">
-        <v>0.88486842105263153</v>
-      </c>
-      <c r="L31" s="2">
-        <v>0.76571428571428568</v>
-      </c>
-      <c r="M31" s="2">
-        <v>0.43835616438356162</v>
-      </c>
-      <c r="N31" s="2">
-        <v>0.74119999999999997</v>
-      </c>
-      <c r="O31" s="2">
-        <v>0.46917808219178081</v>
-      </c>
-      <c r="P31" s="2">
-        <v>0.29375000000000001</v>
-      </c>
-      <c r="Q31" s="2">
-        <v>0.24384615384615382</v>
-      </c>
-      <c r="R31" s="2">
-        <v>0.2533653846153846</v>
-      </c>
-      <c r="S31" s="2">
-        <v>0.18112582781456954</v>
-      </c>
-      <c r="T31" s="2">
-        <v>6.1842105263157907E-2</v>
-      </c>
-      <c r="U31" s="2">
-        <v>0.17765957446808511</v>
-      </c>
+      <c r="A31" s="1"/>
+      <c r="B31" s="2"/>
+      <c r="C31" s="2"/>
+      <c r="D31" s="2"/>
+      <c r="E31" s="2"/>
+      <c r="F31" s="2"/>
+      <c r="G31" s="2"/>
+      <c r="H31" s="2"/>
+      <c r="I31" s="2"/>
+      <c r="J31" s="2"/>
+      <c r="K31" s="2"/>
+      <c r="L31" s="2"/>
+      <c r="M31" s="2"/>
+      <c r="N31" s="2"/>
+      <c r="O31" s="2"/>
+      <c r="P31" s="2"/>
+      <c r="Q31" s="2"/>
+      <c r="R31" s="2"/>
+      <c r="S31" s="2"/>
+      <c r="T31" s="2"/>
+      <c r="U31" s="2"/>
     </row>
     <row r="32" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A32" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="B32" s="2">
-        <v>0.13307692307692309</v>
-      </c>
-      <c r="C32" s="2">
-        <v>8.6363636363636365E-2</v>
-      </c>
-      <c r="D32" s="2">
-        <v>8.6486486486486491E-2</v>
-      </c>
-      <c r="E32" s="2">
-        <v>0.05</v>
-      </c>
-      <c r="F32" s="2">
-        <v>6.5254237288135591E-2</v>
-      </c>
-      <c r="G32" s="2">
-        <v>0.14574468085106382</v>
-      </c>
-      <c r="H32" s="2">
-        <v>0.20882352941176469</v>
-      </c>
-      <c r="I32" s="2">
-        <v>0.56157894736842107</v>
-      </c>
-      <c r="J32" s="2">
-        <v>0.95</v>
-      </c>
-      <c r="K32" s="2">
-        <v>0.77236842105263159</v>
-      </c>
-      <c r="L32" s="2">
-        <v>0.43571428571428567</v>
-      </c>
-      <c r="M32" s="2">
-        <v>0.30890410958904108</v>
-      </c>
-      <c r="N32" s="2">
-        <v>0.27319999999999994</v>
-      </c>
-      <c r="O32" s="2">
-        <v>0.33972602739726027</v>
-      </c>
-      <c r="P32" s="2">
-        <v>0.23125000000000001</v>
-      </c>
-      <c r="Q32" s="2">
-        <v>0.22076923076923075</v>
-      </c>
-      <c r="R32" s="2">
-        <v>6.7307692307692291E-2</v>
-      </c>
-      <c r="S32" s="2">
-        <v>0.17516556291390728</v>
-      </c>
-      <c r="T32" s="2">
-        <v>0.20986842105263157</v>
-      </c>
-      <c r="U32" s="2">
-        <v>0.15851063829787237</v>
-      </c>
+      <c r="A32" s="1"/>
+      <c r="B32" s="2"/>
+      <c r="C32" s="2"/>
+      <c r="D32" s="2"/>
+      <c r="E32" s="2"/>
+      <c r="F32" s="2"/>
+      <c r="G32" s="2"/>
+      <c r="H32" s="2"/>
+      <c r="I32" s="2"/>
+      <c r="J32" s="2"/>
+      <c r="K32" s="2"/>
+      <c r="L32" s="2"/>
+      <c r="M32" s="2"/>
+      <c r="N32" s="2"/>
+      <c r="O32" s="2"/>
+      <c r="P32" s="2"/>
+      <c r="Q32" s="2"/>
+      <c r="R32" s="2"/>
+      <c r="S32" s="2"/>
+      <c r="T32" s="2"/>
+      <c r="U32" s="2"/>
     </row>
     <row r="33" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A33" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="B33" s="2">
-        <v>0.21615384615384617</v>
-      </c>
-      <c r="C33" s="2">
-        <v>0.20454545454545456</v>
-      </c>
-      <c r="D33" s="2">
-        <v>0.29324324324324325</v>
-      </c>
-      <c r="E33" s="2">
-        <v>0.29285714285714282</v>
-      </c>
-      <c r="F33" s="2">
-        <v>0.16694915254237286</v>
-      </c>
-      <c r="G33" s="2">
-        <v>0.29255319148936165</v>
-      </c>
-      <c r="H33" s="2">
-        <v>0.33235294117647052</v>
-      </c>
-      <c r="I33" s="2">
-        <v>0.36263157894736842</v>
-      </c>
-      <c r="J33" s="2">
-        <v>0.39838709677419354</v>
-      </c>
-      <c r="K33" s="2">
-        <v>0.67171052631578942</v>
-      </c>
-      <c r="L33" s="2">
-        <v>0.4142857142857142</v>
-      </c>
-      <c r="M33" s="2">
-        <v>0.65410958904109595</v>
-      </c>
-      <c r="N33" s="2">
-        <v>0.67639999999999989</v>
-      </c>
-      <c r="O33" s="2">
-        <v>0.60479452054794514</v>
-      </c>
-      <c r="P33" s="2">
-        <v>0.45624999999999999</v>
-      </c>
-      <c r="Q33" s="2">
-        <v>0.33153846153846145</v>
-      </c>
-      <c r="R33" s="2">
-        <v>0.33990384615384617</v>
-      </c>
-      <c r="S33" s="2">
-        <v>0.29437086092715231</v>
-      </c>
-      <c r="T33" s="2">
-        <v>0.32828947368421052</v>
-      </c>
-      <c r="U33" s="2">
-        <v>0.35</v>
-      </c>
+      <c r="A33" s="1"/>
+      <c r="B33" s="2"/>
+      <c r="C33" s="2"/>
+      <c r="D33" s="2"/>
+      <c r="E33" s="2"/>
+      <c r="F33" s="2"/>
+      <c r="G33" s="2"/>
+      <c r="H33" s="2"/>
+      <c r="I33" s="2"/>
+      <c r="J33" s="2"/>
+      <c r="K33" s="2"/>
+      <c r="L33" s="2"/>
+      <c r="M33" s="2"/>
+      <c r="N33" s="2"/>
+      <c r="O33" s="2"/>
+      <c r="P33" s="2"/>
+      <c r="Q33" s="2"/>
+      <c r="R33" s="2"/>
+      <c r="S33" s="2"/>
+      <c r="T33" s="2"/>
+      <c r="U33" s="2"/>
     </row>
     <row r="34" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A34" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B34" s="2">
-        <v>0.13307692307692309</v>
-      </c>
-      <c r="C34" s="2">
-        <v>9.5454545454545459E-2</v>
-      </c>
-      <c r="D34" s="2">
-        <v>9.8648648648648654E-2</v>
-      </c>
-      <c r="E34" s="2">
-        <v>0.19999999999999998</v>
-      </c>
-      <c r="F34" s="2">
-        <v>0.1059322033898305</v>
-      </c>
-      <c r="G34" s="2">
-        <v>0.19042553191489359</v>
-      </c>
-      <c r="H34" s="2">
-        <v>0.14705882352941177</v>
-      </c>
-      <c r="I34" s="2">
-        <v>8.7894736842105275E-2</v>
-      </c>
-      <c r="J34" s="2">
-        <v>0.18548387096774194</v>
-      </c>
-      <c r="K34" s="2">
-        <v>0.48223684210526313</v>
-      </c>
-      <c r="L34" s="2">
-        <v>0.17428571428571429</v>
-      </c>
-      <c r="M34" s="2">
-        <v>0.2719178082191781</v>
-      </c>
-      <c r="N34" s="2">
-        <v>0.40279999999999999</v>
-      </c>
-      <c r="O34" s="2">
-        <v>0.40753424657534243</v>
-      </c>
-      <c r="P34" s="2">
-        <v>0.27500000000000002</v>
-      </c>
-      <c r="Q34" s="2">
-        <v>0.2484615384615384</v>
-      </c>
-      <c r="R34" s="2">
-        <v>0.24903846153846151</v>
-      </c>
-      <c r="S34" s="2">
-        <v>0.19304635761589406</v>
-      </c>
-      <c r="T34" s="2">
-        <v>0.24539473684210525</v>
-      </c>
-      <c r="U34" s="2">
-        <v>0.19680851063829788</v>
-      </c>
+      <c r="A34" s="1"/>
+      <c r="B34" s="2"/>
+      <c r="C34" s="2"/>
+      <c r="D34" s="2"/>
+      <c r="E34" s="2"/>
+      <c r="F34" s="2"/>
+      <c r="G34" s="2"/>
+      <c r="H34" s="2"/>
+      <c r="I34" s="2"/>
+      <c r="J34" s="2"/>
+      <c r="K34" s="2"/>
+      <c r="L34" s="2"/>
+      <c r="M34" s="2"/>
+      <c r="N34" s="2"/>
+      <c r="O34" s="2"/>
+      <c r="P34" s="2"/>
+      <c r="Q34" s="2"/>
+      <c r="R34" s="2"/>
+      <c r="S34" s="2"/>
+      <c r="T34" s="2"/>
+      <c r="U34" s="2"/>
     </row>
     <row r="35" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A35" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B35" s="2">
-        <v>0.10538461538461538</v>
-      </c>
-      <c r="C35" s="2">
-        <v>0.05</v>
-      </c>
-      <c r="D35" s="2">
-        <v>0.22027027027027027</v>
-      </c>
-      <c r="E35" s="2">
-        <v>0.23571428571428565</v>
-      </c>
-      <c r="F35" s="2">
-        <v>0.17203389830508475</v>
-      </c>
-      <c r="G35" s="2">
-        <v>0.29893617021276592</v>
-      </c>
-      <c r="H35" s="2">
-        <v>0.27058823529411763</v>
-      </c>
-      <c r="I35" s="2">
-        <v>0.25842105263157894</v>
-      </c>
-      <c r="J35" s="2">
-        <v>0.25322580645161286</v>
-      </c>
-      <c r="K35" s="2">
-        <v>0.55921052631578949</v>
-      </c>
-      <c r="L35" s="2">
-        <v>0.18285714285714286</v>
-      </c>
-      <c r="M35" s="2">
-        <v>0.29041095890410962</v>
-      </c>
-      <c r="N35" s="2">
-        <v>0.35239999999999994</v>
-      </c>
-      <c r="O35" s="2">
-        <v>0.28424657534246572</v>
-      </c>
-      <c r="P35" s="2">
-        <v>0.05</v>
-      </c>
-      <c r="Q35" s="2">
-        <v>0.14692307692307691</v>
-      </c>
-      <c r="R35" s="2">
-        <v>0.16249999999999998</v>
-      </c>
-      <c r="S35" s="2">
-        <v>9.7682119205298013E-2</v>
-      </c>
-      <c r="T35" s="2">
-        <v>0.19210526315789475</v>
-      </c>
-      <c r="U35" s="2">
-        <v>6.2765957446808518E-2</v>
-      </c>
+      <c r="A35" s="1"/>
+      <c r="B35" s="2"/>
+      <c r="C35" s="2"/>
+      <c r="D35" s="2"/>
+      <c r="E35" s="2"/>
+      <c r="F35" s="2"/>
+      <c r="G35" s="2"/>
+      <c r="H35" s="2"/>
+      <c r="I35" s="2"/>
+      <c r="J35" s="2"/>
+      <c r="K35" s="2"/>
+      <c r="L35" s="2"/>
+      <c r="M35" s="2"/>
+      <c r="N35" s="2"/>
+      <c r="O35" s="2"/>
+      <c r="P35" s="2"/>
+      <c r="Q35" s="2"/>
+      <c r="R35" s="2"/>
+      <c r="S35" s="2"/>
+      <c r="T35" s="2"/>
+      <c r="U35" s="2"/>
     </row>
     <row r="36" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A36" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="B36" s="2">
-        <v>0.28538461538461535</v>
-      </c>
-      <c r="C36" s="2">
-        <v>0.22272727272727275</v>
-      </c>
-      <c r="D36" s="2">
-        <v>0.39054054054054055</v>
-      </c>
-      <c r="E36" s="2">
-        <v>0.30714285714285705</v>
-      </c>
-      <c r="F36" s="2">
-        <v>0.19745762711864404</v>
-      </c>
-      <c r="G36" s="2">
-        <v>0.29893617021276592</v>
-      </c>
-      <c r="H36" s="2">
-        <v>0.2794117647058823</v>
-      </c>
-      <c r="I36" s="2">
-        <v>0.38157894736842102</v>
-      </c>
-      <c r="J36" s="2">
-        <v>0.27258064516129032</v>
-      </c>
-      <c r="K36" s="2">
-        <v>0.58289473684210513</v>
-      </c>
-      <c r="L36" s="2">
-        <v>0.23428571428571432</v>
-      </c>
-      <c r="M36" s="2">
-        <v>0.30273972602739729</v>
-      </c>
-      <c r="N36" s="2">
-        <v>0.51080000000000003</v>
-      </c>
-      <c r="O36" s="2">
-        <v>0.48767123287671232</v>
-      </c>
-      <c r="P36" s="2">
-        <v>0.36875000000000002</v>
-      </c>
-      <c r="Q36" s="2">
-        <v>0.34076923076923071</v>
-      </c>
-      <c r="R36" s="2">
-        <v>0.31826923076923075</v>
-      </c>
-      <c r="S36" s="2">
-        <v>0.31225165562913904</v>
-      </c>
-      <c r="T36" s="2">
-        <v>0.35197368421052627</v>
-      </c>
-      <c r="U36" s="2">
-        <v>0.33723404255319145</v>
-      </c>
+      <c r="A36" s="1"/>
+      <c r="B36" s="2"/>
+      <c r="C36" s="2"/>
+      <c r="D36" s="2"/>
+      <c r="E36" s="2"/>
+      <c r="F36" s="2"/>
+      <c r="G36" s="2"/>
+      <c r="H36" s="2"/>
+      <c r="I36" s="2"/>
+      <c r="J36" s="2"/>
+      <c r="K36" s="2"/>
+      <c r="L36" s="2"/>
+      <c r="M36" s="2"/>
+      <c r="N36" s="2"/>
+      <c r="O36" s="2"/>
+      <c r="P36" s="2"/>
+      <c r="Q36" s="2"/>
+      <c r="R36" s="2"/>
+      <c r="S36" s="2"/>
+      <c r="T36" s="2"/>
+      <c r="U36" s="2"/>
     </row>
     <row r="37" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A37" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="B37" s="2">
-        <v>0.17461538461538462</v>
-      </c>
-      <c r="C37" s="2">
-        <v>9.5454545454545459E-2</v>
-      </c>
-      <c r="D37" s="2">
-        <v>0.05</v>
-      </c>
-      <c r="E37" s="2">
-        <v>0.16428571428571426</v>
-      </c>
-      <c r="F37" s="2">
-        <v>8.0508474576271194E-2</v>
-      </c>
-      <c r="G37" s="2">
-        <v>0.15212765957446808</v>
-      </c>
-      <c r="H37" s="2">
-        <v>0.12058823529411765</v>
-      </c>
-      <c r="I37" s="2">
-        <v>8.7894736842105275E-2</v>
-      </c>
-      <c r="J37" s="2">
-        <v>0.10806451612903226</v>
-      </c>
-      <c r="K37" s="2">
-        <v>0.4703947368421052</v>
-      </c>
-      <c r="L37" s="2">
-        <v>0.1357142857142857</v>
-      </c>
-      <c r="M37" s="2">
-        <v>0.21027397260273972</v>
-      </c>
-      <c r="N37" s="2">
-        <v>0.38839999999999997</v>
-      </c>
-      <c r="O37" s="2">
-        <v>0.39520547945205481</v>
-      </c>
-      <c r="P37" s="2">
-        <v>0.26875000000000004</v>
-      </c>
-      <c r="Q37" s="2">
-        <v>0.2484615384615384</v>
-      </c>
-      <c r="R37" s="2">
-        <v>0.26634615384615379</v>
-      </c>
-      <c r="S37" s="2">
-        <v>0.19304635761589406</v>
-      </c>
-      <c r="T37" s="2">
-        <v>0.23947368421052631</v>
-      </c>
-      <c r="U37" s="2">
-        <v>0.19042553191489361</v>
-      </c>
+      <c r="A37" s="1"/>
+      <c r="B37" s="2"/>
+      <c r="C37" s="2"/>
+      <c r="D37" s="2"/>
+      <c r="E37" s="2"/>
+      <c r="F37" s="2"/>
+      <c r="G37" s="2"/>
+      <c r="H37" s="2"/>
+      <c r="I37" s="2"/>
+      <c r="J37" s="2"/>
+      <c r="K37" s="2"/>
+      <c r="L37" s="2"/>
+      <c r="M37" s="2"/>
+      <c r="N37" s="2"/>
+      <c r="O37" s="2"/>
+      <c r="P37" s="2"/>
+      <c r="Q37" s="2"/>
+      <c r="R37" s="2"/>
+      <c r="S37" s="2"/>
+      <c r="T37" s="2"/>
+      <c r="U37" s="2"/>
     </row>
     <row r="38" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A38" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="B38" s="2">
-        <v>0.31307692307692309</v>
-      </c>
-      <c r="C38" s="2">
-        <v>0.23181818181818181</v>
-      </c>
-      <c r="D38" s="2">
-        <v>0.45135135135135135</v>
-      </c>
-      <c r="E38" s="2">
-        <v>0.37142857142857139</v>
-      </c>
-      <c r="F38" s="2">
-        <v>0.15677966101694912</v>
-      </c>
-      <c r="G38" s="2">
-        <v>0.20319148936170212</v>
-      </c>
-      <c r="H38" s="2">
-        <v>0.22647058823529409</v>
-      </c>
-      <c r="I38" s="2">
-        <v>0.33421052631578946</v>
-      </c>
-      <c r="J38" s="2">
-        <v>0.21451612903225806</v>
-      </c>
-      <c r="K38" s="2">
-        <v>0.50592105263157894</v>
-      </c>
-      <c r="L38" s="2">
-        <v>0.25571428571428573</v>
-      </c>
-      <c r="M38" s="2">
-        <v>0.31506849315068491</v>
-      </c>
-      <c r="N38" s="2">
-        <v>0.46759999999999996</v>
-      </c>
-      <c r="O38" s="2">
-        <v>0.46301369863013692</v>
-      </c>
-      <c r="P38" s="2">
-        <v>0.3125</v>
-      </c>
-      <c r="Q38" s="2">
-        <v>0.27615384615384614</v>
-      </c>
-      <c r="R38" s="2">
-        <v>0.33557692307692305</v>
-      </c>
-      <c r="S38" s="2">
-        <v>0.27052980132450333</v>
-      </c>
-      <c r="T38" s="2">
-        <v>0.29276315789473684</v>
-      </c>
-      <c r="U38" s="2">
-        <v>0.42659574468085104</v>
-      </c>
+      <c r="A38" s="1"/>
+      <c r="B38" s="2"/>
+      <c r="C38" s="2"/>
+      <c r="D38" s="2"/>
+      <c r="E38" s="2"/>
+      <c r="F38" s="2"/>
+      <c r="G38" s="2"/>
+      <c r="H38" s="2"/>
+      <c r="I38" s="2"/>
+      <c r="J38" s="2"/>
+      <c r="K38" s="2"/>
+      <c r="L38" s="2"/>
+      <c r="M38" s="2"/>
+      <c r="N38" s="2"/>
+      <c r="O38" s="2"/>
+      <c r="P38" s="2"/>
+      <c r="Q38" s="2"/>
+      <c r="R38" s="2"/>
+      <c r="S38" s="2"/>
+      <c r="T38" s="2"/>
+      <c r="U38" s="2"/>
     </row>
     <row r="39" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A39" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="B39" s="2">
-        <v>0.95</v>
-      </c>
-      <c r="C39" s="2">
-        <v>0.53181818181818186</v>
-      </c>
-      <c r="D39" s="2">
-        <v>0.54864864864864871</v>
-      </c>
-      <c r="E39" s="2">
-        <v>0.49999999999999989</v>
-      </c>
-      <c r="F39" s="2">
-        <v>0.20762711864406777</v>
-      </c>
-      <c r="G39" s="2">
-        <v>0.36914893617021272</v>
-      </c>
-      <c r="H39" s="2">
-        <v>0.51764705882352946</v>
-      </c>
-      <c r="I39" s="2">
-        <v>0.50473684210526315</v>
-      </c>
-      <c r="J39" s="2">
-        <v>0.21451612903225806</v>
-      </c>
-      <c r="K39" s="2">
-        <v>0.71907894736842104</v>
-      </c>
-      <c r="L39" s="2">
-        <v>0.28999999999999998</v>
-      </c>
-      <c r="M39" s="2">
-        <v>0.32123287671232875</v>
-      </c>
-      <c r="N39" s="2">
-        <v>0.51080000000000003</v>
-      </c>
-      <c r="O39" s="2">
-        <v>0.61095890410958897</v>
-      </c>
-      <c r="P39" s="2">
-        <v>0.41875000000000001</v>
-      </c>
-      <c r="Q39" s="2">
-        <v>0.42384615384615382</v>
-      </c>
-      <c r="R39" s="2">
-        <v>0.41346153846153844</v>
-      </c>
-      <c r="S39" s="2">
-        <v>0.35993377483443706</v>
-      </c>
-      <c r="T39" s="2">
-        <v>0.36973684210526314</v>
-      </c>
-      <c r="U39" s="2">
-        <v>0.36914893617021277</v>
-      </c>
+      <c r="A39" s="1"/>
+      <c r="B39" s="2"/>
+      <c r="C39" s="2"/>
+      <c r="D39" s="2"/>
+      <c r="E39" s="2"/>
+      <c r="F39" s="2"/>
+      <c r="G39" s="2"/>
+      <c r="H39" s="2"/>
+      <c r="I39" s="2"/>
+      <c r="J39" s="2"/>
+      <c r="K39" s="2"/>
+      <c r="L39" s="2"/>
+      <c r="M39" s="2"/>
+      <c r="N39" s="2"/>
+      <c r="O39" s="2"/>
+      <c r="P39" s="2"/>
+      <c r="Q39" s="2"/>
+      <c r="R39" s="2"/>
+      <c r="S39" s="2"/>
+      <c r="T39" s="2"/>
+      <c r="U39" s="2"/>
     </row>
     <row r="40" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A40" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="B40" s="2">
-        <v>0.17461538461538462</v>
-      </c>
-      <c r="C40" s="2">
-        <v>0.18636363636363637</v>
-      </c>
-      <c r="D40" s="2">
-        <v>0.26891891891891889</v>
-      </c>
-      <c r="E40" s="2">
-        <v>0.26428571428571423</v>
-      </c>
-      <c r="F40" s="2">
-        <v>0.14661016949152542</v>
-      </c>
-      <c r="G40" s="2">
-        <v>0.26702127659574459</v>
-      </c>
-      <c r="H40" s="2">
-        <v>0.3235294117647059</v>
-      </c>
-      <c r="I40" s="2">
-        <v>0.35315789473684212</v>
-      </c>
-      <c r="J40" s="2">
-        <v>0.49516129032258061</v>
-      </c>
-      <c r="K40" s="2">
-        <v>0.7309210526315788</v>
-      </c>
-      <c r="L40" s="2">
-        <v>0.35428571428571431</v>
-      </c>
-      <c r="M40" s="2">
-        <v>0.59863013698630141</v>
-      </c>
-      <c r="N40" s="2">
-        <v>0.92839999999999989</v>
-      </c>
-      <c r="O40" s="2">
-        <v>0.95</v>
-      </c>
-      <c r="P40" s="2">
-        <v>0.95</v>
-      </c>
-      <c r="Q40" s="2">
-        <v>0.81615384615384612</v>
-      </c>
-      <c r="R40" s="2">
-        <v>0.80721153846153848</v>
-      </c>
-      <c r="S40" s="2">
-        <v>0.95</v>
-      </c>
-      <c r="T40" s="2">
-        <v>0.95</v>
-      </c>
-      <c r="U40" s="2">
-        <v>0.95</v>
-      </c>
+      <c r="A40" s="1"/>
+      <c r="B40" s="2"/>
+      <c r="C40" s="2"/>
+      <c r="D40" s="2"/>
+      <c r="E40" s="2"/>
+      <c r="F40" s="2"/>
+      <c r="G40" s="2"/>
+      <c r="H40" s="2"/>
+      <c r="I40" s="2"/>
+      <c r="J40" s="2"/>
+      <c r="K40" s="2"/>
+      <c r="L40" s="2"/>
+      <c r="M40" s="2"/>
+      <c r="N40" s="2"/>
+      <c r="O40" s="2"/>
+      <c r="P40" s="2"/>
+      <c r="Q40" s="2"/>
+      <c r="R40" s="2"/>
+      <c r="S40" s="2"/>
+      <c r="T40" s="2"/>
+      <c r="U40" s="2"/>
     </row>
     <row r="41" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A41" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="B41" s="2">
-        <v>0.2023076923076923</v>
-      </c>
-      <c r="C41" s="2">
-        <v>0.14090909090909093</v>
-      </c>
-      <c r="D41" s="2">
-        <v>0.18378378378378379</v>
-      </c>
-      <c r="E41" s="2">
-        <v>0.22857142857142851</v>
-      </c>
-      <c r="F41" s="2">
-        <v>8.0508474576271194E-2</v>
-      </c>
-      <c r="G41" s="2">
-        <v>0.15212765957446808</v>
-      </c>
-      <c r="H41" s="2">
-        <v>0.12058823529411765</v>
-      </c>
-      <c r="I41" s="2">
-        <v>0.17315789473684212</v>
-      </c>
-      <c r="J41" s="2">
-        <v>0.20483870967741935</v>
-      </c>
-      <c r="K41" s="2">
-        <v>0.51776315789473681</v>
-      </c>
-      <c r="L41" s="2">
-        <v>0.16142857142857142</v>
-      </c>
-      <c r="M41" s="2">
-        <v>0.17945205479452053</v>
-      </c>
-      <c r="N41" s="2">
-        <v>0.34519999999999995</v>
-      </c>
-      <c r="O41" s="2">
-        <v>0.37054794520547946</v>
-      </c>
-      <c r="P41" s="2">
-        <v>0.26875000000000004</v>
-      </c>
-      <c r="Q41" s="2">
-        <v>0.28538461538461535</v>
-      </c>
-      <c r="R41" s="2">
-        <v>0.30096153846153845</v>
-      </c>
-      <c r="S41" s="2">
-        <v>0.28245033112582779</v>
-      </c>
-      <c r="T41" s="2">
-        <v>0.32236842105263158</v>
-      </c>
-      <c r="U41" s="2">
-        <v>0.3308510638297873</v>
-      </c>
+      <c r="A41" s="1"/>
+      <c r="B41" s="2"/>
+      <c r="C41" s="2"/>
+      <c r="D41" s="2"/>
+      <c r="E41" s="2"/>
+      <c r="F41" s="2"/>
+      <c r="G41" s="2"/>
+      <c r="H41" s="2"/>
+      <c r="I41" s="2"/>
+      <c r="J41" s="2"/>
+      <c r="K41" s="2"/>
+      <c r="L41" s="2"/>
+      <c r="M41" s="2"/>
+      <c r="N41" s="2"/>
+      <c r="O41" s="2"/>
+      <c r="P41" s="2"/>
+      <c r="Q41" s="2"/>
+      <c r="R41" s="2"/>
+      <c r="S41" s="2"/>
+      <c r="T41" s="2"/>
+      <c r="U41" s="2"/>
     </row>
     <row r="42" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A42" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="B42" s="2">
-        <v>0.2023076923076923</v>
-      </c>
-      <c r="C42" s="2">
-        <v>0.3136363636363636</v>
-      </c>
-      <c r="D42" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="E42" s="2">
-        <v>0.4142857142857142</v>
-      </c>
-      <c r="F42" s="2">
-        <v>0.19237288135593222</v>
-      </c>
-      <c r="G42" s="2">
-        <v>0.24787234042553188</v>
-      </c>
-      <c r="H42" s="2">
-        <v>0.30588235294117649</v>
-      </c>
-      <c r="I42" s="2">
-        <v>0.32473684210526316</v>
-      </c>
-      <c r="J42" s="2">
-        <v>0.56290322580645158</v>
-      </c>
-      <c r="K42" s="2">
-        <v>0.606578947368421</v>
-      </c>
-      <c r="L42" s="2">
-        <v>0.28142857142857147</v>
-      </c>
-      <c r="M42" s="2">
-        <v>0.46301369863013703</v>
-      </c>
-      <c r="N42" s="2">
-        <v>0.69079999999999986</v>
-      </c>
-      <c r="O42" s="2">
-        <v>0.66027397260273979</v>
-      </c>
-      <c r="P42" s="2">
-        <v>0.56250000000000011</v>
-      </c>
-      <c r="Q42" s="2">
-        <v>0.49307692307692297</v>
-      </c>
-      <c r="R42" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="S42" s="2">
-        <v>0.45529801324503305</v>
-      </c>
-      <c r="T42" s="2">
-        <v>0.44078947368421051</v>
-      </c>
-      <c r="U42" s="2">
-        <v>0.40106382978723409</v>
-      </c>
+      <c r="A42" s="1"/>
+      <c r="B42" s="2"/>
+      <c r="C42" s="2"/>
+      <c r="D42" s="2"/>
+      <c r="E42" s="2"/>
+      <c r="F42" s="2"/>
+      <c r="G42" s="2"/>
+      <c r="H42" s="2"/>
+      <c r="I42" s="2"/>
+      <c r="J42" s="2"/>
+      <c r="K42" s="2"/>
+      <c r="L42" s="2"/>
+      <c r="M42" s="2"/>
+      <c r="N42" s="2"/>
+      <c r="O42" s="2"/>
+      <c r="P42" s="2"/>
+      <c r="Q42" s="2"/>
+      <c r="R42" s="2"/>
+      <c r="S42" s="2"/>
+      <c r="T42" s="2"/>
+      <c r="U42" s="2"/>
     </row>
     <row r="43" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A43" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="B43" s="2">
-        <v>0.42384615384615387</v>
-      </c>
-      <c r="C43" s="2">
-        <v>0.29545454545454547</v>
-      </c>
-      <c r="D43" s="2">
-        <v>0.31756756756756754</v>
-      </c>
-      <c r="E43" s="2">
-        <v>0.25714285714285712</v>
-      </c>
-      <c r="F43" s="2">
-        <v>0.51779661016949152</v>
-      </c>
-      <c r="G43" s="2">
-        <v>0.19042553191489359</v>
-      </c>
-      <c r="H43" s="2">
-        <v>0.23529411764705879</v>
-      </c>
-      <c r="I43" s="2">
-        <v>0.47631578947368425</v>
-      </c>
-      <c r="J43" s="2">
-        <v>0.58225806451612905</v>
-      </c>
-      <c r="K43" s="2">
-        <v>0.67763157894736836</v>
-      </c>
-      <c r="L43" s="2">
-        <v>0.21714285714285714</v>
-      </c>
-      <c r="M43" s="2">
-        <v>0.30273972602739729</v>
-      </c>
-      <c r="N43" s="2">
-        <v>0.50360000000000005</v>
-      </c>
-      <c r="O43" s="2">
-        <v>0.49383561643835611</v>
-      </c>
-      <c r="P43" s="2">
-        <v>0.33125000000000004</v>
-      </c>
-      <c r="Q43" s="2">
-        <v>0.28076923076923072</v>
-      </c>
-      <c r="R43" s="2">
-        <v>0.95</v>
-      </c>
-      <c r="S43" s="2">
-        <v>0.24668874172185432</v>
-      </c>
-      <c r="T43" s="2">
-        <v>0.26907894736842103</v>
-      </c>
-      <c r="U43" s="2">
-        <v>0.17127659574468085</v>
-      </c>
+      <c r="A43" s="1"/>
+      <c r="B43" s="2"/>
+      <c r="C43" s="2"/>
+      <c r="D43" s="2"/>
+      <c r="E43" s="2"/>
+      <c r="F43" s="2"/>
+      <c r="G43" s="2"/>
+      <c r="H43" s="2"/>
+      <c r="I43" s="2"/>
+      <c r="J43" s="2"/>
+      <c r="K43" s="2"/>
+      <c r="L43" s="2"/>
+      <c r="M43" s="2"/>
+      <c r="N43" s="2"/>
+      <c r="O43" s="2"/>
+      <c r="P43" s="2"/>
+      <c r="Q43" s="2"/>
+      <c r="R43" s="2"/>
+      <c r="S43" s="2"/>
+      <c r="T43" s="2"/>
+      <c r="U43" s="2"/>
     </row>
     <row r="44" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A44" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="B44" s="2">
-        <v>0.3684615384615384</v>
-      </c>
-      <c r="C44" s="2">
-        <v>0.13181818181818183</v>
-      </c>
-      <c r="D44" s="2">
-        <v>0.24459459459459459</v>
-      </c>
-      <c r="E44" s="2">
-        <v>0.24999999999999997</v>
-      </c>
-      <c r="F44" s="2">
-        <v>0.12118644067796611</v>
-      </c>
-      <c r="G44" s="2">
-        <v>0.16489361702127658</v>
-      </c>
-      <c r="H44" s="2">
-        <v>0.13823529411764704</v>
-      </c>
-      <c r="I44" s="2">
-        <v>7.8421052631578947E-2</v>
-      </c>
-      <c r="J44" s="2">
-        <v>0.05</v>
-      </c>
-      <c r="K44" s="2">
-        <v>0.33421052631578946</v>
-      </c>
-      <c r="L44" s="2">
-        <v>0.05</v>
-      </c>
-      <c r="M44" s="2">
-        <v>0.05</v>
-      </c>
-      <c r="N44" s="2">
-        <v>0.23719999999999999</v>
-      </c>
-      <c r="O44" s="2">
-        <v>0.29657534246575346</v>
-      </c>
-      <c r="P44" s="2">
-        <v>0.28749999999999998</v>
-      </c>
-      <c r="Q44" s="2">
-        <v>0.25769230769230766</v>
-      </c>
-      <c r="R44" s="2">
-        <v>0.29663461538461539</v>
-      </c>
-      <c r="S44" s="2">
-        <v>0.05</v>
-      </c>
-      <c r="T44" s="2">
-        <v>0.05</v>
-      </c>
-      <c r="U44" s="2">
-        <v>8.1914893617021284E-2</v>
-      </c>
+      <c r="A44" s="1"/>
+      <c r="B44" s="2"/>
+      <c r="C44" s="2"/>
+      <c r="D44" s="2"/>
+      <c r="E44" s="2"/>
+      <c r="F44" s="2"/>
+      <c r="G44" s="2"/>
+      <c r="H44" s="2"/>
+      <c r="I44" s="2"/>
+      <c r="J44" s="2"/>
+      <c r="K44" s="2"/>
+      <c r="L44" s="2"/>
+      <c r="M44" s="2"/>
+      <c r="N44" s="2"/>
+      <c r="O44" s="2"/>
+      <c r="P44" s="2"/>
+      <c r="Q44" s="2"/>
+      <c r="R44" s="2"/>
+      <c r="S44" s="2"/>
+      <c r="T44" s="2"/>
+      <c r="U44" s="2"/>
     </row>
     <row r="45" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A45" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="B45" s="2">
-        <v>0.14692307692307693</v>
-      </c>
-      <c r="C45" s="2">
-        <v>0.18636363636363637</v>
-      </c>
-      <c r="D45" s="2">
-        <v>0.4027027027027027</v>
-      </c>
-      <c r="E45" s="2">
-        <v>0.32857142857142851</v>
-      </c>
-      <c r="F45" s="2">
-        <v>0.21271186440677967</v>
-      </c>
-      <c r="G45" s="2">
-        <v>0.34999999999999992</v>
-      </c>
-      <c r="H45" s="2">
-        <v>0.53529411764705892</v>
-      </c>
-      <c r="I45" s="2">
-        <v>0.7226315789473684</v>
-      </c>
-      <c r="J45" s="2">
-        <v>0.54354838709677411</v>
-      </c>
-      <c r="K45" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="L45" s="2">
-        <v>0.43571428571428567</v>
-      </c>
-      <c r="M45" s="2">
-        <v>0.59863013698630141</v>
-      </c>
-      <c r="N45" s="2">
-        <v>0.71960000000000002</v>
-      </c>
-      <c r="O45" s="2">
-        <v>0.82054794520547947</v>
-      </c>
-      <c r="P45" s="2">
-        <v>0.71250000000000002</v>
-      </c>
-      <c r="Q45" s="2">
-        <v>0.43769230769230766</v>
-      </c>
-      <c r="R45" s="2">
-        <v>0.4524038461538461</v>
-      </c>
-      <c r="S45" s="2">
-        <v>0.44933774834437079</v>
-      </c>
-      <c r="T45" s="2">
-        <v>0.56513157894736843</v>
-      </c>
-      <c r="U45" s="2">
-        <v>0.56702127659574475</v>
-      </c>
+      <c r="A45" s="1"/>
+      <c r="B45" s="2"/>
+      <c r="C45" s="2"/>
+      <c r="D45" s="2"/>
+      <c r="E45" s="2"/>
+      <c r="F45" s="2"/>
+      <c r="G45" s="2"/>
+      <c r="H45" s="2"/>
+      <c r="I45" s="2"/>
+      <c r="J45" s="2"/>
+      <c r="K45" s="2"/>
+      <c r="L45" s="2"/>
+      <c r="M45" s="2"/>
+      <c r="N45" s="2"/>
+      <c r="O45" s="2"/>
+      <c r="P45" s="2"/>
+      <c r="Q45" s="2"/>
+      <c r="R45" s="2"/>
+      <c r="S45" s="2"/>
+      <c r="T45" s="2"/>
+      <c r="U45" s="2"/>
     </row>
     <row r="46" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A46" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="B46" s="2">
-        <v>0.18846153846153846</v>
-      </c>
-      <c r="C46" s="2">
-        <v>8.6363636363636365E-2</v>
-      </c>
-      <c r="D46" s="2">
-        <v>0.1108108108108108</v>
-      </c>
-      <c r="E46" s="2">
-        <v>0.18571428571428567</v>
-      </c>
-      <c r="F46" s="2">
-        <v>0.12118644067796611</v>
-      </c>
-      <c r="G46" s="2">
-        <v>0.16489361702127658</v>
-      </c>
-      <c r="H46" s="2">
-        <v>0.16470588235294117</v>
-      </c>
-      <c r="I46" s="2">
-        <v>0.19210526315789472</v>
-      </c>
-      <c r="J46" s="2">
-        <v>0.282258064516129</v>
-      </c>
-      <c r="K46" s="2">
-        <v>0.58289473684210513</v>
-      </c>
-      <c r="L46" s="2">
-        <v>0.20857142857142855</v>
-      </c>
-      <c r="M46" s="2">
-        <v>0.37671232876712329</v>
-      </c>
-      <c r="N46" s="2">
-        <v>0.5756</v>
-      </c>
-      <c r="O46" s="2">
-        <v>0.5493150684931507</v>
-      </c>
-      <c r="P46" s="2">
-        <v>0.37500000000000006</v>
-      </c>
-      <c r="Q46" s="2">
-        <v>0.3223076923076923</v>
-      </c>
-      <c r="R46" s="2">
-        <v>0.32692307692307693</v>
-      </c>
-      <c r="S46" s="2">
-        <v>0.49701986754966887</v>
-      </c>
-      <c r="T46" s="2">
-        <v>0.22763157894736846</v>
-      </c>
-      <c r="U46" s="2">
-        <v>0.22872340425531917</v>
-      </c>
+      <c r="A46" s="1"/>
+      <c r="B46" s="2"/>
+      <c r="C46" s="2"/>
+      <c r="D46" s="2"/>
+      <c r="E46" s="2"/>
+      <c r="F46" s="2"/>
+      <c r="G46" s="2"/>
+      <c r="H46" s="2"/>
+      <c r="I46" s="2"/>
+      <c r="J46" s="2"/>
+      <c r="K46" s="2"/>
+      <c r="L46" s="2"/>
+      <c r="M46" s="2"/>
+      <c r="N46" s="2"/>
+      <c r="O46" s="2"/>
+      <c r="P46" s="2"/>
+      <c r="Q46" s="2"/>
+      <c r="R46" s="2"/>
+      <c r="S46" s="2"/>
+      <c r="T46" s="2"/>
+      <c r="U46" s="2"/>
     </row>
     <row r="47" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A47" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="B47" s="2">
-        <v>0.05</v>
-      </c>
-      <c r="C47" s="2">
-        <v>5.9090909090909097E-2</v>
-      </c>
-      <c r="D47" s="2">
-        <v>9.8648648648648654E-2</v>
-      </c>
-      <c r="E47" s="2">
-        <v>0.33571428571428569</v>
-      </c>
-      <c r="F47" s="2">
-        <v>0.27881355932203389</v>
-      </c>
-      <c r="G47" s="2">
-        <v>0.38191489361702124</v>
-      </c>
-      <c r="H47" s="2">
-        <v>0.30588235294117649</v>
-      </c>
-      <c r="I47" s="2">
-        <v>0.26789473684210524</v>
-      </c>
-      <c r="J47" s="2">
-        <v>0.48548387096774187</v>
-      </c>
-      <c r="K47" s="2">
-        <v>0.43486842105263157</v>
-      </c>
-      <c r="L47" s="2">
-        <v>0.17857142857142858</v>
-      </c>
-      <c r="M47" s="2">
-        <v>0.20410958904109588</v>
-      </c>
-      <c r="N47" s="2">
-        <v>0.05</v>
-      </c>
-      <c r="O47" s="2">
-        <v>0.32739726027397259</v>
-      </c>
-      <c r="P47" s="2">
-        <v>0.2</v>
-      </c>
-      <c r="Q47" s="2">
-        <v>6.8461538461538463E-2</v>
-      </c>
-      <c r="R47" s="2">
-        <v>0.28365384615384615</v>
-      </c>
-      <c r="S47" s="2">
-        <v>0.3837748344370861</v>
-      </c>
-      <c r="T47" s="2">
-        <v>0.64210526315789473</v>
-      </c>
-      <c r="U47" s="2">
-        <v>0.27340425531914891</v>
-      </c>
+      <c r="A47" s="1"/>
+      <c r="B47" s="2"/>
+      <c r="C47" s="2"/>
+      <c r="D47" s="2"/>
+      <c r="E47" s="2"/>
+      <c r="F47" s="2"/>
+      <c r="G47" s="2"/>
+      <c r="H47" s="2"/>
+      <c r="I47" s="2"/>
+      <c r="J47" s="2"/>
+      <c r="K47" s="2"/>
+      <c r="L47" s="2"/>
+      <c r="M47" s="2"/>
+      <c r="N47" s="2"/>
+      <c r="O47" s="2"/>
+      <c r="P47" s="2"/>
+      <c r="Q47" s="2"/>
+      <c r="R47" s="2"/>
+      <c r="S47" s="2"/>
+      <c r="T47" s="2"/>
+      <c r="U47" s="2"/>
     </row>
     <row r="48" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A48" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="B48" s="2">
-        <v>0.21615384615384617</v>
-      </c>
-      <c r="C48" s="2">
-        <v>0.16818181818181821</v>
-      </c>
-      <c r="D48" s="2">
-        <v>0.31756756756756754</v>
-      </c>
-      <c r="E48" s="2">
-        <v>0.28571428571428564</v>
-      </c>
-      <c r="F48" s="2">
-        <v>0.17711864406779659</v>
-      </c>
-      <c r="G48" s="2">
-        <v>0.27978723404255312</v>
-      </c>
-      <c r="H48" s="2">
-        <v>0.35882352941176465</v>
-      </c>
-      <c r="I48" s="2">
-        <v>0.15421052631578946</v>
-      </c>
-      <c r="J48" s="2">
-        <v>0.19516129032258062</v>
-      </c>
-      <c r="K48" s="2">
-        <v>0.51776315789473681</v>
-      </c>
-      <c r="L48" s="2">
-        <v>0.18714285714285711</v>
-      </c>
-      <c r="M48" s="2">
-        <v>0.29041095890410962</v>
-      </c>
-      <c r="N48" s="2">
-        <v>0.48919999999999997</v>
-      </c>
-      <c r="O48" s="2">
-        <v>0.45684931506849313</v>
-      </c>
-      <c r="P48" s="2">
-        <v>0.33750000000000002</v>
-      </c>
-      <c r="Q48" s="2">
-        <v>0.29461538461538461</v>
-      </c>
-      <c r="R48" s="2">
-        <v>0.29663461538461539</v>
-      </c>
-      <c r="S48" s="2">
-        <v>0.25264900662251655</v>
-      </c>
-      <c r="T48" s="2">
-        <v>0.28092105263157896</v>
-      </c>
-      <c r="U48" s="2">
-        <v>0.20957446808510638</v>
-      </c>
+      <c r="A48" s="1"/>
+      <c r="B48" s="2"/>
+      <c r="C48" s="2"/>
+      <c r="D48" s="2"/>
+      <c r="E48" s="2"/>
+      <c r="F48" s="2"/>
+      <c r="G48" s="2"/>
+      <c r="H48" s="2"/>
+      <c r="I48" s="2"/>
+      <c r="J48" s="2"/>
+      <c r="K48" s="2"/>
+      <c r="L48" s="2"/>
+      <c r="M48" s="2"/>
+      <c r="N48" s="2"/>
+      <c r="O48" s="2"/>
+      <c r="P48" s="2"/>
+      <c r="Q48" s="2"/>
+      <c r="R48" s="2"/>
+      <c r="S48" s="2"/>
+      <c r="T48" s="2"/>
+      <c r="U48" s="2"/>
     </row>
     <row r="49" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A49" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="B49" s="2">
-        <v>0.47923076923076918</v>
-      </c>
-      <c r="C49" s="2">
-        <v>0.34090909090909094</v>
-      </c>
-      <c r="D49" s="2">
-        <v>0.51216216216216215</v>
-      </c>
-      <c r="E49" s="2">
-        <v>0.45714285714285707</v>
-      </c>
-      <c r="F49" s="2">
-        <v>0.20254237288135593</v>
-      </c>
-      <c r="G49" s="2">
-        <v>0.21595744680851062</v>
-      </c>
-      <c r="H49" s="2">
-        <v>0.34117647058823525</v>
-      </c>
-      <c r="I49" s="2">
-        <v>0.55210526315789477</v>
-      </c>
-      <c r="J49" s="2">
-        <v>0.49516129032258061</v>
-      </c>
-      <c r="K49" s="2">
-        <v>0.71907894736842104</v>
-      </c>
-      <c r="L49" s="2">
-        <v>0.34142857142857141</v>
-      </c>
-      <c r="M49" s="2">
-        <v>0.56780821917808211</v>
-      </c>
-      <c r="N49" s="2">
-        <v>0.76279999999999992</v>
-      </c>
-      <c r="O49" s="2">
-        <v>0.72808219178082201</v>
-      </c>
-      <c r="P49" s="2">
-        <v>0.68125000000000002</v>
-      </c>
-      <c r="Q49" s="2">
-        <v>0.95</v>
-      </c>
-      <c r="R49" s="2">
-        <v>0.72499999999999987</v>
-      </c>
-      <c r="S49" s="2">
-        <v>0.77715231788079475</v>
-      </c>
-      <c r="T49" s="2">
-        <v>0.80789473684210522</v>
-      </c>
-      <c r="U49" s="2">
-        <v>0.6882978723404255</v>
-      </c>
+      <c r="A49" s="1"/>
+      <c r="B49" s="2"/>
+      <c r="C49" s="2"/>
+      <c r="D49" s="2"/>
+      <c r="E49" s="2"/>
+      <c r="F49" s="2"/>
+      <c r="G49" s="2"/>
+      <c r="H49" s="2"/>
+      <c r="I49" s="2"/>
+      <c r="J49" s="2"/>
+      <c r="K49" s="2"/>
+      <c r="L49" s="2"/>
+      <c r="M49" s="2"/>
+      <c r="N49" s="2"/>
+      <c r="O49" s="2"/>
+      <c r="P49" s="2"/>
+      <c r="Q49" s="2"/>
+      <c r="R49" s="2"/>
+      <c r="S49" s="2"/>
+      <c r="T49" s="2"/>
+      <c r="U49" s="2"/>
     </row>
     <row r="50" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A50" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="B50" s="2">
-        <v>0.13307692307692309</v>
-      </c>
-      <c r="C50" s="2">
-        <v>9.5454545454545459E-2</v>
-      </c>
-      <c r="D50" s="2">
-        <v>7.4324324324324328E-2</v>
-      </c>
-      <c r="E50" s="2">
-        <v>0.15714285714285714</v>
-      </c>
-      <c r="F50" s="2">
-        <v>5.508474576271187E-2</v>
-      </c>
-      <c r="G50" s="2">
-        <v>0.15212765957446808</v>
-      </c>
-      <c r="H50" s="2">
-        <v>5.8823529411764705E-2</v>
-      </c>
-      <c r="I50" s="2">
-        <v>0.13526315789473686</v>
-      </c>
-      <c r="J50" s="2">
-        <v>0.11774193548387096</v>
-      </c>
-      <c r="K50" s="2">
-        <v>0.50592105263157894</v>
-      </c>
-      <c r="L50" s="2">
-        <v>0.16999999999999998</v>
-      </c>
-      <c r="M50" s="2">
-        <v>0.24109589041095891</v>
-      </c>
-      <c r="N50" s="2">
-        <v>0.41000000000000003</v>
-      </c>
-      <c r="O50" s="2">
-        <v>0.41986301369863011</v>
-      </c>
-      <c r="P50" s="2">
-        <v>0.30625000000000002</v>
-      </c>
-      <c r="Q50" s="2">
-        <v>0.27153846153846151</v>
-      </c>
-      <c r="R50" s="2">
-        <v>0.30096153846153845</v>
-      </c>
-      <c r="S50" s="2">
-        <v>0.26456953642384107</v>
-      </c>
-      <c r="T50" s="2">
-        <v>0.35197368421052627</v>
-      </c>
-      <c r="U50" s="2">
-        <v>0.48404255319148942</v>
-      </c>
+      <c r="A50" s="1"/>
+      <c r="B50" s="2"/>
+      <c r="C50" s="2"/>
+      <c r="D50" s="2"/>
+      <c r="E50" s="2"/>
+      <c r="F50" s="2"/>
+      <c r="G50" s="2"/>
+      <c r="H50" s="2"/>
+      <c r="I50" s="2"/>
+      <c r="J50" s="2"/>
+      <c r="K50" s="2"/>
+      <c r="L50" s="2"/>
+      <c r="M50" s="2"/>
+      <c r="N50" s="2"/>
+      <c r="O50" s="2"/>
+      <c r="P50" s="2"/>
+      <c r="Q50" s="2"/>
+      <c r="R50" s="2"/>
+      <c r="S50" s="2"/>
+      <c r="T50" s="2"/>
+      <c r="U50" s="2"/>
     </row>
     <row r="51" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A51" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="B51" s="2">
-        <v>0.13307692307692309</v>
-      </c>
-      <c r="C51" s="2">
-        <v>8.6363636363636365E-2</v>
-      </c>
-      <c r="D51" s="2">
-        <v>6.2162162162162166E-2</v>
-      </c>
-      <c r="E51" s="2">
-        <v>0.16428571428571426</v>
-      </c>
-      <c r="F51" s="2">
-        <v>7.5423728813559326E-2</v>
-      </c>
-      <c r="G51" s="2">
-        <v>0.13936170212765958</v>
-      </c>
-      <c r="H51" s="2">
-        <v>0.15588235294117647</v>
-      </c>
-      <c r="I51" s="2">
-        <v>0.12578947368421053</v>
-      </c>
-      <c r="J51" s="2">
-        <v>9.838709677419355E-2</v>
-      </c>
-      <c r="K51" s="2">
-        <v>0.48815789473684207</v>
-      </c>
-      <c r="L51" s="2">
-        <v>0.23857142857142857</v>
-      </c>
-      <c r="M51" s="2">
-        <v>0.65410958904109595</v>
-      </c>
-      <c r="N51" s="2">
-        <v>0.35239999999999994</v>
-      </c>
-      <c r="O51" s="2">
-        <v>0.3458904109589041</v>
-      </c>
-      <c r="P51" s="2">
-        <v>0.21250000000000002</v>
-      </c>
-      <c r="Q51" s="2">
-        <v>0.4515384615384615</v>
-      </c>
-      <c r="R51" s="2">
-        <v>0.27932692307692303</v>
-      </c>
-      <c r="S51" s="2">
-        <v>0.27649006622516559</v>
-      </c>
-      <c r="T51" s="2">
-        <v>0.23947368421052631</v>
-      </c>
-      <c r="U51" s="2">
-        <v>0.17127659574468085</v>
-      </c>
+      <c r="A51" s="1"/>
+      <c r="B51" s="2"/>
+      <c r="C51" s="2"/>
+      <c r="D51" s="2"/>
+      <c r="E51" s="2"/>
+      <c r="F51" s="2"/>
+      <c r="G51" s="2"/>
+      <c r="H51" s="2"/>
+      <c r="I51" s="2"/>
+      <c r="J51" s="2"/>
+      <c r="K51" s="2"/>
+      <c r="L51" s="2"/>
+      <c r="M51" s="2"/>
+      <c r="N51" s="2"/>
+      <c r="O51" s="2"/>
+      <c r="P51" s="2"/>
+      <c r="Q51" s="2"/>
+      <c r="R51" s="2"/>
+      <c r="S51" s="2"/>
+      <c r="T51" s="2"/>
+      <c r="U51" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -10730,734 +9125,844 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC162023-1AF5-423C-84D1-3F88E6E27F5B}">
-  <dimension ref="A1:U11"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{680F5599-B578-4DA5-924E-3893EE660C23}">
+  <dimension ref="A1:S14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="R19" sqref="R19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1">
-        <v>2000</v>
-      </c>
-      <c r="C1" s="1">
-        <v>2001</v>
-      </c>
-      <c r="D1" s="1">
+      <c r="B1" s="14">
         <v>2002</v>
       </c>
-      <c r="E1" s="1">
+      <c r="C1" s="14">
         <v>2003</v>
       </c>
-      <c r="F1" s="1">
+      <c r="D1" s="14">
         <v>2004</v>
       </c>
-      <c r="G1" s="1">
+      <c r="E1" s="14">
         <v>2005</v>
       </c>
-      <c r="H1" s="1">
+      <c r="F1" s="14">
         <v>2006</v>
       </c>
-      <c r="I1" s="1">
+      <c r="G1" s="14">
         <v>2007</v>
       </c>
-      <c r="J1" s="1">
+      <c r="H1" s="14">
         <v>2008</v>
       </c>
-      <c r="K1" s="1">
+      <c r="I1" s="14">
         <v>2009</v>
       </c>
-      <c r="L1" s="1">
+      <c r="J1" s="14">
         <v>2010</v>
       </c>
-      <c r="M1" s="1">
+      <c r="K1" s="14">
         <v>2011</v>
       </c>
-      <c r="N1" s="1">
+      <c r="L1" s="14">
         <v>2012</v>
       </c>
-      <c r="O1" s="1">
+      <c r="M1" s="14">
         <v>2013</v>
       </c>
-      <c r="P1" s="1">
+      <c r="N1" s="14">
         <v>2014</v>
       </c>
-      <c r="Q1" s="1">
+      <c r="O1" s="14">
         <v>2015</v>
       </c>
-      <c r="R1" s="1">
+      <c r="P1" s="14">
         <v>2016</v>
       </c>
-      <c r="S1" s="1">
+      <c r="Q1" s="14">
         <v>2017</v>
       </c>
-      <c r="T1" s="1">
+      <c r="R1" s="14">
         <v>2018</v>
       </c>
-      <c r="U1" s="1">
+      <c r="S1" s="14">
         <v>2019</v>
       </c>
     </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="10">
-        <v>0.159</v>
-      </c>
-      <c r="C2" s="10">
-        <v>0.159</v>
-      </c>
-      <c r="D2" s="10">
-        <v>0.159</v>
-      </c>
-      <c r="E2" s="10">
-        <v>0.159</v>
-      </c>
-      <c r="F2" s="10">
-        <v>0.159</v>
-      </c>
-      <c r="G2" s="10">
-        <v>0.159</v>
-      </c>
-      <c r="H2" s="10">
-        <v>0.159</v>
-      </c>
-      <c r="I2" s="10">
-        <v>0.159</v>
-      </c>
-      <c r="J2" s="10">
-        <v>0.159</v>
-      </c>
-      <c r="K2" s="10">
-        <v>0.159</v>
-      </c>
-      <c r="L2" s="10">
-        <v>0.159</v>
-      </c>
-      <c r="M2" s="10">
-        <v>0.159</v>
-      </c>
-      <c r="N2" s="10">
-        <v>0.159</v>
-      </c>
-      <c r="O2" s="10">
-        <v>0.159</v>
-      </c>
-      <c r="P2" s="10">
-        <v>0.159</v>
-      </c>
-      <c r="Q2" s="10">
-        <v>0.159</v>
-      </c>
-      <c r="R2" s="10">
-        <v>0.159</v>
-      </c>
-      <c r="S2" s="10">
-        <v>0.159</v>
-      </c>
-      <c r="T2" s="10">
-        <v>0.159</v>
-      </c>
-      <c r="U2" s="10">
-        <v>0.159</v>
-      </c>
-    </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="B2" s="14">
+        <v>0.2</v>
+      </c>
+      <c r="C2" s="14">
+        <v>0.51406250000000009</v>
+      </c>
+      <c r="D2" s="14">
+        <v>0.35</v>
+      </c>
+      <c r="E2" s="14">
+        <v>0.29230769230769232</v>
+      </c>
+      <c r="F2" s="14">
+        <v>0.36153846153846159</v>
+      </c>
+      <c r="G2" s="14">
+        <v>0.36153846153846159</v>
+      </c>
+      <c r="H2" s="14">
+        <v>0.28502024291497979</v>
+      </c>
+      <c r="I2" s="14">
+        <v>0.2955414012738854</v>
+      </c>
+      <c r="J2" s="14">
+        <v>0.24423963133640553</v>
+      </c>
+      <c r="K2" s="14">
+        <v>0.27710843373493976</v>
+      </c>
+      <c r="L2" s="14">
+        <v>0.42631578947368426</v>
+      </c>
+      <c r="M2" s="14">
+        <v>0.35789473684210527</v>
+      </c>
+      <c r="N2" s="14">
+        <v>0.38</v>
+      </c>
+      <c r="O2" s="14">
+        <v>0.43132530120481921</v>
+      </c>
+      <c r="P2" s="14">
+        <v>0.43657142857142867</v>
+      </c>
+      <c r="Q2" s="14">
+        <v>0.31219512195121951</v>
+      </c>
+      <c r="R2" s="14">
+        <v>0.36000000000000004</v>
+      </c>
+      <c r="S2" s="14">
+        <v>0.43829787234042561</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="10">
-        <v>0.23480000000000001</v>
-      </c>
-      <c r="C3" s="10">
-        <v>0.23480000000000001</v>
-      </c>
-      <c r="D3" s="10">
-        <v>0.23480000000000001</v>
-      </c>
-      <c r="E3" s="10">
-        <v>0.23480000000000001</v>
-      </c>
-      <c r="F3" s="10">
-        <v>0.23480000000000001</v>
-      </c>
-      <c r="G3" s="10">
-        <v>0.23480000000000001</v>
-      </c>
-      <c r="H3" s="10">
-        <v>0.23480000000000001</v>
-      </c>
-      <c r="I3" s="10">
-        <v>0.23480000000000001</v>
-      </c>
-      <c r="J3" s="10">
-        <v>0.23480000000000001</v>
-      </c>
-      <c r="K3" s="10">
-        <v>0.23480000000000001</v>
-      </c>
-      <c r="L3" s="10">
-        <v>0.23480000000000001</v>
-      </c>
-      <c r="M3" s="10">
-        <v>0.23480000000000001</v>
-      </c>
-      <c r="N3" s="10">
-        <v>0.23480000000000001</v>
-      </c>
-      <c r="O3" s="10">
-        <v>0.23480000000000001</v>
-      </c>
-      <c r="P3" s="10">
-        <v>0.23480000000000001</v>
-      </c>
-      <c r="Q3" s="10">
-        <v>0.23480000000000001</v>
-      </c>
-      <c r="R3" s="10">
-        <v>0.23480000000000001</v>
-      </c>
-      <c r="S3" s="10">
-        <v>0.23480000000000001</v>
-      </c>
-      <c r="T3" s="10">
-        <v>0.23480000000000001</v>
-      </c>
-      <c r="U3" s="10">
-        <v>0.23480000000000001</v>
-      </c>
-    </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="B3" s="14">
+        <v>0.33220338983050851</v>
+      </c>
+      <c r="C3" s="14">
+        <v>0.55625000000000013</v>
+      </c>
+      <c r="D3" s="14">
+        <v>0.2</v>
+      </c>
+      <c r="E3" s="14">
+        <v>0.2</v>
+      </c>
+      <c r="F3" s="14">
+        <v>0.2</v>
+      </c>
+      <c r="G3" s="14">
+        <v>0.2</v>
+      </c>
+      <c r="H3" s="14">
+        <v>0.28016194331983812</v>
+      </c>
+      <c r="I3" s="14">
+        <v>0.8</v>
+      </c>
+      <c r="J3" s="14">
+        <v>0.8</v>
+      </c>
+      <c r="K3" s="14">
+        <v>0.52289156626506028</v>
+      </c>
+      <c r="L3" s="14">
+        <v>0.8</v>
+      </c>
+      <c r="M3" s="14">
+        <v>0.5094736842105263</v>
+      </c>
+      <c r="N3" s="14">
+        <v>0.42500000000000004</v>
+      </c>
+      <c r="O3" s="14">
+        <v>0.33373493975903612</v>
+      </c>
+      <c r="P3" s="14">
+        <v>0.35771428571428582</v>
+      </c>
+      <c r="Q3" s="14">
+        <v>0.21463414634146341</v>
+      </c>
+      <c r="R3" s="14">
+        <v>0.27</v>
+      </c>
+      <c r="S3" s="14">
+        <v>0.43404255319148938</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="10">
-        <v>0.31059999999999999</v>
-      </c>
-      <c r="C4" s="10">
-        <v>0.31059999999999999</v>
-      </c>
-      <c r="D4" s="10">
-        <v>0.31059999999999999</v>
-      </c>
-      <c r="E4" s="10">
-        <v>0.31059999999999999</v>
-      </c>
-      <c r="F4" s="10">
-        <v>0.31059999999999999</v>
-      </c>
-      <c r="G4" s="10">
-        <v>0.31059999999999999</v>
-      </c>
-      <c r="H4" s="10">
-        <v>0.31059999999999999</v>
-      </c>
-      <c r="I4" s="10">
-        <v>0.31059999999999999</v>
-      </c>
-      <c r="J4" s="10">
-        <v>0.31059999999999999</v>
-      </c>
-      <c r="K4" s="10">
-        <v>0.31059999999999999</v>
-      </c>
-      <c r="L4" s="10">
-        <v>0.31059999999999999</v>
-      </c>
-      <c r="M4" s="10">
-        <v>0.31059999999999999</v>
-      </c>
-      <c r="N4" s="10">
-        <v>0.31059999999999999</v>
-      </c>
-      <c r="O4" s="10">
-        <v>0.31059999999999999</v>
-      </c>
-      <c r="P4" s="10">
-        <v>0.31059999999999999</v>
-      </c>
-      <c r="Q4" s="10">
-        <v>0.31059999999999999</v>
-      </c>
-      <c r="R4" s="10">
-        <v>0.31059999999999999</v>
-      </c>
-      <c r="S4" s="10">
-        <v>0.31059999999999999</v>
-      </c>
-      <c r="T4" s="10">
-        <v>0.31059999999999999</v>
-      </c>
-      <c r="U4" s="10">
-        <v>0.31059999999999999</v>
-      </c>
-    </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="B4" s="14">
+        <v>0.25084745762711869</v>
+      </c>
+      <c r="C4" s="14">
+        <v>0.55156250000000018</v>
+      </c>
+      <c r="D4" s="14">
+        <v>0.37368421052631584</v>
+      </c>
+      <c r="E4" s="14">
+        <v>0.27692307692307694</v>
+      </c>
+      <c r="F4" s="14">
+        <v>0.56923076923076921</v>
+      </c>
+      <c r="G4" s="14">
+        <v>0.56923076923076921</v>
+      </c>
+      <c r="H4" s="14">
+        <v>0.26315789473684215</v>
+      </c>
+      <c r="I4" s="14">
+        <v>0.2</v>
+      </c>
+      <c r="J4" s="14">
+        <v>0.23870967741935487</v>
+      </c>
+      <c r="K4" s="14">
+        <v>0.33493975903614459</v>
+      </c>
+      <c r="L4" s="14">
+        <v>0.43684210526315792</v>
+      </c>
+      <c r="M4" s="14">
+        <v>0.2</v>
+      </c>
+      <c r="N4" s="14">
+        <v>0.2</v>
+      </c>
+      <c r="O4" s="14">
+        <v>0.35903614457831323</v>
+      </c>
+      <c r="P4" s="14">
+        <v>0.38857142857142857</v>
+      </c>
+      <c r="Q4" s="14">
+        <v>0.22926829268292684</v>
+      </c>
+      <c r="R4" s="14">
+        <v>0.26500000000000001</v>
+      </c>
+      <c r="S4" s="14">
+        <v>0.33617021276595749</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="10">
-        <v>0.38629999999999998</v>
-      </c>
-      <c r="C5" s="10">
-        <v>0.38629999999999998</v>
-      </c>
-      <c r="D5" s="10">
-        <v>0.38629999999999998</v>
-      </c>
-      <c r="E5" s="10">
-        <v>0.38629999999999998</v>
-      </c>
-      <c r="F5" s="10">
-        <v>0.38629999999999998</v>
-      </c>
-      <c r="G5" s="10">
-        <v>0.38629999999999998</v>
-      </c>
-      <c r="H5" s="10">
-        <v>0.38629999999999998</v>
-      </c>
-      <c r="I5" s="10">
-        <v>0.38629999999999998</v>
-      </c>
-      <c r="J5" s="10">
-        <v>0.38629999999999998</v>
-      </c>
-      <c r="K5" s="10">
-        <v>0.38629999999999998</v>
-      </c>
-      <c r="L5" s="10">
-        <v>0.38629999999999998</v>
-      </c>
-      <c r="M5" s="10">
-        <v>0.38629999999999998</v>
-      </c>
-      <c r="N5" s="10">
-        <v>0.38629999999999998</v>
-      </c>
-      <c r="O5" s="10">
-        <v>0.38629999999999998</v>
-      </c>
-      <c r="P5" s="10">
-        <v>0.38629999999999998</v>
-      </c>
-      <c r="Q5" s="10">
-        <v>0.38629999999999998</v>
-      </c>
-      <c r="R5" s="10">
-        <v>0.38629999999999998</v>
-      </c>
-      <c r="S5" s="10">
-        <v>0.38629999999999998</v>
-      </c>
-      <c r="T5" s="10">
-        <v>0.38629999999999998</v>
-      </c>
-      <c r="U5" s="10">
-        <v>0.38629999999999998</v>
-      </c>
-    </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="B5" s="14">
+        <v>0.29152542372881357</v>
+      </c>
+      <c r="C5" s="14">
+        <v>0.54218750000000016</v>
+      </c>
+      <c r="D5" s="14">
+        <v>0.23947368421052631</v>
+      </c>
+      <c r="E5" s="14">
+        <v>0.24615384615384614</v>
+      </c>
+      <c r="F5" s="14">
+        <v>0.58076923076923082</v>
+      </c>
+      <c r="G5" s="14">
+        <v>0.58076923076923082</v>
+      </c>
+      <c r="H5" s="14">
+        <v>0.24858299595141703</v>
+      </c>
+      <c r="I5" s="14">
+        <v>0.28407643312101916</v>
+      </c>
+      <c r="J5" s="14">
+        <v>0.20276497695852536</v>
+      </c>
+      <c r="K5" s="14">
+        <v>0.21204819277108433</v>
+      </c>
+      <c r="L5" s="14">
+        <v>0.33157894736842108</v>
+      </c>
+      <c r="M5" s="14">
+        <v>0.2063157894736842</v>
+      </c>
+      <c r="N5" s="14">
+        <v>0.24000000000000002</v>
+      </c>
+      <c r="O5" s="14">
+        <v>0.33734939759036142</v>
+      </c>
+      <c r="P5" s="14">
+        <v>0.39200000000000007</v>
+      </c>
+      <c r="Q5" s="14">
+        <v>0.29756097560975614</v>
+      </c>
+      <c r="R5" s="14">
+        <v>0.2</v>
+      </c>
+      <c r="S5" s="14">
+        <v>0.30212765957446813</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="10">
-        <v>0.46210000000000001</v>
-      </c>
-      <c r="C6" s="10">
-        <v>0.46210000000000001</v>
-      </c>
-      <c r="D6" s="10">
-        <v>0.46210000000000001</v>
-      </c>
-      <c r="E6" s="10">
-        <v>0.46210000000000001</v>
-      </c>
-      <c r="F6" s="10">
-        <v>0.46210000000000001</v>
-      </c>
-      <c r="G6" s="10">
-        <v>0.46210000000000001</v>
-      </c>
-      <c r="H6" s="10">
-        <v>0.46210000000000001</v>
-      </c>
-      <c r="I6" s="10">
-        <v>0.46210000000000001</v>
-      </c>
-      <c r="J6" s="10">
-        <v>0.46210000000000001</v>
-      </c>
-      <c r="K6" s="10">
-        <v>0.46210000000000001</v>
-      </c>
-      <c r="L6" s="10">
-        <v>0.46210000000000001</v>
-      </c>
-      <c r="M6" s="10">
-        <v>0.46210000000000001</v>
-      </c>
-      <c r="N6" s="10">
-        <v>0.46210000000000001</v>
-      </c>
-      <c r="O6" s="10">
-        <v>0.46210000000000001</v>
-      </c>
-      <c r="P6" s="10">
-        <v>0.46210000000000001</v>
-      </c>
-      <c r="Q6" s="10">
-        <v>0.46210000000000001</v>
-      </c>
-      <c r="R6" s="10">
-        <v>0.46210000000000001</v>
-      </c>
-      <c r="S6" s="10">
-        <v>0.46210000000000001</v>
-      </c>
-      <c r="T6" s="10">
-        <v>0.46210000000000001</v>
-      </c>
-      <c r="U6" s="10">
-        <v>0.46210000000000001</v>
-      </c>
-    </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="B6" s="14">
+        <v>0.36271186440677966</v>
+      </c>
+      <c r="C6" s="14">
+        <v>0.58437500000000009</v>
+      </c>
+      <c r="D6" s="14">
+        <v>0.30263157894736842</v>
+      </c>
+      <c r="E6" s="14">
+        <v>0.33846153846153848</v>
+      </c>
+      <c r="F6" s="14">
+        <v>0.41923076923076924</v>
+      </c>
+      <c r="G6" s="14">
+        <v>0.41923076923076924</v>
+      </c>
+      <c r="H6" s="14">
+        <v>0.2412955465587045</v>
+      </c>
+      <c r="I6" s="14">
+        <v>0.27261146496815292</v>
+      </c>
+      <c r="J6" s="14">
+        <v>0.2</v>
+      </c>
+      <c r="K6" s="14">
+        <v>0.2</v>
+      </c>
+      <c r="L6" s="14">
+        <v>0.31578947368421051</v>
+      </c>
+      <c r="M6" s="14">
+        <v>0.24421052631578943</v>
+      </c>
+      <c r="N6" s="14">
+        <v>0.29000000000000004</v>
+      </c>
+      <c r="O6" s="14">
+        <v>0.38795180722891565</v>
+      </c>
+      <c r="P6" s="14">
+        <v>0.37485714285714294</v>
+      </c>
+      <c r="Q6" s="14">
+        <v>0.23414634146341468</v>
+      </c>
+      <c r="R6" s="14">
+        <v>0.2</v>
+      </c>
+      <c r="S6" s="14">
+        <v>0.34468085106382984</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="10">
-        <v>0.53790000000000004</v>
-      </c>
-      <c r="C7" s="10">
-        <v>0.53790000000000004</v>
-      </c>
-      <c r="D7" s="10">
-        <v>0.53790000000000004</v>
-      </c>
-      <c r="E7" s="10">
-        <v>0.53790000000000004</v>
-      </c>
-      <c r="F7" s="10">
-        <v>0.53790000000000004</v>
-      </c>
-      <c r="G7" s="10">
-        <v>0.53790000000000004</v>
-      </c>
-      <c r="H7" s="10">
-        <v>0.53790000000000004</v>
-      </c>
-      <c r="I7" s="10">
-        <v>0.53790000000000004</v>
-      </c>
-      <c r="J7" s="10">
-        <v>0.53790000000000004</v>
-      </c>
-      <c r="K7" s="10">
-        <v>0.53790000000000004</v>
-      </c>
-      <c r="L7" s="10">
-        <v>0.53790000000000004</v>
-      </c>
-      <c r="M7" s="10">
-        <v>0.53790000000000004</v>
-      </c>
-      <c r="N7" s="10">
-        <v>0.53790000000000004</v>
-      </c>
-      <c r="O7" s="10">
-        <v>0.53790000000000004</v>
-      </c>
-      <c r="P7" s="10">
-        <v>0.53790000000000004</v>
-      </c>
-      <c r="Q7" s="10">
-        <v>0.53790000000000004</v>
-      </c>
-      <c r="R7" s="10">
-        <v>0.53790000000000004</v>
-      </c>
-      <c r="S7" s="10">
-        <v>0.53790000000000004</v>
-      </c>
-      <c r="T7" s="10">
-        <v>0.53790000000000004</v>
-      </c>
-      <c r="U7" s="10">
-        <v>0.53790000000000004</v>
-      </c>
-    </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="B7" s="14">
+        <v>0.3728813559322034</v>
+      </c>
+      <c r="C7" s="14">
+        <v>0.63125000000000009</v>
+      </c>
+      <c r="D7" s="14">
+        <v>0.42105263157894735</v>
+      </c>
+      <c r="E7" s="14">
+        <v>0.44615384615384612</v>
+      </c>
+      <c r="F7" s="14">
+        <v>0.51153846153846161</v>
+      </c>
+      <c r="G7" s="14">
+        <v>0.51153846153846161</v>
+      </c>
+      <c r="H7" s="14">
+        <v>0.35789473684210532</v>
+      </c>
+      <c r="I7" s="14">
+        <v>0.43312101910828027</v>
+      </c>
+      <c r="J7" s="14">
+        <v>0.47373271889400925</v>
+      </c>
+      <c r="K7" s="14">
+        <v>0.30361445783132535</v>
+      </c>
+      <c r="L7" s="14">
+        <v>0.2</v>
+      </c>
+      <c r="M7" s="14">
+        <v>0.49052631578947364</v>
+      </c>
+      <c r="N7" s="14">
+        <v>0.29500000000000004</v>
+      </c>
+      <c r="O7" s="14">
+        <v>0.33734939759036142</v>
+      </c>
+      <c r="P7" s="14">
+        <v>0.2</v>
+      </c>
+      <c r="Q7" s="14">
+        <v>0.24878048780487805</v>
+      </c>
+      <c r="R7" s="14">
+        <v>0.21500000000000002</v>
+      </c>
+      <c r="S7" s="14">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="10">
-        <v>0.61370000000000002</v>
-      </c>
-      <c r="C8" s="10">
-        <v>0.61370000000000002</v>
-      </c>
-      <c r="D8" s="10">
-        <v>0.61370000000000002</v>
-      </c>
-      <c r="E8" s="10">
-        <v>0.61370000000000002</v>
-      </c>
-      <c r="F8" s="10">
-        <v>0.61370000000000002</v>
-      </c>
-      <c r="G8" s="10">
-        <v>0.61370000000000002</v>
-      </c>
-      <c r="H8" s="10">
-        <v>0.61370000000000002</v>
-      </c>
-      <c r="I8" s="10">
-        <v>0.61370000000000002</v>
-      </c>
-      <c r="J8" s="10">
-        <v>0.61370000000000002</v>
-      </c>
-      <c r="K8" s="10">
-        <v>0.61370000000000002</v>
-      </c>
-      <c r="L8" s="10">
-        <v>0.61370000000000002</v>
-      </c>
-      <c r="M8" s="10">
-        <v>0.61370000000000002</v>
-      </c>
-      <c r="N8" s="10">
-        <v>0.61370000000000002</v>
-      </c>
-      <c r="O8" s="10">
-        <v>0.61370000000000002</v>
-      </c>
-      <c r="P8" s="10">
-        <v>0.61370000000000002</v>
-      </c>
-      <c r="Q8" s="10">
-        <v>0.61370000000000002</v>
-      </c>
-      <c r="R8" s="10">
-        <v>0.61370000000000002</v>
-      </c>
-      <c r="S8" s="10">
-        <v>0.61370000000000002</v>
-      </c>
-      <c r="T8" s="10">
-        <v>0.61370000000000002</v>
-      </c>
-      <c r="U8" s="10">
-        <v>0.61370000000000002</v>
-      </c>
-    </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="B8" s="14">
+        <v>0.8</v>
+      </c>
+      <c r="C8" s="14">
+        <v>0.2</v>
+      </c>
+      <c r="D8" s="14">
+        <v>0.35</v>
+      </c>
+      <c r="E8" s="14">
+        <v>0.47692307692307689</v>
+      </c>
+      <c r="F8" s="14">
+        <v>0.59230769230769242</v>
+      </c>
+      <c r="G8" s="14">
+        <v>0.59230769230769242</v>
+      </c>
+      <c r="H8" s="14">
+        <v>0.3870445344129555</v>
+      </c>
+      <c r="I8" s="14">
+        <v>0.60891719745222928</v>
+      </c>
+      <c r="J8" s="14">
+        <v>0.50967741935483879</v>
+      </c>
+      <c r="K8" s="14">
+        <v>0.8</v>
+      </c>
+      <c r="L8" s="14">
+        <v>0.50526315789473686</v>
+      </c>
+      <c r="M8" s="14">
+        <v>0.40210526315789474</v>
+      </c>
+      <c r="N8" s="14">
+        <v>0.39500000000000002</v>
+      </c>
+      <c r="O8" s="14">
+        <v>0.2</v>
+      </c>
+      <c r="P8" s="14">
+        <v>0.35085714285714292</v>
+      </c>
+      <c r="Q8" s="14">
+        <v>0.3365853658536585</v>
+      </c>
+      <c r="R8" s="14">
+        <v>0.54</v>
+      </c>
+      <c r="S8" s="14">
+        <v>0.74893617021276593</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="10">
-        <v>0.68940000000000001</v>
-      </c>
-      <c r="C9" s="10">
-        <v>0.68940000000000001</v>
-      </c>
-      <c r="D9" s="10">
-        <v>0.68940000000000001</v>
-      </c>
-      <c r="E9" s="10">
-        <v>0.68940000000000001</v>
-      </c>
-      <c r="F9" s="10">
-        <v>0.68940000000000001</v>
-      </c>
-      <c r="G9" s="10">
-        <v>0.68940000000000001</v>
-      </c>
-      <c r="H9" s="10">
-        <v>0.68940000000000001</v>
-      </c>
-      <c r="I9" s="10">
-        <v>0.68940000000000001</v>
-      </c>
-      <c r="J9" s="10">
-        <v>0.68940000000000001</v>
-      </c>
-      <c r="K9" s="10">
-        <v>0.68940000000000001</v>
-      </c>
-      <c r="L9" s="10">
-        <v>0.68940000000000001</v>
-      </c>
-      <c r="M9" s="10">
-        <v>0.68940000000000001</v>
-      </c>
-      <c r="N9" s="10">
-        <v>0.68940000000000001</v>
-      </c>
-      <c r="O9" s="10">
-        <v>0.68940000000000001</v>
-      </c>
-      <c r="P9" s="10">
-        <v>0.68940000000000001</v>
-      </c>
-      <c r="Q9" s="10">
-        <v>0.68940000000000001</v>
-      </c>
-      <c r="R9" s="10">
-        <v>0.68940000000000001</v>
-      </c>
-      <c r="S9" s="10">
-        <v>0.68940000000000001</v>
-      </c>
-      <c r="T9" s="10">
-        <v>0.68940000000000001</v>
-      </c>
-      <c r="U9" s="10">
-        <v>0.68940000000000001</v>
-      </c>
-    </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="B9" s="14">
+        <v>0.2</v>
+      </c>
+      <c r="C9" s="14">
+        <v>0.51875000000000016</v>
+      </c>
+      <c r="D9" s="14">
+        <v>0.34210526315789475</v>
+      </c>
+      <c r="E9" s="14">
+        <v>0.23076923076923078</v>
+      </c>
+      <c r="F9" s="14">
+        <v>0.21153846153846154</v>
+      </c>
+      <c r="G9" s="14">
+        <v>0.21153846153846154</v>
+      </c>
+      <c r="H9" s="14">
+        <v>0.24858299595141703</v>
+      </c>
+      <c r="I9" s="14">
+        <v>0.26496815286624209</v>
+      </c>
+      <c r="J9" s="14">
+        <v>0.25806451612903225</v>
+      </c>
+      <c r="K9" s="14">
+        <v>0.2939759036144578</v>
+      </c>
+      <c r="L9" s="14">
+        <v>0.54736842105263162</v>
+      </c>
+      <c r="M9" s="14">
+        <v>0.58526315789473693</v>
+      </c>
+      <c r="N9" s="14">
+        <v>0.60500000000000009</v>
+      </c>
+      <c r="O9" s="14">
+        <v>0.5</v>
+      </c>
+      <c r="P9" s="14">
+        <v>0.65600000000000003</v>
+      </c>
+      <c r="Q9" s="14">
+        <v>0.60975609756097571</v>
+      </c>
+      <c r="R9" s="14">
+        <v>0.48000000000000004</v>
+      </c>
+      <c r="S9" s="14">
+        <v>0.54893617021276597</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="10">
-        <v>0.76519999999999999</v>
-      </c>
-      <c r="C10" s="10">
-        <v>0.76519999999999999</v>
-      </c>
-      <c r="D10" s="10">
-        <v>0.76519999999999999</v>
-      </c>
-      <c r="E10" s="10">
-        <v>0.76519999999999999</v>
-      </c>
-      <c r="F10" s="10">
-        <v>0.76519999999999999</v>
-      </c>
-      <c r="G10" s="10">
-        <v>0.76519999999999999</v>
-      </c>
-      <c r="H10" s="10">
-        <v>0.76519999999999999</v>
-      </c>
-      <c r="I10" s="10">
-        <v>0.76519999999999999</v>
-      </c>
-      <c r="J10" s="10">
-        <v>0.76519999999999999</v>
-      </c>
-      <c r="K10" s="10">
-        <v>0.76519999999999999</v>
-      </c>
-      <c r="L10" s="10">
-        <v>0.76519999999999999</v>
-      </c>
-      <c r="M10" s="10">
-        <v>0.76519999999999999</v>
-      </c>
-      <c r="N10" s="10">
-        <v>0.76519999999999999</v>
-      </c>
-      <c r="O10" s="10">
-        <v>0.76519999999999999</v>
-      </c>
-      <c r="P10" s="10">
-        <v>0.76519999999999999</v>
-      </c>
-      <c r="Q10" s="10">
-        <v>0.76519999999999999</v>
-      </c>
-      <c r="R10" s="10">
-        <v>0.76519999999999999</v>
-      </c>
-      <c r="S10" s="10">
-        <v>0.76519999999999999</v>
-      </c>
-      <c r="T10" s="10">
-        <v>0.76519999999999999</v>
-      </c>
-      <c r="U10" s="10">
-        <v>0.76519999999999999</v>
-      </c>
-    </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="B10" s="14">
+        <v>0.38305084745762707</v>
+      </c>
+      <c r="C10" s="14">
+        <v>0.8</v>
+      </c>
+      <c r="D10" s="14">
+        <v>0.8</v>
+      </c>
+      <c r="E10" s="14">
+        <v>0.8</v>
+      </c>
+      <c r="F10" s="14">
+        <v>0.8</v>
+      </c>
+      <c r="G10" s="14">
+        <v>0.8</v>
+      </c>
+      <c r="H10" s="14">
+        <v>0.8</v>
+      </c>
+      <c r="I10" s="14">
+        <v>0.58980891719745221</v>
+      </c>
+      <c r="J10" s="14">
+        <v>0.6092165898617512</v>
+      </c>
+      <c r="K10" s="14">
+        <v>0.44096385542168681</v>
+      </c>
+      <c r="L10" s="14">
+        <v>0.71578947368421053</v>
+      </c>
+      <c r="M10" s="14">
+        <v>0.41473684210526318</v>
+      </c>
+      <c r="N10" s="14">
+        <v>0.23</v>
+      </c>
+      <c r="O10" s="14">
+        <v>0.33373493975903612</v>
+      </c>
+      <c r="P10" s="14">
+        <v>0.35771428571428582</v>
+      </c>
+      <c r="Q10" s="14">
+        <v>0.2780487804878049</v>
+      </c>
+      <c r="R10" s="14">
+        <v>0.29500000000000004</v>
+      </c>
+      <c r="S10" s="14">
+        <v>0.35744680851063831</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B11" s="10">
-        <v>0.84099999999999997</v>
-      </c>
-      <c r="C11" s="10">
-        <v>0.84099999999999997</v>
-      </c>
-      <c r="D11" s="10">
-        <v>0.84099999999999997</v>
-      </c>
-      <c r="E11" s="10">
-        <v>0.84099999999999997</v>
-      </c>
-      <c r="F11" s="10">
-        <v>0.84099999999999997</v>
-      </c>
-      <c r="G11" s="10">
-        <v>0.84099999999999997</v>
-      </c>
-      <c r="H11" s="10">
-        <v>0.84099999999999997</v>
-      </c>
-      <c r="I11" s="10">
-        <v>0.84099999999999997</v>
-      </c>
-      <c r="J11" s="10">
-        <v>0.84099999999999997</v>
-      </c>
-      <c r="K11" s="10">
-        <v>0.84099999999999997</v>
-      </c>
-      <c r="L11" s="10">
-        <v>0.84099999999999997</v>
-      </c>
-      <c r="M11" s="10">
-        <v>0.84099999999999997</v>
-      </c>
-      <c r="N11" s="10">
-        <v>0.84099999999999997</v>
-      </c>
-      <c r="O11" s="10">
-        <v>0.84099999999999997</v>
-      </c>
-      <c r="P11" s="10">
-        <v>0.84099999999999997</v>
-      </c>
-      <c r="Q11" s="10">
-        <v>0.84099999999999997</v>
-      </c>
-      <c r="R11" s="10">
-        <v>0.84099999999999997</v>
-      </c>
-      <c r="S11" s="10">
-        <v>0.84099999999999997</v>
-      </c>
-      <c r="T11" s="10">
-        <v>0.84099999999999997</v>
-      </c>
-      <c r="U11" s="10">
-        <v>0.84099999999999997</v>
+      <c r="B11" s="14">
+        <v>0.21016949152542377</v>
+      </c>
+      <c r="C11" s="14">
+        <v>0.53750000000000009</v>
+      </c>
+      <c r="D11" s="14">
+        <v>0.40526315789473688</v>
+      </c>
+      <c r="E11" s="14">
+        <v>0.44615384615384612</v>
+      </c>
+      <c r="F11" s="14">
+        <v>0.41923076923076924</v>
+      </c>
+      <c r="G11" s="14">
+        <v>0.41923076923076924</v>
+      </c>
+      <c r="H11" s="14">
+        <v>0.29959514170040491</v>
+      </c>
+      <c r="I11" s="14">
+        <v>0.46369426751592357</v>
+      </c>
+      <c r="J11" s="14">
+        <v>0.31612903225806455</v>
+      </c>
+      <c r="K11" s="14">
+        <v>0.43855421686746998</v>
+      </c>
+      <c r="L11" s="14">
+        <v>0.66315789473684217</v>
+      </c>
+      <c r="M11" s="14">
+        <v>0.7305263157894738</v>
+      </c>
+      <c r="N11" s="14">
+        <v>0.57000000000000006</v>
+      </c>
+      <c r="O11" s="14">
+        <v>0.59036144578313254</v>
+      </c>
+      <c r="P11" s="14">
+        <v>0.64914285714285713</v>
+      </c>
+      <c r="Q11" s="14">
+        <v>0.38536585365853659</v>
+      </c>
+      <c r="R11" s="14">
+        <v>0.31000000000000005</v>
+      </c>
+      <c r="S11" s="14">
+        <v>0.35319148936170219</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A12" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12" s="14">
+        <v>0.33220338983050851</v>
+      </c>
+      <c r="C12" s="14">
+        <v>0.60312500000000013</v>
+      </c>
+      <c r="D12" s="14">
+        <v>0.50789473684210529</v>
+      </c>
+      <c r="E12" s="14">
+        <v>0.60000000000000009</v>
+      </c>
+      <c r="F12" s="14">
+        <v>0.52307692307692322</v>
+      </c>
+      <c r="G12" s="14">
+        <v>0.52307692307692322</v>
+      </c>
+      <c r="H12" s="14">
+        <v>0.3433198380566802</v>
+      </c>
+      <c r="I12" s="14">
+        <v>0.4140127388535032</v>
+      </c>
+      <c r="J12" s="14">
+        <v>0.32165898617511524</v>
+      </c>
+      <c r="K12" s="14">
+        <v>0.3566265060240964</v>
+      </c>
+      <c r="L12" s="14">
+        <v>0.72631578947368425</v>
+      </c>
+      <c r="M12" s="14">
+        <v>0.8</v>
+      </c>
+      <c r="N12" s="14">
+        <v>0.8</v>
+      </c>
+      <c r="O12" s="14">
+        <v>0.8</v>
+      </c>
+      <c r="P12" s="14">
+        <v>0.8</v>
+      </c>
+      <c r="Q12" s="14">
+        <v>0.8</v>
+      </c>
+      <c r="R12" s="14">
+        <v>0.8</v>
+      </c>
+      <c r="S12" s="14">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A13" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B13" s="14">
+        <v>0.3728813559322034</v>
+      </c>
+      <c r="C13" s="14">
+        <v>0.60312500000000013</v>
+      </c>
+      <c r="D13" s="14">
+        <v>0.53947368421052644</v>
+      </c>
+      <c r="E13" s="14">
+        <v>0.55384615384615377</v>
+      </c>
+      <c r="F13" s="14">
+        <v>0.55769230769230771</v>
+      </c>
+      <c r="G13" s="14">
+        <v>0.55769230769230771</v>
+      </c>
+      <c r="H13" s="14">
+        <v>0.38461538461538469</v>
+      </c>
+      <c r="I13" s="14">
+        <v>0.44458598726114651</v>
+      </c>
+      <c r="J13" s="14">
+        <v>0.25529953917050696</v>
+      </c>
+      <c r="K13" s="14">
+        <v>0.25542168674698795</v>
+      </c>
+      <c r="L13" s="14">
+        <v>0.38947368421052631</v>
+      </c>
+      <c r="M13" s="14">
+        <v>0.41473684210526318</v>
+      </c>
+      <c r="N13" s="14">
+        <v>0.43500000000000005</v>
+      </c>
+      <c r="O13" s="14">
+        <v>0.43132530120481921</v>
+      </c>
+      <c r="P13" s="14">
+        <v>0.51200000000000012</v>
+      </c>
+      <c r="Q13" s="14">
+        <v>0.6</v>
+      </c>
+      <c r="R13" s="14">
+        <v>0.66500000000000004</v>
+      </c>
+      <c r="S13" s="14">
+        <v>0.71063829787234056</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A14" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B14" s="14">
+        <v>0.32203389830508478</v>
+      </c>
+      <c r="C14" s="14">
+        <v>0.58906250000000016</v>
+      </c>
+      <c r="D14" s="14">
+        <v>0.38157894736842107</v>
+      </c>
+      <c r="E14" s="14">
+        <v>0.30769230769230765</v>
+      </c>
+      <c r="F14" s="14">
+        <v>0.30384615384615388</v>
+      </c>
+      <c r="G14" s="14">
+        <v>0.30384615384615388</v>
+      </c>
+      <c r="H14" s="14">
+        <v>0.2</v>
+      </c>
+      <c r="I14" s="14">
+        <v>0.26878980891719745</v>
+      </c>
+      <c r="J14" s="14">
+        <v>0.27188940092165897</v>
+      </c>
+      <c r="K14" s="14">
+        <v>0.27469879518072293</v>
+      </c>
+      <c r="L14" s="14">
+        <v>0.47368421052631587</v>
+      </c>
+      <c r="M14" s="14">
+        <v>0.39578947368421052</v>
+      </c>
+      <c r="N14" s="14">
+        <v>0.33000000000000007</v>
+      </c>
+      <c r="O14" s="14">
+        <v>0.39156626506024095</v>
+      </c>
+      <c r="P14" s="14">
+        <v>0.38171428571428578</v>
+      </c>
+      <c r="Q14" s="14">
+        <v>0.2</v>
+      </c>
+      <c r="R14" s="14">
+        <v>0.22</v>
+      </c>
+      <c r="S14" s="14">
+        <v>0.34042553191489366</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -11466,7 +9971,7 @@
   <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -11490,11 +9995,11 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D2">
         <f>SUM(B2:B13)</f>
-        <v>239</v>
+        <v>247</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
@@ -11502,7 +10007,7 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
@@ -11510,7 +10015,7 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
@@ -11520,17 +10025,13 @@
       <c r="B5">
         <v>20</v>
       </c>
-      <c r="D5">
-        <f>SUM(B2:B13)</f>
-        <v>239</v>
-      </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
@@ -11538,7 +10039,7 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
@@ -11546,7 +10047,7 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
@@ -11562,7 +10063,7 @@
         <v>9</v>
       </c>
       <c r="B10">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
@@ -11578,7 +10079,7 @@
         <v>11</v>
       </c>
       <c r="B12">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
@@ -11586,7 +10087,7 @@
         <v>12</v>
       </c>
       <c r="B13">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
   </sheetData>
@@ -11598,10 +10099,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3EC8F56F-130F-4BFD-90B2-BCDD3631405C}">
-  <dimension ref="A1:B51"/>
+  <dimension ref="A1:B14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+      <selection sqref="A1:B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -11612,7 +10113,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
@@ -11620,403 +10121,107 @@
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2" s="3">
+      <c r="A2" s="13">
         <v>1</v>
       </c>
       <c r="B2" s="2">
-        <v>7.3576250000000005</v>
+        <v>2.0140355191035755</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3" s="3">
+      <c r="A3" s="13">
         <v>2</v>
       </c>
       <c r="B3" s="2">
-        <v>10.66970833333334</v>
+        <v>2.5322948769537623</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4" s="3">
+      <c r="A4" s="13">
         <v>3</v>
       </c>
       <c r="B4" s="2">
-        <v>11.12045833333333</v>
+        <v>3.0982488029597595</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5" s="3">
+      <c r="A5" s="13">
         <v>4</v>
       </c>
       <c r="B5" s="2">
-        <v>17.053749999999997</v>
+        <v>3.6613684087478289</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A6" s="3">
+      <c r="A6" s="13">
         <v>5</v>
       </c>
       <c r="B6" s="2">
-        <v>11.974625000000009</v>
+        <v>2.4377188212424281</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A7" s="3">
+      <c r="A7" s="13">
         <v>6</v>
       </c>
       <c r="B7" s="2">
-        <v>8.41</v>
+        <v>3.6912050894939767</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A8" s="3">
+      <c r="A8" s="13">
         <v>7</v>
       </c>
       <c r="B8" s="2">
-        <v>7.3848750000000036</v>
+        <v>7.8701742759321771</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A9" s="3">
+      <c r="A9" s="13">
         <v>8</v>
       </c>
       <c r="B9" s="2">
-        <v>5.8399583333333336</v>
+        <v>2.0702522678667754</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A10" s="3">
+      <c r="A10" s="13">
         <v>9</v>
       </c>
       <c r="B10" s="2">
-        <v>11.946166666666663</v>
+        <v>3.855078425104546</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A11" s="3">
+      <c r="A11" s="13">
         <v>10</v>
       </c>
       <c r="B11" s="2">
-        <v>7.0045833333333372</v>
+        <v>4.9143551486598351</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A12" s="3">
+      <c r="A12" s="13">
         <v>11</v>
       </c>
       <c r="B12" s="2">
-        <v>8.4171250000000022</v>
+        <v>2.2547907067131678</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A13" s="3">
+      <c r="A13" s="13">
         <v>12</v>
       </c>
       <c r="B13" s="2">
-        <v>5.6838750000000049</v>
+        <v>3.8688149652614325</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A14" s="3">
+      <c r="A14" s="13">
         <v>13</v>
       </c>
       <c r="B14" s="2">
-        <v>8.0400000000000045</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A15" s="3">
-        <v>14</v>
-      </c>
-      <c r="B15" s="2">
-        <v>10.706874999999993</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A16" s="3">
-        <v>15</v>
-      </c>
-      <c r="B16" s="2">
-        <v>12.684250000000009</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A17" s="3">
-        <v>16</v>
-      </c>
-      <c r="B17" s="2">
-        <v>10.21216666666667</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A18" s="3">
-        <v>17</v>
-      </c>
-      <c r="B18" s="2">
-        <v>7.3879999999999928</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A19" s="3">
-        <v>18</v>
-      </c>
-      <c r="B19" s="2">
-        <v>5.8928333333333338</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A20" s="3">
-        <v>19</v>
-      </c>
-      <c r="B20" s="2">
-        <v>5.8255000000000043</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A21" s="3">
-        <v>20</v>
-      </c>
-      <c r="B21" s="2">
-        <v>18.261791666666667</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A22" s="3">
-        <v>21</v>
-      </c>
-      <c r="B22" s="2">
-        <v>7.6391250000000026</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A23" s="3">
-        <v>22</v>
-      </c>
-      <c r="B23" s="2">
-        <v>12.205708333333328</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A24" s="3">
-        <v>23</v>
-      </c>
-      <c r="B24" s="2">
-        <v>8.7185833333333385</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A25" s="3">
-        <v>24</v>
-      </c>
-      <c r="B25" s="2">
-        <v>5.6072916666666597</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A26" s="3">
-        <v>25</v>
-      </c>
-      <c r="B26" s="2">
-        <v>21.070374999999999</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A27" s="3">
-        <v>26</v>
-      </c>
-      <c r="B27" s="2">
-        <v>9.4740833333333345</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A28" s="3">
-        <v>27</v>
-      </c>
-      <c r="B28" s="2">
-        <v>11.045916666666667</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A29" s="3">
-        <v>28</v>
-      </c>
-      <c r="B29" s="2">
-        <v>11.502583333333337</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A30" s="3">
-        <v>29</v>
-      </c>
-      <c r="B30" s="2">
-        <v>15.606166666666667</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A31" s="3">
-        <v>30</v>
-      </c>
-      <c r="B31" s="2">
-        <v>8.4423749999999949</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A32" s="3">
-        <v>31</v>
-      </c>
-      <c r="B32" s="2">
-        <v>8.6074583333333354</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A33" s="3">
-        <v>32</v>
-      </c>
-      <c r="B33" s="2">
-        <v>8.3537499999999962</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A34" s="3">
-        <v>33</v>
-      </c>
-      <c r="B34" s="2">
-        <v>5.6758333333333351</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A35" s="3">
-        <v>34</v>
-      </c>
-      <c r="B35" s="2">
-        <v>12.657374999999986</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A36" s="3">
-        <v>35</v>
-      </c>
-      <c r="B36" s="2">
-        <v>9.0177500000000013</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A37" s="3">
-        <v>36</v>
-      </c>
-      <c r="B37" s="2">
-        <v>9.1854166666666632</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A38" s="3">
-        <v>37</v>
-      </c>
-      <c r="B38" s="2">
-        <v>7.6837083333333336</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A39" s="3">
-        <v>38</v>
-      </c>
-      <c r="B39" s="2">
-        <v>8.6169166666666666</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A40" s="3">
-        <v>39</v>
-      </c>
-      <c r="B40" s="2">
-        <v>18.327249999999996</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A41" s="3">
-        <v>40</v>
-      </c>
-      <c r="B41" s="2">
-        <v>8.0876666666666726</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A42" s="3">
-        <v>41</v>
-      </c>
-      <c r="B42" s="2">
-        <v>10.591416666666664</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A43" s="3">
-        <v>42</v>
-      </c>
-      <c r="B43" s="2">
-        <v>17.846625000000003</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A44" s="3">
-        <v>43</v>
-      </c>
-      <c r="B44" s="2">
-        <v>5.1420000000000003</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A45" s="3">
-        <v>44</v>
-      </c>
-      <c r="B45" s="2">
-        <v>11.960208333333339</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A46" s="3">
-        <v>45</v>
-      </c>
-      <c r="B46" s="2">
-        <v>8.64404166666667</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A47" s="3">
-        <v>46</v>
-      </c>
-      <c r="B47" s="2">
-        <v>3.7774166666666664</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A48" s="3">
-        <v>47</v>
-      </c>
-      <c r="B48" s="2">
-        <v>7.2567916666666683</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A49" s="3">
-        <v>48</v>
-      </c>
-      <c r="B49" s="2">
-        <v>14.790958333333339</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A50" s="3">
-        <v>49</v>
-      </c>
-      <c r="B50" s="2">
-        <v>8.036624999999999</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A51" s="3">
-        <v>50</v>
-      </c>
-      <c r="B51" s="2">
-        <v>9.8430833333333236</v>
+        <v>2.5630892048513934</v>
       </c>
     </row>
   </sheetData>
@@ -12302,10 +10507,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8CFC439-7716-4A0D-B0C0-2CC839CF378F}">
-  <dimension ref="A1:L51"/>
+  <dimension ref="A1:D50"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B11"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -12313,635 +10518,274 @@
     <col min="1" max="1" width="8.6640625" style="5"/>
     <col min="2" max="2" width="8.6640625" style="6"/>
     <col min="3" max="3" width="8.6640625" style="5"/>
-    <col min="4" max="4" width="15.83203125" style="5" customWidth="1"/>
-    <col min="5" max="5" width="11.25" style="6" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.33203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="7" max="16384" width="8.6640625" style="5"/>
+    <col min="4" max="4" width="11.25" style="6" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.33203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="8.6640625" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A1" s="5" t="s">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="12" t="s">
         <v>57</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="13" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A2" s="5">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" s="13">
         <v>1</v>
       </c>
-      <c r="B2" s="6">
-        <v>408237.65</v>
-      </c>
-      <c r="C2" s="7">
-        <v>2024470</v>
-      </c>
-      <c r="D2" s="7"/>
-      <c r="E2" s="12"/>
-      <c r="F2" s="12"/>
-      <c r="G2" s="12"/>
-      <c r="H2" s="12"/>
-      <c r="I2" s="12"/>
-      <c r="J2" s="12"/>
-      <c r="K2" s="12"/>
-      <c r="L2" s="12"/>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A3" s="5">
+      <c r="B2" s="12">
+        <v>607499.99</v>
+      </c>
+      <c r="C2" s="13">
+        <v>300000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" s="13">
         <v>2</v>
       </c>
-      <c r="B3" s="6">
-        <v>1833259.1600000001</v>
-      </c>
-      <c r="C3" s="7">
-        <v>2024470</v>
-      </c>
-      <c r="D3" s="2"/>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A4" s="5">
+      <c r="B3" s="12">
+        <v>1942023.6</v>
+      </c>
+      <c r="C3" s="13">
+        <v>300000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" s="13">
         <v>3</v>
       </c>
-      <c r="B4" s="6">
-        <v>607499.99</v>
-      </c>
-      <c r="C4" s="7">
-        <v>2024470</v>
-      </c>
-      <c r="D4" s="2"/>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A5" s="5">
+      <c r="B4" s="12">
+        <v>1955580.2</v>
+      </c>
+      <c r="C4" s="13">
+        <v>300000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" s="13">
         <v>4</v>
       </c>
-      <c r="B5" s="6">
-        <v>462221.75</v>
-      </c>
-      <c r="C5" s="7">
-        <v>2024470</v>
-      </c>
-      <c r="D5" s="2"/>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A6" s="5">
+      <c r="B5" s="12">
+        <v>1762308.48</v>
+      </c>
+      <c r="C5" s="13">
+        <v>300000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" s="13">
         <v>5</v>
       </c>
-      <c r="B6" s="6">
+      <c r="B6" s="12">
+        <v>990799.69</v>
+      </c>
+      <c r="C6" s="13">
         <v>300000</v>
       </c>
-      <c r="C6" s="7">
-        <v>2024470</v>
-      </c>
-      <c r="D6" s="2"/>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A7" s="5">
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" s="13">
         <v>6</v>
       </c>
-      <c r="B7" s="6">
-        <v>495000</v>
-      </c>
-      <c r="C7" s="7">
-        <v>2024470</v>
-      </c>
-      <c r="D7" s="2"/>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A8" s="5">
+      <c r="B7" s="12">
+        <v>5460000</v>
+      </c>
+      <c r="C7" s="13">
+        <v>300000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8" s="13">
         <v>7</v>
       </c>
-      <c r="B8" s="6">
-        <v>1955580.2</v>
-      </c>
-      <c r="C8" s="7">
-        <v>2024470</v>
-      </c>
-      <c r="D8" s="2"/>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A9" s="5">
+      <c r="B8" s="12">
+        <v>780000</v>
+      </c>
+      <c r="C8" s="13">
+        <v>300000</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9" s="13">
         <v>8</v>
       </c>
-      <c r="B9" s="6">
-        <v>1123153.6500000001</v>
-      </c>
-      <c r="C9" s="7">
-        <v>2024470</v>
-      </c>
-      <c r="D9" s="2"/>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A10" s="5">
+      <c r="B9" s="12">
+        <v>782515.84</v>
+      </c>
+      <c r="C9" s="13">
+        <v>300000</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10" s="13">
         <v>9</v>
       </c>
-      <c r="B10" s="6">
-        <v>1087304.3800000001</v>
-      </c>
-      <c r="C10" s="7">
-        <v>2024470</v>
-      </c>
-      <c r="D10" s="2"/>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A11" s="5">
+      <c r="B10" s="12">
+        <v>1000000</v>
+      </c>
+      <c r="C10" s="13">
+        <v>300000</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A11" s="13">
         <v>10</v>
       </c>
-      <c r="B11" s="6">
-        <v>1238333.27</v>
-      </c>
-      <c r="C11" s="7">
-        <v>2024470</v>
-      </c>
-      <c r="D11" s="2"/>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A12" s="5">
+      <c r="B11" s="12">
+        <v>2038400</v>
+      </c>
+      <c r="C11" s="13">
+        <v>300000</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A12" s="13">
         <v>11</v>
       </c>
-      <c r="B12" s="6">
-        <v>760500</v>
-      </c>
-      <c r="C12" s="7">
-        <v>2024470</v>
-      </c>
-      <c r="D12" s="2"/>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A13" s="5">
+      <c r="B12" s="12">
+        <v>649122.99</v>
+      </c>
+      <c r="C12" s="13">
+        <v>300000</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A13" s="13">
         <v>12</v>
       </c>
-      <c r="B13" s="6">
-        <v>635880</v>
-      </c>
-      <c r="C13" s="7">
-        <v>2024470</v>
-      </c>
-      <c r="D13" s="2"/>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A14" s="5">
+      <c r="B13" s="12">
+        <v>1270000</v>
+      </c>
+      <c r="C13" s="13">
+        <v>300000</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A14" s="13">
         <v>13</v>
       </c>
-      <c r="B14" s="6">
-        <v>1813200</v>
-      </c>
-      <c r="C14" s="7">
-        <v>2024470</v>
-      </c>
-      <c r="D14" s="2"/>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A15" s="5">
-        <v>14</v>
-      </c>
-      <c r="B15" s="6">
-        <v>1440000</v>
-      </c>
-      <c r="C15" s="7">
-        <v>2024470</v>
-      </c>
-      <c r="D15" s="2"/>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A16" s="5">
-        <v>15</v>
-      </c>
-      <c r="B16" s="6">
-        <v>1536000</v>
-      </c>
-      <c r="C16" s="7">
-        <v>2024470</v>
-      </c>
-      <c r="D16" s="2"/>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A17" s="5">
-        <v>16</v>
-      </c>
-      <c r="B17" s="6">
-        <v>5460000</v>
-      </c>
-      <c r="C17" s="7">
-        <v>2024470</v>
-      </c>
-      <c r="D17" s="2"/>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A18" s="5">
-        <v>17</v>
-      </c>
-      <c r="B18" s="6">
-        <v>1200000</v>
-      </c>
-      <c r="C18" s="7">
-        <v>2024470</v>
-      </c>
-      <c r="D18" s="2"/>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A19" s="5">
-        <v>18</v>
-      </c>
-      <c r="B19" s="6">
-        <v>600000</v>
-      </c>
-      <c r="C19" s="7">
-        <v>2024470</v>
-      </c>
-      <c r="D19" s="2"/>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A20" s="5">
-        <v>19</v>
-      </c>
-      <c r="B20" s="6">
-        <v>700000</v>
-      </c>
-      <c r="C20" s="7">
-        <v>2024470</v>
-      </c>
-      <c r="D20" s="2"/>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A21" s="5">
-        <v>20</v>
-      </c>
-      <c r="B21" s="6">
-        <v>846000</v>
-      </c>
-      <c r="C21" s="7">
-        <v>2024470</v>
-      </c>
-      <c r="D21" s="2"/>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A22" s="5">
-        <v>21</v>
-      </c>
-      <c r="B22" s="6">
-        <v>2660000</v>
-      </c>
-      <c r="C22" s="7">
-        <v>2024470</v>
-      </c>
-      <c r="D22" s="2"/>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A23" s="5">
-        <v>22</v>
-      </c>
-      <c r="B23" s="6">
-        <v>335000</v>
-      </c>
-      <c r="C23" s="7">
-        <v>2024470</v>
-      </c>
-      <c r="D23" s="2"/>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A24" s="5">
-        <v>23</v>
-      </c>
-      <c r="B24" s="6">
-        <v>1800000</v>
-      </c>
-      <c r="C24" s="7">
-        <v>2024470</v>
-      </c>
-      <c r="D24" s="2"/>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A25" s="5">
-        <v>24</v>
-      </c>
-      <c r="B25" s="6">
-        <v>1638000</v>
-      </c>
-      <c r="C25" s="7">
-        <v>2024470</v>
-      </c>
-      <c r="D25" s="2"/>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A26" s="5">
-        <v>25</v>
-      </c>
-      <c r="B26" s="6">
-        <v>450000</v>
-      </c>
-      <c r="C26" s="7">
-        <v>2024470</v>
-      </c>
-      <c r="D26" s="2"/>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A27" s="5">
-        <v>26</v>
-      </c>
-      <c r="B27" s="6">
-        <v>500000</v>
-      </c>
-      <c r="C27" s="7">
-        <v>2024470</v>
-      </c>
-      <c r="D27" s="2"/>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A28" s="5">
-        <v>27</v>
-      </c>
-      <c r="B28" s="6">
-        <v>350000</v>
-      </c>
-      <c r="C28" s="7">
-        <v>2024470</v>
-      </c>
-      <c r="D28" s="2"/>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A29" s="5">
-        <v>28</v>
-      </c>
-      <c r="B29" s="6">
-        <v>700000</v>
-      </c>
-      <c r="C29" s="7">
-        <v>2024470</v>
-      </c>
-      <c r="D29" s="2"/>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A30" s="5">
-        <v>29</v>
-      </c>
-      <c r="B30" s="6">
-        <v>900000</v>
-      </c>
-      <c r="C30" s="7">
-        <v>2024470</v>
-      </c>
-      <c r="D30" s="2"/>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A31" s="5">
-        <v>30</v>
-      </c>
-      <c r="B31" s="6">
-        <v>650000</v>
-      </c>
-      <c r="C31" s="7">
-        <v>2024470</v>
-      </c>
-      <c r="D31" s="2"/>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A32" s="5">
-        <v>31</v>
-      </c>
-      <c r="B32" s="6">
-        <v>1200000</v>
-      </c>
-      <c r="C32" s="7">
-        <v>2024470</v>
-      </c>
-      <c r="D32" s="2"/>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A33" s="5">
-        <v>32</v>
-      </c>
-      <c r="B33" s="6">
-        <v>1500000</v>
-      </c>
-      <c r="C33" s="7">
-        <v>2024470</v>
-      </c>
-      <c r="D33" s="2"/>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A34" s="5">
-        <v>33</v>
-      </c>
-      <c r="B34" s="6">
-        <v>600000</v>
-      </c>
-      <c r="C34" s="7">
-        <v>2024470</v>
-      </c>
-      <c r="D34" s="2"/>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A35" s="5">
-        <v>34</v>
-      </c>
-      <c r="B35" s="6">
-        <v>400000</v>
-      </c>
-      <c r="C35" s="7">
-        <v>2024470</v>
-      </c>
-      <c r="D35" s="2"/>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A36" s="5">
-        <v>35</v>
-      </c>
-      <c r="B36" s="6">
-        <v>338000</v>
-      </c>
-      <c r="C36" s="7">
-        <v>2024470</v>
-      </c>
-      <c r="D36" s="2"/>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A37" s="5">
-        <v>36</v>
-      </c>
-      <c r="B37" s="6">
-        <v>936250.68000000017</v>
-      </c>
-      <c r="C37" s="7">
-        <v>2024470</v>
-      </c>
-      <c r="D37" s="2"/>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A38" s="5">
-        <v>37</v>
-      </c>
-      <c r="B38" s="6">
-        <v>1003440</v>
-      </c>
-      <c r="C38" s="7">
-        <v>2024470</v>
-      </c>
-      <c r="D38" s="2"/>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A39" s="5">
-        <v>38</v>
-      </c>
-      <c r="B39" s="6">
-        <v>1613520</v>
-      </c>
-      <c r="C39" s="7">
-        <v>2024470</v>
-      </c>
-      <c r="D39" s="2"/>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A40" s="5">
-        <v>39</v>
-      </c>
-      <c r="B40" s="6">
-        <v>588002</v>
-      </c>
-      <c r="C40" s="7">
-        <v>2024470</v>
-      </c>
-      <c r="D40" s="2"/>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A41" s="5">
-        <v>40</v>
-      </c>
-      <c r="B41" s="6">
-        <v>520884</v>
-      </c>
-      <c r="C41" s="7">
-        <v>2024470</v>
-      </c>
-      <c r="D41" s="2"/>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A42" s="5">
-        <v>41</v>
-      </c>
-      <c r="B42" s="6">
-        <v>1195674.48</v>
-      </c>
-      <c r="C42" s="7">
-        <v>2024470</v>
-      </c>
-      <c r="D42" s="2"/>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A43" s="5">
-        <v>42</v>
-      </c>
-      <c r="B43" s="6">
-        <v>846095.39999999991</v>
-      </c>
-      <c r="C43" s="7">
-        <v>2024470</v>
-      </c>
-      <c r="D43" s="2"/>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A44" s="5">
-        <v>43</v>
-      </c>
-      <c r="B44" s="6">
-        <v>600000</v>
-      </c>
-      <c r="C44" s="7">
-        <v>2024470</v>
-      </c>
-      <c r="D44" s="2"/>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A45" s="5">
-        <v>44</v>
-      </c>
-      <c r="B45" s="6">
-        <v>624000</v>
-      </c>
-      <c r="C45" s="7">
-        <v>2024470</v>
-      </c>
-      <c r="D45" s="2"/>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A46" s="5">
-        <v>45</v>
-      </c>
-      <c r="B46" s="6">
-        <v>700910</v>
-      </c>
-      <c r="C46" s="7">
-        <v>2024470</v>
-      </c>
-      <c r="D46" s="2"/>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A47" s="5">
-        <v>46</v>
-      </c>
-      <c r="B47" s="6">
-        <v>6000000</v>
-      </c>
-      <c r="C47" s="7">
-        <v>2024470</v>
-      </c>
-      <c r="D47" s="2"/>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A48" s="5">
-        <v>47</v>
-      </c>
-      <c r="B48" s="6">
-        <v>428686.65</v>
-      </c>
-      <c r="C48" s="7">
-        <v>2024470</v>
-      </c>
-      <c r="D48" s="2"/>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A49" s="5">
-        <v>48</v>
-      </c>
-      <c r="B49" s="6">
-        <v>1416000</v>
-      </c>
-      <c r="C49" s="7">
-        <v>2024470</v>
-      </c>
-      <c r="D49" s="2"/>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A50" s="5">
-        <v>49</v>
-      </c>
-      <c r="B50" s="6">
-        <v>487305</v>
-      </c>
-      <c r="C50" s="7">
-        <v>2024470</v>
-      </c>
-      <c r="D50" s="2"/>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A51" s="5">
-        <v>50</v>
-      </c>
-      <c r="B51" s="6">
-        <v>180000</v>
-      </c>
-      <c r="C51" s="7">
-        <v>2024470</v>
-      </c>
-      <c r="D51" s="2"/>
+      <c r="B14" s="12">
+        <v>1977300</v>
+      </c>
+      <c r="C14" s="13">
+        <v>300000</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C15" s="7"/>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C16" s="7"/>
+    </row>
+    <row r="17" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C17" s="7"/>
+    </row>
+    <row r="18" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C18" s="7"/>
+    </row>
+    <row r="19" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C19" s="7"/>
+    </row>
+    <row r="20" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C20" s="7"/>
+    </row>
+    <row r="21" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C21" s="7"/>
+    </row>
+    <row r="22" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C22" s="7"/>
+    </row>
+    <row r="23" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C23" s="7"/>
+    </row>
+    <row r="24" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C24" s="7"/>
+    </row>
+    <row r="25" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C25" s="7"/>
+    </row>
+    <row r="26" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C26" s="7"/>
+    </row>
+    <row r="27" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C27" s="7"/>
+    </row>
+    <row r="28" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C28" s="7"/>
+    </row>
+    <row r="29" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C29" s="7"/>
+    </row>
+    <row r="30" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C30" s="7"/>
+    </row>
+    <row r="31" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C31" s="7"/>
+    </row>
+    <row r="32" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C32" s="7"/>
+    </row>
+    <row r="33" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C33" s="7"/>
+    </row>
+    <row r="34" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C34" s="7"/>
+    </row>
+    <row r="35" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C35" s="7"/>
+    </row>
+    <row r="36" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C36" s="7"/>
+    </row>
+    <row r="37" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C37" s="7"/>
+    </row>
+    <row r="38" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C38" s="7"/>
+    </row>
+    <row r="39" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C39" s="7"/>
+    </row>
+    <row r="40" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C40" s="7"/>
+    </row>
+    <row r="41" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C41" s="7"/>
+    </row>
+    <row r="42" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C42" s="7"/>
+    </row>
+    <row r="43" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C43" s="7"/>
+    </row>
+    <row r="44" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C44" s="7"/>
+    </row>
+    <row r="45" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C45" s="7"/>
+    </row>
+    <row r="46" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C46" s="7"/>
+    </row>
+    <row r="47" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C47" s="7"/>
+    </row>
+    <row r="48" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C48" s="7"/>
+    </row>
+    <row r="49" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C49" s="7"/>
+    </row>
+    <row r="50" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C50" s="7"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="E2:L2"/>
-  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -13254,7 +11098,7 @@
       </c>
     </row>
     <row r="2" spans="1:52" x14ac:dyDescent="0.3">
-      <c r="A2" s="13">
+      <c r="A2" s="15">
         <v>2000</v>
       </c>
       <c r="B2" s="3">
@@ -13412,7 +11256,7 @@
       </c>
     </row>
     <row r="3" spans="1:52" x14ac:dyDescent="0.3">
-      <c r="A3" s="13"/>
+      <c r="A3" s="15"/>
       <c r="B3" s="3">
         <v>2</v>
       </c>
@@ -13568,7 +11412,7 @@
       </c>
     </row>
     <row r="4" spans="1:52" x14ac:dyDescent="0.3">
-      <c r="A4" s="13"/>
+      <c r="A4" s="15"/>
       <c r="B4" s="3">
         <v>3</v>
       </c>
@@ -13724,7 +11568,7 @@
       </c>
     </row>
     <row r="5" spans="1:52" x14ac:dyDescent="0.3">
-      <c r="A5" s="13"/>
+      <c r="A5" s="15"/>
       <c r="B5" s="3">
         <v>4</v>
       </c>
@@ -13880,7 +11724,7 @@
       </c>
     </row>
     <row r="6" spans="1:52" x14ac:dyDescent="0.3">
-      <c r="A6" s="13"/>
+      <c r="A6" s="15"/>
       <c r="B6" s="3">
         <v>5</v>
       </c>
@@ -14036,7 +11880,7 @@
       </c>
     </row>
     <row r="7" spans="1:52" x14ac:dyDescent="0.3">
-      <c r="A7" s="13"/>
+      <c r="A7" s="15"/>
       <c r="B7" s="3">
         <v>6</v>
       </c>
@@ -14192,7 +12036,7 @@
       </c>
     </row>
     <row r="8" spans="1:52" x14ac:dyDescent="0.3">
-      <c r="A8" s="13"/>
+      <c r="A8" s="15"/>
       <c r="B8" s="3">
         <v>7</v>
       </c>
@@ -14348,7 +12192,7 @@
       </c>
     </row>
     <row r="9" spans="1:52" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="13"/>
+      <c r="A9" s="15"/>
       <c r="B9" s="3">
         <v>8</v>
       </c>
@@ -14504,7 +12348,7 @@
       </c>
     </row>
     <row r="10" spans="1:52" x14ac:dyDescent="0.3">
-      <c r="A10" s="13"/>
+      <c r="A10" s="15"/>
       <c r="B10" s="3">
         <v>9</v>
       </c>
@@ -14660,7 +12504,7 @@
       </c>
     </row>
     <row r="11" spans="1:52" x14ac:dyDescent="0.3">
-      <c r="A11" s="13"/>
+      <c r="A11" s="15"/>
       <c r="B11" s="3">
         <v>10</v>
       </c>
@@ -14816,7 +12660,7 @@
       </c>
     </row>
     <row r="12" spans="1:52" x14ac:dyDescent="0.3">
-      <c r="A12" s="13"/>
+      <c r="A12" s="15"/>
       <c r="B12" s="3">
         <v>11</v>
       </c>
@@ -14972,7 +12816,7 @@
       </c>
     </row>
     <row r="13" spans="1:52" x14ac:dyDescent="0.3">
-      <c r="A13" s="13"/>
+      <c r="A13" s="15"/>
       <c r="B13" s="3">
         <v>12</v>
       </c>
@@ -15128,7 +12972,7 @@
       </c>
     </row>
     <row r="14" spans="1:52" x14ac:dyDescent="0.3">
-      <c r="A14" s="13">
+      <c r="A14" s="15">
         <v>2001</v>
       </c>
       <c r="B14" s="3">
@@ -15286,7 +13130,7 @@
       </c>
     </row>
     <row r="15" spans="1:52" x14ac:dyDescent="0.3">
-      <c r="A15" s="13"/>
+      <c r="A15" s="15"/>
       <c r="B15" s="3">
         <v>2</v>
       </c>
@@ -15442,7 +13286,7 @@
       </c>
     </row>
     <row r="16" spans="1:52" x14ac:dyDescent="0.3">
-      <c r="A16" s="13"/>
+      <c r="A16" s="15"/>
       <c r="B16" s="3">
         <v>3</v>
       </c>
@@ -15598,7 +13442,7 @@
       </c>
     </row>
     <row r="17" spans="1:52" x14ac:dyDescent="0.3">
-      <c r="A17" s="13"/>
+      <c r="A17" s="15"/>
       <c r="B17" s="3">
         <v>4</v>
       </c>
@@ -15754,7 +13598,7 @@
       </c>
     </row>
     <row r="18" spans="1:52" x14ac:dyDescent="0.3">
-      <c r="A18" s="13"/>
+      <c r="A18" s="15"/>
       <c r="B18" s="3">
         <v>5</v>
       </c>
@@ -15910,7 +13754,7 @@
       </c>
     </row>
     <row r="19" spans="1:52" x14ac:dyDescent="0.3">
-      <c r="A19" s="13"/>
+      <c r="A19" s="15"/>
       <c r="B19" s="3">
         <v>6</v>
       </c>
@@ -16066,7 +13910,7 @@
       </c>
     </row>
     <row r="20" spans="1:52" x14ac:dyDescent="0.3">
-      <c r="A20" s="13"/>
+      <c r="A20" s="15"/>
       <c r="B20" s="3">
         <v>7</v>
       </c>
@@ -16222,7 +14066,7 @@
       </c>
     </row>
     <row r="21" spans="1:52" x14ac:dyDescent="0.3">
-      <c r="A21" s="13"/>
+      <c r="A21" s="15"/>
       <c r="B21" s="3">
         <v>8</v>
       </c>
@@ -16378,7 +14222,7 @@
       </c>
     </row>
     <row r="22" spans="1:52" x14ac:dyDescent="0.3">
-      <c r="A22" s="13"/>
+      <c r="A22" s="15"/>
       <c r="B22" s="3">
         <v>9</v>
       </c>
@@ -16534,7 +14378,7 @@
       </c>
     </row>
     <row r="23" spans="1:52" x14ac:dyDescent="0.3">
-      <c r="A23" s="13"/>
+      <c r="A23" s="15"/>
       <c r="B23" s="3">
         <v>10</v>
       </c>
@@ -16690,7 +14534,7 @@
       </c>
     </row>
     <row r="24" spans="1:52" x14ac:dyDescent="0.3">
-      <c r="A24" s="13"/>
+      <c r="A24" s="15"/>
       <c r="B24" s="3">
         <v>11</v>
       </c>
@@ -16846,7 +14690,7 @@
       </c>
     </row>
     <row r="25" spans="1:52" x14ac:dyDescent="0.3">
-      <c r="A25" s="13"/>
+      <c r="A25" s="15"/>
       <c r="B25" s="3">
         <v>12</v>
       </c>
@@ -17002,7 +14846,7 @@
       </c>
     </row>
     <row r="26" spans="1:52" x14ac:dyDescent="0.3">
-      <c r="A26" s="13">
+      <c r="A26" s="15">
         <v>2002</v>
       </c>
       <c r="B26" s="3">
@@ -17160,7 +15004,7 @@
       </c>
     </row>
     <row r="27" spans="1:52" x14ac:dyDescent="0.3">
-      <c r="A27" s="13"/>
+      <c r="A27" s="15"/>
       <c r="B27" s="3">
         <v>2</v>
       </c>
@@ -17316,7 +15160,7 @@
       </c>
     </row>
     <row r="28" spans="1:52" x14ac:dyDescent="0.3">
-      <c r="A28" s="13"/>
+      <c r="A28" s="15"/>
       <c r="B28" s="3">
         <v>3</v>
       </c>
@@ -17472,7 +15316,7 @@
       </c>
     </row>
     <row r="29" spans="1:52" x14ac:dyDescent="0.3">
-      <c r="A29" s="13"/>
+      <c r="A29" s="15"/>
       <c r="B29" s="3">
         <v>4</v>
       </c>
@@ -17628,7 +15472,7 @@
       </c>
     </row>
     <row r="30" spans="1:52" x14ac:dyDescent="0.3">
-      <c r="A30" s="13"/>
+      <c r="A30" s="15"/>
       <c r="B30" s="3">
         <v>5</v>
       </c>
@@ -17784,7 +15628,7 @@
       </c>
     </row>
     <row r="31" spans="1:52" x14ac:dyDescent="0.3">
-      <c r="A31" s="13"/>
+      <c r="A31" s="15"/>
       <c r="B31" s="3">
         <v>6</v>
       </c>
@@ -17940,7 +15784,7 @@
       </c>
     </row>
     <row r="32" spans="1:52" x14ac:dyDescent="0.3">
-      <c r="A32" s="13"/>
+      <c r="A32" s="15"/>
       <c r="B32" s="3">
         <v>7</v>
       </c>
@@ -18096,7 +15940,7 @@
       </c>
     </row>
     <row r="33" spans="1:52" x14ac:dyDescent="0.3">
-      <c r="A33" s="13"/>
+      <c r="A33" s="15"/>
       <c r="B33" s="3">
         <v>8</v>
       </c>
@@ -18252,7 +16096,7 @@
       </c>
     </row>
     <row r="34" spans="1:52" x14ac:dyDescent="0.3">
-      <c r="A34" s="13"/>
+      <c r="A34" s="15"/>
       <c r="B34" s="3">
         <v>9</v>
       </c>
@@ -18408,7 +16252,7 @@
       </c>
     </row>
     <row r="35" spans="1:52" x14ac:dyDescent="0.3">
-      <c r="A35" s="13"/>
+      <c r="A35" s="15"/>
       <c r="B35" s="3">
         <v>10</v>
       </c>
@@ -18564,7 +16408,7 @@
       </c>
     </row>
     <row r="36" spans="1:52" x14ac:dyDescent="0.3">
-      <c r="A36" s="13"/>
+      <c r="A36" s="15"/>
       <c r="B36" s="3">
         <v>11</v>
       </c>
@@ -18720,7 +16564,7 @@
       </c>
     </row>
     <row r="37" spans="1:52" x14ac:dyDescent="0.3">
-      <c r="A37" s="13"/>
+      <c r="A37" s="15"/>
       <c r="B37" s="3">
         <v>12</v>
       </c>
@@ -18876,7 +16720,7 @@
       </c>
     </row>
     <row r="38" spans="1:52" x14ac:dyDescent="0.3">
-      <c r="A38" s="13">
+      <c r="A38" s="15">
         <v>2003</v>
       </c>
       <c r="B38" s="3">
@@ -19034,7 +16878,7 @@
       </c>
     </row>
     <row r="39" spans="1:52" x14ac:dyDescent="0.3">
-      <c r="A39" s="13"/>
+      <c r="A39" s="15"/>
       <c r="B39" s="3">
         <v>2</v>
       </c>
@@ -19190,7 +17034,7 @@
       </c>
     </row>
     <row r="40" spans="1:52" x14ac:dyDescent="0.3">
-      <c r="A40" s="13"/>
+      <c r="A40" s="15"/>
       <c r="B40" s="3">
         <v>3</v>
       </c>
@@ -19346,7 +17190,7 @@
       </c>
     </row>
     <row r="41" spans="1:52" x14ac:dyDescent="0.3">
-      <c r="A41" s="13"/>
+      <c r="A41" s="15"/>
       <c r="B41" s="3">
         <v>4</v>
       </c>
@@ -19502,7 +17346,7 @@
       </c>
     </row>
     <row r="42" spans="1:52" x14ac:dyDescent="0.3">
-      <c r="A42" s="13"/>
+      <c r="A42" s="15"/>
       <c r="B42" s="3">
         <v>5</v>
       </c>
@@ -19658,7 +17502,7 @@
       </c>
     </row>
     <row r="43" spans="1:52" x14ac:dyDescent="0.3">
-      <c r="A43" s="13"/>
+      <c r="A43" s="15"/>
       <c r="B43" s="3">
         <v>6</v>
       </c>
@@ -19814,7 +17658,7 @@
       </c>
     </row>
     <row r="44" spans="1:52" x14ac:dyDescent="0.3">
-      <c r="A44" s="13"/>
+      <c r="A44" s="15"/>
       <c r="B44" s="3">
         <v>7</v>
       </c>
@@ -19970,7 +17814,7 @@
       </c>
     </row>
     <row r="45" spans="1:52" x14ac:dyDescent="0.3">
-      <c r="A45" s="13"/>
+      <c r="A45" s="15"/>
       <c r="B45" s="3">
         <v>8</v>
       </c>
@@ -20126,7 +17970,7 @@
       </c>
     </row>
     <row r="46" spans="1:52" x14ac:dyDescent="0.3">
-      <c r="A46" s="13"/>
+      <c r="A46" s="15"/>
       <c r="B46" s="3">
         <v>9</v>
       </c>
@@ -20282,7 +18126,7 @@
       </c>
     </row>
     <row r="47" spans="1:52" x14ac:dyDescent="0.3">
-      <c r="A47" s="13"/>
+      <c r="A47" s="15"/>
       <c r="B47" s="3">
         <v>10</v>
       </c>
@@ -20438,7 +18282,7 @@
       </c>
     </row>
     <row r="48" spans="1:52" x14ac:dyDescent="0.3">
-      <c r="A48" s="13"/>
+      <c r="A48" s="15"/>
       <c r="B48" s="3">
         <v>11</v>
       </c>
@@ -20594,7 +18438,7 @@
       </c>
     </row>
     <row r="49" spans="1:52" x14ac:dyDescent="0.3">
-      <c r="A49" s="13"/>
+      <c r="A49" s="15"/>
       <c r="B49" s="3">
         <v>12</v>
       </c>
@@ -20750,7 +18594,7 @@
       </c>
     </row>
     <row r="50" spans="1:52" x14ac:dyDescent="0.3">
-      <c r="A50" s="13">
+      <c r="A50" s="15">
         <v>2004</v>
       </c>
       <c r="B50" s="3">
@@ -20908,7 +18752,7 @@
       </c>
     </row>
     <row r="51" spans="1:52" x14ac:dyDescent="0.3">
-      <c r="A51" s="13"/>
+      <c r="A51" s="15"/>
       <c r="B51" s="3">
         <v>2</v>
       </c>
@@ -21064,7 +18908,7 @@
       </c>
     </row>
     <row r="52" spans="1:52" x14ac:dyDescent="0.3">
-      <c r="A52" s="13"/>
+      <c r="A52" s="15"/>
       <c r="B52" s="3">
         <v>3</v>
       </c>
@@ -21220,7 +19064,7 @@
       </c>
     </row>
     <row r="53" spans="1:52" x14ac:dyDescent="0.3">
-      <c r="A53" s="13"/>
+      <c r="A53" s="15"/>
       <c r="B53" s="3">
         <v>4</v>
       </c>
@@ -21376,7 +19220,7 @@
       </c>
     </row>
     <row r="54" spans="1:52" x14ac:dyDescent="0.3">
-      <c r="A54" s="13"/>
+      <c r="A54" s="15"/>
       <c r="B54" s="3">
         <v>5</v>
       </c>
@@ -21532,7 +19376,7 @@
       </c>
     </row>
     <row r="55" spans="1:52" x14ac:dyDescent="0.3">
-      <c r="A55" s="13"/>
+      <c r="A55" s="15"/>
       <c r="B55" s="3">
         <v>6</v>
       </c>
@@ -21688,7 +19532,7 @@
       </c>
     </row>
     <row r="56" spans="1:52" x14ac:dyDescent="0.3">
-      <c r="A56" s="13"/>
+      <c r="A56" s="15"/>
       <c r="B56" s="3">
         <v>7</v>
       </c>
@@ -21844,7 +19688,7 @@
       </c>
     </row>
     <row r="57" spans="1:52" x14ac:dyDescent="0.3">
-      <c r="A57" s="13"/>
+      <c r="A57" s="15"/>
       <c r="B57" s="3">
         <v>8</v>
       </c>
@@ -22000,7 +19844,7 @@
       </c>
     </row>
     <row r="58" spans="1:52" x14ac:dyDescent="0.3">
-      <c r="A58" s="13"/>
+      <c r="A58" s="15"/>
       <c r="B58" s="3">
         <v>9</v>
       </c>
@@ -22156,7 +20000,7 @@
       </c>
     </row>
     <row r="59" spans="1:52" x14ac:dyDescent="0.3">
-      <c r="A59" s="13"/>
+      <c r="A59" s="15"/>
       <c r="B59" s="3">
         <v>10</v>
       </c>
@@ -22312,7 +20156,7 @@
       </c>
     </row>
     <row r="60" spans="1:52" x14ac:dyDescent="0.3">
-      <c r="A60" s="13"/>
+      <c r="A60" s="15"/>
       <c r="B60" s="3">
         <v>11</v>
       </c>
@@ -22468,7 +20312,7 @@
       </c>
     </row>
     <row r="61" spans="1:52" x14ac:dyDescent="0.3">
-      <c r="A61" s="13"/>
+      <c r="A61" s="15"/>
       <c r="B61" s="3">
         <v>12</v>
       </c>
@@ -22624,7 +20468,7 @@
       </c>
     </row>
     <row r="62" spans="1:52" x14ac:dyDescent="0.3">
-      <c r="A62" s="13">
+      <c r="A62" s="15">
         <v>2005</v>
       </c>
       <c r="B62" s="3">
@@ -22782,7 +20626,7 @@
       </c>
     </row>
     <row r="63" spans="1:52" x14ac:dyDescent="0.3">
-      <c r="A63" s="13"/>
+      <c r="A63" s="15"/>
       <c r="B63" s="3">
         <v>2</v>
       </c>
@@ -22938,7 +20782,7 @@
       </c>
     </row>
     <row r="64" spans="1:52" x14ac:dyDescent="0.3">
-      <c r="A64" s="13"/>
+      <c r="A64" s="15"/>
       <c r="B64" s="3">
         <v>3</v>
       </c>
@@ -23094,7 +20938,7 @@
       </c>
     </row>
     <row r="65" spans="1:52" x14ac:dyDescent="0.3">
-      <c r="A65" s="13"/>
+      <c r="A65" s="15"/>
       <c r="B65" s="3">
         <v>4</v>
       </c>
@@ -23250,7 +21094,7 @@
       </c>
     </row>
     <row r="66" spans="1:52" x14ac:dyDescent="0.3">
-      <c r="A66" s="13"/>
+      <c r="A66" s="15"/>
       <c r="B66" s="3">
         <v>5</v>
       </c>
@@ -23406,7 +21250,7 @@
       </c>
     </row>
     <row r="67" spans="1:52" x14ac:dyDescent="0.3">
-      <c r="A67" s="13"/>
+      <c r="A67" s="15"/>
       <c r="B67" s="3">
         <v>6</v>
       </c>
@@ -23562,7 +21406,7 @@
       </c>
     </row>
     <row r="68" spans="1:52" x14ac:dyDescent="0.3">
-      <c r="A68" s="13"/>
+      <c r="A68" s="15"/>
       <c r="B68" s="3">
         <v>7</v>
       </c>
@@ -23718,7 +21562,7 @@
       </c>
     </row>
     <row r="69" spans="1:52" x14ac:dyDescent="0.3">
-      <c r="A69" s="13"/>
+      <c r="A69" s="15"/>
       <c r="B69" s="3">
         <v>8</v>
       </c>
@@ -23874,7 +21718,7 @@
       </c>
     </row>
     <row r="70" spans="1:52" x14ac:dyDescent="0.3">
-      <c r="A70" s="13"/>
+      <c r="A70" s="15"/>
       <c r="B70" s="3">
         <v>9</v>
       </c>
@@ -24030,7 +21874,7 @@
       </c>
     </row>
     <row r="71" spans="1:52" x14ac:dyDescent="0.3">
-      <c r="A71" s="13"/>
+      <c r="A71" s="15"/>
       <c r="B71" s="3">
         <v>10</v>
       </c>
@@ -24186,7 +22030,7 @@
       </c>
     </row>
     <row r="72" spans="1:52" x14ac:dyDescent="0.3">
-      <c r="A72" s="13"/>
+      <c r="A72" s="15"/>
       <c r="B72" s="3">
         <v>11</v>
       </c>
@@ -24342,7 +22186,7 @@
       </c>
     </row>
     <row r="73" spans="1:52" x14ac:dyDescent="0.3">
-      <c r="A73" s="13"/>
+      <c r="A73" s="15"/>
       <c r="B73" s="3">
         <v>12</v>
       </c>
@@ -24498,7 +22342,7 @@
       </c>
     </row>
     <row r="74" spans="1:52" x14ac:dyDescent="0.3">
-      <c r="A74" s="13">
+      <c r="A74" s="15">
         <v>2006</v>
       </c>
       <c r="B74" s="3">
@@ -24656,7 +22500,7 @@
       </c>
     </row>
     <row r="75" spans="1:52" x14ac:dyDescent="0.3">
-      <c r="A75" s="13"/>
+      <c r="A75" s="15"/>
       <c r="B75" s="3">
         <v>2</v>
       </c>
@@ -24812,7 +22656,7 @@
       </c>
     </row>
     <row r="76" spans="1:52" x14ac:dyDescent="0.3">
-      <c r="A76" s="13"/>
+      <c r="A76" s="15"/>
       <c r="B76" s="3">
         <v>3</v>
       </c>
@@ -24968,7 +22812,7 @@
       </c>
     </row>
     <row r="77" spans="1:52" x14ac:dyDescent="0.3">
-      <c r="A77" s="13"/>
+      <c r="A77" s="15"/>
       <c r="B77" s="3">
         <v>4</v>
       </c>
@@ -25124,7 +22968,7 @@
       </c>
     </row>
     <row r="78" spans="1:52" x14ac:dyDescent="0.3">
-      <c r="A78" s="13"/>
+      <c r="A78" s="15"/>
       <c r="B78" s="3">
         <v>5</v>
       </c>
@@ -25280,7 +23124,7 @@
       </c>
     </row>
     <row r="79" spans="1:52" x14ac:dyDescent="0.3">
-      <c r="A79" s="13"/>
+      <c r="A79" s="15"/>
       <c r="B79" s="3">
         <v>6</v>
       </c>
@@ -25436,7 +23280,7 @@
       </c>
     </row>
     <row r="80" spans="1:52" x14ac:dyDescent="0.3">
-      <c r="A80" s="13"/>
+      <c r="A80" s="15"/>
       <c r="B80" s="3">
         <v>7</v>
       </c>
@@ -25592,7 +23436,7 @@
       </c>
     </row>
     <row r="81" spans="1:52" x14ac:dyDescent="0.3">
-      <c r="A81" s="13"/>
+      <c r="A81" s="15"/>
       <c r="B81" s="3">
         <v>8</v>
       </c>
@@ -25748,7 +23592,7 @@
       </c>
     </row>
     <row r="82" spans="1:52" x14ac:dyDescent="0.3">
-      <c r="A82" s="13"/>
+      <c r="A82" s="15"/>
       <c r="B82" s="3">
         <v>9</v>
       </c>
@@ -25904,7 +23748,7 @@
       </c>
     </row>
     <row r="83" spans="1:52" x14ac:dyDescent="0.3">
-      <c r="A83" s="13"/>
+      <c r="A83" s="15"/>
       <c r="B83" s="3">
         <v>10</v>
       </c>
@@ -26060,7 +23904,7 @@
       </c>
     </row>
     <row r="84" spans="1:52" x14ac:dyDescent="0.3">
-      <c r="A84" s="13"/>
+      <c r="A84" s="15"/>
       <c r="B84" s="3">
         <v>11</v>
       </c>
@@ -26216,7 +24060,7 @@
       </c>
     </row>
     <row r="85" spans="1:52" x14ac:dyDescent="0.3">
-      <c r="A85" s="13"/>
+      <c r="A85" s="15"/>
       <c r="B85" s="3">
         <v>12</v>
       </c>
@@ -26372,7 +24216,7 @@
       </c>
     </row>
     <row r="86" spans="1:52" x14ac:dyDescent="0.3">
-      <c r="A86" s="13">
+      <c r="A86" s="15">
         <v>2007</v>
       </c>
       <c r="B86" s="3">
@@ -26530,7 +24374,7 @@
       </c>
     </row>
     <row r="87" spans="1:52" x14ac:dyDescent="0.3">
-      <c r="A87" s="13"/>
+      <c r="A87" s="15"/>
       <c r="B87" s="3">
         <v>2</v>
       </c>
@@ -26686,7 +24530,7 @@
       </c>
     </row>
     <row r="88" spans="1:52" x14ac:dyDescent="0.3">
-      <c r="A88" s="13"/>
+      <c r="A88" s="15"/>
       <c r="B88" s="3">
         <v>3</v>
       </c>
@@ -26842,7 +24686,7 @@
       </c>
     </row>
     <row r="89" spans="1:52" x14ac:dyDescent="0.3">
-      <c r="A89" s="13"/>
+      <c r="A89" s="15"/>
       <c r="B89" s="3">
         <v>4</v>
       </c>
@@ -26998,7 +24842,7 @@
       </c>
     </row>
     <row r="90" spans="1:52" x14ac:dyDescent="0.3">
-      <c r="A90" s="13"/>
+      <c r="A90" s="15"/>
       <c r="B90" s="3">
         <v>5</v>
       </c>
@@ -27154,7 +24998,7 @@
       </c>
     </row>
     <row r="91" spans="1:52" x14ac:dyDescent="0.3">
-      <c r="A91" s="13"/>
+      <c r="A91" s="15"/>
       <c r="B91" s="3">
         <v>6</v>
       </c>
@@ -27310,7 +25154,7 @@
       </c>
     </row>
     <row r="92" spans="1:52" x14ac:dyDescent="0.3">
-      <c r="A92" s="13"/>
+      <c r="A92" s="15"/>
       <c r="B92" s="3">
         <v>7</v>
       </c>
@@ -27466,7 +25310,7 @@
       </c>
     </row>
     <row r="93" spans="1:52" x14ac:dyDescent="0.3">
-      <c r="A93" s="13"/>
+      <c r="A93" s="15"/>
       <c r="B93" s="3">
         <v>8</v>
       </c>
@@ -27622,7 +25466,7 @@
       </c>
     </row>
     <row r="94" spans="1:52" x14ac:dyDescent="0.3">
-      <c r="A94" s="13"/>
+      <c r="A94" s="15"/>
       <c r="B94" s="3">
         <v>9</v>
       </c>
@@ -27778,7 +25622,7 @@
       </c>
     </row>
     <row r="95" spans="1:52" x14ac:dyDescent="0.3">
-      <c r="A95" s="13"/>
+      <c r="A95" s="15"/>
       <c r="B95" s="3">
         <v>10</v>
       </c>
@@ -27934,7 +25778,7 @@
       </c>
     </row>
     <row r="96" spans="1:52" x14ac:dyDescent="0.3">
-      <c r="A96" s="13"/>
+      <c r="A96" s="15"/>
       <c r="B96" s="3">
         <v>11</v>
       </c>
@@ -28090,7 +25934,7 @@
       </c>
     </row>
     <row r="97" spans="1:52" x14ac:dyDescent="0.3">
-      <c r="A97" s="13"/>
+      <c r="A97" s="15"/>
       <c r="B97" s="3">
         <v>12</v>
       </c>
@@ -28246,7 +26090,7 @@
       </c>
     </row>
     <row r="98" spans="1:52" x14ac:dyDescent="0.3">
-      <c r="A98" s="13">
+      <c r="A98" s="15">
         <v>2008</v>
       </c>
       <c r="B98" s="3">
@@ -28404,7 +26248,7 @@
       </c>
     </row>
     <row r="99" spans="1:52" x14ac:dyDescent="0.3">
-      <c r="A99" s="13"/>
+      <c r="A99" s="15"/>
       <c r="B99" s="3">
         <v>2</v>
       </c>
@@ -28560,7 +26404,7 @@
       </c>
     </row>
     <row r="100" spans="1:52" x14ac:dyDescent="0.3">
-      <c r="A100" s="13"/>
+      <c r="A100" s="15"/>
       <c r="B100" s="3">
         <v>3</v>
       </c>
@@ -28716,7 +26560,7 @@
       </c>
     </row>
     <row r="101" spans="1:52" x14ac:dyDescent="0.3">
-      <c r="A101" s="13"/>
+      <c r="A101" s="15"/>
       <c r="B101" s="3">
         <v>4</v>
       </c>
@@ -28872,7 +26716,7 @@
       </c>
     </row>
     <row r="102" spans="1:52" x14ac:dyDescent="0.3">
-      <c r="A102" s="13"/>
+      <c r="A102" s="15"/>
       <c r="B102" s="3">
         <v>5</v>
       </c>
@@ -29028,7 +26872,7 @@
       </c>
     </row>
     <row r="103" spans="1:52" x14ac:dyDescent="0.3">
-      <c r="A103" s="13"/>
+      <c r="A103" s="15"/>
       <c r="B103" s="3">
         <v>6</v>
       </c>
@@ -29184,7 +27028,7 @@
       </c>
     </row>
     <row r="104" spans="1:52" x14ac:dyDescent="0.3">
-      <c r="A104" s="13"/>
+      <c r="A104" s="15"/>
       <c r="B104" s="3">
         <v>7</v>
       </c>
@@ -29340,7 +27184,7 @@
       </c>
     </row>
     <row r="105" spans="1:52" x14ac:dyDescent="0.3">
-      <c r="A105" s="13"/>
+      <c r="A105" s="15"/>
       <c r="B105" s="3">
         <v>8</v>
       </c>
@@ -29496,7 +27340,7 @@
       </c>
     </row>
     <row r="106" spans="1:52" x14ac:dyDescent="0.3">
-      <c r="A106" s="13"/>
+      <c r="A106" s="15"/>
       <c r="B106" s="3">
         <v>9</v>
       </c>
@@ -29652,7 +27496,7 @@
       </c>
     </row>
     <row r="107" spans="1:52" x14ac:dyDescent="0.3">
-      <c r="A107" s="13"/>
+      <c r="A107" s="15"/>
       <c r="B107" s="3">
         <v>10</v>
       </c>
@@ -29808,7 +27652,7 @@
       </c>
     </row>
     <row r="108" spans="1:52" x14ac:dyDescent="0.3">
-      <c r="A108" s="13"/>
+      <c r="A108" s="15"/>
       <c r="B108" s="3">
         <v>11</v>
       </c>
@@ -29964,7 +27808,7 @@
       </c>
     </row>
     <row r="109" spans="1:52" x14ac:dyDescent="0.3">
-      <c r="A109" s="13"/>
+      <c r="A109" s="15"/>
       <c r="B109" s="3">
         <v>12</v>
       </c>
@@ -30120,7 +27964,7 @@
       </c>
     </row>
     <row r="110" spans="1:52" x14ac:dyDescent="0.3">
-      <c r="A110" s="13">
+      <c r="A110" s="15">
         <v>2009</v>
       </c>
       <c r="B110" s="3">
@@ -30278,7 +28122,7 @@
       </c>
     </row>
     <row r="111" spans="1:52" x14ac:dyDescent="0.3">
-      <c r="A111" s="13"/>
+      <c r="A111" s="15"/>
       <c r="B111" s="3">
         <v>2</v>
       </c>
@@ -30434,7 +28278,7 @@
       </c>
     </row>
     <row r="112" spans="1:52" x14ac:dyDescent="0.3">
-      <c r="A112" s="13"/>
+      <c r="A112" s="15"/>
       <c r="B112" s="3">
         <v>3</v>
       </c>
@@ -30590,7 +28434,7 @@
       </c>
     </row>
     <row r="113" spans="1:52" x14ac:dyDescent="0.3">
-      <c r="A113" s="13"/>
+      <c r="A113" s="15"/>
       <c r="B113" s="3">
         <v>4</v>
       </c>
@@ -30746,7 +28590,7 @@
       </c>
     </row>
     <row r="114" spans="1:52" x14ac:dyDescent="0.3">
-      <c r="A114" s="13"/>
+      <c r="A114" s="15"/>
       <c r="B114" s="3">
         <v>5</v>
       </c>
@@ -30902,7 +28746,7 @@
       </c>
     </row>
     <row r="115" spans="1:52" x14ac:dyDescent="0.3">
-      <c r="A115" s="13"/>
+      <c r="A115" s="15"/>
       <c r="B115" s="3">
         <v>6</v>
       </c>
@@ -31058,7 +28902,7 @@
       </c>
     </row>
     <row r="116" spans="1:52" x14ac:dyDescent="0.3">
-      <c r="A116" s="13"/>
+      <c r="A116" s="15"/>
       <c r="B116" s="3">
         <v>7</v>
       </c>
@@ -31214,7 +29058,7 @@
       </c>
     </row>
     <row r="117" spans="1:52" x14ac:dyDescent="0.3">
-      <c r="A117" s="13"/>
+      <c r="A117" s="15"/>
       <c r="B117" s="3">
         <v>8</v>
       </c>
@@ -31370,7 +29214,7 @@
       </c>
     </row>
     <row r="118" spans="1:52" x14ac:dyDescent="0.3">
-      <c r="A118" s="13"/>
+      <c r="A118" s="15"/>
       <c r="B118" s="3">
         <v>9</v>
       </c>
@@ -31526,7 +29370,7 @@
       </c>
     </row>
     <row r="119" spans="1:52" x14ac:dyDescent="0.3">
-      <c r="A119" s="13"/>
+      <c r="A119" s="15"/>
       <c r="B119" s="3">
         <v>10</v>
       </c>
@@ -31682,7 +29526,7 @@
       </c>
     </row>
     <row r="120" spans="1:52" x14ac:dyDescent="0.3">
-      <c r="A120" s="13"/>
+      <c r="A120" s="15"/>
       <c r="B120" s="3">
         <v>11</v>
       </c>
@@ -31838,7 +29682,7 @@
       </c>
     </row>
     <row r="121" spans="1:52" x14ac:dyDescent="0.3">
-      <c r="A121" s="13"/>
+      <c r="A121" s="15"/>
       <c r="B121" s="3">
         <v>12</v>
       </c>
@@ -31994,7 +29838,7 @@
       </c>
     </row>
     <row r="122" spans="1:52" x14ac:dyDescent="0.3">
-      <c r="A122" s="13">
+      <c r="A122" s="15">
         <v>2010</v>
       </c>
       <c r="B122" s="3">
@@ -32152,7 +29996,7 @@
       </c>
     </row>
     <row r="123" spans="1:52" x14ac:dyDescent="0.3">
-      <c r="A123" s="13"/>
+      <c r="A123" s="15"/>
       <c r="B123" s="3">
         <v>2</v>
       </c>
@@ -32308,7 +30152,7 @@
       </c>
     </row>
     <row r="124" spans="1:52" x14ac:dyDescent="0.3">
-      <c r="A124" s="13"/>
+      <c r="A124" s="15"/>
       <c r="B124" s="3">
         <v>3</v>
       </c>
@@ -32464,7 +30308,7 @@
       </c>
     </row>
     <row r="125" spans="1:52" x14ac:dyDescent="0.3">
-      <c r="A125" s="13"/>
+      <c r="A125" s="15"/>
       <c r="B125" s="3">
         <v>4</v>
       </c>
@@ -32620,7 +30464,7 @@
       </c>
     </row>
     <row r="126" spans="1:52" x14ac:dyDescent="0.3">
-      <c r="A126" s="13"/>
+      <c r="A126" s="15"/>
       <c r="B126" s="3">
         <v>5</v>
       </c>
@@ -32776,7 +30620,7 @@
       </c>
     </row>
     <row r="127" spans="1:52" x14ac:dyDescent="0.3">
-      <c r="A127" s="13"/>
+      <c r="A127" s="15"/>
       <c r="B127" s="3">
         <v>6</v>
       </c>
@@ -32932,7 +30776,7 @@
       </c>
     </row>
     <row r="128" spans="1:52" x14ac:dyDescent="0.3">
-      <c r="A128" s="13"/>
+      <c r="A128" s="15"/>
       <c r="B128" s="3">
         <v>7</v>
       </c>
@@ -33088,7 +30932,7 @@
       </c>
     </row>
     <row r="129" spans="1:52" x14ac:dyDescent="0.3">
-      <c r="A129" s="13"/>
+      <c r="A129" s="15"/>
       <c r="B129" s="3">
         <v>8</v>
       </c>
@@ -33244,7 +31088,7 @@
       </c>
     </row>
     <row r="130" spans="1:52" x14ac:dyDescent="0.3">
-      <c r="A130" s="13"/>
+      <c r="A130" s="15"/>
       <c r="B130" s="3">
         <v>9</v>
       </c>
@@ -33400,7 +31244,7 @@
       </c>
     </row>
     <row r="131" spans="1:52" x14ac:dyDescent="0.3">
-      <c r="A131" s="13"/>
+      <c r="A131" s="15"/>
       <c r="B131" s="3">
         <v>10</v>
       </c>
@@ -33556,7 +31400,7 @@
       </c>
     </row>
     <row r="132" spans="1:52" x14ac:dyDescent="0.3">
-      <c r="A132" s="13"/>
+      <c r="A132" s="15"/>
       <c r="B132" s="3">
         <v>11</v>
       </c>
@@ -33712,7 +31556,7 @@
       </c>
     </row>
     <row r="133" spans="1:52" x14ac:dyDescent="0.3">
-      <c r="A133" s="13"/>
+      <c r="A133" s="15"/>
       <c r="B133" s="3">
         <v>12</v>
       </c>
@@ -33868,7 +31712,7 @@
       </c>
     </row>
     <row r="134" spans="1:52" x14ac:dyDescent="0.3">
-      <c r="A134" s="13">
+      <c r="A134" s="15">
         <v>2011</v>
       </c>
       <c r="B134" s="3">
@@ -34026,7 +31870,7 @@
       </c>
     </row>
     <row r="135" spans="1:52" x14ac:dyDescent="0.3">
-      <c r="A135" s="13"/>
+      <c r="A135" s="15"/>
       <c r="B135" s="3">
         <v>2</v>
       </c>
@@ -34182,7 +32026,7 @@
       </c>
     </row>
     <row r="136" spans="1:52" x14ac:dyDescent="0.3">
-      <c r="A136" s="13"/>
+      <c r="A136" s="15"/>
       <c r="B136" s="3">
         <v>3</v>
       </c>
@@ -34338,7 +32182,7 @@
       </c>
     </row>
     <row r="137" spans="1:52" x14ac:dyDescent="0.3">
-      <c r="A137" s="13"/>
+      <c r="A137" s="15"/>
       <c r="B137" s="3">
         <v>4</v>
       </c>
@@ -34494,7 +32338,7 @@
       </c>
     </row>
     <row r="138" spans="1:52" x14ac:dyDescent="0.3">
-      <c r="A138" s="13"/>
+      <c r="A138" s="15"/>
       <c r="B138" s="3">
         <v>5</v>
       </c>
@@ -34650,7 +32494,7 @@
       </c>
     </row>
     <row r="139" spans="1:52" x14ac:dyDescent="0.3">
-      <c r="A139" s="13"/>
+      <c r="A139" s="15"/>
       <c r="B139" s="3">
         <v>6</v>
       </c>
@@ -34806,7 +32650,7 @@
       </c>
     </row>
     <row r="140" spans="1:52" x14ac:dyDescent="0.3">
-      <c r="A140" s="13"/>
+      <c r="A140" s="15"/>
       <c r="B140" s="3">
         <v>7</v>
       </c>
@@ -34962,7 +32806,7 @@
       </c>
     </row>
     <row r="141" spans="1:52" x14ac:dyDescent="0.3">
-      <c r="A141" s="13"/>
+      <c r="A141" s="15"/>
       <c r="B141" s="3">
         <v>8</v>
       </c>
@@ -35118,7 +32962,7 @@
       </c>
     </row>
     <row r="142" spans="1:52" x14ac:dyDescent="0.3">
-      <c r="A142" s="13"/>
+      <c r="A142" s="15"/>
       <c r="B142" s="3">
         <v>9</v>
       </c>
@@ -35274,7 +33118,7 @@
       </c>
     </row>
     <row r="143" spans="1:52" x14ac:dyDescent="0.3">
-      <c r="A143" s="13"/>
+      <c r="A143" s="15"/>
       <c r="B143" s="3">
         <v>10</v>
       </c>
@@ -35430,7 +33274,7 @@
       </c>
     </row>
     <row r="144" spans="1:52" x14ac:dyDescent="0.3">
-      <c r="A144" s="13"/>
+      <c r="A144" s="15"/>
       <c r="B144" s="3">
         <v>11</v>
       </c>
@@ -35586,7 +33430,7 @@
       </c>
     </row>
     <row r="145" spans="1:52" x14ac:dyDescent="0.3">
-      <c r="A145" s="13"/>
+      <c r="A145" s="15"/>
       <c r="B145" s="3">
         <v>12</v>
       </c>
@@ -35742,7 +33586,7 @@
       </c>
     </row>
     <row r="146" spans="1:52" x14ac:dyDescent="0.3">
-      <c r="A146" s="13">
+      <c r="A146" s="15">
         <v>2012</v>
       </c>
       <c r="B146" s="3">
@@ -35900,7 +33744,7 @@
       </c>
     </row>
     <row r="147" spans="1:52" x14ac:dyDescent="0.3">
-      <c r="A147" s="13"/>
+      <c r="A147" s="15"/>
       <c r="B147" s="3">
         <v>2</v>
       </c>
@@ -36056,7 +33900,7 @@
       </c>
     </row>
     <row r="148" spans="1:52" x14ac:dyDescent="0.3">
-      <c r="A148" s="13"/>
+      <c r="A148" s="15"/>
       <c r="B148" s="3">
         <v>3</v>
       </c>
@@ -36212,7 +34056,7 @@
       </c>
     </row>
     <row r="149" spans="1:52" x14ac:dyDescent="0.3">
-      <c r="A149" s="13"/>
+      <c r="A149" s="15"/>
       <c r="B149" s="3">
         <v>4</v>
       </c>
@@ -36368,7 +34212,7 @@
       </c>
     </row>
     <row r="150" spans="1:52" x14ac:dyDescent="0.3">
-      <c r="A150" s="13"/>
+      <c r="A150" s="15"/>
       <c r="B150" s="3">
         <v>5</v>
       </c>
@@ -36524,7 +34368,7 @@
       </c>
     </row>
     <row r="151" spans="1:52" x14ac:dyDescent="0.3">
-      <c r="A151" s="13"/>
+      <c r="A151" s="15"/>
       <c r="B151" s="3">
         <v>6</v>
       </c>
@@ -36680,7 +34524,7 @@
       </c>
     </row>
     <row r="152" spans="1:52" x14ac:dyDescent="0.3">
-      <c r="A152" s="13"/>
+      <c r="A152" s="15"/>
       <c r="B152" s="3">
         <v>7</v>
       </c>
@@ -36836,7 +34680,7 @@
       </c>
     </row>
     <row r="153" spans="1:52" x14ac:dyDescent="0.3">
-      <c r="A153" s="13"/>
+      <c r="A153" s="15"/>
       <c r="B153" s="3">
         <v>8</v>
       </c>
@@ -36992,7 +34836,7 @@
       </c>
     </row>
     <row r="154" spans="1:52" x14ac:dyDescent="0.3">
-      <c r="A154" s="13"/>
+      <c r="A154" s="15"/>
       <c r="B154" s="3">
         <v>9</v>
       </c>
@@ -37148,7 +34992,7 @@
       </c>
     </row>
     <row r="155" spans="1:52" x14ac:dyDescent="0.3">
-      <c r="A155" s="13"/>
+      <c r="A155" s="15"/>
       <c r="B155" s="3">
         <v>10</v>
       </c>
@@ -37304,7 +35148,7 @@
       </c>
     </row>
     <row r="156" spans="1:52" x14ac:dyDescent="0.3">
-      <c r="A156" s="13"/>
+      <c r="A156" s="15"/>
       <c r="B156" s="3">
         <v>11</v>
       </c>
@@ -37460,7 +35304,7 @@
       </c>
     </row>
     <row r="157" spans="1:52" x14ac:dyDescent="0.3">
-      <c r="A157" s="13"/>
+      <c r="A157" s="15"/>
       <c r="B157" s="3">
         <v>12</v>
       </c>
@@ -37616,7 +35460,7 @@
       </c>
     </row>
     <row r="158" spans="1:52" x14ac:dyDescent="0.3">
-      <c r="A158" s="13">
+      <c r="A158" s="15">
         <v>2013</v>
       </c>
       <c r="B158" s="3">
@@ -37774,7 +35618,7 @@
       </c>
     </row>
     <row r="159" spans="1:52" x14ac:dyDescent="0.3">
-      <c r="A159" s="13"/>
+      <c r="A159" s="15"/>
       <c r="B159" s="3">
         <v>2</v>
       </c>
@@ -37930,7 +35774,7 @@
       </c>
     </row>
     <row r="160" spans="1:52" x14ac:dyDescent="0.3">
-      <c r="A160" s="13"/>
+      <c r="A160" s="15"/>
       <c r="B160" s="3">
         <v>3</v>
       </c>
@@ -38086,7 +35930,7 @@
       </c>
     </row>
     <row r="161" spans="1:52" x14ac:dyDescent="0.3">
-      <c r="A161" s="13"/>
+      <c r="A161" s="15"/>
       <c r="B161" s="3">
         <v>4</v>
       </c>
@@ -38242,7 +36086,7 @@
       </c>
     </row>
     <row r="162" spans="1:52" x14ac:dyDescent="0.3">
-      <c r="A162" s="13"/>
+      <c r="A162" s="15"/>
       <c r="B162" s="3">
         <v>5</v>
       </c>
@@ -38398,7 +36242,7 @@
       </c>
     </row>
     <row r="163" spans="1:52" x14ac:dyDescent="0.3">
-      <c r="A163" s="13"/>
+      <c r="A163" s="15"/>
       <c r="B163" s="3">
         <v>6</v>
       </c>
@@ -38554,7 +36398,7 @@
       </c>
     </row>
     <row r="164" spans="1:52" x14ac:dyDescent="0.3">
-      <c r="A164" s="13"/>
+      <c r="A164" s="15"/>
       <c r="B164" s="3">
         <v>7</v>
       </c>
@@ -38710,7 +36554,7 @@
       </c>
     </row>
     <row r="165" spans="1:52" x14ac:dyDescent="0.3">
-      <c r="A165" s="13"/>
+      <c r="A165" s="15"/>
       <c r="B165" s="3">
         <v>8</v>
       </c>
@@ -38866,7 +36710,7 @@
       </c>
     </row>
     <row r="166" spans="1:52" x14ac:dyDescent="0.3">
-      <c r="A166" s="13"/>
+      <c r="A166" s="15"/>
       <c r="B166" s="3">
         <v>9</v>
       </c>
@@ -39022,7 +36866,7 @@
       </c>
     </row>
     <row r="167" spans="1:52" x14ac:dyDescent="0.3">
-      <c r="A167" s="13"/>
+      <c r="A167" s="15"/>
       <c r="B167" s="3">
         <v>10</v>
       </c>
@@ -39178,7 +37022,7 @@
       </c>
     </row>
     <row r="168" spans="1:52" x14ac:dyDescent="0.3">
-      <c r="A168" s="13"/>
+      <c r="A168" s="15"/>
       <c r="B168" s="3">
         <v>11</v>
       </c>
@@ -39334,7 +37178,7 @@
       </c>
     </row>
     <row r="169" spans="1:52" x14ac:dyDescent="0.3">
-      <c r="A169" s="13"/>
+      <c r="A169" s="15"/>
       <c r="B169" s="3">
         <v>12</v>
       </c>
@@ -39490,7 +37334,7 @@
       </c>
     </row>
     <row r="170" spans="1:52" x14ac:dyDescent="0.3">
-      <c r="A170" s="13">
+      <c r="A170" s="15">
         <v>2014</v>
       </c>
       <c r="B170" s="3">
@@ -39648,7 +37492,7 @@
       </c>
     </row>
     <row r="171" spans="1:52" x14ac:dyDescent="0.3">
-      <c r="A171" s="13"/>
+      <c r="A171" s="15"/>
       <c r="B171" s="3">
         <v>2</v>
       </c>
@@ -39804,7 +37648,7 @@
       </c>
     </row>
     <row r="172" spans="1:52" x14ac:dyDescent="0.3">
-      <c r="A172" s="13"/>
+      <c r="A172" s="15"/>
       <c r="B172" s="3">
         <v>3</v>
       </c>
@@ -39960,7 +37804,7 @@
       </c>
     </row>
     <row r="173" spans="1:52" x14ac:dyDescent="0.3">
-      <c r="A173" s="13"/>
+      <c r="A173" s="15"/>
       <c r="B173" s="3">
         <v>4</v>
       </c>
@@ -40116,7 +37960,7 @@
       </c>
     </row>
     <row r="174" spans="1:52" x14ac:dyDescent="0.3">
-      <c r="A174" s="13"/>
+      <c r="A174" s="15"/>
       <c r="B174" s="3">
         <v>5</v>
       </c>
@@ -40272,7 +38116,7 @@
       </c>
     </row>
     <row r="175" spans="1:52" x14ac:dyDescent="0.3">
-      <c r="A175" s="13"/>
+      <c r="A175" s="15"/>
       <c r="B175" s="3">
         <v>6</v>
       </c>
@@ -40428,7 +38272,7 @@
       </c>
     </row>
     <row r="176" spans="1:52" x14ac:dyDescent="0.3">
-      <c r="A176" s="13"/>
+      <c r="A176" s="15"/>
       <c r="B176" s="3">
         <v>7</v>
       </c>
@@ -40584,7 +38428,7 @@
       </c>
     </row>
     <row r="177" spans="1:52" x14ac:dyDescent="0.3">
-      <c r="A177" s="13"/>
+      <c r="A177" s="15"/>
       <c r="B177" s="3">
         <v>8</v>
       </c>
@@ -40740,7 +38584,7 @@
       </c>
     </row>
     <row r="178" spans="1:52" x14ac:dyDescent="0.3">
-      <c r="A178" s="13"/>
+      <c r="A178" s="15"/>
       <c r="B178" s="3">
         <v>9</v>
       </c>
@@ -40896,7 +38740,7 @@
       </c>
     </row>
     <row r="179" spans="1:52" x14ac:dyDescent="0.3">
-      <c r="A179" s="13"/>
+      <c r="A179" s="15"/>
       <c r="B179" s="3">
         <v>10</v>
       </c>
@@ -41052,7 +38896,7 @@
       </c>
     </row>
     <row r="180" spans="1:52" x14ac:dyDescent="0.3">
-      <c r="A180" s="13"/>
+      <c r="A180" s="15"/>
       <c r="B180" s="3">
         <v>11</v>
       </c>
@@ -41208,7 +39052,7 @@
       </c>
     </row>
     <row r="181" spans="1:52" x14ac:dyDescent="0.3">
-      <c r="A181" s="13"/>
+      <c r="A181" s="15"/>
       <c r="B181" s="3">
         <v>12</v>
       </c>
@@ -41364,7 +39208,7 @@
       </c>
     </row>
     <row r="182" spans="1:52" x14ac:dyDescent="0.3">
-      <c r="A182" s="13">
+      <c r="A182" s="15">
         <v>2015</v>
       </c>
       <c r="B182" s="3">
@@ -41522,7 +39366,7 @@
       </c>
     </row>
     <row r="183" spans="1:52" x14ac:dyDescent="0.3">
-      <c r="A183" s="13"/>
+      <c r="A183" s="15"/>
       <c r="B183" s="3">
         <v>2</v>
       </c>
@@ -41678,7 +39522,7 @@
       </c>
     </row>
     <row r="184" spans="1:52" x14ac:dyDescent="0.3">
-      <c r="A184" s="13"/>
+      <c r="A184" s="15"/>
       <c r="B184" s="3">
         <v>3</v>
       </c>
@@ -41834,7 +39678,7 @@
       </c>
     </row>
     <row r="185" spans="1:52" x14ac:dyDescent="0.3">
-      <c r="A185" s="13"/>
+      <c r="A185" s="15"/>
       <c r="B185" s="3">
         <v>4</v>
       </c>
@@ -41990,7 +39834,7 @@
       </c>
     </row>
     <row r="186" spans="1:52" x14ac:dyDescent="0.3">
-      <c r="A186" s="13"/>
+      <c r="A186" s="15"/>
       <c r="B186" s="3">
         <v>5</v>
       </c>
@@ -42146,7 +39990,7 @@
       </c>
     </row>
     <row r="187" spans="1:52" x14ac:dyDescent="0.3">
-      <c r="A187" s="13"/>
+      <c r="A187" s="15"/>
       <c r="B187" s="3">
         <v>6</v>
       </c>
@@ -42302,7 +40146,7 @@
       </c>
     </row>
     <row r="188" spans="1:52" x14ac:dyDescent="0.3">
-      <c r="A188" s="13"/>
+      <c r="A188" s="15"/>
       <c r="B188" s="3">
         <v>7</v>
       </c>
@@ -42458,7 +40302,7 @@
       </c>
     </row>
     <row r="189" spans="1:52" x14ac:dyDescent="0.3">
-      <c r="A189" s="13"/>
+      <c r="A189" s="15"/>
       <c r="B189" s="3">
         <v>8</v>
       </c>
@@ -42614,7 +40458,7 @@
       </c>
     </row>
     <row r="190" spans="1:52" x14ac:dyDescent="0.3">
-      <c r="A190" s="13"/>
+      <c r="A190" s="15"/>
       <c r="B190" s="3">
         <v>9</v>
       </c>
@@ -42770,7 +40614,7 @@
       </c>
     </row>
     <row r="191" spans="1:52" x14ac:dyDescent="0.3">
-      <c r="A191" s="13"/>
+      <c r="A191" s="15"/>
       <c r="B191" s="3">
         <v>10</v>
       </c>
@@ -42926,7 +40770,7 @@
       </c>
     </row>
     <row r="192" spans="1:52" x14ac:dyDescent="0.3">
-      <c r="A192" s="13"/>
+      <c r="A192" s="15"/>
       <c r="B192" s="3">
         <v>11</v>
       </c>
@@ -43082,7 +40926,7 @@
       </c>
     </row>
     <row r="193" spans="1:52" x14ac:dyDescent="0.3">
-      <c r="A193" s="13"/>
+      <c r="A193" s="15"/>
       <c r="B193" s="3">
         <v>12</v>
       </c>
@@ -43238,7 +41082,7 @@
       </c>
     </row>
     <row r="194" spans="1:52" x14ac:dyDescent="0.3">
-      <c r="A194" s="13">
+      <c r="A194" s="15">
         <v>2016</v>
       </c>
       <c r="B194" s="3">
@@ -43396,7 +41240,7 @@
       </c>
     </row>
     <row r="195" spans="1:52" x14ac:dyDescent="0.3">
-      <c r="A195" s="13"/>
+      <c r="A195" s="15"/>
       <c r="B195" s="3">
         <v>2</v>
       </c>
@@ -43552,7 +41396,7 @@
       </c>
     </row>
     <row r="196" spans="1:52" x14ac:dyDescent="0.3">
-      <c r="A196" s="13"/>
+      <c r="A196" s="15"/>
       <c r="B196" s="3">
         <v>3</v>
       </c>
@@ -43708,7 +41552,7 @@
       </c>
     </row>
     <row r="197" spans="1:52" x14ac:dyDescent="0.3">
-      <c r="A197" s="13"/>
+      <c r="A197" s="15"/>
       <c r="B197" s="3">
         <v>4</v>
       </c>
@@ -43864,7 +41708,7 @@
       </c>
     </row>
     <row r="198" spans="1:52" x14ac:dyDescent="0.3">
-      <c r="A198" s="13"/>
+      <c r="A198" s="15"/>
       <c r="B198" s="3">
         <v>5</v>
       </c>
@@ -44020,7 +41864,7 @@
       </c>
     </row>
     <row r="199" spans="1:52" x14ac:dyDescent="0.3">
-      <c r="A199" s="13"/>
+      <c r="A199" s="15"/>
       <c r="B199" s="3">
         <v>6</v>
       </c>
@@ -44176,7 +42020,7 @@
       </c>
     </row>
     <row r="200" spans="1:52" x14ac:dyDescent="0.3">
-      <c r="A200" s="13"/>
+      <c r="A200" s="15"/>
       <c r="B200" s="3">
         <v>7</v>
       </c>
@@ -44332,7 +42176,7 @@
       </c>
     </row>
     <row r="201" spans="1:52" x14ac:dyDescent="0.3">
-      <c r="A201" s="13"/>
+      <c r="A201" s="15"/>
       <c r="B201" s="3">
         <v>8</v>
       </c>
@@ -44488,7 +42332,7 @@
       </c>
     </row>
     <row r="202" spans="1:52" x14ac:dyDescent="0.3">
-      <c r="A202" s="13"/>
+      <c r="A202" s="15"/>
       <c r="B202" s="3">
         <v>9</v>
       </c>
@@ -44644,7 +42488,7 @@
       </c>
     </row>
     <row r="203" spans="1:52" x14ac:dyDescent="0.3">
-      <c r="A203" s="13"/>
+      <c r="A203" s="15"/>
       <c r="B203" s="3">
         <v>10</v>
       </c>
@@ -44800,7 +42644,7 @@
       </c>
     </row>
     <row r="204" spans="1:52" x14ac:dyDescent="0.3">
-      <c r="A204" s="13"/>
+      <c r="A204" s="15"/>
       <c r="B204" s="3">
         <v>11</v>
       </c>
@@ -44956,7 +42800,7 @@
       </c>
     </row>
     <row r="205" spans="1:52" x14ac:dyDescent="0.3">
-      <c r="A205" s="13"/>
+      <c r="A205" s="15"/>
       <c r="B205" s="3">
         <v>12</v>
       </c>
@@ -45112,7 +42956,7 @@
       </c>
     </row>
     <row r="206" spans="1:52" x14ac:dyDescent="0.3">
-      <c r="A206" s="13">
+      <c r="A206" s="15">
         <v>2017</v>
       </c>
       <c r="B206" s="3">
@@ -45270,7 +43114,7 @@
       </c>
     </row>
     <row r="207" spans="1:52" x14ac:dyDescent="0.3">
-      <c r="A207" s="13"/>
+      <c r="A207" s="15"/>
       <c r="B207" s="3">
         <v>2</v>
       </c>
@@ -45426,7 +43270,7 @@
       </c>
     </row>
     <row r="208" spans="1:52" x14ac:dyDescent="0.3">
-      <c r="A208" s="13"/>
+      <c r="A208" s="15"/>
       <c r="B208" s="3">
         <v>3</v>
       </c>
@@ -45582,7 +43426,7 @@
       </c>
     </row>
     <row r="209" spans="1:52" x14ac:dyDescent="0.3">
-      <c r="A209" s="13"/>
+      <c r="A209" s="15"/>
       <c r="B209" s="3">
         <v>4</v>
       </c>
@@ -45738,7 +43582,7 @@
       </c>
     </row>
     <row r="210" spans="1:52" x14ac:dyDescent="0.3">
-      <c r="A210" s="13"/>
+      <c r="A210" s="15"/>
       <c r="B210" s="3">
         <v>5</v>
       </c>
@@ -45894,7 +43738,7 @@
       </c>
     </row>
     <row r="211" spans="1:52" x14ac:dyDescent="0.3">
-      <c r="A211" s="13"/>
+      <c r="A211" s="15"/>
       <c r="B211" s="3">
         <v>6</v>
       </c>
@@ -46050,7 +43894,7 @@
       </c>
     </row>
     <row r="212" spans="1:52" x14ac:dyDescent="0.3">
-      <c r="A212" s="13"/>
+      <c r="A212" s="15"/>
       <c r="B212" s="3">
         <v>7</v>
       </c>
@@ -46206,7 +44050,7 @@
       </c>
     </row>
     <row r="213" spans="1:52" x14ac:dyDescent="0.3">
-      <c r="A213" s="13"/>
+      <c r="A213" s="15"/>
       <c r="B213" s="3">
         <v>8</v>
       </c>
@@ -46362,7 +44206,7 @@
       </c>
     </row>
     <row r="214" spans="1:52" x14ac:dyDescent="0.3">
-      <c r="A214" s="13"/>
+      <c r="A214" s="15"/>
       <c r="B214" s="3">
         <v>9</v>
       </c>
@@ -46518,7 +44362,7 @@
       </c>
     </row>
     <row r="215" spans="1:52" x14ac:dyDescent="0.3">
-      <c r="A215" s="13"/>
+      <c r="A215" s="15"/>
       <c r="B215" s="3">
         <v>10</v>
       </c>
@@ -46674,7 +44518,7 @@
       </c>
     </row>
     <row r="216" spans="1:52" x14ac:dyDescent="0.3">
-      <c r="A216" s="13"/>
+      <c r="A216" s="15"/>
       <c r="B216" s="3">
         <v>11</v>
       </c>
@@ -46830,7 +44674,7 @@
       </c>
     </row>
     <row r="217" spans="1:52" x14ac:dyDescent="0.3">
-      <c r="A217" s="13"/>
+      <c r="A217" s="15"/>
       <c r="B217" s="3">
         <v>12</v>
       </c>
@@ -46986,7 +44830,7 @@
       </c>
     </row>
     <row r="218" spans="1:52" x14ac:dyDescent="0.3">
-      <c r="A218" s="13">
+      <c r="A218" s="15">
         <v>2018</v>
       </c>
       <c r="B218" s="3">
@@ -47144,7 +44988,7 @@
       </c>
     </row>
     <row r="219" spans="1:52" x14ac:dyDescent="0.3">
-      <c r="A219" s="13"/>
+      <c r="A219" s="15"/>
       <c r="B219" s="3">
         <v>2</v>
       </c>
@@ -47300,7 +45144,7 @@
       </c>
     </row>
     <row r="220" spans="1:52" x14ac:dyDescent="0.3">
-      <c r="A220" s="13"/>
+      <c r="A220" s="15"/>
       <c r="B220" s="3">
         <v>3</v>
       </c>
@@ -47456,7 +45300,7 @@
       </c>
     </row>
     <row r="221" spans="1:52" x14ac:dyDescent="0.3">
-      <c r="A221" s="13"/>
+      <c r="A221" s="15"/>
       <c r="B221" s="3">
         <v>4</v>
       </c>
@@ -47612,7 +45456,7 @@
       </c>
     </row>
     <row r="222" spans="1:52" x14ac:dyDescent="0.3">
-      <c r="A222" s="13"/>
+      <c r="A222" s="15"/>
       <c r="B222" s="3">
         <v>5</v>
       </c>
@@ -47768,7 +45612,7 @@
       </c>
     </row>
     <row r="223" spans="1:52" x14ac:dyDescent="0.3">
-      <c r="A223" s="13"/>
+      <c r="A223" s="15"/>
       <c r="B223" s="3">
         <v>6</v>
       </c>
@@ -47924,7 +45768,7 @@
       </c>
     </row>
     <row r="224" spans="1:52" x14ac:dyDescent="0.3">
-      <c r="A224" s="13"/>
+      <c r="A224" s="15"/>
       <c r="B224" s="3">
         <v>7</v>
       </c>
@@ -48080,7 +45924,7 @@
       </c>
     </row>
     <row r="225" spans="1:52" x14ac:dyDescent="0.3">
-      <c r="A225" s="13"/>
+      <c r="A225" s="15"/>
       <c r="B225" s="3">
         <v>8</v>
       </c>
@@ -48236,7 +46080,7 @@
       </c>
     </row>
     <row r="226" spans="1:52" x14ac:dyDescent="0.3">
-      <c r="A226" s="13"/>
+      <c r="A226" s="15"/>
       <c r="B226" s="3">
         <v>9</v>
       </c>
@@ -48392,7 +46236,7 @@
       </c>
     </row>
     <row r="227" spans="1:52" x14ac:dyDescent="0.3">
-      <c r="A227" s="13"/>
+      <c r="A227" s="15"/>
       <c r="B227" s="3">
         <v>10</v>
       </c>
@@ -48548,7 +46392,7 @@
       </c>
     </row>
     <row r="228" spans="1:52" x14ac:dyDescent="0.3">
-      <c r="A228" s="13"/>
+      <c r="A228" s="15"/>
       <c r="B228" s="3">
         <v>11</v>
       </c>
@@ -48704,7 +46548,7 @@
       </c>
     </row>
     <row r="229" spans="1:52" x14ac:dyDescent="0.3">
-      <c r="A229" s="13"/>
+      <c r="A229" s="15"/>
       <c r="B229" s="3">
         <v>12</v>
       </c>
@@ -48860,7 +46704,7 @@
       </c>
     </row>
     <row r="230" spans="1:52" x14ac:dyDescent="0.3">
-      <c r="A230" s="13">
+      <c r="A230" s="15">
         <v>2019</v>
       </c>
       <c r="B230" s="3">
@@ -49018,7 +46862,7 @@
       </c>
     </row>
     <row r="231" spans="1:52" x14ac:dyDescent="0.3">
-      <c r="A231" s="13"/>
+      <c r="A231" s="15"/>
       <c r="B231" s="3">
         <v>2</v>
       </c>
@@ -49174,7 +47018,7 @@
       </c>
     </row>
     <row r="232" spans="1:52" x14ac:dyDescent="0.3">
-      <c r="A232" s="13"/>
+      <c r="A232" s="15"/>
       <c r="B232" s="3">
         <v>3</v>
       </c>
@@ -49330,7 +47174,7 @@
       </c>
     </row>
     <row r="233" spans="1:52" x14ac:dyDescent="0.3">
-      <c r="A233" s="13"/>
+      <c r="A233" s="15"/>
       <c r="B233" s="3">
         <v>4</v>
       </c>
@@ -49486,7 +47330,7 @@
       </c>
     </row>
     <row r="234" spans="1:52" x14ac:dyDescent="0.3">
-      <c r="A234" s="13"/>
+      <c r="A234" s="15"/>
       <c r="B234" s="3">
         <v>5</v>
       </c>
@@ -49642,7 +47486,7 @@
       </c>
     </row>
     <row r="235" spans="1:52" x14ac:dyDescent="0.3">
-      <c r="A235" s="13"/>
+      <c r="A235" s="15"/>
       <c r="B235" s="3">
         <v>6</v>
       </c>
@@ -49798,7 +47642,7 @@
       </c>
     </row>
     <row r="236" spans="1:52" x14ac:dyDescent="0.3">
-      <c r="A236" s="13"/>
+      <c r="A236" s="15"/>
       <c r="B236" s="3">
         <v>7</v>
       </c>
@@ -49954,7 +47798,7 @@
       </c>
     </row>
     <row r="237" spans="1:52" x14ac:dyDescent="0.3">
-      <c r="A237" s="13"/>
+      <c r="A237" s="15"/>
       <c r="B237" s="3">
         <v>8</v>
       </c>
@@ -50110,7 +47954,7 @@
       </c>
     </row>
     <row r="238" spans="1:52" x14ac:dyDescent="0.3">
-      <c r="A238" s="13"/>
+      <c r="A238" s="15"/>
       <c r="B238" s="3">
         <v>9</v>
       </c>
@@ -50266,7 +48110,7 @@
       </c>
     </row>
     <row r="239" spans="1:52" x14ac:dyDescent="0.3">
-      <c r="A239" s="13"/>
+      <c r="A239" s="15"/>
       <c r="B239" s="3">
         <v>10</v>
       </c>
@@ -50422,7 +48266,7 @@
       </c>
     </row>
     <row r="240" spans="1:52" x14ac:dyDescent="0.3">
-      <c r="A240" s="13"/>
+      <c r="A240" s="15"/>
       <c r="B240" s="3">
         <v>11</v>
       </c>
@@ -50578,7 +48422,7 @@
       </c>
     </row>
     <row r="241" spans="1:52" x14ac:dyDescent="0.3">
-      <c r="A241" s="13"/>
+      <c r="A241" s="15"/>
       <c r="B241" s="3">
         <v>12</v>
       </c>

--- a/data/dataForExp.xlsx
+++ b/data/dataForExp.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Mirror系统开发\Mirror\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79D86150-887C-4183-B434-3742F71D9E73}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC964D02-8B27-404E-907A-366474D4B555}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="18220" windowHeight="11620" activeTab="2" xr2:uid="{7869B96A-7811-4EF3-9176-2B0373B8E4EA}"/>
   </bookViews>
   <sheets>
     <sheet name="purchaseProb2" sheetId="1" r:id="rId1"/>
     <sheet name="purchaseProb1" sheetId="8" r:id="rId2"/>
-    <sheet name="purchaseProb" sheetId="13" r:id="rId3"/>
+    <sheet name="purchaseProb" sheetId="14" r:id="rId3"/>
     <sheet name="交易天数简化" sheetId="6" r:id="rId4"/>
     <sheet name="initPrice" sheetId="5" r:id="rId5"/>
     <sheet name="initPrice1" sheetId="11" r:id="rId6"/>
@@ -9125,75 +9125,72 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{680F5599-B578-4DA5-924E-3893EE660C23}">
-  <dimension ref="A1:S14"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B529BE53-ED3A-42A3-9C05-4D58299CD529}">
+  <dimension ref="A1:R14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="14">
-        <v>2002</v>
+        <v>2003</v>
       </c>
       <c r="C1" s="14">
-        <v>2003</v>
+        <v>2004</v>
       </c>
       <c r="D1" s="14">
-        <v>2004</v>
+        <v>2005</v>
       </c>
       <c r="E1" s="14">
-        <v>2005</v>
+        <v>2006</v>
       </c>
       <c r="F1" s="14">
-        <v>2006</v>
+        <v>2007</v>
       </c>
       <c r="G1" s="14">
-        <v>2007</v>
+        <v>2008</v>
       </c>
       <c r="H1" s="14">
-        <v>2008</v>
+        <v>2009</v>
       </c>
       <c r="I1" s="14">
-        <v>2009</v>
+        <v>2010</v>
       </c>
       <c r="J1" s="14">
-        <v>2010</v>
+        <v>2011</v>
       </c>
       <c r="K1" s="14">
-        <v>2011</v>
+        <v>2012</v>
       </c>
       <c r="L1" s="14">
-        <v>2012</v>
+        <v>2013</v>
       </c>
       <c r="M1" s="14">
-        <v>2013</v>
+        <v>2014</v>
       </c>
       <c r="N1" s="14">
-        <v>2014</v>
+        <v>2015</v>
       </c>
       <c r="O1" s="14">
-        <v>2015</v>
+        <v>2016</v>
       </c>
       <c r="P1" s="14">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="Q1" s="14">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="R1" s="14">
-        <v>2018</v>
-      </c>
-      <c r="S1" s="14">
         <v>2019</v>
       </c>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -9213,46 +9210,43 @@
         <v>0.36153846153846159</v>
       </c>
       <c r="G2" s="14">
-        <v>0.36153846153846159</v>
+        <v>0.28502024291497979</v>
       </c>
       <c r="H2" s="14">
-        <v>0.28502024291497979</v>
+        <v>0.2955414012738854</v>
       </c>
       <c r="I2" s="14">
-        <v>0.2955414012738854</v>
+        <v>0.24423963133640553</v>
       </c>
       <c r="J2" s="14">
-        <v>0.24423963133640553</v>
+        <v>0.27710843373493976</v>
       </c>
       <c r="K2" s="14">
-        <v>0.27710843373493976</v>
+        <v>0.42631578947368426</v>
       </c>
       <c r="L2" s="14">
-        <v>0.42631578947368426</v>
+        <v>0.35789473684210527</v>
       </c>
       <c r="M2" s="14">
-        <v>0.35789473684210527</v>
+        <v>0.38</v>
       </c>
       <c r="N2" s="14">
-        <v>0.38</v>
+        <v>0.43132530120481921</v>
       </c>
       <c r="O2" s="14">
-        <v>0.43132530120481921</v>
+        <v>0.43657142857142867</v>
       </c>
       <c r="P2" s="14">
-        <v>0.43657142857142867</v>
+        <v>0.31219512195121951</v>
       </c>
       <c r="Q2" s="14">
-        <v>0.31219512195121951</v>
-      </c>
-      <c r="R2" s="14">
         <v>0.36000000000000004</v>
       </c>
-      <c r="S2" s="14">
+      <c r="R2">
         <v>0.43829787234042561</v>
       </c>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
@@ -9272,46 +9266,43 @@
         <v>0.2</v>
       </c>
       <c r="G3" s="14">
-        <v>0.2</v>
+        <v>0.28016194331983812</v>
       </c>
       <c r="H3" s="14">
-        <v>0.28016194331983812</v>
+        <v>0.8</v>
       </c>
       <c r="I3" s="14">
         <v>0.8</v>
       </c>
       <c r="J3" s="14">
+        <v>0.52289156626506028</v>
+      </c>
+      <c r="K3" s="14">
         <v>0.8</v>
       </c>
-      <c r="K3" s="14">
-        <v>0.52289156626506028</v>
-      </c>
       <c r="L3" s="14">
-        <v>0.8</v>
+        <v>0.5094736842105263</v>
       </c>
       <c r="M3" s="14">
-        <v>0.5094736842105263</v>
+        <v>0.42500000000000004</v>
       </c>
       <c r="N3" s="14">
-        <v>0.42500000000000004</v>
+        <v>0.33373493975903612</v>
       </c>
       <c r="O3" s="14">
-        <v>0.33373493975903612</v>
+        <v>0.35771428571428582</v>
       </c>
       <c r="P3" s="14">
-        <v>0.35771428571428582</v>
+        <v>0.21463414634146341</v>
       </c>
       <c r="Q3" s="14">
-        <v>0.21463414634146341</v>
-      </c>
-      <c r="R3" s="14">
         <v>0.27</v>
       </c>
-      <c r="S3" s="14">
+      <c r="R3">
         <v>0.43404255319148938</v>
       </c>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
@@ -9331,46 +9322,43 @@
         <v>0.56923076923076921</v>
       </c>
       <c r="G4" s="14">
-        <v>0.56923076923076921</v>
+        <v>0.26315789473684215</v>
       </c>
       <c r="H4" s="14">
-        <v>0.26315789473684215</v>
+        <v>0.2</v>
       </c>
       <c r="I4" s="14">
+        <v>0.23870967741935487</v>
+      </c>
+      <c r="J4" s="14">
+        <v>0.33493975903614459</v>
+      </c>
+      <c r="K4" s="14">
+        <v>0.43684210526315792</v>
+      </c>
+      <c r="L4" s="14">
         <v>0.2</v>
-      </c>
-      <c r="J4" s="14">
-        <v>0.23870967741935487</v>
-      </c>
-      <c r="K4" s="14">
-        <v>0.33493975903614459</v>
-      </c>
-      <c r="L4" s="14">
-        <v>0.43684210526315792</v>
       </c>
       <c r="M4" s="14">
         <v>0.2</v>
       </c>
       <c r="N4" s="14">
-        <v>0.2</v>
+        <v>0.35903614457831323</v>
       </c>
       <c r="O4" s="14">
-        <v>0.35903614457831323</v>
+        <v>0.38857142857142857</v>
       </c>
       <c r="P4" s="14">
-        <v>0.38857142857142857</v>
+        <v>0.22926829268292684</v>
       </c>
       <c r="Q4" s="14">
-        <v>0.22926829268292684</v>
-      </c>
-      <c r="R4" s="14">
         <v>0.26500000000000001</v>
       </c>
-      <c r="S4" s="14">
+      <c r="R4">
         <v>0.33617021276595749</v>
       </c>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
@@ -9390,46 +9378,43 @@
         <v>0.58076923076923082</v>
       </c>
       <c r="G5" s="14">
-        <v>0.58076923076923082</v>
+        <v>0.24858299595141703</v>
       </c>
       <c r="H5" s="14">
-        <v>0.24858299595141703</v>
+        <v>0.28407643312101916</v>
       </c>
       <c r="I5" s="14">
-        <v>0.28407643312101916</v>
+        <v>0.20276497695852536</v>
       </c>
       <c r="J5" s="14">
-        <v>0.20276497695852536</v>
+        <v>0.21204819277108433</v>
       </c>
       <c r="K5" s="14">
-        <v>0.21204819277108433</v>
+        <v>0.33157894736842108</v>
       </c>
       <c r="L5" s="14">
-        <v>0.33157894736842108</v>
+        <v>0.2063157894736842</v>
       </c>
       <c r="M5" s="14">
-        <v>0.2063157894736842</v>
+        <v>0.24000000000000002</v>
       </c>
       <c r="N5" s="14">
-        <v>0.24000000000000002</v>
+        <v>0.33734939759036142</v>
       </c>
       <c r="O5" s="14">
-        <v>0.33734939759036142</v>
+        <v>0.39200000000000007</v>
       </c>
       <c r="P5" s="14">
-        <v>0.39200000000000007</v>
+        <v>0.29756097560975614</v>
       </c>
       <c r="Q5" s="14">
-        <v>0.29756097560975614</v>
-      </c>
-      <c r="R5" s="14">
         <v>0.2</v>
       </c>
-      <c r="S5" s="14">
+      <c r="R5">
         <v>0.30212765957446813</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
@@ -9449,46 +9434,43 @@
         <v>0.41923076923076924</v>
       </c>
       <c r="G6" s="14">
-        <v>0.41923076923076924</v>
+        <v>0.2412955465587045</v>
       </c>
       <c r="H6" s="14">
-        <v>0.2412955465587045</v>
+        <v>0.27261146496815292</v>
       </c>
       <c r="I6" s="14">
-        <v>0.27261146496815292</v>
+        <v>0.2</v>
       </c>
       <c r="J6" s="14">
         <v>0.2</v>
       </c>
       <c r="K6" s="14">
+        <v>0.31578947368421051</v>
+      </c>
+      <c r="L6" s="14">
+        <v>0.24421052631578943</v>
+      </c>
+      <c r="M6" s="14">
+        <v>0.29000000000000004</v>
+      </c>
+      <c r="N6" s="14">
+        <v>0.38795180722891565</v>
+      </c>
+      <c r="O6" s="14">
+        <v>0.37485714285714294</v>
+      </c>
+      <c r="P6" s="14">
+        <v>0.23414634146341468</v>
+      </c>
+      <c r="Q6" s="14">
         <v>0.2</v>
       </c>
-      <c r="L6" s="14">
-        <v>0.31578947368421051</v>
-      </c>
-      <c r="M6" s="14">
-        <v>0.24421052631578943</v>
-      </c>
-      <c r="N6" s="14">
-        <v>0.29000000000000004</v>
-      </c>
-      <c r="O6" s="14">
-        <v>0.38795180722891565</v>
-      </c>
-      <c r="P6" s="14">
-        <v>0.37485714285714294</v>
-      </c>
-      <c r="Q6" s="14">
-        <v>0.23414634146341468</v>
-      </c>
-      <c r="R6" s="14">
-        <v>0.2</v>
-      </c>
-      <c r="S6" s="14">
+      <c r="R6">
         <v>0.34468085106382984</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>6</v>
       </c>
@@ -9508,46 +9490,43 @@
         <v>0.51153846153846161</v>
       </c>
       <c r="G7" s="14">
-        <v>0.51153846153846161</v>
+        <v>0.35789473684210532</v>
       </c>
       <c r="H7" s="14">
-        <v>0.35789473684210532</v>
+        <v>0.43312101910828027</v>
       </c>
       <c r="I7" s="14">
-        <v>0.43312101910828027</v>
+        <v>0.47373271889400925</v>
       </c>
       <c r="J7" s="14">
-        <v>0.47373271889400925</v>
+        <v>0.30361445783132535</v>
       </c>
       <c r="K7" s="14">
-        <v>0.30361445783132535</v>
+        <v>0.2</v>
       </c>
       <c r="L7" s="14">
+        <v>0.49052631578947364</v>
+      </c>
+      <c r="M7" s="14">
+        <v>0.29500000000000004</v>
+      </c>
+      <c r="N7" s="14">
+        <v>0.33734939759036142</v>
+      </c>
+      <c r="O7" s="14">
         <v>0.2</v>
       </c>
-      <c r="M7" s="14">
-        <v>0.49052631578947364</v>
-      </c>
-      <c r="N7" s="14">
-        <v>0.29500000000000004</v>
-      </c>
-      <c r="O7" s="14">
-        <v>0.33734939759036142</v>
-      </c>
       <c r="P7" s="14">
+        <v>0.24878048780487805</v>
+      </c>
+      <c r="Q7" s="14">
+        <v>0.21500000000000002</v>
+      </c>
+      <c r="R7">
         <v>0.2</v>
       </c>
-      <c r="Q7" s="14">
-        <v>0.24878048780487805</v>
-      </c>
-      <c r="R7" s="14">
-        <v>0.21500000000000002</v>
-      </c>
-      <c r="S7" s="14">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.3">
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>7</v>
       </c>
@@ -9567,46 +9546,43 @@
         <v>0.59230769230769242</v>
       </c>
       <c r="G8" s="14">
-        <v>0.59230769230769242</v>
+        <v>0.3870445344129555</v>
       </c>
       <c r="H8" s="14">
-        <v>0.3870445344129555</v>
+        <v>0.60891719745222928</v>
       </c>
       <c r="I8" s="14">
-        <v>0.60891719745222928</v>
+        <v>0.50967741935483879</v>
       </c>
       <c r="J8" s="14">
-        <v>0.50967741935483879</v>
+        <v>0.8</v>
       </c>
       <c r="K8" s="14">
-        <v>0.8</v>
+        <v>0.50526315789473686</v>
       </c>
       <c r="L8" s="14">
-        <v>0.50526315789473686</v>
+        <v>0.40210526315789474</v>
       </c>
       <c r="M8" s="14">
-        <v>0.40210526315789474</v>
+        <v>0.39500000000000002</v>
       </c>
       <c r="N8" s="14">
-        <v>0.39500000000000002</v>
+        <v>0.2</v>
       </c>
       <c r="O8" s="14">
-        <v>0.2</v>
+        <v>0.35085714285714292</v>
       </c>
       <c r="P8" s="14">
-        <v>0.35085714285714292</v>
+        <v>0.3365853658536585</v>
       </c>
       <c r="Q8" s="14">
-        <v>0.3365853658536585</v>
-      </c>
-      <c r="R8" s="14">
         <v>0.54</v>
       </c>
-      <c r="S8" s="14">
+      <c r="R8">
         <v>0.74893617021276593</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>8</v>
       </c>
@@ -9626,46 +9602,43 @@
         <v>0.21153846153846154</v>
       </c>
       <c r="G9" s="14">
-        <v>0.21153846153846154</v>
+        <v>0.24858299595141703</v>
       </c>
       <c r="H9" s="14">
-        <v>0.24858299595141703</v>
+        <v>0.26496815286624209</v>
       </c>
       <c r="I9" s="14">
-        <v>0.26496815286624209</v>
+        <v>0.25806451612903225</v>
       </c>
       <c r="J9" s="14">
-        <v>0.25806451612903225</v>
+        <v>0.2939759036144578</v>
       </c>
       <c r="K9" s="14">
-        <v>0.2939759036144578</v>
+        <v>0.54736842105263162</v>
       </c>
       <c r="L9" s="14">
-        <v>0.54736842105263162</v>
+        <v>0.58526315789473693</v>
       </c>
       <c r="M9" s="14">
-        <v>0.58526315789473693</v>
+        <v>0.60500000000000009</v>
       </c>
       <c r="N9" s="14">
-        <v>0.60500000000000009</v>
+        <v>0.5</v>
       </c>
       <c r="O9" s="14">
-        <v>0.5</v>
+        <v>0.65600000000000003</v>
       </c>
       <c r="P9" s="14">
-        <v>0.65600000000000003</v>
+        <v>0.60975609756097571</v>
       </c>
       <c r="Q9" s="14">
-        <v>0.60975609756097571</v>
-      </c>
-      <c r="R9" s="14">
         <v>0.48000000000000004</v>
       </c>
-      <c r="S9" s="14">
+      <c r="R9">
         <v>0.54893617021276597</v>
       </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>9</v>
       </c>
@@ -9688,43 +9661,40 @@
         <v>0.8</v>
       </c>
       <c r="H10" s="14">
-        <v>0.8</v>
+        <v>0.58980891719745221</v>
       </c>
       <c r="I10" s="14">
-        <v>0.58980891719745221</v>
+        <v>0.6092165898617512</v>
       </c>
       <c r="J10" s="14">
-        <v>0.6092165898617512</v>
+        <v>0.44096385542168681</v>
       </c>
       <c r="K10" s="14">
-        <v>0.44096385542168681</v>
+        <v>0.71578947368421053</v>
       </c>
       <c r="L10" s="14">
-        <v>0.71578947368421053</v>
+        <v>0.41473684210526318</v>
       </c>
       <c r="M10" s="14">
-        <v>0.41473684210526318</v>
+        <v>0.23</v>
       </c>
       <c r="N10" s="14">
-        <v>0.23</v>
+        <v>0.33373493975903612</v>
       </c>
       <c r="O10" s="14">
-        <v>0.33373493975903612</v>
+        <v>0.35771428571428582</v>
       </c>
       <c r="P10" s="14">
-        <v>0.35771428571428582</v>
+        <v>0.2780487804878049</v>
       </c>
       <c r="Q10" s="14">
-        <v>0.2780487804878049</v>
-      </c>
-      <c r="R10" s="14">
         <v>0.29500000000000004</v>
       </c>
-      <c r="S10" s="14">
+      <c r="R10">
         <v>0.35744680851063831</v>
       </c>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>10</v>
       </c>
@@ -9744,46 +9714,43 @@
         <v>0.41923076923076924</v>
       </c>
       <c r="G11" s="14">
-        <v>0.41923076923076924</v>
+        <v>0.29959514170040491</v>
       </c>
       <c r="H11" s="14">
-        <v>0.29959514170040491</v>
+        <v>0.46369426751592357</v>
       </c>
       <c r="I11" s="14">
-        <v>0.46369426751592357</v>
+        <v>0.31612903225806455</v>
       </c>
       <c r="J11" s="14">
-        <v>0.31612903225806455</v>
+        <v>0.43855421686746998</v>
       </c>
       <c r="K11" s="14">
-        <v>0.43855421686746998</v>
+        <v>0.66315789473684217</v>
       </c>
       <c r="L11" s="14">
-        <v>0.66315789473684217</v>
+        <v>0.7305263157894738</v>
       </c>
       <c r="M11" s="14">
-        <v>0.7305263157894738</v>
+        <v>0.57000000000000006</v>
       </c>
       <c r="N11" s="14">
-        <v>0.57000000000000006</v>
+        <v>0.59036144578313254</v>
       </c>
       <c r="O11" s="14">
-        <v>0.59036144578313254</v>
+        <v>0.64914285714285713</v>
       </c>
       <c r="P11" s="14">
-        <v>0.64914285714285713</v>
+        <v>0.38536585365853659</v>
       </c>
       <c r="Q11" s="14">
-        <v>0.38536585365853659</v>
-      </c>
-      <c r="R11" s="14">
         <v>0.31000000000000005</v>
       </c>
-      <c r="S11" s="14">
+      <c r="R11">
         <v>0.35319148936170219</v>
       </c>
     </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>11</v>
       </c>
@@ -9803,22 +9770,22 @@
         <v>0.52307692307692322</v>
       </c>
       <c r="G12" s="14">
-        <v>0.52307692307692322</v>
+        <v>0.3433198380566802</v>
       </c>
       <c r="H12" s="14">
-        <v>0.3433198380566802</v>
+        <v>0.4140127388535032</v>
       </c>
       <c r="I12" s="14">
-        <v>0.4140127388535032</v>
+        <v>0.32165898617511524</v>
       </c>
       <c r="J12" s="14">
-        <v>0.32165898617511524</v>
+        <v>0.3566265060240964</v>
       </c>
       <c r="K12" s="14">
-        <v>0.3566265060240964</v>
+        <v>0.72631578947368425</v>
       </c>
       <c r="L12" s="14">
-        <v>0.72631578947368425</v>
+        <v>0.8</v>
       </c>
       <c r="M12" s="14">
         <v>0.8</v>
@@ -9835,14 +9802,11 @@
       <c r="Q12" s="14">
         <v>0.8</v>
       </c>
-      <c r="R12" s="14">
+      <c r="R12">
         <v>0.8</v>
       </c>
-      <c r="S12" s="14">
-        <v>0.8</v>
-      </c>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.3">
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>48</v>
       </c>
@@ -9862,46 +9826,43 @@
         <v>0.55769230769230771</v>
       </c>
       <c r="G13" s="14">
-        <v>0.55769230769230771</v>
+        <v>0.38461538461538469</v>
       </c>
       <c r="H13" s="14">
-        <v>0.38461538461538469</v>
+        <v>0.44458598726114651</v>
       </c>
       <c r="I13" s="14">
-        <v>0.44458598726114651</v>
+        <v>0.25529953917050696</v>
       </c>
       <c r="J13" s="14">
-        <v>0.25529953917050696</v>
+        <v>0.25542168674698795</v>
       </c>
       <c r="K13" s="14">
-        <v>0.25542168674698795</v>
+        <v>0.38947368421052631</v>
       </c>
       <c r="L13" s="14">
-        <v>0.38947368421052631</v>
+        <v>0.41473684210526318</v>
       </c>
       <c r="M13" s="14">
-        <v>0.41473684210526318</v>
+        <v>0.43500000000000005</v>
       </c>
       <c r="N13" s="14">
-        <v>0.43500000000000005</v>
+        <v>0.43132530120481921</v>
       </c>
       <c r="O13" s="14">
-        <v>0.43132530120481921</v>
+        <v>0.51200000000000012</v>
       </c>
       <c r="P13" s="14">
-        <v>0.51200000000000012</v>
+        <v>0.6</v>
       </c>
       <c r="Q13" s="14">
-        <v>0.6</v>
-      </c>
-      <c r="R13" s="14">
         <v>0.66500000000000004</v>
       </c>
-      <c r="S13" s="14">
+      <c r="R13">
         <v>0.71063829787234056</v>
       </c>
     </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>12</v>
       </c>
@@ -9921,42 +9882,39 @@
         <v>0.30384615384615388</v>
       </c>
       <c r="G14" s="14">
-        <v>0.30384615384615388</v>
+        <v>0.2</v>
       </c>
       <c r="H14" s="14">
+        <v>0.26878980891719745</v>
+      </c>
+      <c r="I14" s="14">
+        <v>0.27188940092165897</v>
+      </c>
+      <c r="J14" s="14">
+        <v>0.27469879518072293</v>
+      </c>
+      <c r="K14" s="14">
+        <v>0.47368421052631587</v>
+      </c>
+      <c r="L14" s="14">
+        <v>0.39578947368421052</v>
+      </c>
+      <c r="M14" s="14">
+        <v>0.33000000000000007</v>
+      </c>
+      <c r="N14" s="14">
+        <v>0.39156626506024095</v>
+      </c>
+      <c r="O14" s="14">
+        <v>0.38171428571428578</v>
+      </c>
+      <c r="P14" s="14">
         <v>0.2</v>
       </c>
-      <c r="I14" s="14">
-        <v>0.26878980891719745</v>
-      </c>
-      <c r="J14" s="14">
-        <v>0.27188940092165897</v>
-      </c>
-      <c r="K14" s="14">
-        <v>0.27469879518072293</v>
-      </c>
-      <c r="L14" s="14">
-        <v>0.47368421052631587</v>
-      </c>
-      <c r="M14" s="14">
-        <v>0.39578947368421052</v>
-      </c>
-      <c r="N14" s="14">
-        <v>0.33000000000000007</v>
-      </c>
-      <c r="O14" s="14">
-        <v>0.39156626506024095</v>
-      </c>
-      <c r="P14" s="14">
-        <v>0.38171428571428578</v>
-      </c>
       <c r="Q14" s="14">
-        <v>0.2</v>
-      </c>
-      <c r="R14" s="14">
         <v>0.22</v>
       </c>
-      <c r="S14" s="14">
+      <c r="R14">
         <v>0.34042553191489366</v>
       </c>
     </row>
@@ -48579,14 +48537,6 @@
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="A218:A229"/>
-    <mergeCell ref="A230:A241"/>
-    <mergeCell ref="A146:A157"/>
-    <mergeCell ref="A158:A169"/>
-    <mergeCell ref="A170:A181"/>
-    <mergeCell ref="A182:A193"/>
-    <mergeCell ref="A194:A205"/>
-    <mergeCell ref="A206:A217"/>
     <mergeCell ref="A134:A145"/>
     <mergeCell ref="A2:A13"/>
     <mergeCell ref="A14:A25"/>
@@ -48599,6 +48549,14 @@
     <mergeCell ref="A98:A109"/>
     <mergeCell ref="A110:A121"/>
     <mergeCell ref="A122:A133"/>
+    <mergeCell ref="A218:A229"/>
+    <mergeCell ref="A230:A241"/>
+    <mergeCell ref="A146:A157"/>
+    <mergeCell ref="A158:A169"/>
+    <mergeCell ref="A170:A181"/>
+    <mergeCell ref="A182:A193"/>
+    <mergeCell ref="A194:A205"/>
+    <mergeCell ref="A206:A217"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/dataForExp.xlsx
+++ b/data/dataForExp.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Mirror系统开发\Mirror\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1B037F0-8E48-43B0-8E37-77B333141CCF}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C8BC8E3-2A6D-4EAF-AE2C-8550AE87E421}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="18220" windowHeight="11620" firstSheet="1" activeTab="6" xr2:uid="{7869B96A-7811-4EF3-9176-2B0373B8E4EA}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="18220" windowHeight="11620" firstSheet="1" activeTab="1" xr2:uid="{7869B96A-7811-4EF3-9176-2B0373B8E4EA}"/>
   </bookViews>
   <sheets>
     <sheet name="purchaseProb2" sheetId="1" r:id="rId1"/>
@@ -2252,8 +2252,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DEC29CC8-BF99-44B8-B3D7-F64A68BBF293}">
   <dimension ref="A1:R11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -2877,6 +2877,7 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -41223,14 +41224,6 @@
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="A218:A229"/>
-    <mergeCell ref="A230:A241"/>
-    <mergeCell ref="A146:A157"/>
-    <mergeCell ref="A158:A169"/>
-    <mergeCell ref="A170:A181"/>
-    <mergeCell ref="A182:A193"/>
-    <mergeCell ref="A194:A205"/>
-    <mergeCell ref="A206:A217"/>
     <mergeCell ref="A134:A145"/>
     <mergeCell ref="A2:A13"/>
     <mergeCell ref="A14:A25"/>
@@ -41243,6 +41236,14 @@
     <mergeCell ref="A98:A109"/>
     <mergeCell ref="A110:A121"/>
     <mergeCell ref="A122:A133"/>
+    <mergeCell ref="A218:A229"/>
+    <mergeCell ref="A230:A241"/>
+    <mergeCell ref="A146:A157"/>
+    <mergeCell ref="A158:A169"/>
+    <mergeCell ref="A170:A181"/>
+    <mergeCell ref="A182:A193"/>
+    <mergeCell ref="A194:A205"/>
+    <mergeCell ref="A206:A217"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -41253,7 +41254,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B3F9A8FF-DAD7-49A4-814C-DD9473CB95E8}">
   <dimension ref="A1:C11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>

--- a/data/dataForExp.xlsx
+++ b/data/dataForExp.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23901"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23929"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Mirror系统开发\Mirror\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C8BC8E3-2A6D-4EAF-AE2C-8550AE87E421}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{217A3427-39AF-45D7-8261-EF60B966D058}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="18220" windowHeight="11620" firstSheet="1" activeTab="1" xr2:uid="{7869B96A-7811-4EF3-9176-2B0373B8E4EA}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="18220" windowHeight="11620" firstSheet="1" activeTab="6" xr2:uid="{7869B96A-7811-4EF3-9176-2B0373B8E4EA}"/>
   </bookViews>
   <sheets>
     <sheet name="purchaseProb2" sheetId="1" r:id="rId1"/>
@@ -172,7 +172,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -204,6 +204,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -2252,8 +2255,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DEC29CC8-BF99-44B8-B3D7-F64A68BBF293}">
   <dimension ref="A1:R11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -3017,7 +3020,7 @@
   <dimension ref="A1:C51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -3743,7 +3746,7 @@
       </c>
     </row>
     <row r="2" spans="1:52" x14ac:dyDescent="0.3">
-      <c r="A2" s="13">
+      <c r="A2" s="14">
         <v>2000</v>
       </c>
       <c r="B2" s="3">
@@ -3901,7 +3904,7 @@
       </c>
     </row>
     <row r="3" spans="1:52" x14ac:dyDescent="0.3">
-      <c r="A3" s="13"/>
+      <c r="A3" s="14"/>
       <c r="B3" s="3">
         <v>2</v>
       </c>
@@ -4057,7 +4060,7 @@
       </c>
     </row>
     <row r="4" spans="1:52" x14ac:dyDescent="0.3">
-      <c r="A4" s="13"/>
+      <c r="A4" s="14"/>
       <c r="B4" s="3">
         <v>3</v>
       </c>
@@ -4213,7 +4216,7 @@
       </c>
     </row>
     <row r="5" spans="1:52" x14ac:dyDescent="0.3">
-      <c r="A5" s="13"/>
+      <c r="A5" s="14"/>
       <c r="B5" s="3">
         <v>4</v>
       </c>
@@ -4369,7 +4372,7 @@
       </c>
     </row>
     <row r="6" spans="1:52" x14ac:dyDescent="0.3">
-      <c r="A6" s="13"/>
+      <c r="A6" s="14"/>
       <c r="B6" s="3">
         <v>5</v>
       </c>
@@ -4525,7 +4528,7 @@
       </c>
     </row>
     <row r="7" spans="1:52" x14ac:dyDescent="0.3">
-      <c r="A7" s="13"/>
+      <c r="A7" s="14"/>
       <c r="B7" s="3">
         <v>6</v>
       </c>
@@ -4681,7 +4684,7 @@
       </c>
     </row>
     <row r="8" spans="1:52" x14ac:dyDescent="0.3">
-      <c r="A8" s="13"/>
+      <c r="A8" s="14"/>
       <c r="B8" s="3">
         <v>7</v>
       </c>
@@ -4837,7 +4840,7 @@
       </c>
     </row>
     <row r="9" spans="1:52" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="13"/>
+      <c r="A9" s="14"/>
       <c r="B9" s="3">
         <v>8</v>
       </c>
@@ -4993,7 +4996,7 @@
       </c>
     </row>
     <row r="10" spans="1:52" x14ac:dyDescent="0.3">
-      <c r="A10" s="13"/>
+      <c r="A10" s="14"/>
       <c r="B10" s="3">
         <v>9</v>
       </c>
@@ -5149,7 +5152,7 @@
       </c>
     </row>
     <row r="11" spans="1:52" x14ac:dyDescent="0.3">
-      <c r="A11" s="13"/>
+      <c r="A11" s="14"/>
       <c r="B11" s="3">
         <v>10</v>
       </c>
@@ -5305,7 +5308,7 @@
       </c>
     </row>
     <row r="12" spans="1:52" x14ac:dyDescent="0.3">
-      <c r="A12" s="13"/>
+      <c r="A12" s="14"/>
       <c r="B12" s="3">
         <v>11</v>
       </c>
@@ -5461,7 +5464,7 @@
       </c>
     </row>
     <row r="13" spans="1:52" x14ac:dyDescent="0.3">
-      <c r="A13" s="13"/>
+      <c r="A13" s="14"/>
       <c r="B13" s="3">
         <v>12</v>
       </c>
@@ -5617,7 +5620,7 @@
       </c>
     </row>
     <row r="14" spans="1:52" x14ac:dyDescent="0.3">
-      <c r="A14" s="13">
+      <c r="A14" s="14">
         <v>2001</v>
       </c>
       <c r="B14" s="3">
@@ -5775,7 +5778,7 @@
       </c>
     </row>
     <row r="15" spans="1:52" x14ac:dyDescent="0.3">
-      <c r="A15" s="13"/>
+      <c r="A15" s="14"/>
       <c r="B15" s="3">
         <v>2</v>
       </c>
@@ -5931,7 +5934,7 @@
       </c>
     </row>
     <row r="16" spans="1:52" x14ac:dyDescent="0.3">
-      <c r="A16" s="13"/>
+      <c r="A16" s="14"/>
       <c r="B16" s="3">
         <v>3</v>
       </c>
@@ -6087,7 +6090,7 @@
       </c>
     </row>
     <row r="17" spans="1:52" x14ac:dyDescent="0.3">
-      <c r="A17" s="13"/>
+      <c r="A17" s="14"/>
       <c r="B17" s="3">
         <v>4</v>
       </c>
@@ -6243,7 +6246,7 @@
       </c>
     </row>
     <row r="18" spans="1:52" x14ac:dyDescent="0.3">
-      <c r="A18" s="13"/>
+      <c r="A18" s="14"/>
       <c r="B18" s="3">
         <v>5</v>
       </c>
@@ -6399,7 +6402,7 @@
       </c>
     </row>
     <row r="19" spans="1:52" x14ac:dyDescent="0.3">
-      <c r="A19" s="13"/>
+      <c r="A19" s="14"/>
       <c r="B19" s="3">
         <v>6</v>
       </c>
@@ -6555,7 +6558,7 @@
       </c>
     </row>
     <row r="20" spans="1:52" x14ac:dyDescent="0.3">
-      <c r="A20" s="13"/>
+      <c r="A20" s="14"/>
       <c r="B20" s="3">
         <v>7</v>
       </c>
@@ -6711,7 +6714,7 @@
       </c>
     </row>
     <row r="21" spans="1:52" x14ac:dyDescent="0.3">
-      <c r="A21" s="13"/>
+      <c r="A21" s="14"/>
       <c r="B21" s="3">
         <v>8</v>
       </c>
@@ -6867,7 +6870,7 @@
       </c>
     </row>
     <row r="22" spans="1:52" x14ac:dyDescent="0.3">
-      <c r="A22" s="13"/>
+      <c r="A22" s="14"/>
       <c r="B22" s="3">
         <v>9</v>
       </c>
@@ -7023,7 +7026,7 @@
       </c>
     </row>
     <row r="23" spans="1:52" x14ac:dyDescent="0.3">
-      <c r="A23" s="13"/>
+      <c r="A23" s="14"/>
       <c r="B23" s="3">
         <v>10</v>
       </c>
@@ -7179,7 +7182,7 @@
       </c>
     </row>
     <row r="24" spans="1:52" x14ac:dyDescent="0.3">
-      <c r="A24" s="13"/>
+      <c r="A24" s="14"/>
       <c r="B24" s="3">
         <v>11</v>
       </c>
@@ -7335,7 +7338,7 @@
       </c>
     </row>
     <row r="25" spans="1:52" x14ac:dyDescent="0.3">
-      <c r="A25" s="13"/>
+      <c r="A25" s="14"/>
       <c r="B25" s="3">
         <v>12</v>
       </c>
@@ -7491,7 +7494,7 @@
       </c>
     </row>
     <row r="26" spans="1:52" x14ac:dyDescent="0.3">
-      <c r="A26" s="13">
+      <c r="A26" s="14">
         <v>2002</v>
       </c>
       <c r="B26" s="3">
@@ -7649,7 +7652,7 @@
       </c>
     </row>
     <row r="27" spans="1:52" x14ac:dyDescent="0.3">
-      <c r="A27" s="13"/>
+      <c r="A27" s="14"/>
       <c r="B27" s="3">
         <v>2</v>
       </c>
@@ -7805,7 +7808,7 @@
       </c>
     </row>
     <row r="28" spans="1:52" x14ac:dyDescent="0.3">
-      <c r="A28" s="13"/>
+      <c r="A28" s="14"/>
       <c r="B28" s="3">
         <v>3</v>
       </c>
@@ -7961,7 +7964,7 @@
       </c>
     </row>
     <row r="29" spans="1:52" x14ac:dyDescent="0.3">
-      <c r="A29" s="13"/>
+      <c r="A29" s="14"/>
       <c r="B29" s="3">
         <v>4</v>
       </c>
@@ -8117,7 +8120,7 @@
       </c>
     </row>
     <row r="30" spans="1:52" x14ac:dyDescent="0.3">
-      <c r="A30" s="13"/>
+      <c r="A30" s="14"/>
       <c r="B30" s="3">
         <v>5</v>
       </c>
@@ -8273,7 +8276,7 @@
       </c>
     </row>
     <row r="31" spans="1:52" x14ac:dyDescent="0.3">
-      <c r="A31" s="13"/>
+      <c r="A31" s="14"/>
       <c r="B31" s="3">
         <v>6</v>
       </c>
@@ -8429,7 +8432,7 @@
       </c>
     </row>
     <row r="32" spans="1:52" x14ac:dyDescent="0.3">
-      <c r="A32" s="13"/>
+      <c r="A32" s="14"/>
       <c r="B32" s="3">
         <v>7</v>
       </c>
@@ -8585,7 +8588,7 @@
       </c>
     </row>
     <row r="33" spans="1:52" x14ac:dyDescent="0.3">
-      <c r="A33" s="13"/>
+      <c r="A33" s="14"/>
       <c r="B33" s="3">
         <v>8</v>
       </c>
@@ -8741,7 +8744,7 @@
       </c>
     </row>
     <row r="34" spans="1:52" x14ac:dyDescent="0.3">
-      <c r="A34" s="13"/>
+      <c r="A34" s="14"/>
       <c r="B34" s="3">
         <v>9</v>
       </c>
@@ -8897,7 +8900,7 @@
       </c>
     </row>
     <row r="35" spans="1:52" x14ac:dyDescent="0.3">
-      <c r="A35" s="13"/>
+      <c r="A35" s="14"/>
       <c r="B35" s="3">
         <v>10</v>
       </c>
@@ -9053,7 +9056,7 @@
       </c>
     </row>
     <row r="36" spans="1:52" x14ac:dyDescent="0.3">
-      <c r="A36" s="13"/>
+      <c r="A36" s="14"/>
       <c r="B36" s="3">
         <v>11</v>
       </c>
@@ -9209,7 +9212,7 @@
       </c>
     </row>
     <row r="37" spans="1:52" x14ac:dyDescent="0.3">
-      <c r="A37" s="13"/>
+      <c r="A37" s="14"/>
       <c r="B37" s="3">
         <v>12</v>
       </c>
@@ -9365,7 +9368,7 @@
       </c>
     </row>
     <row r="38" spans="1:52" x14ac:dyDescent="0.3">
-      <c r="A38" s="13">
+      <c r="A38" s="14">
         <v>2003</v>
       </c>
       <c r="B38" s="3">
@@ -9523,7 +9526,7 @@
       </c>
     </row>
     <row r="39" spans="1:52" x14ac:dyDescent="0.3">
-      <c r="A39" s="13"/>
+      <c r="A39" s="14"/>
       <c r="B39" s="3">
         <v>2</v>
       </c>
@@ -9679,7 +9682,7 @@
       </c>
     </row>
     <row r="40" spans="1:52" x14ac:dyDescent="0.3">
-      <c r="A40" s="13"/>
+      <c r="A40" s="14"/>
       <c r="B40" s="3">
         <v>3</v>
       </c>
@@ -9835,7 +9838,7 @@
       </c>
     </row>
     <row r="41" spans="1:52" x14ac:dyDescent="0.3">
-      <c r="A41" s="13"/>
+      <c r="A41" s="14"/>
       <c r="B41" s="3">
         <v>4</v>
       </c>
@@ -9991,7 +9994,7 @@
       </c>
     </row>
     <row r="42" spans="1:52" x14ac:dyDescent="0.3">
-      <c r="A42" s="13"/>
+      <c r="A42" s="14"/>
       <c r="B42" s="3">
         <v>5</v>
       </c>
@@ -10147,7 +10150,7 @@
       </c>
     </row>
     <row r="43" spans="1:52" x14ac:dyDescent="0.3">
-      <c r="A43" s="13"/>
+      <c r="A43" s="14"/>
       <c r="B43" s="3">
         <v>6</v>
       </c>
@@ -10303,7 +10306,7 @@
       </c>
     </row>
     <row r="44" spans="1:52" x14ac:dyDescent="0.3">
-      <c r="A44" s="13"/>
+      <c r="A44" s="14"/>
       <c r="B44" s="3">
         <v>7</v>
       </c>
@@ -10459,7 +10462,7 @@
       </c>
     </row>
     <row r="45" spans="1:52" x14ac:dyDescent="0.3">
-      <c r="A45" s="13"/>
+      <c r="A45" s="14"/>
       <c r="B45" s="3">
         <v>8</v>
       </c>
@@ -10615,7 +10618,7 @@
       </c>
     </row>
     <row r="46" spans="1:52" x14ac:dyDescent="0.3">
-      <c r="A46" s="13"/>
+      <c r="A46" s="14"/>
       <c r="B46" s="3">
         <v>9</v>
       </c>
@@ -10771,7 +10774,7 @@
       </c>
     </row>
     <row r="47" spans="1:52" x14ac:dyDescent="0.3">
-      <c r="A47" s="13"/>
+      <c r="A47" s="14"/>
       <c r="B47" s="3">
         <v>10</v>
       </c>
@@ -10927,7 +10930,7 @@
       </c>
     </row>
     <row r="48" spans="1:52" x14ac:dyDescent="0.3">
-      <c r="A48" s="13"/>
+      <c r="A48" s="14"/>
       <c r="B48" s="3">
         <v>11</v>
       </c>
@@ -11083,7 +11086,7 @@
       </c>
     </row>
     <row r="49" spans="1:52" x14ac:dyDescent="0.3">
-      <c r="A49" s="13"/>
+      <c r="A49" s="14"/>
       <c r="B49" s="3">
         <v>12</v>
       </c>
@@ -11239,7 +11242,7 @@
       </c>
     </row>
     <row r="50" spans="1:52" x14ac:dyDescent="0.3">
-      <c r="A50" s="13">
+      <c r="A50" s="14">
         <v>2004</v>
       </c>
       <c r="B50" s="3">
@@ -11397,7 +11400,7 @@
       </c>
     </row>
     <row r="51" spans="1:52" x14ac:dyDescent="0.3">
-      <c r="A51" s="13"/>
+      <c r="A51" s="14"/>
       <c r="B51" s="3">
         <v>2</v>
       </c>
@@ -11553,7 +11556,7 @@
       </c>
     </row>
     <row r="52" spans="1:52" x14ac:dyDescent="0.3">
-      <c r="A52" s="13"/>
+      <c r="A52" s="14"/>
       <c r="B52" s="3">
         <v>3</v>
       </c>
@@ -11709,7 +11712,7 @@
       </c>
     </row>
     <row r="53" spans="1:52" x14ac:dyDescent="0.3">
-      <c r="A53" s="13"/>
+      <c r="A53" s="14"/>
       <c r="B53" s="3">
         <v>4</v>
       </c>
@@ -11865,7 +11868,7 @@
       </c>
     </row>
     <row r="54" spans="1:52" x14ac:dyDescent="0.3">
-      <c r="A54" s="13"/>
+      <c r="A54" s="14"/>
       <c r="B54" s="3">
         <v>5</v>
       </c>
@@ -12021,7 +12024,7 @@
       </c>
     </row>
     <row r="55" spans="1:52" x14ac:dyDescent="0.3">
-      <c r="A55" s="13"/>
+      <c r="A55" s="14"/>
       <c r="B55" s="3">
         <v>6</v>
       </c>
@@ -12177,7 +12180,7 @@
       </c>
     </row>
     <row r="56" spans="1:52" x14ac:dyDescent="0.3">
-      <c r="A56" s="13"/>
+      <c r="A56" s="14"/>
       <c r="B56" s="3">
         <v>7</v>
       </c>
@@ -12333,7 +12336,7 @@
       </c>
     </row>
     <row r="57" spans="1:52" x14ac:dyDescent="0.3">
-      <c r="A57" s="13"/>
+      <c r="A57" s="14"/>
       <c r="B57" s="3">
         <v>8</v>
       </c>
@@ -12489,7 +12492,7 @@
       </c>
     </row>
     <row r="58" spans="1:52" x14ac:dyDescent="0.3">
-      <c r="A58" s="13"/>
+      <c r="A58" s="14"/>
       <c r="B58" s="3">
         <v>9</v>
       </c>
@@ -12645,7 +12648,7 @@
       </c>
     </row>
     <row r="59" spans="1:52" x14ac:dyDescent="0.3">
-      <c r="A59" s="13"/>
+      <c r="A59" s="14"/>
       <c r="B59" s="3">
         <v>10</v>
       </c>
@@ -12801,7 +12804,7 @@
       </c>
     </row>
     <row r="60" spans="1:52" x14ac:dyDescent="0.3">
-      <c r="A60" s="13"/>
+      <c r="A60" s="14"/>
       <c r="B60" s="3">
         <v>11</v>
       </c>
@@ -12957,7 +12960,7 @@
       </c>
     </row>
     <row r="61" spans="1:52" x14ac:dyDescent="0.3">
-      <c r="A61" s="13"/>
+      <c r="A61" s="14"/>
       <c r="B61" s="3">
         <v>12</v>
       </c>
@@ -13113,7 +13116,7 @@
       </c>
     </row>
     <row r="62" spans="1:52" x14ac:dyDescent="0.3">
-      <c r="A62" s="13">
+      <c r="A62" s="14">
         <v>2005</v>
       </c>
       <c r="B62" s="3">
@@ -13271,7 +13274,7 @@
       </c>
     </row>
     <row r="63" spans="1:52" x14ac:dyDescent="0.3">
-      <c r="A63" s="13"/>
+      <c r="A63" s="14"/>
       <c r="B63" s="3">
         <v>2</v>
       </c>
@@ -13427,7 +13430,7 @@
       </c>
     </row>
     <row r="64" spans="1:52" x14ac:dyDescent="0.3">
-      <c r="A64" s="13"/>
+      <c r="A64" s="14"/>
       <c r="B64" s="3">
         <v>3</v>
       </c>
@@ -13583,7 +13586,7 @@
       </c>
     </row>
     <row r="65" spans="1:52" x14ac:dyDescent="0.3">
-      <c r="A65" s="13"/>
+      <c r="A65" s="14"/>
       <c r="B65" s="3">
         <v>4</v>
       </c>
@@ -13739,7 +13742,7 @@
       </c>
     </row>
     <row r="66" spans="1:52" x14ac:dyDescent="0.3">
-      <c r="A66" s="13"/>
+      <c r="A66" s="14"/>
       <c r="B66" s="3">
         <v>5</v>
       </c>
@@ -13895,7 +13898,7 @@
       </c>
     </row>
     <row r="67" spans="1:52" x14ac:dyDescent="0.3">
-      <c r="A67" s="13"/>
+      <c r="A67" s="14"/>
       <c r="B67" s="3">
         <v>6</v>
       </c>
@@ -14051,7 +14054,7 @@
       </c>
     </row>
     <row r="68" spans="1:52" x14ac:dyDescent="0.3">
-      <c r="A68" s="13"/>
+      <c r="A68" s="14"/>
       <c r="B68" s="3">
         <v>7</v>
       </c>
@@ -14207,7 +14210,7 @@
       </c>
     </row>
     <row r="69" spans="1:52" x14ac:dyDescent="0.3">
-      <c r="A69" s="13"/>
+      <c r="A69" s="14"/>
       <c r="B69" s="3">
         <v>8</v>
       </c>
@@ -14363,7 +14366,7 @@
       </c>
     </row>
     <row r="70" spans="1:52" x14ac:dyDescent="0.3">
-      <c r="A70" s="13"/>
+      <c r="A70" s="14"/>
       <c r="B70" s="3">
         <v>9</v>
       </c>
@@ -14519,7 +14522,7 @@
       </c>
     </row>
     <row r="71" spans="1:52" x14ac:dyDescent="0.3">
-      <c r="A71" s="13"/>
+      <c r="A71" s="14"/>
       <c r="B71" s="3">
         <v>10</v>
       </c>
@@ -14675,7 +14678,7 @@
       </c>
     </row>
     <row r="72" spans="1:52" x14ac:dyDescent="0.3">
-      <c r="A72" s="13"/>
+      <c r="A72" s="14"/>
       <c r="B72" s="3">
         <v>11</v>
       </c>
@@ -14831,7 +14834,7 @@
       </c>
     </row>
     <row r="73" spans="1:52" x14ac:dyDescent="0.3">
-      <c r="A73" s="13"/>
+      <c r="A73" s="14"/>
       <c r="B73" s="3">
         <v>12</v>
       </c>
@@ -14987,7 +14990,7 @@
       </c>
     </row>
     <row r="74" spans="1:52" x14ac:dyDescent="0.3">
-      <c r="A74" s="13">
+      <c r="A74" s="14">
         <v>2006</v>
       </c>
       <c r="B74" s="3">
@@ -15145,7 +15148,7 @@
       </c>
     </row>
     <row r="75" spans="1:52" x14ac:dyDescent="0.3">
-      <c r="A75" s="13"/>
+      <c r="A75" s="14"/>
       <c r="B75" s="3">
         <v>2</v>
       </c>
@@ -15301,7 +15304,7 @@
       </c>
     </row>
     <row r="76" spans="1:52" x14ac:dyDescent="0.3">
-      <c r="A76" s="13"/>
+      <c r="A76" s="14"/>
       <c r="B76" s="3">
         <v>3</v>
       </c>
@@ -15457,7 +15460,7 @@
       </c>
     </row>
     <row r="77" spans="1:52" x14ac:dyDescent="0.3">
-      <c r="A77" s="13"/>
+      <c r="A77" s="14"/>
       <c r="B77" s="3">
         <v>4</v>
       </c>
@@ -15613,7 +15616,7 @@
       </c>
     </row>
     <row r="78" spans="1:52" x14ac:dyDescent="0.3">
-      <c r="A78" s="13"/>
+      <c r="A78" s="14"/>
       <c r="B78" s="3">
         <v>5</v>
       </c>
@@ -15769,7 +15772,7 @@
       </c>
     </row>
     <row r="79" spans="1:52" x14ac:dyDescent="0.3">
-      <c r="A79" s="13"/>
+      <c r="A79" s="14"/>
       <c r="B79" s="3">
         <v>6</v>
       </c>
@@ -15925,7 +15928,7 @@
       </c>
     </row>
     <row r="80" spans="1:52" x14ac:dyDescent="0.3">
-      <c r="A80" s="13"/>
+      <c r="A80" s="14"/>
       <c r="B80" s="3">
         <v>7</v>
       </c>
@@ -16081,7 +16084,7 @@
       </c>
     </row>
     <row r="81" spans="1:52" x14ac:dyDescent="0.3">
-      <c r="A81" s="13"/>
+      <c r="A81" s="14"/>
       <c r="B81" s="3">
         <v>8</v>
       </c>
@@ -16237,7 +16240,7 @@
       </c>
     </row>
     <row r="82" spans="1:52" x14ac:dyDescent="0.3">
-      <c r="A82" s="13"/>
+      <c r="A82" s="14"/>
       <c r="B82" s="3">
         <v>9</v>
       </c>
@@ -16393,7 +16396,7 @@
       </c>
     </row>
     <row r="83" spans="1:52" x14ac:dyDescent="0.3">
-      <c r="A83" s="13"/>
+      <c r="A83" s="14"/>
       <c r="B83" s="3">
         <v>10</v>
       </c>
@@ -16549,7 +16552,7 @@
       </c>
     </row>
     <row r="84" spans="1:52" x14ac:dyDescent="0.3">
-      <c r="A84" s="13"/>
+      <c r="A84" s="14"/>
       <c r="B84" s="3">
         <v>11</v>
       </c>
@@ -16705,7 +16708,7 @@
       </c>
     </row>
     <row r="85" spans="1:52" x14ac:dyDescent="0.3">
-      <c r="A85" s="13"/>
+      <c r="A85" s="14"/>
       <c r="B85" s="3">
         <v>12</v>
       </c>
@@ -16861,7 +16864,7 @@
       </c>
     </row>
     <row r="86" spans="1:52" x14ac:dyDescent="0.3">
-      <c r="A86" s="13">
+      <c r="A86" s="14">
         <v>2007</v>
       </c>
       <c r="B86" s="3">
@@ -17019,7 +17022,7 @@
       </c>
     </row>
     <row r="87" spans="1:52" x14ac:dyDescent="0.3">
-      <c r="A87" s="13"/>
+      <c r="A87" s="14"/>
       <c r="B87" s="3">
         <v>2</v>
       </c>
@@ -17175,7 +17178,7 @@
       </c>
     </row>
     <row r="88" spans="1:52" x14ac:dyDescent="0.3">
-      <c r="A88" s="13"/>
+      <c r="A88" s="14"/>
       <c r="B88" s="3">
         <v>3</v>
       </c>
@@ -17331,7 +17334,7 @@
       </c>
     </row>
     <row r="89" spans="1:52" x14ac:dyDescent="0.3">
-      <c r="A89" s="13"/>
+      <c r="A89" s="14"/>
       <c r="B89" s="3">
         <v>4</v>
       </c>
@@ -17487,7 +17490,7 @@
       </c>
     </row>
     <row r="90" spans="1:52" x14ac:dyDescent="0.3">
-      <c r="A90" s="13"/>
+      <c r="A90" s="14"/>
       <c r="B90" s="3">
         <v>5</v>
       </c>
@@ -17643,7 +17646,7 @@
       </c>
     </row>
     <row r="91" spans="1:52" x14ac:dyDescent="0.3">
-      <c r="A91" s="13"/>
+      <c r="A91" s="14"/>
       <c r="B91" s="3">
         <v>6</v>
       </c>
@@ -17799,7 +17802,7 @@
       </c>
     </row>
     <row r="92" spans="1:52" x14ac:dyDescent="0.3">
-      <c r="A92" s="13"/>
+      <c r="A92" s="14"/>
       <c r="B92" s="3">
         <v>7</v>
       </c>
@@ -17955,7 +17958,7 @@
       </c>
     </row>
     <row r="93" spans="1:52" x14ac:dyDescent="0.3">
-      <c r="A93" s="13"/>
+      <c r="A93" s="14"/>
       <c r="B93" s="3">
         <v>8</v>
       </c>
@@ -18111,7 +18114,7 @@
       </c>
     </row>
     <row r="94" spans="1:52" x14ac:dyDescent="0.3">
-      <c r="A94" s="13"/>
+      <c r="A94" s="14"/>
       <c r="B94" s="3">
         <v>9</v>
       </c>
@@ -18267,7 +18270,7 @@
       </c>
     </row>
     <row r="95" spans="1:52" x14ac:dyDescent="0.3">
-      <c r="A95" s="13"/>
+      <c r="A95" s="14"/>
       <c r="B95" s="3">
         <v>10</v>
       </c>
@@ -18423,7 +18426,7 @@
       </c>
     </row>
     <row r="96" spans="1:52" x14ac:dyDescent="0.3">
-      <c r="A96" s="13"/>
+      <c r="A96" s="14"/>
       <c r="B96" s="3">
         <v>11</v>
       </c>
@@ -18579,7 +18582,7 @@
       </c>
     </row>
     <row r="97" spans="1:52" x14ac:dyDescent="0.3">
-      <c r="A97" s="13"/>
+      <c r="A97" s="14"/>
       <c r="B97" s="3">
         <v>12</v>
       </c>
@@ -18735,7 +18738,7 @@
       </c>
     </row>
     <row r="98" spans="1:52" x14ac:dyDescent="0.3">
-      <c r="A98" s="13">
+      <c r="A98" s="14">
         <v>2008</v>
       </c>
       <c r="B98" s="3">
@@ -18893,7 +18896,7 @@
       </c>
     </row>
     <row r="99" spans="1:52" x14ac:dyDescent="0.3">
-      <c r="A99" s="13"/>
+      <c r="A99" s="14"/>
       <c r="B99" s="3">
         <v>2</v>
       </c>
@@ -19049,7 +19052,7 @@
       </c>
     </row>
     <row r="100" spans="1:52" x14ac:dyDescent="0.3">
-      <c r="A100" s="13"/>
+      <c r="A100" s="14"/>
       <c r="B100" s="3">
         <v>3</v>
       </c>
@@ -19205,7 +19208,7 @@
       </c>
     </row>
     <row r="101" spans="1:52" x14ac:dyDescent="0.3">
-      <c r="A101" s="13"/>
+      <c r="A101" s="14"/>
       <c r="B101" s="3">
         <v>4</v>
       </c>
@@ -19361,7 +19364,7 @@
       </c>
     </row>
     <row r="102" spans="1:52" x14ac:dyDescent="0.3">
-      <c r="A102" s="13"/>
+      <c r="A102" s="14"/>
       <c r="B102" s="3">
         <v>5</v>
       </c>
@@ -19517,7 +19520,7 @@
       </c>
     </row>
     <row r="103" spans="1:52" x14ac:dyDescent="0.3">
-      <c r="A103" s="13"/>
+      <c r="A103" s="14"/>
       <c r="B103" s="3">
         <v>6</v>
       </c>
@@ -19673,7 +19676,7 @@
       </c>
     </row>
     <row r="104" spans="1:52" x14ac:dyDescent="0.3">
-      <c r="A104" s="13"/>
+      <c r="A104" s="14"/>
       <c r="B104" s="3">
         <v>7</v>
       </c>
@@ -19829,7 +19832,7 @@
       </c>
     </row>
     <row r="105" spans="1:52" x14ac:dyDescent="0.3">
-      <c r="A105" s="13"/>
+      <c r="A105" s="14"/>
       <c r="B105" s="3">
         <v>8</v>
       </c>
@@ -19985,7 +19988,7 @@
       </c>
     </row>
     <row r="106" spans="1:52" x14ac:dyDescent="0.3">
-      <c r="A106" s="13"/>
+      <c r="A106" s="14"/>
       <c r="B106" s="3">
         <v>9</v>
       </c>
@@ -20141,7 +20144,7 @@
       </c>
     </row>
     <row r="107" spans="1:52" x14ac:dyDescent="0.3">
-      <c r="A107" s="13"/>
+      <c r="A107" s="14"/>
       <c r="B107" s="3">
         <v>10</v>
       </c>
@@ -20297,7 +20300,7 @@
       </c>
     </row>
     <row r="108" spans="1:52" x14ac:dyDescent="0.3">
-      <c r="A108" s="13"/>
+      <c r="A108" s="14"/>
       <c r="B108" s="3">
         <v>11</v>
       </c>
@@ -20453,7 +20456,7 @@
       </c>
     </row>
     <row r="109" spans="1:52" x14ac:dyDescent="0.3">
-      <c r="A109" s="13"/>
+      <c r="A109" s="14"/>
       <c r="B109" s="3">
         <v>12</v>
       </c>
@@ -20609,7 +20612,7 @@
       </c>
     </row>
     <row r="110" spans="1:52" x14ac:dyDescent="0.3">
-      <c r="A110" s="13">
+      <c r="A110" s="14">
         <v>2009</v>
       </c>
       <c r="B110" s="3">
@@ -20767,7 +20770,7 @@
       </c>
     </row>
     <row r="111" spans="1:52" x14ac:dyDescent="0.3">
-      <c r="A111" s="13"/>
+      <c r="A111" s="14"/>
       <c r="B111" s="3">
         <v>2</v>
       </c>
@@ -20923,7 +20926,7 @@
       </c>
     </row>
     <row r="112" spans="1:52" x14ac:dyDescent="0.3">
-      <c r="A112" s="13"/>
+      <c r="A112" s="14"/>
       <c r="B112" s="3">
         <v>3</v>
       </c>
@@ -21079,7 +21082,7 @@
       </c>
     </row>
     <row r="113" spans="1:52" x14ac:dyDescent="0.3">
-      <c r="A113" s="13"/>
+      <c r="A113" s="14"/>
       <c r="B113" s="3">
         <v>4</v>
       </c>
@@ -21235,7 +21238,7 @@
       </c>
     </row>
     <row r="114" spans="1:52" x14ac:dyDescent="0.3">
-      <c r="A114" s="13"/>
+      <c r="A114" s="14"/>
       <c r="B114" s="3">
         <v>5</v>
       </c>
@@ -21391,7 +21394,7 @@
       </c>
     </row>
     <row r="115" spans="1:52" x14ac:dyDescent="0.3">
-      <c r="A115" s="13"/>
+      <c r="A115" s="14"/>
       <c r="B115" s="3">
         <v>6</v>
       </c>
@@ -21547,7 +21550,7 @@
       </c>
     </row>
     <row r="116" spans="1:52" x14ac:dyDescent="0.3">
-      <c r="A116" s="13"/>
+      <c r="A116" s="14"/>
       <c r="B116" s="3">
         <v>7</v>
       </c>
@@ -21703,7 +21706,7 @@
       </c>
     </row>
     <row r="117" spans="1:52" x14ac:dyDescent="0.3">
-      <c r="A117" s="13"/>
+      <c r="A117" s="14"/>
       <c r="B117" s="3">
         <v>8</v>
       </c>
@@ -21859,7 +21862,7 @@
       </c>
     </row>
     <row r="118" spans="1:52" x14ac:dyDescent="0.3">
-      <c r="A118" s="13"/>
+      <c r="A118" s="14"/>
       <c r="B118" s="3">
         <v>9</v>
       </c>
@@ -22015,7 +22018,7 @@
       </c>
     </row>
     <row r="119" spans="1:52" x14ac:dyDescent="0.3">
-      <c r="A119" s="13"/>
+      <c r="A119" s="14"/>
       <c r="B119" s="3">
         <v>10</v>
       </c>
@@ -22171,7 +22174,7 @@
       </c>
     </row>
     <row r="120" spans="1:52" x14ac:dyDescent="0.3">
-      <c r="A120" s="13"/>
+      <c r="A120" s="14"/>
       <c r="B120" s="3">
         <v>11</v>
       </c>
@@ -22327,7 +22330,7 @@
       </c>
     </row>
     <row r="121" spans="1:52" x14ac:dyDescent="0.3">
-      <c r="A121" s="13"/>
+      <c r="A121" s="14"/>
       <c r="B121" s="3">
         <v>12</v>
       </c>
@@ -22483,7 +22486,7 @@
       </c>
     </row>
     <row r="122" spans="1:52" x14ac:dyDescent="0.3">
-      <c r="A122" s="13">
+      <c r="A122" s="14">
         <v>2010</v>
       </c>
       <c r="B122" s="3">
@@ -22641,7 +22644,7 @@
       </c>
     </row>
     <row r="123" spans="1:52" x14ac:dyDescent="0.3">
-      <c r="A123" s="13"/>
+      <c r="A123" s="14"/>
       <c r="B123" s="3">
         <v>2</v>
       </c>
@@ -22797,7 +22800,7 @@
       </c>
     </row>
     <row r="124" spans="1:52" x14ac:dyDescent="0.3">
-      <c r="A124" s="13"/>
+      <c r="A124" s="14"/>
       <c r="B124" s="3">
         <v>3</v>
       </c>
@@ -22953,7 +22956,7 @@
       </c>
     </row>
     <row r="125" spans="1:52" x14ac:dyDescent="0.3">
-      <c r="A125" s="13"/>
+      <c r="A125" s="14"/>
       <c r="B125" s="3">
         <v>4</v>
       </c>
@@ -23109,7 +23112,7 @@
       </c>
     </row>
     <row r="126" spans="1:52" x14ac:dyDescent="0.3">
-      <c r="A126" s="13"/>
+      <c r="A126" s="14"/>
       <c r="B126" s="3">
         <v>5</v>
       </c>
@@ -23265,7 +23268,7 @@
       </c>
     </row>
     <row r="127" spans="1:52" x14ac:dyDescent="0.3">
-      <c r="A127" s="13"/>
+      <c r="A127" s="14"/>
       <c r="B127" s="3">
         <v>6</v>
       </c>
@@ -23421,7 +23424,7 @@
       </c>
     </row>
     <row r="128" spans="1:52" x14ac:dyDescent="0.3">
-      <c r="A128" s="13"/>
+      <c r="A128" s="14"/>
       <c r="B128" s="3">
         <v>7</v>
       </c>
@@ -23577,7 +23580,7 @@
       </c>
     </row>
     <row r="129" spans="1:52" x14ac:dyDescent="0.3">
-      <c r="A129" s="13"/>
+      <c r="A129" s="14"/>
       <c r="B129" s="3">
         <v>8</v>
       </c>
@@ -23733,7 +23736,7 @@
       </c>
     </row>
     <row r="130" spans="1:52" x14ac:dyDescent="0.3">
-      <c r="A130" s="13"/>
+      <c r="A130" s="14"/>
       <c r="B130" s="3">
         <v>9</v>
       </c>
@@ -23889,7 +23892,7 @@
       </c>
     </row>
     <row r="131" spans="1:52" x14ac:dyDescent="0.3">
-      <c r="A131" s="13"/>
+      <c r="A131" s="14"/>
       <c r="B131" s="3">
         <v>10</v>
       </c>
@@ -24045,7 +24048,7 @@
       </c>
     </row>
     <row r="132" spans="1:52" x14ac:dyDescent="0.3">
-      <c r="A132" s="13"/>
+      <c r="A132" s="14"/>
       <c r="B132" s="3">
         <v>11</v>
       </c>
@@ -24201,7 +24204,7 @@
       </c>
     </row>
     <row r="133" spans="1:52" x14ac:dyDescent="0.3">
-      <c r="A133" s="13"/>
+      <c r="A133" s="14"/>
       <c r="B133" s="3">
         <v>12</v>
       </c>
@@ -24357,7 +24360,7 @@
       </c>
     </row>
     <row r="134" spans="1:52" x14ac:dyDescent="0.3">
-      <c r="A134" s="13">
+      <c r="A134" s="14">
         <v>2011</v>
       </c>
       <c r="B134" s="3">
@@ -24515,7 +24518,7 @@
       </c>
     </row>
     <row r="135" spans="1:52" x14ac:dyDescent="0.3">
-      <c r="A135" s="13"/>
+      <c r="A135" s="14"/>
       <c r="B135" s="3">
         <v>2</v>
       </c>
@@ -24671,7 +24674,7 @@
       </c>
     </row>
     <row r="136" spans="1:52" x14ac:dyDescent="0.3">
-      <c r="A136" s="13"/>
+      <c r="A136" s="14"/>
       <c r="B136" s="3">
         <v>3</v>
       </c>
@@ -24827,7 +24830,7 @@
       </c>
     </row>
     <row r="137" spans="1:52" x14ac:dyDescent="0.3">
-      <c r="A137" s="13"/>
+      <c r="A137" s="14"/>
       <c r="B137" s="3">
         <v>4</v>
       </c>
@@ -24983,7 +24986,7 @@
       </c>
     </row>
     <row r="138" spans="1:52" x14ac:dyDescent="0.3">
-      <c r="A138" s="13"/>
+      <c r="A138" s="14"/>
       <c r="B138" s="3">
         <v>5</v>
       </c>
@@ -25139,7 +25142,7 @@
       </c>
     </row>
     <row r="139" spans="1:52" x14ac:dyDescent="0.3">
-      <c r="A139" s="13"/>
+      <c r="A139" s="14"/>
       <c r="B139" s="3">
         <v>6</v>
       </c>
@@ -25295,7 +25298,7 @@
       </c>
     </row>
     <row r="140" spans="1:52" x14ac:dyDescent="0.3">
-      <c r="A140" s="13"/>
+      <c r="A140" s="14"/>
       <c r="B140" s="3">
         <v>7</v>
       </c>
@@ -25451,7 +25454,7 @@
       </c>
     </row>
     <row r="141" spans="1:52" x14ac:dyDescent="0.3">
-      <c r="A141" s="13"/>
+      <c r="A141" s="14"/>
       <c r="B141" s="3">
         <v>8</v>
       </c>
@@ -25607,7 +25610,7 @@
       </c>
     </row>
     <row r="142" spans="1:52" x14ac:dyDescent="0.3">
-      <c r="A142" s="13"/>
+      <c r="A142" s="14"/>
       <c r="B142" s="3">
         <v>9</v>
       </c>
@@ -25763,7 +25766,7 @@
       </c>
     </row>
     <row r="143" spans="1:52" x14ac:dyDescent="0.3">
-      <c r="A143" s="13"/>
+      <c r="A143" s="14"/>
       <c r="B143" s="3">
         <v>10</v>
       </c>
@@ -25919,7 +25922,7 @@
       </c>
     </row>
     <row r="144" spans="1:52" x14ac:dyDescent="0.3">
-      <c r="A144" s="13"/>
+      <c r="A144" s="14"/>
       <c r="B144" s="3">
         <v>11</v>
       </c>
@@ -26075,7 +26078,7 @@
       </c>
     </row>
     <row r="145" spans="1:52" x14ac:dyDescent="0.3">
-      <c r="A145" s="13"/>
+      <c r="A145" s="14"/>
       <c r="B145" s="3">
         <v>12</v>
       </c>
@@ -26231,7 +26234,7 @@
       </c>
     </row>
     <row r="146" spans="1:52" x14ac:dyDescent="0.3">
-      <c r="A146" s="13">
+      <c r="A146" s="14">
         <v>2012</v>
       </c>
       <c r="B146" s="3">
@@ -26389,7 +26392,7 @@
       </c>
     </row>
     <row r="147" spans="1:52" x14ac:dyDescent="0.3">
-      <c r="A147" s="13"/>
+      <c r="A147" s="14"/>
       <c r="B147" s="3">
         <v>2</v>
       </c>
@@ -26545,7 +26548,7 @@
       </c>
     </row>
     <row r="148" spans="1:52" x14ac:dyDescent="0.3">
-      <c r="A148" s="13"/>
+      <c r="A148" s="14"/>
       <c r="B148" s="3">
         <v>3</v>
       </c>
@@ -26701,7 +26704,7 @@
       </c>
     </row>
     <row r="149" spans="1:52" x14ac:dyDescent="0.3">
-      <c r="A149" s="13"/>
+      <c r="A149" s="14"/>
       <c r="B149" s="3">
         <v>4</v>
       </c>
@@ -26857,7 +26860,7 @@
       </c>
     </row>
     <row r="150" spans="1:52" x14ac:dyDescent="0.3">
-      <c r="A150" s="13"/>
+      <c r="A150" s="14"/>
       <c r="B150" s="3">
         <v>5</v>
       </c>
@@ -27013,7 +27016,7 @@
       </c>
     </row>
     <row r="151" spans="1:52" x14ac:dyDescent="0.3">
-      <c r="A151" s="13"/>
+      <c r="A151" s="14"/>
       <c r="B151" s="3">
         <v>6</v>
       </c>
@@ -27169,7 +27172,7 @@
       </c>
     </row>
     <row r="152" spans="1:52" x14ac:dyDescent="0.3">
-      <c r="A152" s="13"/>
+      <c r="A152" s="14"/>
       <c r="B152" s="3">
         <v>7</v>
       </c>
@@ -27325,7 +27328,7 @@
       </c>
     </row>
     <row r="153" spans="1:52" x14ac:dyDescent="0.3">
-      <c r="A153" s="13"/>
+      <c r="A153" s="14"/>
       <c r="B153" s="3">
         <v>8</v>
       </c>
@@ -27481,7 +27484,7 @@
       </c>
     </row>
     <row r="154" spans="1:52" x14ac:dyDescent="0.3">
-      <c r="A154" s="13"/>
+      <c r="A154" s="14"/>
       <c r="B154" s="3">
         <v>9</v>
       </c>
@@ -27637,7 +27640,7 @@
       </c>
     </row>
     <row r="155" spans="1:52" x14ac:dyDescent="0.3">
-      <c r="A155" s="13"/>
+      <c r="A155" s="14"/>
       <c r="B155" s="3">
         <v>10</v>
       </c>
@@ -27793,7 +27796,7 @@
       </c>
     </row>
     <row r="156" spans="1:52" x14ac:dyDescent="0.3">
-      <c r="A156" s="13"/>
+      <c r="A156" s="14"/>
       <c r="B156" s="3">
         <v>11</v>
       </c>
@@ -27949,7 +27952,7 @@
       </c>
     </row>
     <row r="157" spans="1:52" x14ac:dyDescent="0.3">
-      <c r="A157" s="13"/>
+      <c r="A157" s="14"/>
       <c r="B157" s="3">
         <v>12</v>
       </c>
@@ -28105,7 +28108,7 @@
       </c>
     </row>
     <row r="158" spans="1:52" x14ac:dyDescent="0.3">
-      <c r="A158" s="13">
+      <c r="A158" s="14">
         <v>2013</v>
       </c>
       <c r="B158" s="3">
@@ -28263,7 +28266,7 @@
       </c>
     </row>
     <row r="159" spans="1:52" x14ac:dyDescent="0.3">
-      <c r="A159" s="13"/>
+      <c r="A159" s="14"/>
       <c r="B159" s="3">
         <v>2</v>
       </c>
@@ -28419,7 +28422,7 @@
       </c>
     </row>
     <row r="160" spans="1:52" x14ac:dyDescent="0.3">
-      <c r="A160" s="13"/>
+      <c r="A160" s="14"/>
       <c r="B160" s="3">
         <v>3</v>
       </c>
@@ -28575,7 +28578,7 @@
       </c>
     </row>
     <row r="161" spans="1:52" x14ac:dyDescent="0.3">
-      <c r="A161" s="13"/>
+      <c r="A161" s="14"/>
       <c r="B161" s="3">
         <v>4</v>
       </c>
@@ -28731,7 +28734,7 @@
       </c>
     </row>
     <row r="162" spans="1:52" x14ac:dyDescent="0.3">
-      <c r="A162" s="13"/>
+      <c r="A162" s="14"/>
       <c r="B162" s="3">
         <v>5</v>
       </c>
@@ -28887,7 +28890,7 @@
       </c>
     </row>
     <row r="163" spans="1:52" x14ac:dyDescent="0.3">
-      <c r="A163" s="13"/>
+      <c r="A163" s="14"/>
       <c r="B163" s="3">
         <v>6</v>
       </c>
@@ -29043,7 +29046,7 @@
       </c>
     </row>
     <row r="164" spans="1:52" x14ac:dyDescent="0.3">
-      <c r="A164" s="13"/>
+      <c r="A164" s="14"/>
       <c r="B164" s="3">
         <v>7</v>
       </c>
@@ -29199,7 +29202,7 @@
       </c>
     </row>
     <row r="165" spans="1:52" x14ac:dyDescent="0.3">
-      <c r="A165" s="13"/>
+      <c r="A165" s="14"/>
       <c r="B165" s="3">
         <v>8</v>
       </c>
@@ -29355,7 +29358,7 @@
       </c>
     </row>
     <row r="166" spans="1:52" x14ac:dyDescent="0.3">
-      <c r="A166" s="13"/>
+      <c r="A166" s="14"/>
       <c r="B166" s="3">
         <v>9</v>
       </c>
@@ -29511,7 +29514,7 @@
       </c>
     </row>
     <row r="167" spans="1:52" x14ac:dyDescent="0.3">
-      <c r="A167" s="13"/>
+      <c r="A167" s="14"/>
       <c r="B167" s="3">
         <v>10</v>
       </c>
@@ -29667,7 +29670,7 @@
       </c>
     </row>
     <row r="168" spans="1:52" x14ac:dyDescent="0.3">
-      <c r="A168" s="13"/>
+      <c r="A168" s="14"/>
       <c r="B168" s="3">
         <v>11</v>
       </c>
@@ -29823,7 +29826,7 @@
       </c>
     </row>
     <row r="169" spans="1:52" x14ac:dyDescent="0.3">
-      <c r="A169" s="13"/>
+      <c r="A169" s="14"/>
       <c r="B169" s="3">
         <v>12</v>
       </c>
@@ -29979,7 +29982,7 @@
       </c>
     </row>
     <row r="170" spans="1:52" x14ac:dyDescent="0.3">
-      <c r="A170" s="13">
+      <c r="A170" s="14">
         <v>2014</v>
       </c>
       <c r="B170" s="3">
@@ -30137,7 +30140,7 @@
       </c>
     </row>
     <row r="171" spans="1:52" x14ac:dyDescent="0.3">
-      <c r="A171" s="13"/>
+      <c r="A171" s="14"/>
       <c r="B171" s="3">
         <v>2</v>
       </c>
@@ -30293,7 +30296,7 @@
       </c>
     </row>
     <row r="172" spans="1:52" x14ac:dyDescent="0.3">
-      <c r="A172" s="13"/>
+      <c r="A172" s="14"/>
       <c r="B172" s="3">
         <v>3</v>
       </c>
@@ -30449,7 +30452,7 @@
       </c>
     </row>
     <row r="173" spans="1:52" x14ac:dyDescent="0.3">
-      <c r="A173" s="13"/>
+      <c r="A173" s="14"/>
       <c r="B173" s="3">
         <v>4</v>
       </c>
@@ -30605,7 +30608,7 @@
       </c>
     </row>
     <row r="174" spans="1:52" x14ac:dyDescent="0.3">
-      <c r="A174" s="13"/>
+      <c r="A174" s="14"/>
       <c r="B174" s="3">
         <v>5</v>
       </c>
@@ -30761,7 +30764,7 @@
       </c>
     </row>
     <row r="175" spans="1:52" x14ac:dyDescent="0.3">
-      <c r="A175" s="13"/>
+      <c r="A175" s="14"/>
       <c r="B175" s="3">
         <v>6</v>
       </c>
@@ -30917,7 +30920,7 @@
       </c>
     </row>
     <row r="176" spans="1:52" x14ac:dyDescent="0.3">
-      <c r="A176" s="13"/>
+      <c r="A176" s="14"/>
       <c r="B176" s="3">
         <v>7</v>
       </c>
@@ -31073,7 +31076,7 @@
       </c>
     </row>
     <row r="177" spans="1:52" x14ac:dyDescent="0.3">
-      <c r="A177" s="13"/>
+      <c r="A177" s="14"/>
       <c r="B177" s="3">
         <v>8</v>
       </c>
@@ -31229,7 +31232,7 @@
       </c>
     </row>
     <row r="178" spans="1:52" x14ac:dyDescent="0.3">
-      <c r="A178" s="13"/>
+      <c r="A178" s="14"/>
       <c r="B178" s="3">
         <v>9</v>
       </c>
@@ -31385,7 +31388,7 @@
       </c>
     </row>
     <row r="179" spans="1:52" x14ac:dyDescent="0.3">
-      <c r="A179" s="13"/>
+      <c r="A179" s="14"/>
       <c r="B179" s="3">
         <v>10</v>
       </c>
@@ -31541,7 +31544,7 @@
       </c>
     </row>
     <row r="180" spans="1:52" x14ac:dyDescent="0.3">
-      <c r="A180" s="13"/>
+      <c r="A180" s="14"/>
       <c r="B180" s="3">
         <v>11</v>
       </c>
@@ -31697,7 +31700,7 @@
       </c>
     </row>
     <row r="181" spans="1:52" x14ac:dyDescent="0.3">
-      <c r="A181" s="13"/>
+      <c r="A181" s="14"/>
       <c r="B181" s="3">
         <v>12</v>
       </c>
@@ -31853,7 +31856,7 @@
       </c>
     </row>
     <row r="182" spans="1:52" x14ac:dyDescent="0.3">
-      <c r="A182" s="13">
+      <c r="A182" s="14">
         <v>2015</v>
       </c>
       <c r="B182" s="3">
@@ -32011,7 +32014,7 @@
       </c>
     </row>
     <row r="183" spans="1:52" x14ac:dyDescent="0.3">
-      <c r="A183" s="13"/>
+      <c r="A183" s="14"/>
       <c r="B183" s="3">
         <v>2</v>
       </c>
@@ -32167,7 +32170,7 @@
       </c>
     </row>
     <row r="184" spans="1:52" x14ac:dyDescent="0.3">
-      <c r="A184" s="13"/>
+      <c r="A184" s="14"/>
       <c r="B184" s="3">
         <v>3</v>
       </c>
@@ -32323,7 +32326,7 @@
       </c>
     </row>
     <row r="185" spans="1:52" x14ac:dyDescent="0.3">
-      <c r="A185" s="13"/>
+      <c r="A185" s="14"/>
       <c r="B185" s="3">
         <v>4</v>
       </c>
@@ -32479,7 +32482,7 @@
       </c>
     </row>
     <row r="186" spans="1:52" x14ac:dyDescent="0.3">
-      <c r="A186" s="13"/>
+      <c r="A186" s="14"/>
       <c r="B186" s="3">
         <v>5</v>
       </c>
@@ -32635,7 +32638,7 @@
       </c>
     </row>
     <row r="187" spans="1:52" x14ac:dyDescent="0.3">
-      <c r="A187" s="13"/>
+      <c r="A187" s="14"/>
       <c r="B187" s="3">
         <v>6</v>
       </c>
@@ -32791,7 +32794,7 @@
       </c>
     </row>
     <row r="188" spans="1:52" x14ac:dyDescent="0.3">
-      <c r="A188" s="13"/>
+      <c r="A188" s="14"/>
       <c r="B188" s="3">
         <v>7</v>
       </c>
@@ -32947,7 +32950,7 @@
       </c>
     </row>
     <row r="189" spans="1:52" x14ac:dyDescent="0.3">
-      <c r="A189" s="13"/>
+      <c r="A189" s="14"/>
       <c r="B189" s="3">
         <v>8</v>
       </c>
@@ -33103,7 +33106,7 @@
       </c>
     </row>
     <row r="190" spans="1:52" x14ac:dyDescent="0.3">
-      <c r="A190" s="13"/>
+      <c r="A190" s="14"/>
       <c r="B190" s="3">
         <v>9</v>
       </c>
@@ -33259,7 +33262,7 @@
       </c>
     </row>
     <row r="191" spans="1:52" x14ac:dyDescent="0.3">
-      <c r="A191" s="13"/>
+      <c r="A191" s="14"/>
       <c r="B191" s="3">
         <v>10</v>
       </c>
@@ -33415,7 +33418,7 @@
       </c>
     </row>
     <row r="192" spans="1:52" x14ac:dyDescent="0.3">
-      <c r="A192" s="13"/>
+      <c r="A192" s="14"/>
       <c r="B192" s="3">
         <v>11</v>
       </c>
@@ -33571,7 +33574,7 @@
       </c>
     </row>
     <row r="193" spans="1:52" x14ac:dyDescent="0.3">
-      <c r="A193" s="13"/>
+      <c r="A193" s="14"/>
       <c r="B193" s="3">
         <v>12</v>
       </c>
@@ -33727,7 +33730,7 @@
       </c>
     </row>
     <row r="194" spans="1:52" x14ac:dyDescent="0.3">
-      <c r="A194" s="13">
+      <c r="A194" s="14">
         <v>2016</v>
       </c>
       <c r="B194" s="3">
@@ -33885,7 +33888,7 @@
       </c>
     </row>
     <row r="195" spans="1:52" x14ac:dyDescent="0.3">
-      <c r="A195" s="13"/>
+      <c r="A195" s="14"/>
       <c r="B195" s="3">
         <v>2</v>
       </c>
@@ -34041,7 +34044,7 @@
       </c>
     </row>
     <row r="196" spans="1:52" x14ac:dyDescent="0.3">
-      <c r="A196" s="13"/>
+      <c r="A196" s="14"/>
       <c r="B196" s="3">
         <v>3</v>
       </c>
@@ -34197,7 +34200,7 @@
       </c>
     </row>
     <row r="197" spans="1:52" x14ac:dyDescent="0.3">
-      <c r="A197" s="13"/>
+      <c r="A197" s="14"/>
       <c r="B197" s="3">
         <v>4</v>
       </c>
@@ -34353,7 +34356,7 @@
       </c>
     </row>
     <row r="198" spans="1:52" x14ac:dyDescent="0.3">
-      <c r="A198" s="13"/>
+      <c r="A198" s="14"/>
       <c r="B198" s="3">
         <v>5</v>
       </c>
@@ -34509,7 +34512,7 @@
       </c>
     </row>
     <row r="199" spans="1:52" x14ac:dyDescent="0.3">
-      <c r="A199" s="13"/>
+      <c r="A199" s="14"/>
       <c r="B199" s="3">
         <v>6</v>
       </c>
@@ -34665,7 +34668,7 @@
       </c>
     </row>
     <row r="200" spans="1:52" x14ac:dyDescent="0.3">
-      <c r="A200" s="13"/>
+      <c r="A200" s="14"/>
       <c r="B200" s="3">
         <v>7</v>
       </c>
@@ -34821,7 +34824,7 @@
       </c>
     </row>
     <row r="201" spans="1:52" x14ac:dyDescent="0.3">
-      <c r="A201" s="13"/>
+      <c r="A201" s="14"/>
       <c r="B201" s="3">
         <v>8</v>
       </c>
@@ -34977,7 +34980,7 @@
       </c>
     </row>
     <row r="202" spans="1:52" x14ac:dyDescent="0.3">
-      <c r="A202" s="13"/>
+      <c r="A202" s="14"/>
       <c r="B202" s="3">
         <v>9</v>
       </c>
@@ -35133,7 +35136,7 @@
       </c>
     </row>
     <row r="203" spans="1:52" x14ac:dyDescent="0.3">
-      <c r="A203" s="13"/>
+      <c r="A203" s="14"/>
       <c r="B203" s="3">
         <v>10</v>
       </c>
@@ -35289,7 +35292,7 @@
       </c>
     </row>
     <row r="204" spans="1:52" x14ac:dyDescent="0.3">
-      <c r="A204" s="13"/>
+      <c r="A204" s="14"/>
       <c r="B204" s="3">
         <v>11</v>
       </c>
@@ -35445,7 +35448,7 @@
       </c>
     </row>
     <row r="205" spans="1:52" x14ac:dyDescent="0.3">
-      <c r="A205" s="13"/>
+      <c r="A205" s="14"/>
       <c r="B205" s="3">
         <v>12</v>
       </c>
@@ -35601,7 +35604,7 @@
       </c>
     </row>
     <row r="206" spans="1:52" x14ac:dyDescent="0.3">
-      <c r="A206" s="13">
+      <c r="A206" s="14">
         <v>2017</v>
       </c>
       <c r="B206" s="3">
@@ -35759,7 +35762,7 @@
       </c>
     </row>
     <row r="207" spans="1:52" x14ac:dyDescent="0.3">
-      <c r="A207" s="13"/>
+      <c r="A207" s="14"/>
       <c r="B207" s="3">
         <v>2</v>
       </c>
@@ -35915,7 +35918,7 @@
       </c>
     </row>
     <row r="208" spans="1:52" x14ac:dyDescent="0.3">
-      <c r="A208" s="13"/>
+      <c r="A208" s="14"/>
       <c r="B208" s="3">
         <v>3</v>
       </c>
@@ -36071,7 +36074,7 @@
       </c>
     </row>
     <row r="209" spans="1:52" x14ac:dyDescent="0.3">
-      <c r="A209" s="13"/>
+      <c r="A209" s="14"/>
       <c r="B209" s="3">
         <v>4</v>
       </c>
@@ -36227,7 +36230,7 @@
       </c>
     </row>
     <row r="210" spans="1:52" x14ac:dyDescent="0.3">
-      <c r="A210" s="13"/>
+      <c r="A210" s="14"/>
       <c r="B210" s="3">
         <v>5</v>
       </c>
@@ -36383,7 +36386,7 @@
       </c>
     </row>
     <row r="211" spans="1:52" x14ac:dyDescent="0.3">
-      <c r="A211" s="13"/>
+      <c r="A211" s="14"/>
       <c r="B211" s="3">
         <v>6</v>
       </c>
@@ -36539,7 +36542,7 @@
       </c>
     </row>
     <row r="212" spans="1:52" x14ac:dyDescent="0.3">
-      <c r="A212" s="13"/>
+      <c r="A212" s="14"/>
       <c r="B212" s="3">
         <v>7</v>
       </c>
@@ -36695,7 +36698,7 @@
       </c>
     </row>
     <row r="213" spans="1:52" x14ac:dyDescent="0.3">
-      <c r="A213" s="13"/>
+      <c r="A213" s="14"/>
       <c r="B213" s="3">
         <v>8</v>
       </c>
@@ -36851,7 +36854,7 @@
       </c>
     </row>
     <row r="214" spans="1:52" x14ac:dyDescent="0.3">
-      <c r="A214" s="13"/>
+      <c r="A214" s="14"/>
       <c r="B214" s="3">
         <v>9</v>
       </c>
@@ -37007,7 +37010,7 @@
       </c>
     </row>
     <row r="215" spans="1:52" x14ac:dyDescent="0.3">
-      <c r="A215" s="13"/>
+      <c r="A215" s="14"/>
       <c r="B215" s="3">
         <v>10</v>
       </c>
@@ -37163,7 +37166,7 @@
       </c>
     </row>
     <row r="216" spans="1:52" x14ac:dyDescent="0.3">
-      <c r="A216" s="13"/>
+      <c r="A216" s="14"/>
       <c r="B216" s="3">
         <v>11</v>
       </c>
@@ -37319,7 +37322,7 @@
       </c>
     </row>
     <row r="217" spans="1:52" x14ac:dyDescent="0.3">
-      <c r="A217" s="13"/>
+      <c r="A217" s="14"/>
       <c r="B217" s="3">
         <v>12</v>
       </c>
@@ -37475,7 +37478,7 @@
       </c>
     </row>
     <row r="218" spans="1:52" x14ac:dyDescent="0.3">
-      <c r="A218" s="13">
+      <c r="A218" s="14">
         <v>2018</v>
       </c>
       <c r="B218" s="3">
@@ -37633,7 +37636,7 @@
       </c>
     </row>
     <row r="219" spans="1:52" x14ac:dyDescent="0.3">
-      <c r="A219" s="13"/>
+      <c r="A219" s="14"/>
       <c r="B219" s="3">
         <v>2</v>
       </c>
@@ -37789,7 +37792,7 @@
       </c>
     </row>
     <row r="220" spans="1:52" x14ac:dyDescent="0.3">
-      <c r="A220" s="13"/>
+      <c r="A220" s="14"/>
       <c r="B220" s="3">
         <v>3</v>
       </c>
@@ -37945,7 +37948,7 @@
       </c>
     </row>
     <row r="221" spans="1:52" x14ac:dyDescent="0.3">
-      <c r="A221" s="13"/>
+      <c r="A221" s="14"/>
       <c r="B221" s="3">
         <v>4</v>
       </c>
@@ -38101,7 +38104,7 @@
       </c>
     </row>
     <row r="222" spans="1:52" x14ac:dyDescent="0.3">
-      <c r="A222" s="13"/>
+      <c r="A222" s="14"/>
       <c r="B222" s="3">
         <v>5</v>
       </c>
@@ -38257,7 +38260,7 @@
       </c>
     </row>
     <row r="223" spans="1:52" x14ac:dyDescent="0.3">
-      <c r="A223" s="13"/>
+      <c r="A223" s="14"/>
       <c r="B223" s="3">
         <v>6</v>
       </c>
@@ -38413,7 +38416,7 @@
       </c>
     </row>
     <row r="224" spans="1:52" x14ac:dyDescent="0.3">
-      <c r="A224" s="13"/>
+      <c r="A224" s="14"/>
       <c r="B224" s="3">
         <v>7</v>
       </c>
@@ -38569,7 +38572,7 @@
       </c>
     </row>
     <row r="225" spans="1:52" x14ac:dyDescent="0.3">
-      <c r="A225" s="13"/>
+      <c r="A225" s="14"/>
       <c r="B225" s="3">
         <v>8</v>
       </c>
@@ -38725,7 +38728,7 @@
       </c>
     </row>
     <row r="226" spans="1:52" x14ac:dyDescent="0.3">
-      <c r="A226" s="13"/>
+      <c r="A226" s="14"/>
       <c r="B226" s="3">
         <v>9</v>
       </c>
@@ -38881,7 +38884,7 @@
       </c>
     </row>
     <row r="227" spans="1:52" x14ac:dyDescent="0.3">
-      <c r="A227" s="13"/>
+      <c r="A227" s="14"/>
       <c r="B227" s="3">
         <v>10</v>
       </c>
@@ -39037,7 +39040,7 @@
       </c>
     </row>
     <row r="228" spans="1:52" x14ac:dyDescent="0.3">
-      <c r="A228" s="13"/>
+      <c r="A228" s="14"/>
       <c r="B228" s="3">
         <v>11</v>
       </c>
@@ -39193,7 +39196,7 @@
       </c>
     </row>
     <row r="229" spans="1:52" x14ac:dyDescent="0.3">
-      <c r="A229" s="13"/>
+      <c r="A229" s="14"/>
       <c r="B229" s="3">
         <v>12</v>
       </c>
@@ -39349,7 +39352,7 @@
       </c>
     </row>
     <row r="230" spans="1:52" x14ac:dyDescent="0.3">
-      <c r="A230" s="13">
+      <c r="A230" s="14">
         <v>2019</v>
       </c>
       <c r="B230" s="3">
@@ -39507,7 +39510,7 @@
       </c>
     </row>
     <row r="231" spans="1:52" x14ac:dyDescent="0.3">
-      <c r="A231" s="13"/>
+      <c r="A231" s="14"/>
       <c r="B231" s="3">
         <v>2</v>
       </c>
@@ -39663,7 +39666,7 @@
       </c>
     </row>
     <row r="232" spans="1:52" x14ac:dyDescent="0.3">
-      <c r="A232" s="13"/>
+      <c r="A232" s="14"/>
       <c r="B232" s="3">
         <v>3</v>
       </c>
@@ -39819,7 +39822,7 @@
       </c>
     </row>
     <row r="233" spans="1:52" x14ac:dyDescent="0.3">
-      <c r="A233" s="13"/>
+      <c r="A233" s="14"/>
       <c r="B233" s="3">
         <v>4</v>
       </c>
@@ -39975,7 +39978,7 @@
       </c>
     </row>
     <row r="234" spans="1:52" x14ac:dyDescent="0.3">
-      <c r="A234" s="13"/>
+      <c r="A234" s="14"/>
       <c r="B234" s="3">
         <v>5</v>
       </c>
@@ -40131,7 +40134,7 @@
       </c>
     </row>
     <row r="235" spans="1:52" x14ac:dyDescent="0.3">
-      <c r="A235" s="13"/>
+      <c r="A235" s="14"/>
       <c r="B235" s="3">
         <v>6</v>
       </c>
@@ -40287,7 +40290,7 @@
       </c>
     </row>
     <row r="236" spans="1:52" x14ac:dyDescent="0.3">
-      <c r="A236" s="13"/>
+      <c r="A236" s="14"/>
       <c r="B236" s="3">
         <v>7</v>
       </c>
@@ -40443,7 +40446,7 @@
       </c>
     </row>
     <row r="237" spans="1:52" x14ac:dyDescent="0.3">
-      <c r="A237" s="13"/>
+      <c r="A237" s="14"/>
       <c r="B237" s="3">
         <v>8</v>
       </c>
@@ -40599,7 +40602,7 @@
       </c>
     </row>
     <row r="238" spans="1:52" x14ac:dyDescent="0.3">
-      <c r="A238" s="13"/>
+      <c r="A238" s="14"/>
       <c r="B238" s="3">
         <v>9</v>
       </c>
@@ -40755,7 +40758,7 @@
       </c>
     </row>
     <row r="239" spans="1:52" x14ac:dyDescent="0.3">
-      <c r="A239" s="13"/>
+      <c r="A239" s="14"/>
       <c r="B239" s="3">
         <v>10</v>
       </c>
@@ -40911,7 +40914,7 @@
       </c>
     </row>
     <row r="240" spans="1:52" x14ac:dyDescent="0.3">
-      <c r="A240" s="13"/>
+      <c r="A240" s="14"/>
       <c r="B240" s="3">
         <v>11</v>
       </c>
@@ -41067,7 +41070,7 @@
       </c>
     </row>
     <row r="241" spans="1:52" x14ac:dyDescent="0.3">
-      <c r="A241" s="13"/>
+      <c r="A241" s="14"/>
       <c r="B241" s="3">
         <v>12</v>
       </c>
@@ -41224,6 +41227,14 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="A218:A229"/>
+    <mergeCell ref="A230:A241"/>
+    <mergeCell ref="A146:A157"/>
+    <mergeCell ref="A158:A169"/>
+    <mergeCell ref="A170:A181"/>
+    <mergeCell ref="A182:A193"/>
+    <mergeCell ref="A194:A205"/>
+    <mergeCell ref="A206:A217"/>
     <mergeCell ref="A134:A145"/>
     <mergeCell ref="A2:A13"/>
     <mergeCell ref="A14:A25"/>
@@ -41236,14 +41247,6 @@
     <mergeCell ref="A98:A109"/>
     <mergeCell ref="A110:A121"/>
     <mergeCell ref="A122:A133"/>
-    <mergeCell ref="A218:A229"/>
-    <mergeCell ref="A230:A241"/>
-    <mergeCell ref="A146:A157"/>
-    <mergeCell ref="A158:A169"/>
-    <mergeCell ref="A170:A181"/>
-    <mergeCell ref="A182:A193"/>
-    <mergeCell ref="A194:A205"/>
-    <mergeCell ref="A206:A217"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -41254,8 +41257,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B3F9A8FF-DAD7-49A4-814C-DD9473CB95E8}">
   <dimension ref="A1:C11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -41279,7 +41282,7 @@
         <v>607499.99</v>
       </c>
       <c r="C2" s="12">
-        <v>260000</v>
+        <v>520000</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
@@ -41289,8 +41292,8 @@
       <c r="B3" s="10">
         <v>1942023.6</v>
       </c>
-      <c r="C3" s="12">
-        <v>260000</v>
+      <c r="C3" s="13">
+        <v>520000</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
@@ -41300,8 +41303,8 @@
       <c r="B4" s="10">
         <v>1955580.2</v>
       </c>
-      <c r="C4" s="12">
-        <v>260000</v>
+      <c r="C4" s="13">
+        <v>520000</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
@@ -41311,8 +41314,8 @@
       <c r="B5" s="10">
         <v>1762308.48</v>
       </c>
-      <c r="C5" s="12">
-        <v>260000</v>
+      <c r="C5" s="13">
+        <v>520000</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
@@ -41322,8 +41325,8 @@
       <c r="B6" s="10">
         <v>990799.69</v>
       </c>
-      <c r="C6" s="12">
-        <v>260000</v>
+      <c r="C6" s="13">
+        <v>520000</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
@@ -41333,8 +41336,8 @@
       <c r="B7" s="10">
         <v>5460000</v>
       </c>
-      <c r="C7" s="12">
-        <v>260000</v>
+      <c r="C7" s="13">
+        <v>520000</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
@@ -41344,8 +41347,8 @@
       <c r="B8" s="10">
         <v>780000</v>
       </c>
-      <c r="C8" s="12">
-        <v>260000</v>
+      <c r="C8" s="13">
+        <v>520000</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
@@ -41355,8 +41358,8 @@
       <c r="B9" s="10">
         <v>782515.84</v>
       </c>
-      <c r="C9" s="12">
-        <v>260000</v>
+      <c r="C9" s="13">
+        <v>520000</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
@@ -41366,8 +41369,8 @@
       <c r="B10" s="10">
         <v>2038400</v>
       </c>
-      <c r="C10" s="12">
-        <v>260000</v>
+      <c r="C10" s="13">
+        <v>520000</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
@@ -41377,13 +41380,14 @@
       <c r="B11" s="10">
         <v>1977300</v>
       </c>
-      <c r="C11" s="12">
-        <v>260000</v>
+      <c r="C11" s="13">
+        <v>520000</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/data/dataForExp.xlsx
+++ b/data/dataForExp.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Mirror系统开发\Mirror\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{217A3427-39AF-45D7-8261-EF60B966D058}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70EC49AC-5845-4B6E-B557-2A623D11C7B0}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="18220" windowHeight="11620" firstSheet="1" activeTab="6" xr2:uid="{7869B96A-7811-4EF3-9176-2B0373B8E4EA}"/>
   </bookViews>
@@ -2256,7 +2256,7 @@
   <dimension ref="A1:R11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="L6" sqref="L6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -41227,14 +41227,6 @@
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="A218:A229"/>
-    <mergeCell ref="A230:A241"/>
-    <mergeCell ref="A146:A157"/>
-    <mergeCell ref="A158:A169"/>
-    <mergeCell ref="A170:A181"/>
-    <mergeCell ref="A182:A193"/>
-    <mergeCell ref="A194:A205"/>
-    <mergeCell ref="A206:A217"/>
     <mergeCell ref="A134:A145"/>
     <mergeCell ref="A2:A13"/>
     <mergeCell ref="A14:A25"/>
@@ -41247,6 +41239,14 @@
     <mergeCell ref="A98:A109"/>
     <mergeCell ref="A110:A121"/>
     <mergeCell ref="A122:A133"/>
+    <mergeCell ref="A218:A229"/>
+    <mergeCell ref="A230:A241"/>
+    <mergeCell ref="A146:A157"/>
+    <mergeCell ref="A158:A169"/>
+    <mergeCell ref="A170:A181"/>
+    <mergeCell ref="A182:A193"/>
+    <mergeCell ref="A194:A205"/>
+    <mergeCell ref="A206:A217"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -41258,7 +41258,7 @@
   <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -41282,7 +41282,7 @@
         <v>607499.99</v>
       </c>
       <c r="C2" s="12">
-        <v>520000</v>
+        <v>2600000</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
@@ -41293,7 +41293,7 @@
         <v>1942023.6</v>
       </c>
       <c r="C3" s="13">
-        <v>520000</v>
+        <v>2600000</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
@@ -41304,7 +41304,7 @@
         <v>1955580.2</v>
       </c>
       <c r="C4" s="13">
-        <v>520000</v>
+        <v>2600000</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
@@ -41315,7 +41315,7 @@
         <v>1762308.48</v>
       </c>
       <c r="C5" s="13">
-        <v>520000</v>
+        <v>2600000</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
@@ -41326,7 +41326,7 @@
         <v>990799.69</v>
       </c>
       <c r="C6" s="13">
-        <v>520000</v>
+        <v>2600000</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
@@ -41337,7 +41337,7 @@
         <v>5460000</v>
       </c>
       <c r="C7" s="13">
-        <v>520000</v>
+        <v>2600000</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
@@ -41348,7 +41348,7 @@
         <v>780000</v>
       </c>
       <c r="C8" s="13">
-        <v>520000</v>
+        <v>2600000</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
@@ -41359,7 +41359,7 @@
         <v>782515.84</v>
       </c>
       <c r="C9" s="13">
-        <v>520000</v>
+        <v>2600000</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
@@ -41370,7 +41370,7 @@
         <v>2038400</v>
       </c>
       <c r="C10" s="13">
-        <v>520000</v>
+        <v>2600000</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
@@ -41381,7 +41381,7 @@
         <v>1977300</v>
       </c>
       <c r="C11" s="13">
-        <v>520000</v>
+        <v>2600000</v>
       </c>
     </row>
   </sheetData>

--- a/data/dataForExp.xlsx
+++ b/data/dataForExp.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Mirror系统开发\Mirror\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\XF\Desktop\Mirror\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70EC49AC-5845-4B6E-B557-2A623D11C7B0}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{250C4278-F868-4627-9772-81C0AFF9C3C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="18220" windowHeight="11620" firstSheet="1" activeTab="6" xr2:uid="{7869B96A-7811-4EF3-9176-2B0373B8E4EA}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="18220" windowHeight="11620" firstSheet="1" activeTab="1" xr2:uid="{7869B96A-7811-4EF3-9176-2B0373B8E4EA}"/>
   </bookViews>
   <sheets>
     <sheet name="purchaseProb2" sheetId="1" r:id="rId1"/>
@@ -2255,8 +2255,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DEC29CC8-BF99-44B8-B3D7-F64A68BBF293}">
   <dimension ref="A1:R11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L6" sqref="L6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M10" sqref="M10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -2321,560 +2321,50 @@
       <c r="A2" t="s">
         <v>23</v>
       </c>
-      <c r="B2">
-        <v>0.36352546171342942</v>
-      </c>
-      <c r="C2">
-        <v>0.48726061173716934</v>
-      </c>
-      <c r="D2">
-        <v>0.53405661166678897</v>
-      </c>
-      <c r="E2">
-        <v>0.43831439183549703</v>
-      </c>
-      <c r="F2">
-        <v>0.43255046525265539</v>
-      </c>
-      <c r="G2">
-        <v>0.51246919539881164</v>
-      </c>
-      <c r="H2">
-        <v>0.41152405127973102</v>
-      </c>
-      <c r="I2">
-        <v>0.39910362063953625</v>
-      </c>
-      <c r="J2">
-        <v>0.41234655797903608</v>
-      </c>
-      <c r="K2">
-        <v>0.45499631814897001</v>
-      </c>
-      <c r="L2">
-        <v>0.44336735511033548</v>
-      </c>
-      <c r="M2">
-        <v>0.50945785794991771</v>
-      </c>
-      <c r="N2">
-        <v>0.57571863651478461</v>
-      </c>
-      <c r="O2">
-        <v>0.5231913182590906</v>
-      </c>
-      <c r="P2">
-        <v>0.50789451296391064</v>
-      </c>
-      <c r="Q2">
-        <v>0.58079721304066301</v>
-      </c>
-      <c r="R2">
-        <v>0.53954981075675645</v>
-      </c>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>24</v>
       </c>
-      <c r="B3">
-        <v>0.49793220396535504</v>
-      </c>
-      <c r="C3">
-        <v>0.55095755305132277</v>
-      </c>
-      <c r="D3">
-        <v>0.15342389303797066</v>
-      </c>
-      <c r="E3">
-        <v>0.27008091502321635</v>
-      </c>
-      <c r="F3">
-        <v>0.23582265557290033</v>
-      </c>
-      <c r="G3">
-        <v>0.49688270115029703</v>
-      </c>
-      <c r="H3">
-        <v>0.88821079540526204</v>
-      </c>
-      <c r="I3">
-        <v>0.92178847248111384</v>
-      </c>
-      <c r="J3">
-        <v>0.65529903314583826</v>
-      </c>
-      <c r="K3">
-        <v>0.83996757253729903</v>
-      </c>
-      <c r="L3">
-        <v>0.60141194550009702</v>
-      </c>
-      <c r="M3">
-        <v>0.57025837334224572</v>
-      </c>
-      <c r="N3">
-        <v>0.40950699538476965</v>
-      </c>
-      <c r="O3">
-        <v>0.42061433365157452</v>
-      </c>
-      <c r="P3">
-        <v>0.36435791362007974</v>
-      </c>
-      <c r="Q3">
-        <v>0.44613519130622475</v>
-      </c>
-      <c r="R3">
-        <v>0.53454350559767339</v>
-      </c>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>25</v>
       </c>
-      <c r="B4">
-        <v>0.41522036257955464</v>
-      </c>
-      <c r="C4">
-        <v>0.54388011512752787</v>
-      </c>
-      <c r="D4">
-        <v>0.59415651460818142</v>
-      </c>
-      <c r="E4">
-        <v>0.4102754790334503</v>
-      </c>
-      <c r="F4">
-        <v>0.68548622055519748</v>
-      </c>
-      <c r="G4">
-        <v>0.44232997128049606</v>
-      </c>
-      <c r="H4">
-        <v>0.32124247095292591</v>
-      </c>
-      <c r="I4">
-        <v>0.39390277634260512</v>
-      </c>
-      <c r="J4">
-        <v>0.46951184625357778</v>
-      </c>
-      <c r="K4">
-        <v>0.46584057883596519</v>
-      </c>
-      <c r="L4">
-        <v>0.27873757345433392</v>
-      </c>
-      <c r="M4">
-        <v>0.2662557963806057</v>
-      </c>
-      <c r="N4">
-        <v>0.45259890234440314</v>
-      </c>
-      <c r="O4">
-        <v>0.46075315371538517</v>
-      </c>
-      <c r="P4">
-        <v>0.38588840352165443</v>
-      </c>
-      <c r="Q4">
-        <v>0.43865396787653371</v>
-      </c>
-      <c r="R4">
-        <v>0.41939848693876219</v>
-      </c>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>4</v>
       </c>
-      <c r="B5">
-        <v>0.45657628327245481</v>
-      </c>
-      <c r="C5">
-        <v>0.52972523927993831</v>
-      </c>
-      <c r="D5">
-        <v>0.25359039794029126</v>
-      </c>
-      <c r="E5">
-        <v>0.35419765342935672</v>
-      </c>
-      <c r="F5">
-        <v>0.6995382069608943</v>
-      </c>
-      <c r="G5">
-        <v>0.39557048853495236</v>
-      </c>
-      <c r="H5">
-        <v>0.40069026164051441</v>
-      </c>
-      <c r="I5">
-        <v>0.36009728841255284</v>
-      </c>
-      <c r="J5">
-        <v>0.34803560867017669</v>
-      </c>
-      <c r="K5">
-        <v>0.35739797196601336</v>
-      </c>
-      <c r="L5">
-        <v>0.28532276472057394</v>
-      </c>
-      <c r="M5">
-        <v>0.32030069895156388</v>
-      </c>
-      <c r="N5">
-        <v>0.41566298209328872</v>
-      </c>
-      <c r="O5">
-        <v>0.4652130226113641</v>
-      </c>
-      <c r="P5">
-        <v>0.48636402306233606</v>
-      </c>
-      <c r="Q5">
-        <v>0.34139806329055056</v>
-      </c>
-      <c r="R5">
-        <v>0.37934804566609748</v>
-      </c>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>5</v>
       </c>
-      <c r="B6">
-        <v>0.52894914448503016</v>
-      </c>
-      <c r="C6">
-        <v>0.59342218059409169</v>
-      </c>
-      <c r="D6">
-        <v>0.41385680578400424</v>
-      </c>
-      <c r="E6">
-        <v>0.52243113024163745</v>
-      </c>
-      <c r="F6">
-        <v>0.5028103972811393</v>
-      </c>
-      <c r="G6">
-        <v>0.37219074716218048</v>
-      </c>
-      <c r="H6">
-        <v>0.3898564720012978</v>
-      </c>
-      <c r="I6">
-        <v>0.35749686626408728</v>
-      </c>
-      <c r="J6">
-        <v>0.33612617361298058</v>
-      </c>
-      <c r="K6">
-        <v>0.34113158093552054</v>
-      </c>
-      <c r="L6">
-        <v>0.32483391231801428</v>
-      </c>
-      <c r="M6">
-        <v>0.38785682716526171</v>
-      </c>
-      <c r="N6">
-        <v>0.50184679601255577</v>
-      </c>
-      <c r="O6">
-        <v>0.44291367813146931</v>
-      </c>
-      <c r="P6">
-        <v>0.39306523348884592</v>
-      </c>
-      <c r="Q6">
-        <v>0.34139806329055056</v>
-      </c>
-      <c r="R6">
-        <v>0.42941109725692839</v>
-      </c>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>6</v>
       </c>
-      <c r="B7">
-        <v>0.53928812465825526</v>
-      </c>
-      <c r="C7">
-        <v>0.66419655983203985</v>
-      </c>
-      <c r="D7">
-        <v>0.71435632049096609</v>
-      </c>
-      <c r="E7">
-        <v>0.71870351985596492</v>
-      </c>
-      <c r="F7">
-        <v>0.61522628852671357</v>
-      </c>
-      <c r="G7">
-        <v>0.7462666091265302</v>
-      </c>
-      <c r="H7">
-        <v>0.54152952695033041</v>
-      </c>
-      <c r="I7">
-        <v>0.61493865896217781</v>
-      </c>
-      <c r="J7">
-        <v>0.43854731510486772</v>
-      </c>
-      <c r="K7">
-        <v>0.22184471337857359</v>
-      </c>
-      <c r="L7">
-        <v>0.58165637170137674</v>
-      </c>
-      <c r="M7">
-        <v>0.39461243998663148</v>
-      </c>
-      <c r="N7">
-        <v>0.41566298209328872</v>
-      </c>
-      <c r="O7">
-        <v>0.21546036443654248</v>
-      </c>
-      <c r="P7">
-        <v>0.41459572339042061</v>
-      </c>
-      <c r="Q7">
-        <v>0.36384173357962357</v>
-      </c>
-      <c r="R7">
-        <v>0.25919672184810322</v>
-      </c>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>7</v>
       </c>
-      <c r="B8">
-        <v>0.97352529193370707</v>
-      </c>
-      <c r="C8">
-        <v>1.3072270842916178E-2</v>
-      </c>
-      <c r="D8">
-        <v>0.53405661166678897</v>
-      </c>
-      <c r="E8">
-        <v>0.7747813454600585</v>
-      </c>
-      <c r="F8">
-        <v>0.71359019336659113</v>
-      </c>
-      <c r="G8">
-        <v>0.83978557461761771</v>
-      </c>
-      <c r="H8">
-        <v>0.70764763475165182</v>
-      </c>
-      <c r="I8">
-        <v>0.64874414689223003</v>
-      </c>
-      <c r="J8">
-        <v>0.92921603946135045</v>
-      </c>
-      <c r="K8">
-        <v>0.53632827330143384</v>
-      </c>
-      <c r="L8">
-        <v>0.4894636939740159</v>
-      </c>
-      <c r="M8">
-        <v>0.52972469641402697</v>
-      </c>
-      <c r="N8">
-        <v>0.181735487169564</v>
-      </c>
-      <c r="O8">
-        <v>0.41169459585961665</v>
-      </c>
-      <c r="P8">
-        <v>0.54377866279986842</v>
-      </c>
-      <c r="Q8">
-        <v>0.85012125650953951</v>
-      </c>
-      <c r="R8">
-        <v>0.90501008736982214</v>
-      </c>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>8</v>
       </c>
-      <c r="B9">
-        <v>0.36352546171342942</v>
-      </c>
-      <c r="C9">
-        <v>0.49433804966096412</v>
-      </c>
-      <c r="D9">
-        <v>0.5140233106863249</v>
-      </c>
-      <c r="E9">
-        <v>0.32615874062730987</v>
-      </c>
-      <c r="F9">
-        <v>0.24987464197859716</v>
-      </c>
-      <c r="G9">
-        <v>0.39557048853495236</v>
-      </c>
-      <c r="H9">
-        <v>0.3826339455751534</v>
-      </c>
-      <c r="I9">
-        <v>0.41210573138186407</v>
-      </c>
-      <c r="J9">
-        <v>0.42901976705911077</v>
-      </c>
-      <c r="K9">
-        <v>0.57970531604941455</v>
-      </c>
-      <c r="L9">
-        <v>0.68043424069497771</v>
-      </c>
-      <c r="M9">
-        <v>0.81346043491155773</v>
-      </c>
-      <c r="N9">
-        <v>0.69268238397664694</v>
-      </c>
-      <c r="O9">
-        <v>0.80862292760174381</v>
-      </c>
-      <c r="P9">
-        <v>0.94568114096259492</v>
-      </c>
-      <c r="Q9">
-        <v>0.76034657535324723</v>
-      </c>
-      <c r="R9">
-        <v>0.66971374489291691</v>
-      </c>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>9</v>
       </c>
-      <c r="B10">
-        <v>0.37386444188665446</v>
-      </c>
-      <c r="C10">
-        <v>0.52264780135614342</v>
-      </c>
-      <c r="D10">
-        <v>0.67428971853003783</v>
-      </c>
-      <c r="E10">
-        <v>0.71870351985596492</v>
-      </c>
-      <c r="F10">
-        <v>0.5028103972811393</v>
-      </c>
-      <c r="G10">
-        <v>0.5592286781443554</v>
-      </c>
-      <c r="H10">
-        <v>0.57041963265490803</v>
-      </c>
-      <c r="I10">
-        <v>0.46671459649964081</v>
-      </c>
-      <c r="J10">
-        <v>0.57193298774546497</v>
-      </c>
-      <c r="K10">
-        <v>0.69899218360636151</v>
-      </c>
-      <c r="L10">
-        <v>0.83189363981849929</v>
-      </c>
-      <c r="M10">
-        <v>0.76617114516196927</v>
-      </c>
-      <c r="N10">
-        <v>0.84658205168962364</v>
-      </c>
-      <c r="O10">
-        <v>0.79970318980978594</v>
-      </c>
-      <c r="P10">
-        <v>0.61554696247178387</v>
-      </c>
-      <c r="Q10">
-        <v>0.50598497874375281</v>
-      </c>
-      <c r="R10">
-        <v>0.43942370757509458</v>
-      </c>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>10</v>
-      </c>
-      <c r="B11">
-        <v>0.48759322379212994</v>
-      </c>
-      <c r="C11">
-        <v>0.60049961851788647</v>
-      </c>
-      <c r="D11">
-        <v>0.61418981558864549</v>
-      </c>
-      <c r="E11">
-        <v>0.46635330463754382</v>
-      </c>
-      <c r="F11">
-        <v>0.36229053322417148</v>
-      </c>
-      <c r="G11">
-        <v>0.23970554604980659</v>
-      </c>
-      <c r="H11">
-        <v>0.38624520878822555</v>
-      </c>
-      <c r="I11">
-        <v>0.42510784212419184</v>
-      </c>
-      <c r="J11">
-        <v>0.40996467096759687</v>
-      </c>
-      <c r="K11">
-        <v>0.50379549124044831</v>
-      </c>
-      <c r="L11">
-        <v>0.48287850270777588</v>
-      </c>
-      <c r="M11">
-        <v>0.44190172973621994</v>
-      </c>
-      <c r="N11">
-        <v>0.5080027827210748</v>
-      </c>
-      <c r="O11">
-        <v>0.45183341592342724</v>
-      </c>
-      <c r="P11">
-        <v>0.34282742371850516</v>
-      </c>
-      <c r="Q11">
-        <v>0.37132295700931461</v>
-      </c>
-      <c r="R11">
-        <v>0.42440479209784532</v>
       </c>
     </row>
   </sheetData>
@@ -3020,7 +2510,7 @@
   <dimension ref="A1:C51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="B2" sqref="B2:B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -3037,90 +2527,70 @@
       <c r="A2" s="12">
         <v>1</v>
       </c>
-      <c r="B2" s="2">
-        <v>2.0140355191035755</v>
-      </c>
+      <c r="B2" s="2"/>
       <c r="C2" s="9"/>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="12">
         <v>2</v>
       </c>
-      <c r="B3" s="2">
-        <v>2.5322948769537623</v>
-      </c>
+      <c r="B3" s="2"/>
       <c r="C3" s="9"/>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="12">
         <v>3</v>
       </c>
-      <c r="B4" s="2">
-        <v>3.0982488029597595</v>
-      </c>
+      <c r="B4" s="2"/>
       <c r="C4" s="9"/>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="12">
         <v>4</v>
       </c>
-      <c r="B5" s="2">
-        <v>3.6613684087478289</v>
-      </c>
+      <c r="B5" s="2"/>
       <c r="C5" s="9"/>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="12">
         <v>5</v>
       </c>
-      <c r="B6" s="2">
-        <v>2.4377188212424281</v>
-      </c>
+      <c r="B6" s="2"/>
       <c r="C6" s="9"/>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="12">
         <v>6</v>
       </c>
-      <c r="B7" s="2">
-        <v>3.6912050894939767</v>
-      </c>
+      <c r="B7" s="2"/>
       <c r="C7" s="9"/>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="12">
         <v>7</v>
       </c>
-      <c r="B8" s="2">
-        <v>7.8701742759321771</v>
-      </c>
+      <c r="B8" s="2"/>
       <c r="C8" s="9"/>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="12">
         <v>8</v>
       </c>
-      <c r="B9" s="2">
-        <v>2.0702522678667754</v>
-      </c>
+      <c r="B9" s="2"/>
       <c r="C9" s="9"/>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="12">
         <v>9</v>
       </c>
-      <c r="B10" s="2">
-        <v>4.9143551486598351</v>
-      </c>
+      <c r="B10" s="2"/>
       <c r="C10" s="9"/>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" s="12">
         <v>10</v>
       </c>
-      <c r="B11" s="2">
-        <v>2.5630892048513934</v>
-      </c>
+      <c r="B11" s="2"/>
       <c r="C11" s="9"/>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
@@ -41227,6 +40697,14 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="A218:A229"/>
+    <mergeCell ref="A230:A241"/>
+    <mergeCell ref="A146:A157"/>
+    <mergeCell ref="A158:A169"/>
+    <mergeCell ref="A170:A181"/>
+    <mergeCell ref="A182:A193"/>
+    <mergeCell ref="A194:A205"/>
+    <mergeCell ref="A206:A217"/>
     <mergeCell ref="A134:A145"/>
     <mergeCell ref="A2:A13"/>
     <mergeCell ref="A14:A25"/>
@@ -41239,14 +40717,6 @@
     <mergeCell ref="A98:A109"/>
     <mergeCell ref="A110:A121"/>
     <mergeCell ref="A122:A133"/>
-    <mergeCell ref="A218:A229"/>
-    <mergeCell ref="A230:A241"/>
-    <mergeCell ref="A146:A157"/>
-    <mergeCell ref="A158:A169"/>
-    <mergeCell ref="A170:A181"/>
-    <mergeCell ref="A182:A193"/>
-    <mergeCell ref="A194:A205"/>
-    <mergeCell ref="A206:A217"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -41257,8 +40727,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B3F9A8FF-DAD7-49A4-814C-DD9473CB95E8}">
   <dimension ref="A1:C11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C11" sqref="B2:C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -41278,111 +40748,71 @@
       <c r="A2" s="12">
         <v>1</v>
       </c>
-      <c r="B2" s="10">
-        <v>607499.99</v>
-      </c>
-      <c r="C2" s="12">
-        <v>2600000</v>
-      </c>
+      <c r="B2" s="10"/>
+      <c r="C2" s="12"/>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="12">
         <v>2</v>
       </c>
-      <c r="B3" s="10">
-        <v>1942023.6</v>
-      </c>
-      <c r="C3" s="13">
-        <v>2600000</v>
-      </c>
+      <c r="B3" s="10"/>
+      <c r="C3" s="13"/>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="12">
         <v>3</v>
       </c>
-      <c r="B4" s="10">
-        <v>1955580.2</v>
-      </c>
-      <c r="C4" s="13">
-        <v>2600000</v>
-      </c>
+      <c r="B4" s="10"/>
+      <c r="C4" s="13"/>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="12">
         <v>4</v>
       </c>
-      <c r="B5" s="10">
-        <v>1762308.48</v>
-      </c>
-      <c r="C5" s="13">
-        <v>2600000</v>
-      </c>
+      <c r="B5" s="10"/>
+      <c r="C5" s="13"/>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="12">
         <v>5</v>
       </c>
-      <c r="B6" s="10">
-        <v>990799.69</v>
-      </c>
-      <c r="C6" s="13">
-        <v>2600000</v>
-      </c>
+      <c r="B6" s="10"/>
+      <c r="C6" s="13"/>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="12">
         <v>6</v>
       </c>
-      <c r="B7" s="10">
-        <v>5460000</v>
-      </c>
-      <c r="C7" s="13">
-        <v>2600000</v>
-      </c>
+      <c r="B7" s="10"/>
+      <c r="C7" s="13"/>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="12">
         <v>7</v>
       </c>
-      <c r="B8" s="10">
-        <v>780000</v>
-      </c>
-      <c r="C8" s="13">
-        <v>2600000</v>
-      </c>
+      <c r="B8" s="10"/>
+      <c r="C8" s="13"/>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="12">
         <v>8</v>
       </c>
-      <c r="B9" s="10">
-        <v>782515.84</v>
-      </c>
-      <c r="C9" s="13">
-        <v>2600000</v>
-      </c>
+      <c r="B9" s="10"/>
+      <c r="C9" s="13"/>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="12">
         <v>9</v>
       </c>
-      <c r="B10" s="10">
-        <v>2038400</v>
-      </c>
-      <c r="C10" s="13">
-        <v>2600000</v>
-      </c>
+      <c r="B10" s="10"/>
+      <c r="C10" s="13"/>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" s="12">
         <v>10</v>
       </c>
-      <c r="B11" s="10">
-        <v>1977300</v>
-      </c>
-      <c r="C11" s="13">
-        <v>2600000</v>
-      </c>
+      <c r="B11" s="10"/>
+      <c r="C11" s="13"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
